--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="226">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2065,22 +2065,6 @@
     <t xml:space="preserve">Quét mã vạch xác nhận thủ quỹ </t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE AT2006 SET
- InTime= @InTime
- WHERE DivisionID = @DivisionID AND VoucherID= @VoucherID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@InTime
-@DivisionID
-@VoucherID </t>
-  </si>
-  <si>
-    <t>GETDATE()
-@@DivisionID
-@@VoucherID</t>
-  </si>
-  <si>
     <t>VoucherID</t>
   </si>
   <si>
@@ -2101,26 +2085,6 @@
 GETDATE()
 @@DivisionID
 @@VoucherID</t>
-  </si>
-  <si>
-    <t>InTime</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID gọi màn hình Lập phiếu thu - AF0061</t>
-  </si>
-  <si>
-    <t>Thực thi câu SQL này để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006</t>
-  </si>
-  <si>
-    <t>Trường hợp lập xong phiếu thu
-Thực thi câu SQL này để update thời gian hoàn thành phiếu điều phối dưới DB vào bảng AT2006</t>
-  </si>
-  <si>
-    <t>- click LinkSearch Confirm message AFML000395
- + Nếu chọn Có 
-    * Thực thi câu @SQL0001để update dữ liệu
-    * Truyền tham số gọi màn hình AF0061 và thực thi câu @SQL0002 để update dữ liệu nếu lập xong phiếu thu
- + Nếu chọn Không thực thi câu @SQL0001 để update dữ liệu</t>
   </si>
   <si>
     <t>Login
@@ -2134,6 +2098,132 @@
   <si>
     <t>Tạo mới tài liệu
 Xác nhận thủ quỹ (Customize Hoàng Trần) - CustomizeIndex = 51, màn hình này được tạo mới và gắn link vào module T  -&gt; Nghiệp vụ -&gt; M Barcode Quỹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver 2.0 </t>
+  </si>
+  <si>
+    <t>Ver 2.0</t>
+  </si>
+  <si>
+    <t>DeliveryStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE AT2006 SET
+ DeliveryStatus= @DeliveryStatus
+ WHERE DivisionID = @DivisionID AND VoucherID= @VoucherID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DeliveryStatus
+@DivisionID
+@VoucherID </t>
+  </si>
+  <si>
+    <t>1
+@@DivisionID
+@@VoucherID</t>
+  </si>
+  <si>
+    <t>Trường hợp lập xong phiếu thu
+Thực thi câu SQL này để update tình trạng hoàn thành phiếu điều phối dưới DB vào bảng AT2006</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện tồn tại mã vạch</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>@SQL0003</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@VoucherID</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@VoucherID</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Thỏa câu @SQL0003, thực thi câu @SQL0001 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006</t>
+  </si>
+  <si>
+    <t>@VoucherID</t>
+  </si>
+  <si>
+    <t>AFML000397</t>
+  </si>
+  <si>
+    <t>@DivisionID, @ObjectID</t>
+  </si>
+  <si>
+    <t>Truyền 2 tham số @DivisionID và @ObjectID gọi màn hình Lập phiếu thu - AF0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID= @VoucherID AND CashierID LIKE NULL </t>
+  </si>
+  <si>
+    <t>Kiểm tra sự tồn tại của mã vạch và tình trạng cập nhật phiếu điều phối dưới DB</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update tình trạng phiếu điều phối vào bảng AT2006 </t>
+  </si>
+  <si>
+    <t>Update tình trạng đơn hàng vào bảng OT2001</t>
+  </si>
+  <si>
+    <t>@SQL0004</t>
+  </si>
+  <si>
+    <t>@OrderStatus
+@DivisionID
+@OrderID
+@DeliveryStatus</t>
+  </si>
+  <si>
+    <t>3
+@@DivisionID
+@@OrderID
+1</t>
+  </si>
+  <si>
+    <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
+  </si>
+  <si>
+    <t>-Input Check bổ sung thêm Message
+- Data Desinition: sửa lại tham số truyền vào
+- Data Input: Sửa câu @SQL0002, thêm mới câu @SQL0003, @SQL0004
+- Form Func Spec: chỉnh sửa lại Xử lý sự kiện</t>
+  </si>
+  <si>
+    <t>- Luồng nghiệp vụ 1</t>
+  </si>
+  <si>
+    <t>OT2001</t>
+  </si>
+  <si>
+    <t>UPDATE OT2001 SET 
+OrderStatus = 3 
+WHERE DivisionID= @DivisionID AND SOrderID = @SOrderID
+(SELECT SUM(ActualQuantity) FROM AT2007 AT07
+INNER JOIN AT2006 AT06 ON AT06.DivisionID= AT07.DivisionID AND AT06.VoucherID=AT07.VoucherID
+WHERE AT07.DivisioniD = @DivisionID AND AT06.OrderID = @OrderID AND AT06.DeliveryStatus = 1)
+ = 
+(SELECT OrderQuantity FROM OT2002 OT02
+INNER JOIN AT2006 AT06 ON AT06.DivisionID = OT02.DivisionID AND AT06.OrderID=OT02.SOrderID
+WHERE OT02.DivisionID=@DivisionID AND AT06.OrderID=@OrderID)</t>
+  </si>
+  <si>
+    <t>@DivisionID, @ObjectID, @VoucherID</t>
   </si>
 </sst>
 </file>
@@ -2653,7 +2743,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,6 +3099,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3016,6 +3118,204 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3024,235 +3324,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3260,6 +3331,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3268,42 +3360,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3315,6 +3371,111 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3452,6 +3613,922 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226559</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>540203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388484</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1061697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226559" y="4367212"/>
+          <a:ext cx="859291" cy="521494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Click </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t>LinkSearch Form AF0324</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393245</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>366372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1731509</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1233147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Decision 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4356325" y="4193381"/>
+          <a:ext cx="1338264" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Confirm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> message  AFML000395</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2023722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>159883</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2395197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1918606" y="5850731"/>
+          <a:ext cx="1039246" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t>Warn message  AFML000397 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93208</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>242547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369433</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1356972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Decision 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709056" y="4069556"/>
+          <a:ext cx="1458346" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thực</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> thi @SQL0003 Kiểm tra đK mã vạch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1893433</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>625928</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="293478" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5856513" y="4452937"/>
+          <a:ext cx="293478" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Có</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607558</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1311728</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="448200" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4570638" y="5138737"/>
+          <a:ext cx="448200" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Không</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626608</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1530803</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2242456" y="5357812"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>568778</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3410290" y="4395787"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388484</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>799760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93208</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>800950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1085850" y="4626769"/>
+          <a:ext cx="623206" cy="1190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369433</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>799760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393245</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>799760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3167402" y="4626769"/>
+          <a:ext cx="1188923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>821871</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1356972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>821871</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2023722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2437719" y="5183981"/>
+          <a:ext cx="0" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436109</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1924724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1693409</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2420024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Flowchart: Direct Access Storage 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4399189" y="5751733"/>
+          <a:ext cx="1257300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> @SQL0001 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700">
+            <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>423521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521834</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1175996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Flowchart: Direct Access Storage 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6412025" y="4250530"/>
+          <a:ext cx="1891394" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Gọi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> AF0061</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700">
+            <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> @SQL0002 @SQL0001 vào AT2006</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Update @SQL0004 vào OT2001</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700">
+            <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1731509</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>799759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>799760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5694589" y="4626768"/>
+          <a:ext cx="717436" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1062377</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1233147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1064759</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1924724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5025457" y="5060156"/>
+          <a:ext cx="2382" cy="691577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4246,65 +5323,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="158"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="171" t="s">
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="159"/>
+      <c r="I1" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="171"/>
+      <c r="J1" s="159"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="171" t="s">
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="167" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="156"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -4315,56 +5392,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="163"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -4375,384 +5452,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="165"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="153"/>
+      <c r="R20" s="153"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="169"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="171"/>
+      <c r="R26" s="171"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="160"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="160"/>
-      <c r="AP28" s="160"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="160"/>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="160"/>
-      <c r="AZ28" s="160"/>
-      <c r="BA28" s="160"/>
-      <c r="BB28" s="160"/>
-      <c r="BC28" s="160"/>
-      <c r="BD28" s="160"/>
-      <c r="BE28" s="160"/>
-      <c r="BF28" s="160"/>
-      <c r="BG28" s="160"/>
-      <c r="BH28" s="160"/>
-      <c r="BI28" s="160"/>
-      <c r="BJ28" s="160"/>
-      <c r="BK28" s="160"/>
-      <c r="BL28" s="160"/>
-      <c r="BM28" s="160"/>
-      <c r="BN28" s="160"/>
-      <c r="BO28" s="160"/>
-      <c r="BP28" s="160"/>
-      <c r="BQ28" s="160"/>
-      <c r="BR28" s="160"/>
-      <c r="BS28" s="160"/>
-      <c r="BT28" s="160"/>
-      <c r="BU28" s="160"/>
-      <c r="BV28" s="160"/>
-      <c r="BW28" s="160"/>
-      <c r="BX28" s="160"/>
-      <c r="BY28" s="160"/>
-      <c r="BZ28" s="160"/>
-      <c r="CA28" s="160"/>
-      <c r="CB28" s="160"/>
-      <c r="CC28" s="160"/>
-      <c r="CD28" s="160"/>
-      <c r="CE28" s="160"/>
-      <c r="CF28" s="160"/>
-      <c r="CG28" s="160"/>
-      <c r="CH28" s="160"/>
-      <c r="CI28" s="160"/>
-      <c r="CJ28" s="160"/>
-      <c r="CK28" s="160"/>
-      <c r="CL28" s="160"/>
-      <c r="CM28" s="160"/>
-      <c r="CN28" s="160"/>
-      <c r="CO28" s="160"/>
-      <c r="CP28" s="160"/>
-      <c r="CQ28" s="160"/>
-      <c r="CR28" s="160"/>
-      <c r="CS28" s="160"/>
-      <c r="CT28" s="160"/>
-      <c r="CU28" s="160"/>
-      <c r="CV28" s="160"/>
-      <c r="CW28" s="160"/>
-      <c r="CX28" s="160"/>
-      <c r="CY28" s="160"/>
-      <c r="CZ28" s="160"/>
-      <c r="DA28" s="160"/>
-      <c r="DB28" s="160"/>
-      <c r="DC28" s="160"/>
-      <c r="DD28" s="160"/>
-      <c r="DE28" s="160"/>
-      <c r="DF28" s="160"/>
-      <c r="DG28" s="160"/>
-      <c r="DH28" s="160"/>
-      <c r="DI28" s="160"/>
-      <c r="DJ28" s="160"/>
-      <c r="DK28" s="160"/>
-      <c r="DL28" s="160"/>
-      <c r="DM28" s="160"/>
-      <c r="DN28" s="160"/>
-      <c r="DO28" s="160"/>
-      <c r="DP28" s="160"/>
-      <c r="DQ28" s="160"/>
-      <c r="DR28" s="160"/>
-      <c r="DS28" s="160"/>
-      <c r="DT28" s="160"/>
-      <c r="DU28" s="160"/>
-      <c r="DV28" s="160"/>
-      <c r="DW28" s="160"/>
-      <c r="DX28" s="160"/>
-      <c r="DY28" s="160"/>
-      <c r="DZ28" s="160"/>
-      <c r="EA28" s="160"/>
-      <c r="EB28" s="160"/>
-      <c r="EC28" s="160"/>
-      <c r="ED28" s="160"/>
-      <c r="EE28" s="160"/>
-      <c r="EF28" s="160"/>
-      <c r="EG28" s="160"/>
-      <c r="EH28" s="160"/>
-      <c r="EI28" s="160"/>
-      <c r="EJ28" s="160"/>
-      <c r="EK28" s="160"/>
-      <c r="EL28" s="160"/>
-      <c r="EM28" s="160"/>
-      <c r="EN28" s="160"/>
-      <c r="EO28" s="160"/>
-      <c r="EP28" s="160"/>
-      <c r="EQ28" s="160"/>
-      <c r="ER28" s="160"/>
-      <c r="ES28" s="160"/>
-      <c r="ET28" s="160"/>
-      <c r="EU28" s="160"/>
-      <c r="EV28" s="160"/>
-      <c r="EW28" s="160"/>
-      <c r="EX28" s="160"/>
-      <c r="EY28" s="160"/>
-      <c r="EZ28" s="160"/>
-      <c r="FA28" s="160"/>
-      <c r="FB28" s="160"/>
-      <c r="FC28" s="160"/>
-      <c r="FD28" s="160"/>
-      <c r="FE28" s="160"/>
-      <c r="FF28" s="160"/>
-      <c r="FG28" s="160"/>
-      <c r="FH28" s="160"/>
-      <c r="FI28" s="160"/>
-      <c r="FJ28" s="160"/>
-      <c r="FK28" s="160"/>
-      <c r="FL28" s="160"/>
-      <c r="FM28" s="160"/>
-      <c r="FN28" s="160"/>
-      <c r="FO28" s="160"/>
-      <c r="FP28" s="160"/>
-      <c r="FQ28" s="160"/>
-      <c r="FR28" s="160"/>
-      <c r="FS28" s="160"/>
-      <c r="FT28" s="160"/>
-      <c r="FU28" s="160"/>
-      <c r="FV28" s="160"/>
-      <c r="FW28" s="160"/>
-      <c r="FX28" s="160"/>
-      <c r="FY28" s="160"/>
-      <c r="FZ28" s="160"/>
-      <c r="GA28" s="160"/>
-      <c r="GB28" s="160"/>
-      <c r="GC28" s="160"/>
-      <c r="GD28" s="160"/>
-      <c r="GE28" s="160"/>
-      <c r="GF28" s="160"/>
-      <c r="GG28" s="160"/>
-      <c r="GH28" s="160"/>
-      <c r="GI28" s="160"/>
-      <c r="GJ28" s="160"/>
-      <c r="GK28" s="160"/>
-      <c r="GL28" s="160"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="172"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="172"/>
+      <c r="AJ28" s="172"/>
+      <c r="AK28" s="172"/>
+      <c r="AL28" s="172"/>
+      <c r="AM28" s="172"/>
+      <c r="AN28" s="172"/>
+      <c r="AO28" s="172"/>
+      <c r="AP28" s="172"/>
+      <c r="AQ28" s="172"/>
+      <c r="AR28" s="172"/>
+      <c r="AS28" s="172"/>
+      <c r="AT28" s="172"/>
+      <c r="AU28" s="172"/>
+      <c r="AV28" s="172"/>
+      <c r="AW28" s="172"/>
+      <c r="AX28" s="172"/>
+      <c r="AY28" s="172"/>
+      <c r="AZ28" s="172"/>
+      <c r="BA28" s="172"/>
+      <c r="BB28" s="172"/>
+      <c r="BC28" s="172"/>
+      <c r="BD28" s="172"/>
+      <c r="BE28" s="172"/>
+      <c r="BF28" s="172"/>
+      <c r="BG28" s="172"/>
+      <c r="BH28" s="172"/>
+      <c r="BI28" s="172"/>
+      <c r="BJ28" s="172"/>
+      <c r="BK28" s="172"/>
+      <c r="BL28" s="172"/>
+      <c r="BM28" s="172"/>
+      <c r="BN28" s="172"/>
+      <c r="BO28" s="172"/>
+      <c r="BP28" s="172"/>
+      <c r="BQ28" s="172"/>
+      <c r="BR28" s="172"/>
+      <c r="BS28" s="172"/>
+      <c r="BT28" s="172"/>
+      <c r="BU28" s="172"/>
+      <c r="BV28" s="172"/>
+      <c r="BW28" s="172"/>
+      <c r="BX28" s="172"/>
+      <c r="BY28" s="172"/>
+      <c r="BZ28" s="172"/>
+      <c r="CA28" s="172"/>
+      <c r="CB28" s="172"/>
+      <c r="CC28" s="172"/>
+      <c r="CD28" s="172"/>
+      <c r="CE28" s="172"/>
+      <c r="CF28" s="172"/>
+      <c r="CG28" s="172"/>
+      <c r="CH28" s="172"/>
+      <c r="CI28" s="172"/>
+      <c r="CJ28" s="172"/>
+      <c r="CK28" s="172"/>
+      <c r="CL28" s="172"/>
+      <c r="CM28" s="172"/>
+      <c r="CN28" s="172"/>
+      <c r="CO28" s="172"/>
+      <c r="CP28" s="172"/>
+      <c r="CQ28" s="172"/>
+      <c r="CR28" s="172"/>
+      <c r="CS28" s="172"/>
+      <c r="CT28" s="172"/>
+      <c r="CU28" s="172"/>
+      <c r="CV28" s="172"/>
+      <c r="CW28" s="172"/>
+      <c r="CX28" s="172"/>
+      <c r="CY28" s="172"/>
+      <c r="CZ28" s="172"/>
+      <c r="DA28" s="172"/>
+      <c r="DB28" s="172"/>
+      <c r="DC28" s="172"/>
+      <c r="DD28" s="172"/>
+      <c r="DE28" s="172"/>
+      <c r="DF28" s="172"/>
+      <c r="DG28" s="172"/>
+      <c r="DH28" s="172"/>
+      <c r="DI28" s="172"/>
+      <c r="DJ28" s="172"/>
+      <c r="DK28" s="172"/>
+      <c r="DL28" s="172"/>
+      <c r="DM28" s="172"/>
+      <c r="DN28" s="172"/>
+      <c r="DO28" s="172"/>
+      <c r="DP28" s="172"/>
+      <c r="DQ28" s="172"/>
+      <c r="DR28" s="172"/>
+      <c r="DS28" s="172"/>
+      <c r="DT28" s="172"/>
+      <c r="DU28" s="172"/>
+      <c r="DV28" s="172"/>
+      <c r="DW28" s="172"/>
+      <c r="DX28" s="172"/>
+      <c r="DY28" s="172"/>
+      <c r="DZ28" s="172"/>
+      <c r="EA28" s="172"/>
+      <c r="EB28" s="172"/>
+      <c r="EC28" s="172"/>
+      <c r="ED28" s="172"/>
+      <c r="EE28" s="172"/>
+      <c r="EF28" s="172"/>
+      <c r="EG28" s="172"/>
+      <c r="EH28" s="172"/>
+      <c r="EI28" s="172"/>
+      <c r="EJ28" s="172"/>
+      <c r="EK28" s="172"/>
+      <c r="EL28" s="172"/>
+      <c r="EM28" s="172"/>
+      <c r="EN28" s="172"/>
+      <c r="EO28" s="172"/>
+      <c r="EP28" s="172"/>
+      <c r="EQ28" s="172"/>
+      <c r="ER28" s="172"/>
+      <c r="ES28" s="172"/>
+      <c r="ET28" s="172"/>
+      <c r="EU28" s="172"/>
+      <c r="EV28" s="172"/>
+      <c r="EW28" s="172"/>
+      <c r="EX28" s="172"/>
+      <c r="EY28" s="172"/>
+      <c r="EZ28" s="172"/>
+      <c r="FA28" s="172"/>
+      <c r="FB28" s="172"/>
+      <c r="FC28" s="172"/>
+      <c r="FD28" s="172"/>
+      <c r="FE28" s="172"/>
+      <c r="FF28" s="172"/>
+      <c r="FG28" s="172"/>
+      <c r="FH28" s="172"/>
+      <c r="FI28" s="172"/>
+      <c r="FJ28" s="172"/>
+      <c r="FK28" s="172"/>
+      <c r="FL28" s="172"/>
+      <c r="FM28" s="172"/>
+      <c r="FN28" s="172"/>
+      <c r="FO28" s="172"/>
+      <c r="FP28" s="172"/>
+      <c r="FQ28" s="172"/>
+      <c r="FR28" s="172"/>
+      <c r="FS28" s="172"/>
+      <c r="FT28" s="172"/>
+      <c r="FU28" s="172"/>
+      <c r="FV28" s="172"/>
+      <c r="FW28" s="172"/>
+      <c r="FX28" s="172"/>
+      <c r="FY28" s="172"/>
+      <c r="FZ28" s="172"/>
+      <c r="GA28" s="172"/>
+      <c r="GB28" s="172"/>
+      <c r="GC28" s="172"/>
+      <c r="GD28" s="172"/>
+      <c r="GE28" s="172"/>
+      <c r="GF28" s="172"/>
+      <c r="GG28" s="172"/>
+      <c r="GH28" s="172"/>
+      <c r="GI28" s="172"/>
+      <c r="GJ28" s="172"/>
+      <c r="GK28" s="172"/>
+      <c r="GL28" s="172"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="159"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -4763,16 +5840,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
+      <c r="A31" s="174"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -4784,6 +5861,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4797,28 +5896,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4845,14 +5922,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="242" t="s">
+      <c r="B1" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5045,11 +6122,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="243" t="s">
+      <c r="E27" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="244"/>
-      <c r="G27" s="245"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="233"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5357,7 +6434,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="E8" sqref="E8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5373,10 +6450,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5403,8 +6480,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5427,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="66">
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -5443,14 +6520,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="189" t="s">
+      <c r="E4" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -5465,30 +6542,36 @@
       <c r="D5" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="190" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-    </row>
-    <row r="6" spans="1:10" s="150" customFormat="1" ht="12.75">
-      <c r="A6" s="158">
+      <c r="E5" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+    </row>
+    <row r="6" spans="1:10" s="268" customFormat="1" ht="48" customHeight="1">
+      <c r="A6" s="264">
         <v>2</v>
       </c>
-      <c r="B6" s="148">
+      <c r="B6" s="265">
         <v>2</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="C6" s="266">
+        <v>42387</v>
+      </c>
+      <c r="D6" s="267" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="262" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="244"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -5499,12 +6582,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -5515,12 +6598,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -5531,12 +6614,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="184"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -5547,12 +6630,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="184"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -5563,12 +6646,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="184"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -5579,12 +6662,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="184"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -5595,12 +6678,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -5611,12 +6694,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5627,12 +6710,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -5643,12 +6726,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -5659,12 +6742,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -5675,12 +6758,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -5691,12 +6774,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="187"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -5707,12 +6790,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -5723,12 +6806,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -5739,12 +6822,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -5755,12 +6838,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -5771,12 +6854,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="181"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5787,12 +6870,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5803,12 +6886,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -5819,12 +6902,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -5835,12 +6918,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -5851,12 +6934,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -5867,12 +6950,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -5883,12 +6966,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -5899,12 +6982,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -5915,12 +6998,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -5931,12 +7014,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -5947,12 +7030,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5963,12 +7046,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="181"/>
-      <c r="J36" s="181"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -5979,12 +7062,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -5995,12 +7078,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="181"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -6011,12 +7094,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -6027,12 +7110,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="181"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -6043,12 +7126,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -6059,23 +7142,32 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6091,23 +7183,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6133,7 +7216,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6149,10 +7232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6182,8 +7265,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6209,24 +7292,24 @@
         <v>8</v>
       </c>
       <c r="J2" s="29">
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="195" t="s">
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="196"/>
+      <c r="J4" s="189"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6237,10 +7320,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="204" t="s">
+      <c r="I5" s="197" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="205"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6251,8 +7334,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6263,8 +7346,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="206"/>
-      <c r="J7" s="207"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6275,8 +7358,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="207"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6287,8 +7370,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="207"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6299,8 +7382,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6311,10 +7394,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="195" t="s">
+      <c r="I11" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="196"/>
+      <c r="J11" s="189"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6325,10 +7408,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="198" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" s="199"/>
+      <c r="I12" s="191" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="192"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6339,8 +7422,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6351,8 +7434,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6363,8 +7446,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6375,8 +7458,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6387,8 +7470,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6399,8 +7482,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6411,8 +7494,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="201"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6423,8 +7506,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6435,8 +7518,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6447,8 +7530,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6459,8 +7542,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="201"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6471,8 +7554,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="201"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6483,8 +7566,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="201"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6495,8 +7578,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="201"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6507,8 +7590,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="201"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6519,8 +7602,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6531,8 +7614,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="201"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6543,8 +7626,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6555,8 +7638,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="201"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6567,8 +7650,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6579,8 +7662,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6591,8 +7674,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6603,8 +7686,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="201"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6615,8 +7698,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6627,8 +7710,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="201"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6639,8 +7722,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6651,8 +7734,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="201"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6663,8 +7746,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6675,8 +7758,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="201"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6687,8 +7770,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6699,8 +7782,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="203"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6730,7 +7813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -6758,13 +7841,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6772,15 +7855,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="210" t="s">
+      <c r="H1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="211"/>
-      <c r="J1" s="212" t="s">
+      <c r="I1" s="204"/>
+      <c r="J1" s="205" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="214"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="207"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6797,11 +7880,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6809,16 +7892,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="210" t="s">
+      <c r="H2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="211"/>
-      <c r="J2" s="212" t="str">
+      <c r="I2" s="204"/>
+      <c r="J2" s="205" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="214"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="207"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6831,7 +7914,7 @@
       </c>
       <c r="P2" s="28">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1">
@@ -6935,10 +8018,10 @@
         <v>174</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H6" s="128" t="s">
         <v>176</v>
@@ -7964,7 +9047,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8050,7 +9133,7 @@
       </c>
       <c r="J2" s="66">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="K2" s="66"/>
     </row>
@@ -8123,20 +9206,36 @@
       </c>
       <c r="K5" s="67"/>
     </row>
-    <row r="6" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="33">
+    <row r="6" spans="1:17" s="239" customFormat="1" ht="12" customHeight="1">
+      <c r="A6" s="234">
         <v>2</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="67"/>
+      <c r="B6" s="234" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="234">
+        <v>51</v>
+      </c>
+      <c r="D6" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="235" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="236" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="237"/>
+      <c r="H6" s="235" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="238" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="235"/>
     </row>
     <row r="7" spans="1:17" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="33">
@@ -8999,7 +10098,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G21" sqref="G20:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9024,11 +10123,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
-      <c r="C1" s="146"/>
+      <c r="C1" s="145"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9061,9 +10160,9 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="219"/>
+      <c r="A2" s="217"/>
       <c r="B2" s="111"/>
-      <c r="C2" s="147"/>
+      <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9090,7 +10189,7 @@
       </c>
       <c r="K2" s="51">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -9102,7 +10201,7 @@
       <c r="B4" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="132" t="s">
@@ -9124,122 +10223,122 @@
       <c r="J4" s="215"/>
       <c r="K4" s="215"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="140">
+    <row r="5" spans="1:13" s="239" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A5" s="240">
         <v>1</v>
       </c>
-      <c r="B5" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="145">
+      <c r="B5" s="240" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="240">
         <v>51</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="242" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="241" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="216" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="217"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="222"/>
+      <c r="G5" s="243" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="247"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
         <v>2</v>
       </c>
       <c r="B6" s="140"/>
-      <c r="C6" s="145"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="210"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
         <v>3</v>
       </c>
       <c r="B7" s="140"/>
-      <c r="C7" s="145"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="226"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="222"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
         <v>4</v>
       </c>
       <c r="B8" s="140"/>
-      <c r="C8" s="145"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="222"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="210"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
         <v>5</v>
       </c>
       <c r="B9" s="140"/>
-      <c r="C9" s="145"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="222"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="208"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="210"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
         <v>6</v>
       </c>
       <c r="B10" s="140"/>
-      <c r="C10" s="145"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="222"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="210"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
         <v>7</v>
       </c>
       <c r="B11" s="140"/>
-      <c r="C11" s="145"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="222"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="210"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -9250,11 +10349,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="224"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221"/>
-      <c r="K12" s="222"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="210"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -9265,11 +10364,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="222"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -9280,11 +10379,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="222"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="210"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -9295,11 +10394,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="222"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="210"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -9310,11 +10409,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="222"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="210"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -9325,11 +10424,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="222"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="210"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -9340,11 +10439,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="222"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="210"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -9355,11 +10454,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="222"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="210"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -9370,11 +10469,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="222"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="210"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -9385,11 +10484,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="222"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="210"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -9400,11 +10499,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="224"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="222"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="210"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -9415,11 +10514,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="222"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="210"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -9430,11 +10529,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="222"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="210"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -9445,11 +10544,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="222"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="210"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -9460,11 +10559,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="222"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="210"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -9475,11 +10574,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="222"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="210"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -9490,11 +10589,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="222"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="210"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -9505,11 +10604,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="222"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="210"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -9520,11 +10619,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="222"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="210"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -9535,11 +10634,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="210"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -9550,11 +10649,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="222"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="210"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -9565,11 +10664,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="222"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="210"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -9580,11 +10679,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="222"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="209"/>
+      <c r="K34" s="210"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9602,11 +10701,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="222"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="210"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9624,11 +10723,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="221"/>
-      <c r="K36" s="222"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="210"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9646,11 +10745,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="221"/>
-      <c r="K37" s="222"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="210"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9668,11 +10767,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="222"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="210"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9690,11 +10789,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="222"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="210"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9712,11 +10811,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="220"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="222"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="209"/>
+      <c r="K40" s="210"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9734,11 +10833,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="222"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="210"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9756,11 +10855,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="222"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="210"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9778,11 +10877,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="222"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
+      <c r="K43" s="210"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9800,11 +10899,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="220"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="222"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="210"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9822,11 +10921,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="221"/>
-      <c r="K45" s="222"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="208"/>
+      <c r="J45" s="209"/>
+      <c r="K45" s="210"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9844,11 +10943,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="220"/>
-      <c r="J46" s="221"/>
-      <c r="K46" s="222"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="208"/>
+      <c r="J46" s="209"/>
+      <c r="K46" s="210"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9866,11 +10965,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="192"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="221"/>
-      <c r="K47" s="222"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="209"/>
+      <c r="K47" s="210"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9888,11 +10987,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="192"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="221"/>
-      <c r="K48" s="222"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="209"/>
+      <c r="K48" s="210"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9910,11 +11009,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="192"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="221"/>
-      <c r="K49" s="222"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="209"/>
+      <c r="K49" s="210"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9932,11 +11031,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="220"/>
-      <c r="J50" s="221"/>
-      <c r="K50" s="222"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="209"/>
+      <c r="K50" s="210"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9954,11 +11053,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="192"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="221"/>
-      <c r="K51" s="222"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
+      <c r="K51" s="210"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9976,11 +11075,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="221"/>
-      <c r="K52" s="222"/>
+      <c r="G52" s="185"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="208"/>
+      <c r="J52" s="209"/>
+      <c r="K52" s="210"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9998,11 +11097,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="192"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="220"/>
-      <c r="J53" s="221"/>
-      <c r="K53" s="222"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="186"/>
+      <c r="I53" s="208"/>
+      <c r="J53" s="209"/>
+      <c r="K53" s="210"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10020,11 +11119,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="192"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="220"/>
-      <c r="J54" s="221"/>
-      <c r="K54" s="222"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="186"/>
+      <c r="I54" s="208"/>
+      <c r="J54" s="209"/>
+      <c r="K54" s="210"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10042,11 +11141,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="192"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="221"/>
-      <c r="K55" s="222"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="186"/>
+      <c r="I55" s="208"/>
+      <c r="J55" s="209"/>
+      <c r="K55" s="210"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10064,11 +11163,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="220"/>
-      <c r="J56" s="221"/>
-      <c r="K56" s="222"/>
+      <c r="G56" s="185"/>
+      <c r="H56" s="186"/>
+      <c r="I56" s="208"/>
+      <c r="J56" s="209"/>
+      <c r="K56" s="210"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10086,11 +11185,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="192"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="220"/>
-      <c r="J57" s="221"/>
-      <c r="K57" s="222"/>
+      <c r="G57" s="185"/>
+      <c r="H57" s="186"/>
+      <c r="I57" s="208"/>
+      <c r="J57" s="209"/>
+      <c r="K57" s="210"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -10108,11 +11207,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="220"/>
-      <c r="J58" s="221"/>
-      <c r="K58" s="222"/>
+      <c r="G58" s="185"/>
+      <c r="H58" s="186"/>
+      <c r="I58" s="208"/>
+      <c r="J58" s="209"/>
+      <c r="K58" s="210"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -10124,6 +11223,103 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
@@ -10138,103 +11334,6 @@
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
     <mergeCell ref="I58:K58"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -10252,8 +11351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10281,24 +11380,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="233" t="str">
+      <c r="J1" s="223" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="233"/>
+      <c r="K1" s="223"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10326,22 +11425,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="233" t="str">
+      <c r="J2" s="223" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="233"/>
+      <c r="K2" s="223"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -10361,7 +11460,7 @@
       </c>
       <c r="Q2" s="51">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="S2" s="51"/>
       <c r="T2" s="52"/>
@@ -10398,12 +11497,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="234" t="s">
+      <c r="K4" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="235"/>
-      <c r="M4" s="235"/>
-      <c r="N4" s="236"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="226"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -10421,155 +11520,209 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="121" customFormat="1" ht="81" customHeight="1">
-      <c r="A5" s="153">
+      <c r="A5" s="149">
         <v>1</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="149">
         <v>51</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152" t="s">
+      <c r="F5" s="148"/>
+      <c r="G5" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="151" t="s">
+      <c r="J5" s="147" t="s">
         <v>160</v>
       </c>
       <c r="K5" s="227" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L5" s="228"/>
       <c r="M5" s="228"/>
       <c r="N5" s="229"/>
-      <c r="O5" s="151" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" s="151" t="s">
+      <c r="O5" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="143" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="255" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="248">
+        <v>2</v>
+      </c>
+      <c r="B6" s="248" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="248">
+        <v>51</v>
+      </c>
+      <c r="D6" s="248" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="249" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="249" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="250" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="251" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="252"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="250" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" s="250" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="254" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="254" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" s="249" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="255" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A7" s="248">
+        <v>3</v>
+      </c>
+      <c r="B7" s="248" t="s">
         <v>194</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="C7" s="248">
+        <v>51</v>
+      </c>
+      <c r="D7" s="248" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="249" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="250" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="251" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="250" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="250" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="254" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="254" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="249" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="255" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A8" s="248">
+        <v>4</v>
+      </c>
+      <c r="B8" s="248" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="248">
+        <v>51</v>
+      </c>
+      <c r="D8" s="249" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="250" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="249" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="249" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="250" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="251" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="256"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="250" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="250" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q8" s="254" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="154" t="s">
+      <c r="R8" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="S5" s="144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="121" customFormat="1" ht="66" customHeight="1">
-      <c r="A6" s="153">
-        <v>2</v>
-      </c>
-      <c r="B6" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="153">
-        <v>51</v>
-      </c>
-      <c r="D6" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="238"/>
-      <c r="O6" s="143" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" s="143" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q6" s="154" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="121" customFormat="1" ht="11.25">
-      <c r="A7" s="153">
-        <v>3</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="144"/>
-    </row>
-    <row r="8" spans="1:21" s="121" customFormat="1" ht="11.25">
-      <c r="A8" s="153">
-        <v>4</v>
-      </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="155"/>
+      <c r="S8" s="261" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A9" s="153">
+      <c r="A9" s="149">
         <v>5</v>
       </c>
       <c r="B9" s="125"/>
@@ -10581,10 +11734,10 @@
       <c r="H9" s="136"/>
       <c r="I9" s="136"/>
       <c r="J9" s="135"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="232"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="222"/>
       <c r="O9" s="127"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="137"/>
@@ -10594,7 +11747,7 @@
       <c r="U9" s="63"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="153">
+      <c r="A10" s="149">
         <v>6</v>
       </c>
       <c r="B10" s="125"/>
@@ -10606,10 +11759,10 @@
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
       <c r="J10" s="135"/>
-      <c r="K10" s="230"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="232"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="222"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="137"/>
@@ -10619,7 +11772,7 @@
       <c r="U10" s="63"/>
     </row>
     <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="153">
+      <c r="A11" s="149">
         <v>7</v>
       </c>
       <c r="B11" s="125"/>
@@ -10631,10 +11784,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="230"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="232"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="222"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -10644,7 +11797,7 @@
       <c r="U11" s="63"/>
     </row>
     <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="153">
+      <c r="A12" s="149">
         <v>8</v>
       </c>
       <c r="B12" s="125"/>
@@ -10656,10 +11809,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="232"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="222"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -10669,7 +11822,7 @@
       <c r="U12" s="63"/>
     </row>
     <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A13" s="153">
+      <c r="A13" s="149">
         <v>9</v>
       </c>
       <c r="B13" s="125"/>
@@ -10681,10 +11834,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="230"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="232"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="221"/>
+      <c r="N13" s="222"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -10694,7 +11847,7 @@
       <c r="U13" s="63"/>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="153">
+      <c r="A14" s="149">
         <v>10</v>
       </c>
       <c r="B14" s="125"/>
@@ -10706,10 +11859,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="230"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="232"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="222"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -10719,7 +11872,7 @@
       <c r="U14" s="63"/>
     </row>
     <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="153">
+      <c r="A15" s="149">
         <v>11</v>
       </c>
       <c r="B15" s="125"/>
@@ -10731,10 +11884,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="230"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="232"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="221"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="222"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -10744,7 +11897,7 @@
       <c r="U15" s="63"/>
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="153">
+      <c r="A16" s="149">
         <v>12</v>
       </c>
       <c r="B16" s="125"/>
@@ -10756,10 +11909,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="232"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="222"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -10769,7 +11922,7 @@
       <c r="U16" s="63"/>
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="153">
+      <c r="A17" s="149">
         <v>13</v>
       </c>
       <c r="B17" s="125"/>
@@ -10781,10 +11934,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="230"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="232"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="222"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -10794,7 +11947,7 @@
       <c r="U17" s="63"/>
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="153">
+      <c r="A18" s="149">
         <v>14</v>
       </c>
       <c r="B18" s="125"/>
@@ -10806,10 +11959,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="230"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="232"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="221"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="222"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -10819,7 +11972,7 @@
       <c r="U18" s="63"/>
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="153">
+      <c r="A19" s="149">
         <v>15</v>
       </c>
       <c r="B19" s="125"/>
@@ -10831,10 +11984,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="232"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="222"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -10844,7 +11997,7 @@
       <c r="U19" s="63"/>
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="153">
+      <c r="A20" s="149">
         <v>16</v>
       </c>
       <c r="B20" s="125"/>
@@ -10856,10 +12009,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="232"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="221"/>
+      <c r="N20" s="222"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -10869,7 +12022,7 @@
       <c r="U20" s="63"/>
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="153">
+      <c r="A21" s="149">
         <v>17</v>
       </c>
       <c r="B21" s="125"/>
@@ -10881,10 +12034,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
-      <c r="N21" s="232"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="222"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -10894,7 +12047,7 @@
       <c r="U21" s="63"/>
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="153">
+      <c r="A22" s="149">
         <v>18</v>
       </c>
       <c r="B22" s="125"/>
@@ -10906,10 +12059,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="232"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="222"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -10919,7 +12072,7 @@
       <c r="U22" s="63"/>
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="153">
+      <c r="A23" s="149">
         <v>19</v>
       </c>
       <c r="B23" s="125"/>
@@ -10931,10 +12084,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="232"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
+      <c r="N23" s="222"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -10944,7 +12097,7 @@
       <c r="U23" s="63"/>
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="153">
+      <c r="A24" s="149">
         <v>20</v>
       </c>
       <c r="B24" s="125"/>
@@ -10956,10 +12109,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="230"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="232"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="221"/>
+      <c r="M24" s="221"/>
+      <c r="N24" s="222"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -10969,7 +12122,7 @@
       <c r="U24" s="63"/>
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="153">
+      <c r="A25" s="149">
         <v>21</v>
       </c>
       <c r="B25" s="125"/>
@@ -10981,10 +12134,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="230"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="232"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="222"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -10994,7 +12147,7 @@
       <c r="U25" s="63"/>
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="153">
+      <c r="A26" s="149">
         <v>22</v>
       </c>
       <c r="B26" s="125"/>
@@ -11006,10 +12159,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="230"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="232"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="222"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -11019,7 +12172,7 @@
       <c r="U26" s="63"/>
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="153">
+      <c r="A27" s="149">
         <v>23</v>
       </c>
       <c r="B27" s="125"/>
@@ -11031,10 +12184,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="230"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="232"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="221"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="222"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -11044,7 +12197,7 @@
       <c r="U27" s="63"/>
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="153">
+      <c r="A28" s="149">
         <v>24</v>
       </c>
       <c r="B28" s="125"/>
@@ -11056,10 +12209,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="232"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="221"/>
+      <c r="N28" s="222"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -11069,7 +12222,7 @@
       <c r="U28" s="63"/>
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="153">
+      <c r="A29" s="149">
         <v>25</v>
       </c>
       <c r="B29" s="125"/>
@@ -11081,10 +12234,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="231"/>
-      <c r="N29" s="232"/>
+      <c r="K29" s="220"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="221"/>
+      <c r="N29" s="222"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -11094,7 +12247,7 @@
       <c r="U29" s="63"/>
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="153">
+      <c r="A30" s="149">
         <v>26</v>
       </c>
       <c r="B30" s="125"/>
@@ -11106,10 +12259,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="230"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="232"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="221"/>
+      <c r="M30" s="221"/>
+      <c r="N30" s="222"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -11119,7 +12272,7 @@
       <c r="U30" s="63"/>
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="153">
+      <c r="A31" s="149">
         <v>27</v>
       </c>
       <c r="B31" s="125"/>
@@ -11131,10 +12284,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="230"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="232"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="221"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="222"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -11144,7 +12297,7 @@
       <c r="U31" s="63"/>
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="153">
+      <c r="A32" s="149">
         <v>28</v>
       </c>
       <c r="B32" s="125"/>
@@ -11156,10 +12309,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="231"/>
-      <c r="M32" s="231"/>
-      <c r="N32" s="232"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="221"/>
+      <c r="N32" s="222"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -11169,7 +12322,7 @@
       <c r="U32" s="63"/>
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="153">
+      <c r="A33" s="149">
         <v>29</v>
       </c>
       <c r="B33" s="125"/>
@@ -11181,10 +12334,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="230"/>
-      <c r="L33" s="231"/>
-      <c r="M33" s="231"/>
-      <c r="N33" s="232"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="221"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="222"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -11194,7 +12347,7 @@
       <c r="U33" s="63"/>
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="153">
+      <c r="A34" s="149">
         <v>30</v>
       </c>
       <c r="B34" s="125"/>
@@ -11206,10 +12359,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="230"/>
-      <c r="L34" s="231"/>
-      <c r="M34" s="231"/>
-      <c r="N34" s="232"/>
+      <c r="K34" s="220"/>
+      <c r="L34" s="221"/>
+      <c r="M34" s="221"/>
+      <c r="N34" s="222"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -11219,7 +12372,7 @@
       <c r="U34" s="63"/>
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="153">
+      <c r="A35" s="149">
         <v>31</v>
       </c>
       <c r="B35" s="125"/>
@@ -11231,10 +12384,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="232"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="221"/>
+      <c r="M35" s="221"/>
+      <c r="N35" s="222"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -11244,7 +12397,7 @@
       <c r="U35" s="63"/>
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="153">
+      <c r="A36" s="149">
         <v>32</v>
       </c>
       <c r="B36" s="125"/>
@@ -11256,10 +12409,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="231"/>
-      <c r="M36" s="231"/>
-      <c r="N36" s="232"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="221"/>
+      <c r="M36" s="221"/>
+      <c r="N36" s="222"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -11269,7 +12422,7 @@
       <c r="U36" s="63"/>
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="153">
+      <c r="A37" s="149">
         <v>33</v>
       </c>
       <c r="B37" s="125"/>
@@ -11281,10 +12434,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="231"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="232"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="221"/>
+      <c r="M37" s="221"/>
+      <c r="N37" s="222"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -11294,7 +12447,7 @@
       <c r="U37" s="63"/>
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="153">
+      <c r="A38" s="149">
         <v>34</v>
       </c>
       <c r="B38" s="125"/>
@@ -11306,10 +12459,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="231"/>
-      <c r="M38" s="231"/>
-      <c r="N38" s="232"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="221"/>
+      <c r="N38" s="222"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -11319,7 +12472,7 @@
       <c r="U38" s="63"/>
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="153">
+      <c r="A39" s="149">
         <v>35</v>
       </c>
       <c r="B39" s="125"/>
@@ -11331,10 +12484,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="231"/>
-      <c r="M39" s="231"/>
-      <c r="N39" s="232"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="221"/>
+      <c r="M39" s="221"/>
+      <c r="N39" s="222"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -11344,7 +12497,7 @@
       <c r="U39" s="63"/>
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="153">
+      <c r="A40" s="149">
         <v>36</v>
       </c>
       <c r="B40" s="125"/>
@@ -11356,10 +12509,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="231"/>
-      <c r="M40" s="231"/>
-      <c r="N40" s="232"/>
+      <c r="K40" s="220"/>
+      <c r="L40" s="221"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="222"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -11369,7 +12522,7 @@
       <c r="U40" s="63"/>
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="153">
+      <c r="A41" s="149">
         <v>37</v>
       </c>
       <c r="B41" s="125"/>
@@ -11381,10 +12534,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="230"/>
-      <c r="L41" s="231"/>
-      <c r="M41" s="231"/>
-      <c r="N41" s="232"/>
+      <c r="K41" s="220"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="222"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -11394,7 +12547,7 @@
       <c r="U41" s="63"/>
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="153">
+      <c r="A42" s="149">
         <v>38</v>
       </c>
       <c r="B42" s="125"/>
@@ -11406,10 +12559,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="231"/>
-      <c r="M42" s="231"/>
-      <c r="N42" s="232"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="222"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -11419,7 +12572,7 @@
       <c r="U42" s="63"/>
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="153">
+      <c r="A43" s="149">
         <v>39</v>
       </c>
       <c r="B43" s="125"/>
@@ -11431,10 +12584,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="230"/>
-      <c r="L43" s="231"/>
-      <c r="M43" s="231"/>
-      <c r="N43" s="232"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="222"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -11444,7 +12597,7 @@
       <c r="U43" s="63"/>
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="153">
+      <c r="A44" s="149">
         <v>40</v>
       </c>
       <c r="B44" s="125"/>
@@ -11456,10 +12609,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="230"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="232"/>
+      <c r="K44" s="220"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="222"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -11469,7 +12622,7 @@
       <c r="U44" s="63"/>
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="153">
+      <c r="A45" s="149">
         <v>41</v>
       </c>
       <c r="B45" s="125"/>
@@ -11481,10 +12634,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="230"/>
-      <c r="L45" s="231"/>
-      <c r="M45" s="231"/>
-      <c r="N45" s="232"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="222"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -11494,7 +12647,7 @@
       <c r="U45" s="63"/>
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="153">
+      <c r="A46" s="149">
         <v>42</v>
       </c>
       <c r="B46" s="125"/>
@@ -11506,10 +12659,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="230"/>
-      <c r="L46" s="231"/>
-      <c r="M46" s="231"/>
-      <c r="N46" s="232"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="221"/>
+      <c r="M46" s="221"/>
+      <c r="N46" s="222"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -11519,7 +12672,7 @@
       <c r="U46" s="63"/>
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="153">
+      <c r="A47" s="149">
         <v>43</v>
       </c>
       <c r="B47" s="125"/>
@@ -11531,10 +12684,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="230"/>
-      <c r="L47" s="231"/>
-      <c r="M47" s="231"/>
-      <c r="N47" s="232"/>
+      <c r="K47" s="220"/>
+      <c r="L47" s="221"/>
+      <c r="M47" s="221"/>
+      <c r="N47" s="222"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -11544,7 +12697,7 @@
       <c r="U47" s="63"/>
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="153">
+      <c r="A48" s="149">
         <v>44</v>
       </c>
       <c r="B48" s="125"/>
@@ -11556,10 +12709,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="230"/>
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="232"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="221"/>
+      <c r="M48" s="221"/>
+      <c r="N48" s="222"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -11569,7 +12722,7 @@
       <c r="U48" s="63"/>
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="153">
+      <c r="A49" s="149">
         <v>45</v>
       </c>
       <c r="B49" s="125"/>
@@ -11581,10 +12734,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="230"/>
-      <c r="L49" s="231"/>
-      <c r="M49" s="231"/>
-      <c r="N49" s="232"/>
+      <c r="K49" s="220"/>
+      <c r="L49" s="221"/>
+      <c r="M49" s="221"/>
+      <c r="N49" s="222"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -11594,7 +12747,7 @@
       <c r="U49" s="63"/>
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="153">
+      <c r="A50" s="149">
         <v>46</v>
       </c>
       <c r="B50" s="125"/>
@@ -11606,10 +12759,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="230"/>
-      <c r="L50" s="231"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="232"/>
+      <c r="K50" s="220"/>
+      <c r="L50" s="221"/>
+      <c r="M50" s="221"/>
+      <c r="N50" s="222"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -11619,7 +12772,7 @@
       <c r="U50" s="63"/>
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="153">
+      <c r="A51" s="149">
         <v>47</v>
       </c>
       <c r="B51" s="125"/>
@@ -11631,10 +12784,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="230"/>
-      <c r="L51" s="231"/>
-      <c r="M51" s="231"/>
-      <c r="N51" s="232"/>
+      <c r="K51" s="220"/>
+      <c r="L51" s="221"/>
+      <c r="M51" s="221"/>
+      <c r="N51" s="222"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -11644,7 +12797,7 @@
       <c r="U51" s="63"/>
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="153">
+      <c r="A52" s="149">
         <v>48</v>
       </c>
       <c r="B52" s="125"/>
@@ -11656,10 +12809,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="230"/>
-      <c r="L52" s="231"/>
-      <c r="M52" s="231"/>
-      <c r="N52" s="232"/>
+      <c r="K52" s="220"/>
+      <c r="L52" s="221"/>
+      <c r="M52" s="221"/>
+      <c r="N52" s="222"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -11669,7 +12822,7 @@
       <c r="U52" s="63"/>
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="153">
+      <c r="A53" s="149">
         <v>49</v>
       </c>
       <c r="B53" s="125"/>
@@ -11681,10 +12834,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="230"/>
-      <c r="L53" s="231"/>
-      <c r="M53" s="231"/>
-      <c r="N53" s="232"/>
+      <c r="K53" s="220"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="221"/>
+      <c r="N53" s="222"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -11694,7 +12847,7 @@
       <c r="U53" s="63"/>
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="153">
+      <c r="A54" s="149">
         <v>50</v>
       </c>
       <c r="B54" s="125"/>
@@ -11706,10 +12859,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="230"/>
-      <c r="L54" s="231"/>
-      <c r="M54" s="231"/>
-      <c r="N54" s="232"/>
+      <c r="K54" s="220"/>
+      <c r="L54" s="221"/>
+      <c r="M54" s="221"/>
+      <c r="N54" s="222"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -11719,7 +12872,7 @@
       <c r="U54" s="63"/>
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="153">
+      <c r="A55" s="149">
         <v>51</v>
       </c>
       <c r="B55" s="125"/>
@@ -11731,10 +12884,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="230"/>
-      <c r="L55" s="231"/>
-      <c r="M55" s="231"/>
-      <c r="N55" s="232"/>
+      <c r="K55" s="220"/>
+      <c r="L55" s="221"/>
+      <c r="M55" s="221"/>
+      <c r="N55" s="222"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -11744,7 +12897,7 @@
       <c r="U55" s="63"/>
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="153">
+      <c r="A56" s="149">
         <v>52</v>
       </c>
       <c r="B56" s="125"/>
@@ -11756,10 +12909,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="230"/>
-      <c r="L56" s="231"/>
-      <c r="M56" s="231"/>
-      <c r="N56" s="232"/>
+      <c r="K56" s="220"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="221"/>
+      <c r="N56" s="222"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -11769,7 +12922,7 @@
       <c r="U56" s="63"/>
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="153">
+      <c r="A57" s="149">
         <v>53</v>
       </c>
       <c r="B57" s="125"/>
@@ -11781,10 +12934,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="230"/>
-      <c r="L57" s="231"/>
-      <c r="M57" s="231"/>
-      <c r="N57" s="232"/>
+      <c r="K57" s="220"/>
+      <c r="L57" s="221"/>
+      <c r="M57" s="221"/>
+      <c r="N57" s="222"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -11794,7 +12947,7 @@
       <c r="U57" s="63"/>
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="153">
+      <c r="A58" s="149">
         <v>54</v>
       </c>
       <c r="B58" s="125"/>
@@ -11806,10 +12959,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="230"/>
-      <c r="L58" s="231"/>
-      <c r="M58" s="231"/>
-      <c r="N58" s="232"/>
+      <c r="K58" s="220"/>
+      <c r="L58" s="221"/>
+      <c r="M58" s="221"/>
+      <c r="N58" s="222"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -11819,7 +12972,7 @@
       <c r="U58" s="63"/>
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="153">
+      <c r="A59" s="149">
         <v>55</v>
       </c>
       <c r="B59" s="125"/>
@@ -11831,10 +12984,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="230"/>
-      <c r="L59" s="231"/>
-      <c r="M59" s="231"/>
-      <c r="N59" s="232"/>
+      <c r="K59" s="220"/>
+      <c r="L59" s="221"/>
+      <c r="M59" s="221"/>
+      <c r="N59" s="222"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -11844,7 +12997,7 @@
       <c r="U59" s="63"/>
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="153">
+      <c r="A60" s="149">
         <v>56</v>
       </c>
       <c r="B60" s="125"/>
@@ -11856,10 +13009,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="230"/>
-      <c r="L60" s="231"/>
-      <c r="M60" s="231"/>
-      <c r="N60" s="232"/>
+      <c r="K60" s="220"/>
+      <c r="L60" s="221"/>
+      <c r="M60" s="221"/>
+      <c r="N60" s="222"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -11869,7 +13022,7 @@
       <c r="U60" s="63"/>
     </row>
     <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="153">
+      <c r="A61" s="149">
         <v>57</v>
       </c>
       <c r="B61" s="125"/>
@@ -11881,10 +13034,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="230"/>
-      <c r="L61" s="231"/>
-      <c r="M61" s="231"/>
-      <c r="N61" s="232"/>
+      <c r="K61" s="220"/>
+      <c r="L61" s="221"/>
+      <c r="M61" s="221"/>
+      <c r="N61" s="222"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -11894,7 +13047,7 @@
       <c r="U61" s="63"/>
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A62" s="153">
+      <c r="A62" s="149">
         <v>58</v>
       </c>
       <c r="B62" s="125"/>
@@ -11906,10 +13059,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="230"/>
-      <c r="L62" s="231"/>
-      <c r="M62" s="231"/>
-      <c r="N62" s="232"/>
+      <c r="K62" s="220"/>
+      <c r="L62" s="221"/>
+      <c r="M62" s="221"/>
+      <c r="N62" s="222"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -11919,7 +13072,7 @@
       <c r="U62" s="63"/>
     </row>
     <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A63" s="153">
+      <c r="A63" s="149">
         <v>59</v>
       </c>
       <c r="B63" s="125"/>
@@ -11931,10 +13084,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="230"/>
-      <c r="L63" s="231"/>
-      <c r="M63" s="231"/>
-      <c r="N63" s="232"/>
+      <c r="K63" s="220"/>
+      <c r="L63" s="221"/>
+      <c r="M63" s="221"/>
+      <c r="N63" s="222"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -11944,7 +13097,7 @@
       <c r="U63" s="63"/>
     </row>
     <row r="64" spans="1:21" ht="11.25">
-      <c r="A64" s="153">
+      <c r="A64" s="149">
         <v>60</v>
       </c>
       <c r="B64" s="125"/>
@@ -11956,10 +13109,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="230"/>
-      <c r="L64" s="231"/>
-      <c r="M64" s="231"/>
-      <c r="N64" s="232"/>
+      <c r="K64" s="220"/>
+      <c r="L64" s="221"/>
+      <c r="M64" s="221"/>
+      <c r="N64" s="222"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -11967,7 +13120,7 @@
       <c r="S64" s="131"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="153">
+      <c r="A65" s="149">
         <v>61</v>
       </c>
       <c r="B65" s="125"/>
@@ -11979,10 +13132,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="230"/>
-      <c r="L65" s="231"/>
-      <c r="M65" s="231"/>
-      <c r="N65" s="232"/>
+      <c r="K65" s="220"/>
+      <c r="L65" s="221"/>
+      <c r="M65" s="221"/>
+      <c r="N65" s="222"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -11990,7 +13143,7 @@
       <c r="S65" s="131"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="153">
+      <c r="A66" s="149">
         <v>62</v>
       </c>
       <c r="B66" s="125"/>
@@ -12002,10 +13155,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="230"/>
-      <c r="L66" s="231"/>
-      <c r="M66" s="231"/>
-      <c r="N66" s="232"/>
+      <c r="K66" s="220"/>
+      <c r="L66" s="221"/>
+      <c r="M66" s="221"/>
+      <c r="N66" s="222"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -12013,7 +13166,7 @@
       <c r="S66" s="131"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="153">
+      <c r="A67" s="149">
         <v>63</v>
       </c>
       <c r="B67" s="125"/>
@@ -12025,10 +13178,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="230"/>
-      <c r="L67" s="231"/>
-      <c r="M67" s="231"/>
-      <c r="N67" s="232"/>
+      <c r="K67" s="220"/>
+      <c r="L67" s="221"/>
+      <c r="M67" s="221"/>
+      <c r="N67" s="222"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -12036,7 +13189,7 @@
       <c r="S67" s="131"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="153">
+      <c r="A68" s="149">
         <v>64</v>
       </c>
       <c r="B68" s="125"/>
@@ -12048,10 +13201,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="230"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="231"/>
-      <c r="N68" s="232"/>
+      <c r="K68" s="220"/>
+      <c r="L68" s="221"/>
+      <c r="M68" s="221"/>
+      <c r="N68" s="222"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -12059,7 +13212,7 @@
       <c r="S68" s="131"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="153">
+      <c r="A69" s="149">
         <v>65</v>
       </c>
       <c r="B69" s="125"/>
@@ -12071,10 +13224,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="230"/>
-      <c r="L69" s="231"/>
-      <c r="M69" s="231"/>
-      <c r="N69" s="232"/>
+      <c r="K69" s="220"/>
+      <c r="L69" s="221"/>
+      <c r="M69" s="221"/>
+      <c r="N69" s="222"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -12082,7 +13235,7 @@
       <c r="S69" s="131"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="153">
+      <c r="A70" s="149">
         <v>66</v>
       </c>
       <c r="B70" s="125"/>
@@ -12094,10 +13247,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="230"/>
-      <c r="L70" s="231"/>
-      <c r="M70" s="231"/>
-      <c r="N70" s="232"/>
+      <c r="K70" s="220"/>
+      <c r="L70" s="221"/>
+      <c r="M70" s="221"/>
+      <c r="N70" s="222"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -12105,7 +13258,7 @@
       <c r="S70" s="131"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="153">
+      <c r="A71" s="149">
         <v>67</v>
       </c>
       <c r="B71" s="125"/>
@@ -12117,10 +13270,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="230"/>
-      <c r="L71" s="231"/>
-      <c r="M71" s="231"/>
-      <c r="N71" s="232"/>
+      <c r="K71" s="220"/>
+      <c r="L71" s="221"/>
+      <c r="M71" s="221"/>
+      <c r="N71" s="222"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -12128,7 +13281,7 @@
       <c r="S71" s="131"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="153">
+      <c r="A72" s="149">
         <v>68</v>
       </c>
       <c r="B72" s="125"/>
@@ -12140,10 +13293,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="230"/>
-      <c r="L72" s="231"/>
-      <c r="M72" s="231"/>
-      <c r="N72" s="232"/>
+      <c r="K72" s="220"/>
+      <c r="L72" s="221"/>
+      <c r="M72" s="221"/>
+      <c r="N72" s="222"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -12151,7 +13304,7 @@
       <c r="S72" s="131"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="153">
+      <c r="A73" s="149">
         <v>69</v>
       </c>
       <c r="B73" s="125"/>
@@ -12163,10 +13316,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="230"/>
-      <c r="L73" s="231"/>
-      <c r="M73" s="231"/>
-      <c r="N73" s="232"/>
+      <c r="K73" s="220"/>
+      <c r="L73" s="221"/>
+      <c r="M73" s="221"/>
+      <c r="N73" s="222"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -12174,7 +13327,7 @@
       <c r="S73" s="131"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="153">
+      <c r="A74" s="149">
         <v>70</v>
       </c>
       <c r="B74" s="125"/>
@@ -12186,10 +13339,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="230"/>
-      <c r="L74" s="231"/>
-      <c r="M74" s="231"/>
-      <c r="N74" s="232"/>
+      <c r="K74" s="220"/>
+      <c r="L74" s="221"/>
+      <c r="M74" s="221"/>
+      <c r="N74" s="222"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -12197,7 +13350,7 @@
       <c r="S74" s="131"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="153">
+      <c r="A75" s="149">
         <v>71</v>
       </c>
       <c r="B75" s="125"/>
@@ -12209,10 +13362,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="230"/>
-      <c r="L75" s="231"/>
-      <c r="M75" s="231"/>
-      <c r="N75" s="232"/>
+      <c r="K75" s="220"/>
+      <c r="L75" s="221"/>
+      <c r="M75" s="221"/>
+      <c r="N75" s="222"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -12220,7 +13373,7 @@
       <c r="S75" s="131"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="153">
+      <c r="A76" s="149">
         <v>72</v>
       </c>
       <c r="B76" s="125"/>
@@ -12232,10 +13385,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="230"/>
-      <c r="L76" s="231"/>
-      <c r="M76" s="231"/>
-      <c r="N76" s="232"/>
+      <c r="K76" s="220"/>
+      <c r="L76" s="221"/>
+      <c r="M76" s="221"/>
+      <c r="N76" s="222"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -12243,7 +13396,7 @@
       <c r="S76" s="131"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="153">
+      <c r="A77" s="149">
         <v>73</v>
       </c>
       <c r="B77" s="125"/>
@@ -12255,10 +13408,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="230"/>
-      <c r="L77" s="231"/>
-      <c r="M77" s="231"/>
-      <c r="N77" s="232"/>
+      <c r="K77" s="220"/>
+      <c r="L77" s="221"/>
+      <c r="M77" s="221"/>
+      <c r="N77" s="222"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -12266,7 +13419,7 @@
       <c r="S77" s="131"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="153">
+      <c r="A78" s="149">
         <v>74</v>
       </c>
       <c r="B78" s="125"/>
@@ -12278,10 +13431,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="230"/>
-      <c r="L78" s="231"/>
-      <c r="M78" s="231"/>
-      <c r="N78" s="232"/>
+      <c r="K78" s="220"/>
+      <c r="L78" s="221"/>
+      <c r="M78" s="221"/>
+      <c r="N78" s="222"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -12289,7 +13442,7 @@
       <c r="S78" s="131"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="153">
+      <c r="A79" s="149">
         <v>75</v>
       </c>
       <c r="B79" s="125"/>
@@ -12301,10 +13454,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="230"/>
-      <c r="L79" s="231"/>
-      <c r="M79" s="231"/>
-      <c r="N79" s="232"/>
+      <c r="K79" s="220"/>
+      <c r="L79" s="221"/>
+      <c r="M79" s="221"/>
+      <c r="N79" s="222"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -12312,7 +13465,7 @@
       <c r="S79" s="131"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="153">
+      <c r="A80" s="149">
         <v>76</v>
       </c>
       <c r="B80" s="125"/>
@@ -12324,10 +13477,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="230"/>
-      <c r="L80" s="231"/>
-      <c r="M80" s="231"/>
-      <c r="N80" s="232"/>
+      <c r="K80" s="220"/>
+      <c r="L80" s="221"/>
+      <c r="M80" s="221"/>
+      <c r="N80" s="222"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -12335,7 +13488,7 @@
       <c r="S80" s="131"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="153">
+      <c r="A81" s="149">
         <v>77</v>
       </c>
       <c r="B81" s="125"/>
@@ -12347,10 +13500,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="230"/>
-      <c r="L81" s="231"/>
-      <c r="M81" s="231"/>
-      <c r="N81" s="232"/>
+      <c r="K81" s="220"/>
+      <c r="L81" s="221"/>
+      <c r="M81" s="221"/>
+      <c r="N81" s="222"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -12358,7 +13511,7 @@
       <c r="S81" s="131"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="153">
+      <c r="A82" s="149">
         <v>78</v>
       </c>
       <c r="B82" s="125"/>
@@ -12370,10 +13523,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="230"/>
-      <c r="L82" s="231"/>
-      <c r="M82" s="231"/>
-      <c r="N82" s="232"/>
+      <c r="K82" s="220"/>
+      <c r="L82" s="221"/>
+      <c r="M82" s="221"/>
+      <c r="N82" s="222"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -12381,7 +13534,7 @@
       <c r="S82" s="131"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="153">
+      <c r="A83" s="149">
         <v>79</v>
       </c>
       <c r="B83" s="125"/>
@@ -12393,10 +13546,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="230"/>
-      <c r="L83" s="231"/>
-      <c r="M83" s="231"/>
-      <c r="N83" s="232"/>
+      <c r="K83" s="220"/>
+      <c r="L83" s="221"/>
+      <c r="M83" s="221"/>
+      <c r="N83" s="222"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -12404,7 +13557,7 @@
       <c r="S83" s="131"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="153">
+      <c r="A84" s="149">
         <v>80</v>
       </c>
       <c r="B84" s="125"/>
@@ -12416,10 +13569,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="230"/>
-      <c r="L84" s="231"/>
-      <c r="M84" s="231"/>
-      <c r="N84" s="232"/>
+      <c r="K84" s="220"/>
+      <c r="L84" s="221"/>
+      <c r="M84" s="221"/>
+      <c r="N84" s="222"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -12427,7 +13580,7 @@
       <c r="S84" s="131"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="153">
+      <c r="A85" s="149">
         <v>81</v>
       </c>
       <c r="B85" s="125"/>
@@ -12439,10 +13592,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="230"/>
-      <c r="L85" s="231"/>
-      <c r="M85" s="231"/>
-      <c r="N85" s="232"/>
+      <c r="K85" s="220"/>
+      <c r="L85" s="221"/>
+      <c r="M85" s="221"/>
+      <c r="N85" s="222"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -12450,7 +13603,7 @@
       <c r="S85" s="131"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="153">
+      <c r="A86" s="149">
         <v>82</v>
       </c>
       <c r="B86" s="125"/>
@@ -12462,10 +13615,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="230"/>
-      <c r="L86" s="231"/>
-      <c r="M86" s="231"/>
-      <c r="N86" s="232"/>
+      <c r="K86" s="220"/>
+      <c r="L86" s="221"/>
+      <c r="M86" s="221"/>
+      <c r="N86" s="222"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -12473,7 +13626,7 @@
       <c r="S86" s="131"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="153">
+      <c r="A87" s="149">
         <v>83</v>
       </c>
       <c r="B87" s="125"/>
@@ -12485,10 +13638,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="230"/>
-      <c r="L87" s="231"/>
-      <c r="M87" s="231"/>
-      <c r="N87" s="232"/>
+      <c r="K87" s="220"/>
+      <c r="L87" s="221"/>
+      <c r="M87" s="221"/>
+      <c r="N87" s="222"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -12496,7 +13649,7 @@
       <c r="S87" s="131"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="153">
+      <c r="A88" s="149">
         <v>84</v>
       </c>
       <c r="B88" s="125"/>
@@ -12508,10 +13661,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="230"/>
-      <c r="L88" s="231"/>
-      <c r="M88" s="231"/>
-      <c r="N88" s="232"/>
+      <c r="K88" s="220"/>
+      <c r="L88" s="221"/>
+      <c r="M88" s="221"/>
+      <c r="N88" s="222"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -12519,7 +13672,7 @@
       <c r="S88" s="131"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="153">
+      <c r="A89" s="149">
         <v>85</v>
       </c>
       <c r="B89" s="125"/>
@@ -12531,10 +13684,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="230"/>
-      <c r="L89" s="231"/>
-      <c r="M89" s="231"/>
-      <c r="N89" s="232"/>
+      <c r="K89" s="220"/>
+      <c r="L89" s="221"/>
+      <c r="M89" s="221"/>
+      <c r="N89" s="222"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -12542,7 +13695,7 @@
       <c r="S89" s="131"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="153">
+      <c r="A90" s="149">
         <v>86</v>
       </c>
       <c r="B90" s="125"/>
@@ -12554,10 +13707,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="230"/>
-      <c r="L90" s="231"/>
-      <c r="M90" s="231"/>
-      <c r="N90" s="232"/>
+      <c r="K90" s="220"/>
+      <c r="L90" s="221"/>
+      <c r="M90" s="221"/>
+      <c r="N90" s="222"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -12565,7 +13718,7 @@
       <c r="S90" s="131"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="153">
+      <c r="A91" s="149">
         <v>87</v>
       </c>
       <c r="B91" s="125"/>
@@ -12577,10 +13730,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="230"/>
-      <c r="L91" s="231"/>
-      <c r="M91" s="231"/>
-      <c r="N91" s="232"/>
+      <c r="K91" s="220"/>
+      <c r="L91" s="221"/>
+      <c r="M91" s="221"/>
+      <c r="N91" s="222"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -12588,7 +13741,7 @@
       <c r="S91" s="131"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="153">
+      <c r="A92" s="149">
         <v>88</v>
       </c>
       <c r="B92" s="125"/>
@@ -12600,10 +13753,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="230"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="231"/>
-      <c r="N92" s="232"/>
+      <c r="K92" s="220"/>
+      <c r="L92" s="221"/>
+      <c r="M92" s="221"/>
+      <c r="N92" s="222"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -12611,7 +13764,7 @@
       <c r="S92" s="131"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="153">
+      <c r="A93" s="149">
         <v>89</v>
       </c>
       <c r="B93" s="125"/>
@@ -12623,10 +13776,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="230"/>
-      <c r="L93" s="231"/>
-      <c r="M93" s="231"/>
-      <c r="N93" s="232"/>
+      <c r="K93" s="220"/>
+      <c r="L93" s="221"/>
+      <c r="M93" s="221"/>
+      <c r="N93" s="222"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -12634,7 +13787,7 @@
       <c r="S93" s="131"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="156">
+      <c r="A94" s="151">
         <v>90</v>
       </c>
       <c r="B94" s="125"/>
@@ -12646,10 +13799,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="230"/>
-      <c r="L94" s="231"/>
-      <c r="M94" s="231"/>
-      <c r="N94" s="232"/>
+      <c r="K94" s="220"/>
+      <c r="L94" s="221"/>
+      <c r="M94" s="221"/>
+      <c r="N94" s="222"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -12657,31 +13810,31 @@
       <c r="S94" s="131"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="157"/>
+      <c r="A95" s="152"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="157"/>
+      <c r="A96" s="152"/>
     </row>
     <row r="97" spans="1:1" ht="12" customHeight="1">
-      <c r="A97" s="157"/>
+      <c r="A97" s="152"/>
     </row>
     <row r="98" spans="1:1" ht="12" customHeight="1">
-      <c r="A98" s="157"/>
+      <c r="A98" s="152"/>
     </row>
     <row r="99" spans="1:1" ht="12" customHeight="1">
-      <c r="A99" s="157"/>
+      <c r="A99" s="152"/>
     </row>
     <row r="100" spans="1:1" ht="12" customHeight="1">
-      <c r="A100" s="157"/>
+      <c r="A100" s="152"/>
     </row>
     <row r="101" spans="1:1" ht="12" customHeight="1">
-      <c r="A101" s="157"/>
+      <c r="A101" s="152"/>
     </row>
     <row r="102" spans="1:1" ht="12" customHeight="1">
-      <c r="A102" s="157"/>
+      <c r="A102" s="152"/>
     </row>
     <row r="103" spans="1:1" ht="12" customHeight="1">
-      <c r="A103" s="157"/>
+      <c r="A103" s="152"/>
     </row>
     <row r="104" spans="1:1" ht="12" customHeight="1">
       <c r="A104" s="118"/>
@@ -12737,52 +13890,37 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K72:N72"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K7:N7"/>
@@ -12799,38 +13937,53 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12859,8 +14012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12876,10 +14029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12910,8 +14063,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12938,7 +14091,7 @@
       </c>
       <c r="J2" s="38">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
@@ -13087,7 +14240,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -13210,19 +14363,19 @@
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A26" s="239" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="241"/>
+    <row r="26" spans="1:10" ht="208.5" customHeight="1">
+      <c r="A26" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="259"/>
+      <c r="C26" s="259"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="260"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -13965,8 +15118,9 @@
     <brk id="52" max="9" man="1"/>
     <brk id="65" max="9" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13991,10 +15145,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14022,8 +15176,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2211,9 +2211,13 @@
     <t>OT2001</t>
   </si>
   <si>
+    <t>@DivisionID, @ObjectID, @VoucherID</t>
+  </si>
+  <si>
     <t>UPDATE OT2001 SET 
 OrderStatus = 3 
-WHERE DivisionID= @DivisionID AND SOrderID = @SOrderID
+WHERE DivisionID= @DivisionID 
+AND SOrderID = @SOrderID AND
 (SELECT SUM(ActualQuantity) FROM AT2007 AT07
 INNER JOIN AT2006 AT06 ON AT06.DivisionID= AT07.DivisionID AND AT06.VoucherID=AT07.VoucherID
 WHERE AT07.DivisioniD = @DivisionID AND AT06.OrderID = @OrderID AND AT06.DeliveryStatus = 1)
@@ -2221,9 +2225,6 @@
 (SELECT OrderQuantity FROM OT2002 OT02
 INNER JOIN AT2006 AT06 ON AT06.DivisionID = OT02.DivisionID AND AT06.OrderID=OT02.SOrderID
 WHERE OT02.DivisionID=@DivisionID AND AT06.OrderID=@OrderID)</t>
-  </si>
-  <si>
-    <t>@DivisionID, @ObjectID, @VoucherID</t>
   </si>
 </sst>
 </file>
@@ -3129,9 +3130,87 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3177,23 +3256,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3225,111 +3289,129 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3339,6 +3421,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3351,6 +3442,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3360,6 +3457,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3371,111 +3477,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5323,65 +5324,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="160" t="s">
+      <c r="A1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="159" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159" t="s">
+      <c r="H1" s="185"/>
+      <c r="I1" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="159"/>
+      <c r="J1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="159" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="155" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="156"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5392,56 +5393,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5452,384 +5453,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="169"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="171"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="171"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="172"/>
-      <c r="AF28" s="172"/>
-      <c r="AG28" s="172"/>
-      <c r="AH28" s="172"/>
-      <c r="AI28" s="172"/>
-      <c r="AJ28" s="172"/>
-      <c r="AK28" s="172"/>
-      <c r="AL28" s="172"/>
-      <c r="AM28" s="172"/>
-      <c r="AN28" s="172"/>
-      <c r="AO28" s="172"/>
-      <c r="AP28" s="172"/>
-      <c r="AQ28" s="172"/>
-      <c r="AR28" s="172"/>
-      <c r="AS28" s="172"/>
-      <c r="AT28" s="172"/>
-      <c r="AU28" s="172"/>
-      <c r="AV28" s="172"/>
-      <c r="AW28" s="172"/>
-      <c r="AX28" s="172"/>
-      <c r="AY28" s="172"/>
-      <c r="AZ28" s="172"/>
-      <c r="BA28" s="172"/>
-      <c r="BB28" s="172"/>
-      <c r="BC28" s="172"/>
-      <c r="BD28" s="172"/>
-      <c r="BE28" s="172"/>
-      <c r="BF28" s="172"/>
-      <c r="BG28" s="172"/>
-      <c r="BH28" s="172"/>
-      <c r="BI28" s="172"/>
-      <c r="BJ28" s="172"/>
-      <c r="BK28" s="172"/>
-      <c r="BL28" s="172"/>
-      <c r="BM28" s="172"/>
-      <c r="BN28" s="172"/>
-      <c r="BO28" s="172"/>
-      <c r="BP28" s="172"/>
-      <c r="BQ28" s="172"/>
-      <c r="BR28" s="172"/>
-      <c r="BS28" s="172"/>
-      <c r="BT28" s="172"/>
-      <c r="BU28" s="172"/>
-      <c r="BV28" s="172"/>
-      <c r="BW28" s="172"/>
-      <c r="BX28" s="172"/>
-      <c r="BY28" s="172"/>
-      <c r="BZ28" s="172"/>
-      <c r="CA28" s="172"/>
-      <c r="CB28" s="172"/>
-      <c r="CC28" s="172"/>
-      <c r="CD28" s="172"/>
-      <c r="CE28" s="172"/>
-      <c r="CF28" s="172"/>
-      <c r="CG28" s="172"/>
-      <c r="CH28" s="172"/>
-      <c r="CI28" s="172"/>
-      <c r="CJ28" s="172"/>
-      <c r="CK28" s="172"/>
-      <c r="CL28" s="172"/>
-      <c r="CM28" s="172"/>
-      <c r="CN28" s="172"/>
-      <c r="CO28" s="172"/>
-      <c r="CP28" s="172"/>
-      <c r="CQ28" s="172"/>
-      <c r="CR28" s="172"/>
-      <c r="CS28" s="172"/>
-      <c r="CT28" s="172"/>
-      <c r="CU28" s="172"/>
-      <c r="CV28" s="172"/>
-      <c r="CW28" s="172"/>
-      <c r="CX28" s="172"/>
-      <c r="CY28" s="172"/>
-      <c r="CZ28" s="172"/>
-      <c r="DA28" s="172"/>
-      <c r="DB28" s="172"/>
-      <c r="DC28" s="172"/>
-      <c r="DD28" s="172"/>
-      <c r="DE28" s="172"/>
-      <c r="DF28" s="172"/>
-      <c r="DG28" s="172"/>
-      <c r="DH28" s="172"/>
-      <c r="DI28" s="172"/>
-      <c r="DJ28" s="172"/>
-      <c r="DK28" s="172"/>
-      <c r="DL28" s="172"/>
-      <c r="DM28" s="172"/>
-      <c r="DN28" s="172"/>
-      <c r="DO28" s="172"/>
-      <c r="DP28" s="172"/>
-      <c r="DQ28" s="172"/>
-      <c r="DR28" s="172"/>
-      <c r="DS28" s="172"/>
-      <c r="DT28" s="172"/>
-      <c r="DU28" s="172"/>
-      <c r="DV28" s="172"/>
-      <c r="DW28" s="172"/>
-      <c r="DX28" s="172"/>
-      <c r="DY28" s="172"/>
-      <c r="DZ28" s="172"/>
-      <c r="EA28" s="172"/>
-      <c r="EB28" s="172"/>
-      <c r="EC28" s="172"/>
-      <c r="ED28" s="172"/>
-      <c r="EE28" s="172"/>
-      <c r="EF28" s="172"/>
-      <c r="EG28" s="172"/>
-      <c r="EH28" s="172"/>
-      <c r="EI28" s="172"/>
-      <c r="EJ28" s="172"/>
-      <c r="EK28" s="172"/>
-      <c r="EL28" s="172"/>
-      <c r="EM28" s="172"/>
-      <c r="EN28" s="172"/>
-      <c r="EO28" s="172"/>
-      <c r="EP28" s="172"/>
-      <c r="EQ28" s="172"/>
-      <c r="ER28" s="172"/>
-      <c r="ES28" s="172"/>
-      <c r="ET28" s="172"/>
-      <c r="EU28" s="172"/>
-      <c r="EV28" s="172"/>
-      <c r="EW28" s="172"/>
-      <c r="EX28" s="172"/>
-      <c r="EY28" s="172"/>
-      <c r="EZ28" s="172"/>
-      <c r="FA28" s="172"/>
-      <c r="FB28" s="172"/>
-      <c r="FC28" s="172"/>
-      <c r="FD28" s="172"/>
-      <c r="FE28" s="172"/>
-      <c r="FF28" s="172"/>
-      <c r="FG28" s="172"/>
-      <c r="FH28" s="172"/>
-      <c r="FI28" s="172"/>
-      <c r="FJ28" s="172"/>
-      <c r="FK28" s="172"/>
-      <c r="FL28" s="172"/>
-      <c r="FM28" s="172"/>
-      <c r="FN28" s="172"/>
-      <c r="FO28" s="172"/>
-      <c r="FP28" s="172"/>
-      <c r="FQ28" s="172"/>
-      <c r="FR28" s="172"/>
-      <c r="FS28" s="172"/>
-      <c r="FT28" s="172"/>
-      <c r="FU28" s="172"/>
-      <c r="FV28" s="172"/>
-      <c r="FW28" s="172"/>
-      <c r="FX28" s="172"/>
-      <c r="FY28" s="172"/>
-      <c r="FZ28" s="172"/>
-      <c r="GA28" s="172"/>
-      <c r="GB28" s="172"/>
-      <c r="GC28" s="172"/>
-      <c r="GD28" s="172"/>
-      <c r="GE28" s="172"/>
-      <c r="GF28" s="172"/>
-      <c r="GG28" s="172"/>
-      <c r="GH28" s="172"/>
-      <c r="GI28" s="172"/>
-      <c r="GJ28" s="172"/>
-      <c r="GK28" s="172"/>
-      <c r="GL28" s="172"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="174"/>
+      <c r="AF28" s="174"/>
+      <c r="AG28" s="174"/>
+      <c r="AH28" s="174"/>
+      <c r="AI28" s="174"/>
+      <c r="AJ28" s="174"/>
+      <c r="AK28" s="174"/>
+      <c r="AL28" s="174"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="174"/>
+      <c r="AO28" s="174"/>
+      <c r="AP28" s="174"/>
+      <c r="AQ28" s="174"/>
+      <c r="AR28" s="174"/>
+      <c r="AS28" s="174"/>
+      <c r="AT28" s="174"/>
+      <c r="AU28" s="174"/>
+      <c r="AV28" s="174"/>
+      <c r="AW28" s="174"/>
+      <c r="AX28" s="174"/>
+      <c r="AY28" s="174"/>
+      <c r="AZ28" s="174"/>
+      <c r="BA28" s="174"/>
+      <c r="BB28" s="174"/>
+      <c r="BC28" s="174"/>
+      <c r="BD28" s="174"/>
+      <c r="BE28" s="174"/>
+      <c r="BF28" s="174"/>
+      <c r="BG28" s="174"/>
+      <c r="BH28" s="174"/>
+      <c r="BI28" s="174"/>
+      <c r="BJ28" s="174"/>
+      <c r="BK28" s="174"/>
+      <c r="BL28" s="174"/>
+      <c r="BM28" s="174"/>
+      <c r="BN28" s="174"/>
+      <c r="BO28" s="174"/>
+      <c r="BP28" s="174"/>
+      <c r="BQ28" s="174"/>
+      <c r="BR28" s="174"/>
+      <c r="BS28" s="174"/>
+      <c r="BT28" s="174"/>
+      <c r="BU28" s="174"/>
+      <c r="BV28" s="174"/>
+      <c r="BW28" s="174"/>
+      <c r="BX28" s="174"/>
+      <c r="BY28" s="174"/>
+      <c r="BZ28" s="174"/>
+      <c r="CA28" s="174"/>
+      <c r="CB28" s="174"/>
+      <c r="CC28" s="174"/>
+      <c r="CD28" s="174"/>
+      <c r="CE28" s="174"/>
+      <c r="CF28" s="174"/>
+      <c r="CG28" s="174"/>
+      <c r="CH28" s="174"/>
+      <c r="CI28" s="174"/>
+      <c r="CJ28" s="174"/>
+      <c r="CK28" s="174"/>
+      <c r="CL28" s="174"/>
+      <c r="CM28" s="174"/>
+      <c r="CN28" s="174"/>
+      <c r="CO28" s="174"/>
+      <c r="CP28" s="174"/>
+      <c r="CQ28" s="174"/>
+      <c r="CR28" s="174"/>
+      <c r="CS28" s="174"/>
+      <c r="CT28" s="174"/>
+      <c r="CU28" s="174"/>
+      <c r="CV28" s="174"/>
+      <c r="CW28" s="174"/>
+      <c r="CX28" s="174"/>
+      <c r="CY28" s="174"/>
+      <c r="CZ28" s="174"/>
+      <c r="DA28" s="174"/>
+      <c r="DB28" s="174"/>
+      <c r="DC28" s="174"/>
+      <c r="DD28" s="174"/>
+      <c r="DE28" s="174"/>
+      <c r="DF28" s="174"/>
+      <c r="DG28" s="174"/>
+      <c r="DH28" s="174"/>
+      <c r="DI28" s="174"/>
+      <c r="DJ28" s="174"/>
+      <c r="DK28" s="174"/>
+      <c r="DL28" s="174"/>
+      <c r="DM28" s="174"/>
+      <c r="DN28" s="174"/>
+      <c r="DO28" s="174"/>
+      <c r="DP28" s="174"/>
+      <c r="DQ28" s="174"/>
+      <c r="DR28" s="174"/>
+      <c r="DS28" s="174"/>
+      <c r="DT28" s="174"/>
+      <c r="DU28" s="174"/>
+      <c r="DV28" s="174"/>
+      <c r="DW28" s="174"/>
+      <c r="DX28" s="174"/>
+      <c r="DY28" s="174"/>
+      <c r="DZ28" s="174"/>
+      <c r="EA28" s="174"/>
+      <c r="EB28" s="174"/>
+      <c r="EC28" s="174"/>
+      <c r="ED28" s="174"/>
+      <c r="EE28" s="174"/>
+      <c r="EF28" s="174"/>
+      <c r="EG28" s="174"/>
+      <c r="EH28" s="174"/>
+      <c r="EI28" s="174"/>
+      <c r="EJ28" s="174"/>
+      <c r="EK28" s="174"/>
+      <c r="EL28" s="174"/>
+      <c r="EM28" s="174"/>
+      <c r="EN28" s="174"/>
+      <c r="EO28" s="174"/>
+      <c r="EP28" s="174"/>
+      <c r="EQ28" s="174"/>
+      <c r="ER28" s="174"/>
+      <c r="ES28" s="174"/>
+      <c r="ET28" s="174"/>
+      <c r="EU28" s="174"/>
+      <c r="EV28" s="174"/>
+      <c r="EW28" s="174"/>
+      <c r="EX28" s="174"/>
+      <c r="EY28" s="174"/>
+      <c r="EZ28" s="174"/>
+      <c r="FA28" s="174"/>
+      <c r="FB28" s="174"/>
+      <c r="FC28" s="174"/>
+      <c r="FD28" s="174"/>
+      <c r="FE28" s="174"/>
+      <c r="FF28" s="174"/>
+      <c r="FG28" s="174"/>
+      <c r="FH28" s="174"/>
+      <c r="FI28" s="174"/>
+      <c r="FJ28" s="174"/>
+      <c r="FK28" s="174"/>
+      <c r="FL28" s="174"/>
+      <c r="FM28" s="174"/>
+      <c r="FN28" s="174"/>
+      <c r="FO28" s="174"/>
+      <c r="FP28" s="174"/>
+      <c r="FQ28" s="174"/>
+      <c r="FR28" s="174"/>
+      <c r="FS28" s="174"/>
+      <c r="FT28" s="174"/>
+      <c r="FU28" s="174"/>
+      <c r="FV28" s="174"/>
+      <c r="FW28" s="174"/>
+      <c r="FX28" s="174"/>
+      <c r="FY28" s="174"/>
+      <c r="FZ28" s="174"/>
+      <c r="GA28" s="174"/>
+      <c r="GB28" s="174"/>
+      <c r="GC28" s="174"/>
+      <c r="GD28" s="174"/>
+      <c r="GE28" s="174"/>
+      <c r="GF28" s="174"/>
+      <c r="GG28" s="174"/>
+      <c r="GH28" s="174"/>
+      <c r="GI28" s="174"/>
+      <c r="GJ28" s="174"/>
+      <c r="GK28" s="174"/>
+      <c r="GL28" s="174"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="174"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5840,16 +5841,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="174"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5861,28 +5862,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5896,6 +5875,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5922,14 +5923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6122,11 +6123,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="231" t="s">
+      <c r="E27" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="232"/>
-      <c r="G27" s="233"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="268"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6450,10 +6451,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="202"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6480,8 +6481,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6520,14 +6521,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6542,36 +6543,36 @@
       <c r="D5" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="204" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-    </row>
-    <row r="6" spans="1:10" s="268" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="264">
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+    </row>
+    <row r="6" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1">
+      <c r="A6" s="168">
         <v>2</v>
       </c>
-      <c r="B6" s="265">
+      <c r="B6" s="169">
         <v>2</v>
       </c>
-      <c r="C6" s="266">
+      <c r="C6" s="170">
         <v>42387</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="262" t="s">
+      <c r="E6" s="206" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="244"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6582,12 +6583,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6598,12 +6599,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6614,12 +6615,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="198"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6630,12 +6631,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6646,12 +6647,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6662,12 +6663,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6678,12 +6679,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6694,12 +6695,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6710,12 +6711,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6726,12 +6727,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6742,12 +6743,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6758,12 +6759,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6774,12 +6775,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6790,12 +6791,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6806,12 +6807,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6822,12 +6823,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6838,12 +6839,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6854,12 +6855,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6870,12 +6871,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6886,12 +6887,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6902,12 +6903,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6918,12 +6919,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6934,12 +6935,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6950,12 +6951,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6966,12 +6967,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6982,12 +6983,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -6998,12 +6999,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -7014,12 +7015,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -7030,12 +7031,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7046,12 +7047,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7062,12 +7063,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7078,12 +7079,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7094,12 +7095,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7110,12 +7111,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7126,12 +7127,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7142,32 +7143,23 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7183,14 +7175,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7232,10 +7233,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="202"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7265,8 +7266,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7296,20 +7297,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="188" t="s">
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="189"/>
+      <c r="J4" s="210"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7320,10 +7321,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="197" t="s">
+      <c r="I5" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="198"/>
+      <c r="J5" s="219"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7334,8 +7335,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="221"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7346,8 +7347,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="221"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7358,8 +7359,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="221"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7370,8 +7371,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="221"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7382,8 +7383,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="223"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7394,10 +7395,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="188" t="s">
+      <c r="I11" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="189"/>
+      <c r="J11" s="210"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7408,10 +7409,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="191" t="s">
+      <c r="I12" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="J12" s="192"/>
+      <c r="J12" s="213"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7422,8 +7423,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="215"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7434,8 +7435,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="215"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7446,8 +7447,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="215"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7458,8 +7459,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="215"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7470,8 +7471,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="215"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7482,8 +7483,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="215"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7494,8 +7495,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="215"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7506,8 +7507,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="215"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7518,8 +7519,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="215"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7530,8 +7531,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="215"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7542,8 +7543,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="215"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7554,8 +7555,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="215"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7566,8 +7567,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="215"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7578,8 +7579,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="215"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7590,8 +7591,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="215"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7602,8 +7603,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="215"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7614,8 +7615,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="215"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7626,8 +7627,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7638,8 +7639,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="215"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7650,8 +7651,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="215"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7662,8 +7663,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="215"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7674,8 +7675,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="215"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7686,8 +7687,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7698,8 +7699,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="215"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7710,8 +7711,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="215"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7722,8 +7723,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7734,8 +7735,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="215"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7746,8 +7747,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="215"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7758,8 +7759,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="215"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7770,8 +7771,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="215"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7782,8 +7783,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7813,8 +7814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
@@ -7841,13 +7842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7855,15 +7856,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="204"/>
-      <c r="J1" s="205" t="s">
+      <c r="I1" s="225"/>
+      <c r="J1" s="226" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="206"/>
-      <c r="L1" s="207"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="228"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7880,11 +7881,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7892,16 +7893,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="204"/>
-      <c r="J2" s="205" t="str">
+      <c r="I2" s="225"/>
+      <c r="J2" s="226" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="206"/>
-      <c r="L2" s="207"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="228"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9206,36 +9207,36 @@
       </c>
       <c r="K5" s="67"/>
     </row>
-    <row r="6" spans="1:17" s="239" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="234">
+    <row r="6" spans="1:17" s="158" customFormat="1" ht="12" customHeight="1">
+      <c r="A6" s="153">
         <v>2</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="234">
+      <c r="C6" s="153">
         <v>51</v>
       </c>
-      <c r="D6" s="235" t="s">
+      <c r="D6" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="235" t="s">
+      <c r="E6" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="237"/>
-      <c r="H6" s="235" t="s">
+      <c r="G6" s="156"/>
+      <c r="H6" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="235" t="s">
+      <c r="I6" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="238" t="s">
+      <c r="J6" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="235"/>
+      <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:17" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="33">
@@ -10123,7 +10124,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="233" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -10160,7 +10161,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="217"/>
+      <c r="A2" s="234"/>
       <c r="B2" s="111"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -10213,42 +10214,42 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215" t="s">
+      <c r="H4" s="229"/>
+      <c r="I4" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-    </row>
-    <row r="5" spans="1:13" s="239" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="240">
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+    </row>
+    <row r="5" spans="1:13" s="158" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A5" s="159">
         <v>1</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="240">
+      <c r="C5" s="159">
         <v>51</v>
       </c>
-      <c r="D5" s="241" t="s">
+      <c r="D5" s="160" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="241" t="s">
+      <c r="F5" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="243" t="s">
+      <c r="G5" s="230" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="247"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="237"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -10259,11 +10260,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="210"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="240"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -10274,11 +10275,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="210"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -10289,11 +10290,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="210"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="240"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -10304,11 +10305,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="239"/>
+      <c r="K9" s="240"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -10319,11 +10320,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="210"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="240"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -10334,11 +10335,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="240"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -10349,11 +10350,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="240"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -10364,11 +10365,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="240"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -10379,11 +10380,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="240"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -10394,11 +10395,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -10409,11 +10410,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="240"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -10424,11 +10425,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="210"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="239"/>
+      <c r="K17" s="240"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -10439,11 +10440,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="210"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="240"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -10454,11 +10455,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="210"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="239"/>
+      <c r="K19" s="240"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -10469,11 +10470,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="210"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="240"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -10484,11 +10485,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="239"/>
+      <c r="K21" s="240"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -10499,11 +10500,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="210"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="240"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -10514,11 +10515,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="210"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="238"/>
+      <c r="J23" s="239"/>
+      <c r="K23" s="240"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -10529,11 +10530,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="210"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="239"/>
+      <c r="K24" s="240"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -10544,11 +10545,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="240"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -10559,11 +10560,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="210"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="240"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -10574,11 +10575,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="210"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -10589,11 +10590,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="210"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -10604,11 +10605,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="210"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -10619,11 +10620,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="210"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -10634,11 +10635,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="210"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -10649,11 +10650,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="210"/>
+      <c r="G32" s="245"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -10664,11 +10665,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="210"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="246"/>
+      <c r="I33" s="238"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="240"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -10679,11 +10680,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="210"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="239"/>
+      <c r="K34" s="240"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10701,11 +10702,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="210"/>
+      <c r="G35" s="245"/>
+      <c r="H35" s="246"/>
+      <c r="I35" s="238"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="240"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10723,11 +10724,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="210"/>
+      <c r="G36" s="245"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="240"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10745,11 +10746,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="210"/>
+      <c r="G37" s="245"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="239"/>
+      <c r="K37" s="240"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10767,11 +10768,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="210"/>
+      <c r="G38" s="245"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="239"/>
+      <c r="K38" s="240"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10789,11 +10790,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="210"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="246"/>
+      <c r="I39" s="238"/>
+      <c r="J39" s="239"/>
+      <c r="K39" s="240"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10811,11 +10812,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="210"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="238"/>
+      <c r="J40" s="239"/>
+      <c r="K40" s="240"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10833,11 +10834,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="210"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="238"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="240"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10855,11 +10856,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="210"/>
+      <c r="G42" s="245"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="238"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="240"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10877,11 +10878,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="208"/>
-      <c r="J43" s="209"/>
-      <c r="K43" s="210"/>
+      <c r="G43" s="245"/>
+      <c r="H43" s="246"/>
+      <c r="I43" s="238"/>
+      <c r="J43" s="239"/>
+      <c r="K43" s="240"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10899,11 +10900,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="210"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="238"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="240"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10921,11 +10922,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="186"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="210"/>
+      <c r="G45" s="245"/>
+      <c r="H45" s="246"/>
+      <c r="I45" s="238"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="240"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10943,11 +10944,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="208"/>
-      <c r="J46" s="209"/>
-      <c r="K46" s="210"/>
+      <c r="G46" s="245"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="238"/>
+      <c r="J46" s="239"/>
+      <c r="K46" s="240"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10965,11 +10966,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="208"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="210"/>
+      <c r="G47" s="245"/>
+      <c r="H47" s="246"/>
+      <c r="I47" s="238"/>
+      <c r="J47" s="239"/>
+      <c r="K47" s="240"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10987,11 +10988,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="208"/>
-      <c r="J48" s="209"/>
-      <c r="K48" s="210"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="240"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -11009,11 +11010,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="210"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="246"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="239"/>
+      <c r="K49" s="240"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -11031,11 +11032,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="208"/>
-      <c r="J50" s="209"/>
-      <c r="K50" s="210"/>
+      <c r="G50" s="245"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="238"/>
+      <c r="J50" s="239"/>
+      <c r="K50" s="240"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -11053,11 +11054,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
-      <c r="K51" s="210"/>
+      <c r="G51" s="245"/>
+      <c r="H51" s="246"/>
+      <c r="I51" s="238"/>
+      <c r="J51" s="239"/>
+      <c r="K51" s="240"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -11075,11 +11076,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="208"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="210"/>
+      <c r="G52" s="245"/>
+      <c r="H52" s="246"/>
+      <c r="I52" s="238"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="240"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -11097,11 +11098,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="186"/>
-      <c r="I53" s="208"/>
-      <c r="J53" s="209"/>
-      <c r="K53" s="210"/>
+      <c r="G53" s="245"/>
+      <c r="H53" s="246"/>
+      <c r="I53" s="238"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="240"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -11119,11 +11120,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="186"/>
-      <c r="I54" s="208"/>
-      <c r="J54" s="209"/>
-      <c r="K54" s="210"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="246"/>
+      <c r="I54" s="238"/>
+      <c r="J54" s="239"/>
+      <c r="K54" s="240"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -11141,11 +11142,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="208"/>
-      <c r="J55" s="209"/>
-      <c r="K55" s="210"/>
+      <c r="G55" s="245"/>
+      <c r="H55" s="246"/>
+      <c r="I55" s="238"/>
+      <c r="J55" s="239"/>
+      <c r="K55" s="240"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -11163,11 +11164,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="208"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="210"/>
+      <c r="G56" s="245"/>
+      <c r="H56" s="246"/>
+      <c r="I56" s="238"/>
+      <c r="J56" s="239"/>
+      <c r="K56" s="240"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -11185,11 +11186,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="208"/>
-      <c r="J57" s="209"/>
-      <c r="K57" s="210"/>
+      <c r="G57" s="245"/>
+      <c r="H57" s="246"/>
+      <c r="I57" s="238"/>
+      <c r="J57" s="239"/>
+      <c r="K57" s="240"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -11207,11 +11208,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="185"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="208"/>
-      <c r="J58" s="209"/>
-      <c r="K58" s="210"/>
+      <c r="G58" s="245"/>
+      <c r="H58" s="246"/>
+      <c r="I58" s="238"/>
+      <c r="J58" s="239"/>
+      <c r="K58" s="240"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -11223,29 +11224,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -11260,80 +11312,29 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -11351,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11380,24 +11381,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="223" t="str">
+      <c r="J1" s="253" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="223"/>
+      <c r="K1" s="253"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11425,22 +11426,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="223" t="str">
+      <c r="J2" s="253" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="223"/>
+      <c r="K2" s="253"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11497,12 +11498,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="224" t="s">
+      <c r="K4" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="226"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="256"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11548,12 +11549,12 @@
       <c r="J5" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="227" t="s">
+      <c r="K5" s="259" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="229"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="260"/>
+      <c r="N5" s="261"/>
       <c r="O5" s="147" t="s">
         <v>190</v>
       </c>
@@ -11570,154 +11571,154 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="255" customFormat="1" ht="66" customHeight="1">
-      <c r="A6" s="248">
+    <row r="6" spans="1:21" s="166" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="162">
         <v>2</v>
       </c>
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="248">
+      <c r="C6" s="162">
         <v>51</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="249" t="s">
+      <c r="E6" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="163" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="249" t="s">
+      <c r="H6" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="249" t="s">
+      <c r="I6" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="250" t="s">
+      <c r="J6" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="250" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="252"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="250" t="s">
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="P6" s="250" t="s">
+      <c r="P6" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="Q6" s="254" t="s">
+      <c r="Q6" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="254" t="s">
+      <c r="R6" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="S6" s="249" t="s">
+      <c r="S6" s="163" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="255" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A7" s="248">
+    <row r="7" spans="1:21" s="166" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A7" s="162">
         <v>3</v>
       </c>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="248">
+      <c r="C7" s="162">
         <v>51</v>
       </c>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="249" t="s">
+      <c r="H7" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="249" t="s">
+      <c r="I7" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="250" t="s">
+      <c r="J7" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="251" t="s">
+      <c r="K7" s="250" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="250" t="s">
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="250" t="s">
+      <c r="P7" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="254" t="s">
+      <c r="Q7" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="254" t="s">
+      <c r="R7" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="249" t="s">
+      <c r="S7" s="163" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="255" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A8" s="248">
+    <row r="8" spans="1:21" s="166" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A8" s="162">
         <v>4</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="248">
+      <c r="C8" s="162">
         <v>51</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="163" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="250" t="s">
+      <c r="E8" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249" t="s">
+      <c r="F8" s="162"/>
+      <c r="G8" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="249" t="s">
+      <c r="H8" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="249" t="s">
+      <c r="I8" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="250" t="s">
+      <c r="J8" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="251" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="250" t="s">
+      <c r="K8" s="250" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="251"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="P8" s="250" t="s">
+      <c r="P8" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="Q8" s="254" t="s">
+      <c r="Q8" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="254" t="s">
+      <c r="R8" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="S8" s="261" t="s">
+      <c r="S8" s="167" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11734,10 +11735,10 @@
       <c r="H9" s="136"/>
       <c r="I9" s="136"/>
       <c r="J9" s="135"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="222"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="248"/>
+      <c r="M9" s="248"/>
+      <c r="N9" s="249"/>
       <c r="O9" s="127"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="137"/>
@@ -11759,10 +11760,10 @@
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
       <c r="J10" s="135"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="222"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="249"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="137"/>
@@ -11784,10 +11785,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="220"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="222"/>
+      <c r="K11" s="247"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248"/>
+      <c r="N11" s="249"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11809,10 +11810,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="222"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="249"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11834,10 +11835,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="222"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="249"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11859,10 +11860,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="222"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="249"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -11884,10 +11885,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="222"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="249"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -11909,10 +11910,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="222"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="248"/>
+      <c r="N16" s="249"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -11934,10 +11935,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="222"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="249"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -11959,10 +11960,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="222"/>
+      <c r="K18" s="247"/>
+      <c r="L18" s="248"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="249"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -11984,10 +11985,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="222"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="249"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -12009,10 +12010,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="222"/>
+      <c r="K20" s="247"/>
+      <c r="L20" s="248"/>
+      <c r="M20" s="248"/>
+      <c r="N20" s="249"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -12034,10 +12035,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="222"/>
+      <c r="K21" s="247"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="249"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -12059,10 +12060,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="222"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="249"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12084,10 +12085,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="222"/>
+      <c r="K23" s="247"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="249"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12109,10 +12110,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="222"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="249"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12134,10 +12135,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="222"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="249"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12159,10 +12160,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="222"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="249"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12184,10 +12185,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222"/>
+      <c r="K27" s="247"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="249"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12209,10 +12210,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="222"/>
+      <c r="K28" s="247"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="249"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12234,10 +12235,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="220"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="222"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="249"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12259,10 +12260,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="221"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="222"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="249"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12284,10 +12285,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="220"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="222"/>
+      <c r="K31" s="247"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="249"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12309,10 +12310,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="222"/>
+      <c r="K32" s="247"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="249"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12334,10 +12335,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="221"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="222"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="249"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12359,10 +12360,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="220"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221"/>
-      <c r="N34" s="222"/>
+      <c r="K34" s="247"/>
+      <c r="L34" s="248"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12384,10 +12385,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="220"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="221"/>
-      <c r="N35" s="222"/>
+      <c r="K35" s="247"/>
+      <c r="L35" s="248"/>
+      <c r="M35" s="248"/>
+      <c r="N35" s="249"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12409,10 +12410,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="221"/>
-      <c r="M36" s="221"/>
-      <c r="N36" s="222"/>
+      <c r="K36" s="247"/>
+      <c r="L36" s="248"/>
+      <c r="M36" s="248"/>
+      <c r="N36" s="249"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12434,10 +12435,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="220"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="221"/>
-      <c r="N37" s="222"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="248"/>
+      <c r="M37" s="248"/>
+      <c r="N37" s="249"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12459,10 +12460,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="220"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="221"/>
-      <c r="N38" s="222"/>
+      <c r="K38" s="247"/>
+      <c r="L38" s="248"/>
+      <c r="M38" s="248"/>
+      <c r="N38" s="249"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12484,10 +12485,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="221"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="222"/>
+      <c r="K39" s="247"/>
+      <c r="L39" s="248"/>
+      <c r="M39" s="248"/>
+      <c r="N39" s="249"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12509,10 +12510,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="222"/>
+      <c r="K40" s="247"/>
+      <c r="L40" s="248"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="249"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12534,10 +12535,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="220"/>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="222"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="248"/>
+      <c r="M41" s="248"/>
+      <c r="N41" s="249"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12559,10 +12560,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="220"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="222"/>
+      <c r="K42" s="247"/>
+      <c r="L42" s="248"/>
+      <c r="M42" s="248"/>
+      <c r="N42" s="249"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12584,10 +12585,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="220"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="222"/>
+      <c r="K43" s="247"/>
+      <c r="L43" s="248"/>
+      <c r="M43" s="248"/>
+      <c r="N43" s="249"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12609,10 +12610,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="222"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="248"/>
+      <c r="M44" s="248"/>
+      <c r="N44" s="249"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12634,10 +12635,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="222"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="249"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12659,10 +12660,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="220"/>
-      <c r="L46" s="221"/>
-      <c r="M46" s="221"/>
-      <c r="N46" s="222"/>
+      <c r="K46" s="247"/>
+      <c r="L46" s="248"/>
+      <c r="M46" s="248"/>
+      <c r="N46" s="249"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12684,10 +12685,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="220"/>
-      <c r="L47" s="221"/>
-      <c r="M47" s="221"/>
-      <c r="N47" s="222"/>
+      <c r="K47" s="247"/>
+      <c r="L47" s="248"/>
+      <c r="M47" s="248"/>
+      <c r="N47" s="249"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12709,10 +12710,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="221"/>
-      <c r="M48" s="221"/>
-      <c r="N48" s="222"/>
+      <c r="K48" s="247"/>
+      <c r="L48" s="248"/>
+      <c r="M48" s="248"/>
+      <c r="N48" s="249"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12734,10 +12735,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="221"/>
-      <c r="M49" s="221"/>
-      <c r="N49" s="222"/>
+      <c r="K49" s="247"/>
+      <c r="L49" s="248"/>
+      <c r="M49" s="248"/>
+      <c r="N49" s="249"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12759,10 +12760,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="220"/>
-      <c r="L50" s="221"/>
-      <c r="M50" s="221"/>
-      <c r="N50" s="222"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="248"/>
+      <c r="M50" s="248"/>
+      <c r="N50" s="249"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12784,10 +12785,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="221"/>
-      <c r="M51" s="221"/>
-      <c r="N51" s="222"/>
+      <c r="K51" s="247"/>
+      <c r="L51" s="248"/>
+      <c r="M51" s="248"/>
+      <c r="N51" s="249"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12809,10 +12810,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="220"/>
-      <c r="L52" s="221"/>
-      <c r="M52" s="221"/>
-      <c r="N52" s="222"/>
+      <c r="K52" s="247"/>
+      <c r="L52" s="248"/>
+      <c r="M52" s="248"/>
+      <c r="N52" s="249"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12834,10 +12835,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="220"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="221"/>
-      <c r="N53" s="222"/>
+      <c r="K53" s="247"/>
+      <c r="L53" s="248"/>
+      <c r="M53" s="248"/>
+      <c r="N53" s="249"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12859,10 +12860,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="220"/>
-      <c r="L54" s="221"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="222"/>
+      <c r="K54" s="247"/>
+      <c r="L54" s="248"/>
+      <c r="M54" s="248"/>
+      <c r="N54" s="249"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -12884,10 +12885,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="220"/>
-      <c r="L55" s="221"/>
-      <c r="M55" s="221"/>
-      <c r="N55" s="222"/>
+      <c r="K55" s="247"/>
+      <c r="L55" s="248"/>
+      <c r="M55" s="248"/>
+      <c r="N55" s="249"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -12909,10 +12910,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="220"/>
-      <c r="L56" s="221"/>
-      <c r="M56" s="221"/>
-      <c r="N56" s="222"/>
+      <c r="K56" s="247"/>
+      <c r="L56" s="248"/>
+      <c r="M56" s="248"/>
+      <c r="N56" s="249"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -12934,10 +12935,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="220"/>
-      <c r="L57" s="221"/>
-      <c r="M57" s="221"/>
-      <c r="N57" s="222"/>
+      <c r="K57" s="247"/>
+      <c r="L57" s="248"/>
+      <c r="M57" s="248"/>
+      <c r="N57" s="249"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -12959,10 +12960,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="220"/>
-      <c r="L58" s="221"/>
-      <c r="M58" s="221"/>
-      <c r="N58" s="222"/>
+      <c r="K58" s="247"/>
+      <c r="L58" s="248"/>
+      <c r="M58" s="248"/>
+      <c r="N58" s="249"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -12984,10 +12985,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="220"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="221"/>
-      <c r="N59" s="222"/>
+      <c r="K59" s="247"/>
+      <c r="L59" s="248"/>
+      <c r="M59" s="248"/>
+      <c r="N59" s="249"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -13009,10 +13010,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="220"/>
-      <c r="L60" s="221"/>
-      <c r="M60" s="221"/>
-      <c r="N60" s="222"/>
+      <c r="K60" s="247"/>
+      <c r="L60" s="248"/>
+      <c r="M60" s="248"/>
+      <c r="N60" s="249"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -13034,10 +13035,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="220"/>
-      <c r="L61" s="221"/>
-      <c r="M61" s="221"/>
-      <c r="N61" s="222"/>
+      <c r="K61" s="247"/>
+      <c r="L61" s="248"/>
+      <c r="M61" s="248"/>
+      <c r="N61" s="249"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -13059,10 +13060,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="220"/>
-      <c r="L62" s="221"/>
-      <c r="M62" s="221"/>
-      <c r="N62" s="222"/>
+      <c r="K62" s="247"/>
+      <c r="L62" s="248"/>
+      <c r="M62" s="248"/>
+      <c r="N62" s="249"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13084,10 +13085,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="220"/>
-      <c r="L63" s="221"/>
-      <c r="M63" s="221"/>
-      <c r="N63" s="222"/>
+      <c r="K63" s="247"/>
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="249"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13109,10 +13110,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="220"/>
-      <c r="L64" s="221"/>
-      <c r="M64" s="221"/>
-      <c r="N64" s="222"/>
+      <c r="K64" s="247"/>
+      <c r="L64" s="248"/>
+      <c r="M64" s="248"/>
+      <c r="N64" s="249"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13132,10 +13133,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="220"/>
-      <c r="L65" s="221"/>
-      <c r="M65" s="221"/>
-      <c r="N65" s="222"/>
+      <c r="K65" s="247"/>
+      <c r="L65" s="248"/>
+      <c r="M65" s="248"/>
+      <c r="N65" s="249"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13155,10 +13156,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="220"/>
-      <c r="L66" s="221"/>
-      <c r="M66" s="221"/>
-      <c r="N66" s="222"/>
+      <c r="K66" s="247"/>
+      <c r="L66" s="248"/>
+      <c r="M66" s="248"/>
+      <c r="N66" s="249"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13178,10 +13179,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="220"/>
-      <c r="L67" s="221"/>
-      <c r="M67" s="221"/>
-      <c r="N67" s="222"/>
+      <c r="K67" s="247"/>
+      <c r="L67" s="248"/>
+      <c r="M67" s="248"/>
+      <c r="N67" s="249"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13201,10 +13202,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="220"/>
-      <c r="L68" s="221"/>
-      <c r="M68" s="221"/>
-      <c r="N68" s="222"/>
+      <c r="K68" s="247"/>
+      <c r="L68" s="248"/>
+      <c r="M68" s="248"/>
+      <c r="N68" s="249"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13224,10 +13225,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="220"/>
-      <c r="L69" s="221"/>
-      <c r="M69" s="221"/>
-      <c r="N69" s="222"/>
+      <c r="K69" s="247"/>
+      <c r="L69" s="248"/>
+      <c r="M69" s="248"/>
+      <c r="N69" s="249"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13247,10 +13248,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="220"/>
-      <c r="L70" s="221"/>
-      <c r="M70" s="221"/>
-      <c r="N70" s="222"/>
+      <c r="K70" s="247"/>
+      <c r="L70" s="248"/>
+      <c r="M70" s="248"/>
+      <c r="N70" s="249"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13270,10 +13271,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="220"/>
-      <c r="L71" s="221"/>
-      <c r="M71" s="221"/>
-      <c r="N71" s="222"/>
+      <c r="K71" s="247"/>
+      <c r="L71" s="248"/>
+      <c r="M71" s="248"/>
+      <c r="N71" s="249"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13293,10 +13294,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="220"/>
-      <c r="L72" s="221"/>
-      <c r="M72" s="221"/>
-      <c r="N72" s="222"/>
+      <c r="K72" s="247"/>
+      <c r="L72" s="248"/>
+      <c r="M72" s="248"/>
+      <c r="N72" s="249"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13316,10 +13317,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="220"/>
-      <c r="L73" s="221"/>
-      <c r="M73" s="221"/>
-      <c r="N73" s="222"/>
+      <c r="K73" s="247"/>
+      <c r="L73" s="248"/>
+      <c r="M73" s="248"/>
+      <c r="N73" s="249"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13339,10 +13340,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="220"/>
-      <c r="L74" s="221"/>
-      <c r="M74" s="221"/>
-      <c r="N74" s="222"/>
+      <c r="K74" s="247"/>
+      <c r="L74" s="248"/>
+      <c r="M74" s="248"/>
+      <c r="N74" s="249"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13362,10 +13363,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="220"/>
-      <c r="L75" s="221"/>
-      <c r="M75" s="221"/>
-      <c r="N75" s="222"/>
+      <c r="K75" s="247"/>
+      <c r="L75" s="248"/>
+      <c r="M75" s="248"/>
+      <c r="N75" s="249"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13385,10 +13386,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="220"/>
-      <c r="L76" s="221"/>
-      <c r="M76" s="221"/>
-      <c r="N76" s="222"/>
+      <c r="K76" s="247"/>
+      <c r="L76" s="248"/>
+      <c r="M76" s="248"/>
+      <c r="N76" s="249"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13408,10 +13409,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="220"/>
-      <c r="L77" s="221"/>
-      <c r="M77" s="221"/>
-      <c r="N77" s="222"/>
+      <c r="K77" s="247"/>
+      <c r="L77" s="248"/>
+      <c r="M77" s="248"/>
+      <c r="N77" s="249"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13431,10 +13432,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="220"/>
-      <c r="L78" s="221"/>
-      <c r="M78" s="221"/>
-      <c r="N78" s="222"/>
+      <c r="K78" s="247"/>
+      <c r="L78" s="248"/>
+      <c r="M78" s="248"/>
+      <c r="N78" s="249"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13454,10 +13455,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="220"/>
-      <c r="L79" s="221"/>
-      <c r="M79" s="221"/>
-      <c r="N79" s="222"/>
+      <c r="K79" s="247"/>
+      <c r="L79" s="248"/>
+      <c r="M79" s="248"/>
+      <c r="N79" s="249"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13477,10 +13478,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="220"/>
-      <c r="L80" s="221"/>
-      <c r="M80" s="221"/>
-      <c r="N80" s="222"/>
+      <c r="K80" s="247"/>
+      <c r="L80" s="248"/>
+      <c r="M80" s="248"/>
+      <c r="N80" s="249"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13500,10 +13501,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="220"/>
-      <c r="L81" s="221"/>
-      <c r="M81" s="221"/>
-      <c r="N81" s="222"/>
+      <c r="K81" s="247"/>
+      <c r="L81" s="248"/>
+      <c r="M81" s="248"/>
+      <c r="N81" s="249"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13523,10 +13524,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="220"/>
-      <c r="L82" s="221"/>
-      <c r="M82" s="221"/>
-      <c r="N82" s="222"/>
+      <c r="K82" s="247"/>
+      <c r="L82" s="248"/>
+      <c r="M82" s="248"/>
+      <c r="N82" s="249"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13546,10 +13547,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="220"/>
-      <c r="L83" s="221"/>
-      <c r="M83" s="221"/>
-      <c r="N83" s="222"/>
+      <c r="K83" s="247"/>
+      <c r="L83" s="248"/>
+      <c r="M83" s="248"/>
+      <c r="N83" s="249"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13569,10 +13570,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="220"/>
-      <c r="L84" s="221"/>
-      <c r="M84" s="221"/>
-      <c r="N84" s="222"/>
+      <c r="K84" s="247"/>
+      <c r="L84" s="248"/>
+      <c r="M84" s="248"/>
+      <c r="N84" s="249"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13592,10 +13593,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="220"/>
-      <c r="L85" s="221"/>
-      <c r="M85" s="221"/>
-      <c r="N85" s="222"/>
+      <c r="K85" s="247"/>
+      <c r="L85" s="248"/>
+      <c r="M85" s="248"/>
+      <c r="N85" s="249"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13615,10 +13616,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="220"/>
-      <c r="L86" s="221"/>
-      <c r="M86" s="221"/>
-      <c r="N86" s="222"/>
+      <c r="K86" s="247"/>
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="249"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13638,10 +13639,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="220"/>
-      <c r="L87" s="221"/>
-      <c r="M87" s="221"/>
-      <c r="N87" s="222"/>
+      <c r="K87" s="247"/>
+      <c r="L87" s="248"/>
+      <c r="M87" s="248"/>
+      <c r="N87" s="249"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13661,10 +13662,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="220"/>
-      <c r="L88" s="221"/>
-      <c r="M88" s="221"/>
-      <c r="N88" s="222"/>
+      <c r="K88" s="247"/>
+      <c r="L88" s="248"/>
+      <c r="M88" s="248"/>
+      <c r="N88" s="249"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13684,10 +13685,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="220"/>
-      <c r="L89" s="221"/>
-      <c r="M89" s="221"/>
-      <c r="N89" s="222"/>
+      <c r="K89" s="247"/>
+      <c r="L89" s="248"/>
+      <c r="M89" s="248"/>
+      <c r="N89" s="249"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13707,10 +13708,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="220"/>
-      <c r="L90" s="221"/>
-      <c r="M90" s="221"/>
-      <c r="N90" s="222"/>
+      <c r="K90" s="247"/>
+      <c r="L90" s="248"/>
+      <c r="M90" s="248"/>
+      <c r="N90" s="249"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13730,10 +13731,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="220"/>
-      <c r="L91" s="221"/>
-      <c r="M91" s="221"/>
-      <c r="N91" s="222"/>
+      <c r="K91" s="247"/>
+      <c r="L91" s="248"/>
+      <c r="M91" s="248"/>
+      <c r="N91" s="249"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13753,10 +13754,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="220"/>
-      <c r="L92" s="221"/>
-      <c r="M92" s="221"/>
-      <c r="N92" s="222"/>
+      <c r="K92" s="247"/>
+      <c r="L92" s="248"/>
+      <c r="M92" s="248"/>
+      <c r="N92" s="249"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13776,10 +13777,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="220"/>
-      <c r="L93" s="221"/>
-      <c r="M93" s="221"/>
-      <c r="N93" s="222"/>
+      <c r="K93" s="247"/>
+      <c r="L93" s="248"/>
+      <c r="M93" s="248"/>
+      <c r="N93" s="249"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13799,10 +13800,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="220"/>
-      <c r="L94" s="221"/>
-      <c r="M94" s="221"/>
-      <c r="N94" s="222"/>
+      <c r="K94" s="247"/>
+      <c r="L94" s="248"/>
+      <c r="M94" s="248"/>
+      <c r="N94" s="249"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -13890,21 +13891,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
     <mergeCell ref="K92:N92"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
@@ -13921,69 +13959,32 @@
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
     <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="K44:N44"/>
     <mergeCell ref="K45:N45"/>
     <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -14029,10 +14030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="202"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14063,8 +14064,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14240,7 +14241,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14364,18 +14365,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="258" t="s">
+      <c r="A26" s="262" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="259"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="260"/>
+      <c r="B26" s="263"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="264"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -15145,10 +15146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="181"/>
+      <c r="B1" s="202"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15176,8 +15177,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -2184,18 +2184,6 @@
     <t>@SQL0004</t>
   </si>
   <si>
-    <t>@OrderStatus
-@DivisionID
-@OrderID
-@DeliveryStatus</t>
-  </si>
-  <si>
-    <t>3
-@@DivisionID
-@@OrderID
-1</t>
-  </si>
-  <si>
     <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
   </si>
   <si>
@@ -2220,11 +2208,23 @@
 AND SOrderID = @SOrderID AND
 (SELECT SUM(ActualQuantity) FROM AT2007 AT07
 INNER JOIN AT2006 AT06 ON AT06.DivisionID= AT07.DivisionID AND AT06.VoucherID=AT07.VoucherID
-WHERE AT07.DivisioniD = @DivisionID AND AT06.OrderID = @OrderID AND AT06.DeliveryStatus = 1)
+WHERE AT07.DivisionID = @DivisionID AND AT06.OrderID = @OrderID AND AT06.DeliveryStatus = 1)
  = 
 (SELECT OrderQuantity FROM OT2002 OT02
 INNER JOIN AT2006 AT06 ON AT06.DivisionID = OT02.DivisionID AND AT06.OrderID=OT02.SOrderID
 WHERE OT02.DivisionID=@DivisionID AND AT06.OrderID=@OrderID)</t>
+  </si>
+  <si>
+    <t>@OrderStatus
+@DivisionID
+@SOrderID=@OrderID
+@DeliveryStatus</t>
+  </si>
+  <si>
+    <t>3
+@@DivisionID
+@@SOrderID
+1</t>
   </si>
 </sst>
 </file>
@@ -6566,7 +6566,7 @@
         <v>170</v>
       </c>
       <c r="E6" s="206" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F6" s="207"/>
       <c r="G6" s="207"/>
@@ -11352,7 +11352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D6" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8:N8"/>
     </sheetView>
   </sheetViews>
@@ -11372,7 +11372,7 @@
     <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="23" customWidth="1"/>
     <col min="16" max="18" width="14.140625" style="23" customWidth="1"/>
     <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
     <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
@@ -11682,7 +11682,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="164" t="s">
         <v>214</v>
@@ -11701,16 +11701,16 @@
         <v>217</v>
       </c>
       <c r="K8" s="250" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L8" s="251"/>
       <c r="M8" s="251"/>
       <c r="N8" s="252"/>
       <c r="O8" s="164" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P8" s="164" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="165" t="s">
         <v>167</v>
@@ -11719,7 +11719,7 @@
         <v>184</v>
       </c>
       <c r="S8" s="167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -14241,7 +14241,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14366,7 +14366,7 @@
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
       <c r="A26" s="262" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" s="263"/>
       <c r="C26" s="263"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -3190,114 +3190,114 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3358,18 +3358,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3386,32 +3407,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3421,6 +3421,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3429,18 +3441,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4258,13 +4258,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>436109</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1924724</xdr:rowOff>
+      <xdr:rowOff>1924723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1693409</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2420024</xdr:rowOff>
+      <xdr:rowOff>2483302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4273,8 +4273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4399189" y="5751733"/>
-          <a:ext cx="1257300" cy="495300"/>
+          <a:off x="4399189" y="5751732"/>
+          <a:ext cx="1257300" cy="558579"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
           <a:avLst/>
@@ -4313,7 +4313,18 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> @SQL0001 </a:t>
+            <a:t> @SQL0001</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>trở về  AF0324 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="700">
             <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -4493,7 +4504,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1064759</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1924724</xdr:rowOff>
+      <xdr:rowOff>1924723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4506,7 +4517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5025457" y="5060156"/>
-          <a:ext cx="2382" cy="691577"/>
+          <a:ext cx="2382" cy="691576"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5324,65 +5335,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="184"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="185" t="s">
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185" t="s">
+      <c r="H1" s="179"/>
+      <c r="I1" s="179" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="185"/>
+      <c r="J1" s="179"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="185" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="181" t="s">
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5393,56 +5404,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5453,384 +5464,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="177"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="173"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="177"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="189"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="189"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="175"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="191"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="174"/>
-      <c r="AF28" s="174"/>
-      <c r="AG28" s="174"/>
-      <c r="AH28" s="174"/>
-      <c r="AI28" s="174"/>
-      <c r="AJ28" s="174"/>
-      <c r="AK28" s="174"/>
-      <c r="AL28" s="174"/>
-      <c r="AM28" s="174"/>
-      <c r="AN28" s="174"/>
-      <c r="AO28" s="174"/>
-      <c r="AP28" s="174"/>
-      <c r="AQ28" s="174"/>
-      <c r="AR28" s="174"/>
-      <c r="AS28" s="174"/>
-      <c r="AT28" s="174"/>
-      <c r="AU28" s="174"/>
-      <c r="AV28" s="174"/>
-      <c r="AW28" s="174"/>
-      <c r="AX28" s="174"/>
-      <c r="AY28" s="174"/>
-      <c r="AZ28" s="174"/>
-      <c r="BA28" s="174"/>
-      <c r="BB28" s="174"/>
-      <c r="BC28" s="174"/>
-      <c r="BD28" s="174"/>
-      <c r="BE28" s="174"/>
-      <c r="BF28" s="174"/>
-      <c r="BG28" s="174"/>
-      <c r="BH28" s="174"/>
-      <c r="BI28" s="174"/>
-      <c r="BJ28" s="174"/>
-      <c r="BK28" s="174"/>
-      <c r="BL28" s="174"/>
-      <c r="BM28" s="174"/>
-      <c r="BN28" s="174"/>
-      <c r="BO28" s="174"/>
-      <c r="BP28" s="174"/>
-      <c r="BQ28" s="174"/>
-      <c r="BR28" s="174"/>
-      <c r="BS28" s="174"/>
-      <c r="BT28" s="174"/>
-      <c r="BU28" s="174"/>
-      <c r="BV28" s="174"/>
-      <c r="BW28" s="174"/>
-      <c r="BX28" s="174"/>
-      <c r="BY28" s="174"/>
-      <c r="BZ28" s="174"/>
-      <c r="CA28" s="174"/>
-      <c r="CB28" s="174"/>
-      <c r="CC28" s="174"/>
-      <c r="CD28" s="174"/>
-      <c r="CE28" s="174"/>
-      <c r="CF28" s="174"/>
-      <c r="CG28" s="174"/>
-      <c r="CH28" s="174"/>
-      <c r="CI28" s="174"/>
-      <c r="CJ28" s="174"/>
-      <c r="CK28" s="174"/>
-      <c r="CL28" s="174"/>
-      <c r="CM28" s="174"/>
-      <c r="CN28" s="174"/>
-      <c r="CO28" s="174"/>
-      <c r="CP28" s="174"/>
-      <c r="CQ28" s="174"/>
-      <c r="CR28" s="174"/>
-      <c r="CS28" s="174"/>
-      <c r="CT28" s="174"/>
-      <c r="CU28" s="174"/>
-      <c r="CV28" s="174"/>
-      <c r="CW28" s="174"/>
-      <c r="CX28" s="174"/>
-      <c r="CY28" s="174"/>
-      <c r="CZ28" s="174"/>
-      <c r="DA28" s="174"/>
-      <c r="DB28" s="174"/>
-      <c r="DC28" s="174"/>
-      <c r="DD28" s="174"/>
-      <c r="DE28" s="174"/>
-      <c r="DF28" s="174"/>
-      <c r="DG28" s="174"/>
-      <c r="DH28" s="174"/>
-      <c r="DI28" s="174"/>
-      <c r="DJ28" s="174"/>
-      <c r="DK28" s="174"/>
-      <c r="DL28" s="174"/>
-      <c r="DM28" s="174"/>
-      <c r="DN28" s="174"/>
-      <c r="DO28" s="174"/>
-      <c r="DP28" s="174"/>
-      <c r="DQ28" s="174"/>
-      <c r="DR28" s="174"/>
-      <c r="DS28" s="174"/>
-      <c r="DT28" s="174"/>
-      <c r="DU28" s="174"/>
-      <c r="DV28" s="174"/>
-      <c r="DW28" s="174"/>
-      <c r="DX28" s="174"/>
-      <c r="DY28" s="174"/>
-      <c r="DZ28" s="174"/>
-      <c r="EA28" s="174"/>
-      <c r="EB28" s="174"/>
-      <c r="EC28" s="174"/>
-      <c r="ED28" s="174"/>
-      <c r="EE28" s="174"/>
-      <c r="EF28" s="174"/>
-      <c r="EG28" s="174"/>
-      <c r="EH28" s="174"/>
-      <c r="EI28" s="174"/>
-      <c r="EJ28" s="174"/>
-      <c r="EK28" s="174"/>
-      <c r="EL28" s="174"/>
-      <c r="EM28" s="174"/>
-      <c r="EN28" s="174"/>
-      <c r="EO28" s="174"/>
-      <c r="EP28" s="174"/>
-      <c r="EQ28" s="174"/>
-      <c r="ER28" s="174"/>
-      <c r="ES28" s="174"/>
-      <c r="ET28" s="174"/>
-      <c r="EU28" s="174"/>
-      <c r="EV28" s="174"/>
-      <c r="EW28" s="174"/>
-      <c r="EX28" s="174"/>
-      <c r="EY28" s="174"/>
-      <c r="EZ28" s="174"/>
-      <c r="FA28" s="174"/>
-      <c r="FB28" s="174"/>
-      <c r="FC28" s="174"/>
-      <c r="FD28" s="174"/>
-      <c r="FE28" s="174"/>
-      <c r="FF28" s="174"/>
-      <c r="FG28" s="174"/>
-      <c r="FH28" s="174"/>
-      <c r="FI28" s="174"/>
-      <c r="FJ28" s="174"/>
-      <c r="FK28" s="174"/>
-      <c r="FL28" s="174"/>
-      <c r="FM28" s="174"/>
-      <c r="FN28" s="174"/>
-      <c r="FO28" s="174"/>
-      <c r="FP28" s="174"/>
-      <c r="FQ28" s="174"/>
-      <c r="FR28" s="174"/>
-      <c r="FS28" s="174"/>
-      <c r="FT28" s="174"/>
-      <c r="FU28" s="174"/>
-      <c r="FV28" s="174"/>
-      <c r="FW28" s="174"/>
-      <c r="FX28" s="174"/>
-      <c r="FY28" s="174"/>
-      <c r="FZ28" s="174"/>
-      <c r="GA28" s="174"/>
-      <c r="GB28" s="174"/>
-      <c r="GC28" s="174"/>
-      <c r="GD28" s="174"/>
-      <c r="GE28" s="174"/>
-      <c r="GF28" s="174"/>
-      <c r="GG28" s="174"/>
-      <c r="GH28" s="174"/>
-      <c r="GI28" s="174"/>
-      <c r="GJ28" s="174"/>
-      <c r="GK28" s="174"/>
-      <c r="GL28" s="174"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="192"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="192"/>
+      <c r="AG28" s="192"/>
+      <c r="AH28" s="192"/>
+      <c r="AI28" s="192"/>
+      <c r="AJ28" s="192"/>
+      <c r="AK28" s="192"/>
+      <c r="AL28" s="192"/>
+      <c r="AM28" s="192"/>
+      <c r="AN28" s="192"/>
+      <c r="AO28" s="192"/>
+      <c r="AP28" s="192"/>
+      <c r="AQ28" s="192"/>
+      <c r="AR28" s="192"/>
+      <c r="AS28" s="192"/>
+      <c r="AT28" s="192"/>
+      <c r="AU28" s="192"/>
+      <c r="AV28" s="192"/>
+      <c r="AW28" s="192"/>
+      <c r="AX28" s="192"/>
+      <c r="AY28" s="192"/>
+      <c r="AZ28" s="192"/>
+      <c r="BA28" s="192"/>
+      <c r="BB28" s="192"/>
+      <c r="BC28" s="192"/>
+      <c r="BD28" s="192"/>
+      <c r="BE28" s="192"/>
+      <c r="BF28" s="192"/>
+      <c r="BG28" s="192"/>
+      <c r="BH28" s="192"/>
+      <c r="BI28" s="192"/>
+      <c r="BJ28" s="192"/>
+      <c r="BK28" s="192"/>
+      <c r="BL28" s="192"/>
+      <c r="BM28" s="192"/>
+      <c r="BN28" s="192"/>
+      <c r="BO28" s="192"/>
+      <c r="BP28" s="192"/>
+      <c r="BQ28" s="192"/>
+      <c r="BR28" s="192"/>
+      <c r="BS28" s="192"/>
+      <c r="BT28" s="192"/>
+      <c r="BU28" s="192"/>
+      <c r="BV28" s="192"/>
+      <c r="BW28" s="192"/>
+      <c r="BX28" s="192"/>
+      <c r="BY28" s="192"/>
+      <c r="BZ28" s="192"/>
+      <c r="CA28" s="192"/>
+      <c r="CB28" s="192"/>
+      <c r="CC28" s="192"/>
+      <c r="CD28" s="192"/>
+      <c r="CE28" s="192"/>
+      <c r="CF28" s="192"/>
+      <c r="CG28" s="192"/>
+      <c r="CH28" s="192"/>
+      <c r="CI28" s="192"/>
+      <c r="CJ28" s="192"/>
+      <c r="CK28" s="192"/>
+      <c r="CL28" s="192"/>
+      <c r="CM28" s="192"/>
+      <c r="CN28" s="192"/>
+      <c r="CO28" s="192"/>
+      <c r="CP28" s="192"/>
+      <c r="CQ28" s="192"/>
+      <c r="CR28" s="192"/>
+      <c r="CS28" s="192"/>
+      <c r="CT28" s="192"/>
+      <c r="CU28" s="192"/>
+      <c r="CV28" s="192"/>
+      <c r="CW28" s="192"/>
+      <c r="CX28" s="192"/>
+      <c r="CY28" s="192"/>
+      <c r="CZ28" s="192"/>
+      <c r="DA28" s="192"/>
+      <c r="DB28" s="192"/>
+      <c r="DC28" s="192"/>
+      <c r="DD28" s="192"/>
+      <c r="DE28" s="192"/>
+      <c r="DF28" s="192"/>
+      <c r="DG28" s="192"/>
+      <c r="DH28" s="192"/>
+      <c r="DI28" s="192"/>
+      <c r="DJ28" s="192"/>
+      <c r="DK28" s="192"/>
+      <c r="DL28" s="192"/>
+      <c r="DM28" s="192"/>
+      <c r="DN28" s="192"/>
+      <c r="DO28" s="192"/>
+      <c r="DP28" s="192"/>
+      <c r="DQ28" s="192"/>
+      <c r="DR28" s="192"/>
+      <c r="DS28" s="192"/>
+      <c r="DT28" s="192"/>
+      <c r="DU28" s="192"/>
+      <c r="DV28" s="192"/>
+      <c r="DW28" s="192"/>
+      <c r="DX28" s="192"/>
+      <c r="DY28" s="192"/>
+      <c r="DZ28" s="192"/>
+      <c r="EA28" s="192"/>
+      <c r="EB28" s="192"/>
+      <c r="EC28" s="192"/>
+      <c r="ED28" s="192"/>
+      <c r="EE28" s="192"/>
+      <c r="EF28" s="192"/>
+      <c r="EG28" s="192"/>
+      <c r="EH28" s="192"/>
+      <c r="EI28" s="192"/>
+      <c r="EJ28" s="192"/>
+      <c r="EK28" s="192"/>
+      <c r="EL28" s="192"/>
+      <c r="EM28" s="192"/>
+      <c r="EN28" s="192"/>
+      <c r="EO28" s="192"/>
+      <c r="EP28" s="192"/>
+      <c r="EQ28" s="192"/>
+      <c r="ER28" s="192"/>
+      <c r="ES28" s="192"/>
+      <c r="ET28" s="192"/>
+      <c r="EU28" s="192"/>
+      <c r="EV28" s="192"/>
+      <c r="EW28" s="192"/>
+      <c r="EX28" s="192"/>
+      <c r="EY28" s="192"/>
+      <c r="EZ28" s="192"/>
+      <c r="FA28" s="192"/>
+      <c r="FB28" s="192"/>
+      <c r="FC28" s="192"/>
+      <c r="FD28" s="192"/>
+      <c r="FE28" s="192"/>
+      <c r="FF28" s="192"/>
+      <c r="FG28" s="192"/>
+      <c r="FH28" s="192"/>
+      <c r="FI28" s="192"/>
+      <c r="FJ28" s="192"/>
+      <c r="FK28" s="192"/>
+      <c r="FL28" s="192"/>
+      <c r="FM28" s="192"/>
+      <c r="FN28" s="192"/>
+      <c r="FO28" s="192"/>
+      <c r="FP28" s="192"/>
+      <c r="FQ28" s="192"/>
+      <c r="FR28" s="192"/>
+      <c r="FS28" s="192"/>
+      <c r="FT28" s="192"/>
+      <c r="FU28" s="192"/>
+      <c r="FV28" s="192"/>
+      <c r="FW28" s="192"/>
+      <c r="FX28" s="192"/>
+      <c r="FY28" s="192"/>
+      <c r="FZ28" s="192"/>
+      <c r="GA28" s="192"/>
+      <c r="GB28" s="192"/>
+      <c r="GC28" s="192"/>
+      <c r="GD28" s="192"/>
+      <c r="GE28" s="192"/>
+      <c r="GF28" s="192"/>
+      <c r="GG28" s="192"/>
+      <c r="GH28" s="192"/>
+      <c r="GI28" s="192"/>
+      <c r="GJ28" s="192"/>
+      <c r="GK28" s="192"/>
+      <c r="GL28" s="192"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="173"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
+      <c r="A30" s="194"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5841,16 +5852,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
+      <c r="A31" s="194"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5862,6 +5873,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5875,28 +5908,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -6434,7 +6445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:J8"/>
     </sheetView>
   </sheetViews>
@@ -6451,10 +6462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="201"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6481,8 +6492,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6521,14 +6532,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6543,14 +6554,14 @@
       <c r="D5" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="204" t="s">
+      <c r="E5" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
     </row>
     <row r="6" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1">
       <c r="A6" s="168">
@@ -6565,14 +6576,14 @@
       <c r="D6" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="206" t="s">
+      <c r="E6" s="205" t="s">
         <v>219</v>
       </c>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6583,12 +6594,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6599,12 +6610,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6615,12 +6626,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6631,12 +6642,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6647,12 +6658,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6663,12 +6674,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6679,12 +6690,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6695,12 +6706,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6711,12 +6722,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6727,12 +6738,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6743,12 +6754,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6759,12 +6770,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="195"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6775,12 +6786,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6791,12 +6802,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="208"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6807,12 +6818,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6823,12 +6834,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6839,12 +6850,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6855,12 +6866,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6871,12 +6882,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6887,12 +6898,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6903,12 +6914,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6919,12 +6930,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6935,12 +6946,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="195"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="208"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="208"/>
+      <c r="J29" s="208"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6951,12 +6962,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6967,12 +6978,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="195"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6983,12 +6994,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="195"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -6999,12 +7010,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -7015,12 +7026,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -7031,12 +7042,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7047,12 +7058,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7063,12 +7074,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="195"/>
-      <c r="G37" s="195"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="195"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7079,12 +7090,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7095,12 +7106,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7111,12 +7122,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="208"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7127,12 +7138,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="208"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7143,23 +7154,32 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="195"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="195"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7175,23 +7195,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7233,10 +7244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="201"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7266,8 +7277,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7815,7 +7826,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
@@ -7842,13 +7853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7881,11 +7892,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -10124,7 +10135,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -10161,7 +10172,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
+      <c r="A2" s="241"/>
       <c r="B2" s="111"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -10214,15 +10225,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="229" t="s">
+      <c r="G4" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229" t="s">
+      <c r="H4" s="238"/>
+      <c r="I4" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
     </row>
     <row r="5" spans="1:13" s="158" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="159">
@@ -10243,13 +10254,13 @@
       <c r="F5" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="230" t="s">
+      <c r="G5" s="239" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="208"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="244"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -10260,11 +10271,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="243"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="240"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="233"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -10275,11 +10286,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="240"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="233"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -10290,11 +10301,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="240"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -10305,11 +10316,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="240"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -10320,11 +10331,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="232"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="240"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -10335,11 +10346,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="240"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -10350,11 +10361,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="240"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -10365,11 +10376,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="240"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="233"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -10380,11 +10391,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="240"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -10395,11 +10406,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="240"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -10410,11 +10421,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="240"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -10425,11 +10436,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="240"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -10440,11 +10451,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="240"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -10455,11 +10466,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="240"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -10470,11 +10481,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="240"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -10485,11 +10496,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="238"/>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="233"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -10500,11 +10511,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="240"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="233"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -10515,11 +10526,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="239"/>
-      <c r="K23" s="240"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -10530,11 +10541,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="240"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="233"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -10545,11 +10556,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="245"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="240"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -10560,11 +10571,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="240"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -10575,11 +10586,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="233"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -10590,11 +10601,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="233"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -10605,11 +10616,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="233"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -10620,11 +10631,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -10635,11 +10646,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="238"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="240"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="233"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -10650,11 +10661,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="245"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="238"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="240"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="233"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -10665,11 +10676,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="246"/>
-      <c r="I33" s="238"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="240"/>
+      <c r="G33" s="229"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -10680,11 +10691,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="246"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="239"/>
-      <c r="K34" s="240"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="233"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10702,11 +10713,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="246"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="239"/>
-      <c r="K35" s="240"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="233"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10724,11 +10735,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="245"/>
-      <c r="H36" s="246"/>
-      <c r="I36" s="238"/>
-      <c r="J36" s="239"/>
-      <c r="K36" s="240"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="233"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10746,11 +10757,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="246"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="239"/>
-      <c r="K37" s="240"/>
+      <c r="G37" s="229"/>
+      <c r="H37" s="230"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
+      <c r="K37" s="233"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10768,11 +10779,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="245"/>
-      <c r="H38" s="246"/>
-      <c r="I38" s="238"/>
-      <c r="J38" s="239"/>
-      <c r="K38" s="240"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="230"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="233"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10790,11 +10801,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="245"/>
-      <c r="H39" s="246"/>
-      <c r="I39" s="238"/>
-      <c r="J39" s="239"/>
-      <c r="K39" s="240"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="232"/>
+      <c r="K39" s="233"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10812,11 +10823,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="245"/>
-      <c r="H40" s="246"/>
-      <c r="I40" s="238"/>
-      <c r="J40" s="239"/>
-      <c r="K40" s="240"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
+      <c r="K40" s="233"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10834,11 +10845,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="245"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="238"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="240"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="233"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10856,11 +10867,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="245"/>
-      <c r="H42" s="246"/>
-      <c r="I42" s="238"/>
-      <c r="J42" s="239"/>
-      <c r="K42" s="240"/>
+      <c r="G42" s="229"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
+      <c r="K42" s="233"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10878,11 +10889,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="245"/>
-      <c r="H43" s="246"/>
-      <c r="I43" s="238"/>
-      <c r="J43" s="239"/>
-      <c r="K43" s="240"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="232"/>
+      <c r="K43" s="233"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10900,11 +10911,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="245"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="238"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="240"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="230"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10922,11 +10933,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="245"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="238"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="240"/>
+      <c r="G45" s="229"/>
+      <c r="H45" s="230"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10944,11 +10955,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="245"/>
-      <c r="H46" s="246"/>
-      <c r="I46" s="238"/>
-      <c r="J46" s="239"/>
-      <c r="K46" s="240"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="233"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10966,11 +10977,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="245"/>
-      <c r="H47" s="246"/>
-      <c r="I47" s="238"/>
-      <c r="J47" s="239"/>
-      <c r="K47" s="240"/>
+      <c r="G47" s="229"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="232"/>
+      <c r="K47" s="233"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10988,11 +10999,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="245"/>
-      <c r="H48" s="246"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="240"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="233"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -11010,11 +11021,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="246"/>
-      <c r="I49" s="238"/>
-      <c r="J49" s="239"/>
-      <c r="K49" s="240"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="232"/>
+      <c r="K49" s="233"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -11032,11 +11043,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="238"/>
-      <c r="J50" s="239"/>
-      <c r="K50" s="240"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="233"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -11054,11 +11065,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="246"/>
-      <c r="I51" s="238"/>
-      <c r="J51" s="239"/>
-      <c r="K51" s="240"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="233"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -11076,11 +11087,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="245"/>
-      <c r="H52" s="246"/>
-      <c r="I52" s="238"/>
-      <c r="J52" s="239"/>
-      <c r="K52" s="240"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="233"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -11098,11 +11109,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="246"/>
-      <c r="I53" s="238"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="240"/>
+      <c r="G53" s="229"/>
+      <c r="H53" s="230"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="233"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -11120,11 +11131,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="238"/>
-      <c r="J54" s="239"/>
-      <c r="K54" s="240"/>
+      <c r="G54" s="229"/>
+      <c r="H54" s="230"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="233"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -11142,11 +11153,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="245"/>
-      <c r="H55" s="246"/>
-      <c r="I55" s="238"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="240"/>
+      <c r="G55" s="229"/>
+      <c r="H55" s="230"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="233"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -11164,11 +11175,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="245"/>
-      <c r="H56" s="246"/>
-      <c r="I56" s="238"/>
-      <c r="J56" s="239"/>
-      <c r="K56" s="240"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="230"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="232"/>
+      <c r="K56" s="233"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -11186,11 +11197,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="245"/>
-      <c r="H57" s="246"/>
-      <c r="I57" s="238"/>
-      <c r="J57" s="239"/>
-      <c r="K57" s="240"/>
+      <c r="G57" s="229"/>
+      <c r="H57" s="230"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="233"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -11208,11 +11219,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="245"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="238"/>
-      <c r="J58" s="239"/>
-      <c r="K58" s="240"/>
+      <c r="G58" s="229"/>
+      <c r="H58" s="230"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="232"/>
+      <c r="K58" s="233"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -11224,6 +11235,103 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
@@ -11238,103 +11346,6 @@
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
     <mergeCell ref="I58:K58"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -11352,7 +11363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8:N8"/>
     </sheetView>
   </sheetViews>
@@ -11381,24 +11392,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="253" t="str">
+      <c r="J1" s="250" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="253"/>
+      <c r="K1" s="250"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11426,22 +11437,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="253" t="str">
+      <c r="J2" s="250" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="253"/>
+      <c r="K2" s="250"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11498,12 +11509,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="256"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="253"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11600,7 +11611,7 @@
       <c r="J6" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="250" t="s">
+      <c r="K6" s="254" t="s">
         <v>197</v>
       </c>
       <c r="L6" s="257"/>
@@ -11649,12 +11660,12 @@
       <c r="J7" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="250" t="s">
+      <c r="K7" s="254" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="252"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="256"/>
       <c r="O7" s="164" t="s">
         <v>204</v>
       </c>
@@ -11700,12 +11711,12 @@
       <c r="J8" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="250" t="s">
+      <c r="K8" s="254" t="s">
         <v>223</v>
       </c>
-      <c r="L8" s="251"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="252"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="256"/>
       <c r="O8" s="164" t="s">
         <v>224</v>
       </c>
@@ -13891,6 +13902,84 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K15:N15"/>
@@ -13907,84 +13996,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -14013,8 +14024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14030,10 +14041,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="201"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14064,8 +14075,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -15146,10 +15157,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="202"/>
+      <c r="B1" s="201"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15177,8 +15188,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$42</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="221">
   <si>
     <t>Detail Design</t>
   </si>
@@ -1976,9 +1976,6 @@
     <t>Require</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>@SQL0001</t>
   </si>
   <si>
@@ -2038,9 +2035,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>AFML000395</t>
   </si>
   <si>
     <t>click Có</t>
@@ -2100,12 +2094,6 @@
 Xác nhận thủ quỹ (Customize Hoàng Trần) - CustomizeIndex = 51, màn hình này được tạo mới và gắn link vào module T  -&gt; Nghiệp vụ -&gt; M Barcode Quỹ</t>
   </si>
   <si>
-    <t xml:space="preserve">Ver 2.0 </t>
-  </si>
-  <si>
-    <t>Ver 2.0</t>
-  </si>
-  <si>
     <t>DeliveryStatus</t>
   </si>
   <si>
@@ -2185,12 +2173,6 @@
   </si>
   <si>
     <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
-  </si>
-  <si>
-    <t>-Input Check bổ sung thêm Message
-- Data Desinition: sửa lại tham số truyền vào
-- Data Input: Sửa câu @SQL0002, thêm mới câu @SQL0003, @SQL0004
-- Form Func Spec: chỉnh sửa lại Xử lý sự kiện</t>
   </si>
   <si>
     <t>- Luồng nghiệp vụ 1</t>
@@ -2744,7 +2726,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,69 +3112,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3238,23 +3190,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3286,18 +3223,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3358,60 +3283,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3433,21 +3346,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3457,15 +3355,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3476,6 +3365,78 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5335,65 +5296,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="178"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="180" t="s">
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="179" t="s">
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179" t="s">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="179"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="179" t="s">
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="175" t="s">
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5404,56 +5365,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="161"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5464,384 +5425,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="173"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="189"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="189"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="189"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="189"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="189"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="191"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="191"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="192"/>
-      <c r="T28" s="192"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="192"/>
-      <c r="AB28" s="192"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="192"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="192"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="192"/>
-      <c r="AI28" s="192"/>
-      <c r="AJ28" s="192"/>
-      <c r="AK28" s="192"/>
-      <c r="AL28" s="192"/>
-      <c r="AM28" s="192"/>
-      <c r="AN28" s="192"/>
-      <c r="AO28" s="192"/>
-      <c r="AP28" s="192"/>
-      <c r="AQ28" s="192"/>
-      <c r="AR28" s="192"/>
-      <c r="AS28" s="192"/>
-      <c r="AT28" s="192"/>
-      <c r="AU28" s="192"/>
-      <c r="AV28" s="192"/>
-      <c r="AW28" s="192"/>
-      <c r="AX28" s="192"/>
-      <c r="AY28" s="192"/>
-      <c r="AZ28" s="192"/>
-      <c r="BA28" s="192"/>
-      <c r="BB28" s="192"/>
-      <c r="BC28" s="192"/>
-      <c r="BD28" s="192"/>
-      <c r="BE28" s="192"/>
-      <c r="BF28" s="192"/>
-      <c r="BG28" s="192"/>
-      <c r="BH28" s="192"/>
-      <c r="BI28" s="192"/>
-      <c r="BJ28" s="192"/>
-      <c r="BK28" s="192"/>
-      <c r="BL28" s="192"/>
-      <c r="BM28" s="192"/>
-      <c r="BN28" s="192"/>
-      <c r="BO28" s="192"/>
-      <c r="BP28" s="192"/>
-      <c r="BQ28" s="192"/>
-      <c r="BR28" s="192"/>
-      <c r="BS28" s="192"/>
-      <c r="BT28" s="192"/>
-      <c r="BU28" s="192"/>
-      <c r="BV28" s="192"/>
-      <c r="BW28" s="192"/>
-      <c r="BX28" s="192"/>
-      <c r="BY28" s="192"/>
-      <c r="BZ28" s="192"/>
-      <c r="CA28" s="192"/>
-      <c r="CB28" s="192"/>
-      <c r="CC28" s="192"/>
-      <c r="CD28" s="192"/>
-      <c r="CE28" s="192"/>
-      <c r="CF28" s="192"/>
-      <c r="CG28" s="192"/>
-      <c r="CH28" s="192"/>
-      <c r="CI28" s="192"/>
-      <c r="CJ28" s="192"/>
-      <c r="CK28" s="192"/>
-      <c r="CL28" s="192"/>
-      <c r="CM28" s="192"/>
-      <c r="CN28" s="192"/>
-      <c r="CO28" s="192"/>
-      <c r="CP28" s="192"/>
-      <c r="CQ28" s="192"/>
-      <c r="CR28" s="192"/>
-      <c r="CS28" s="192"/>
-      <c r="CT28" s="192"/>
-      <c r="CU28" s="192"/>
-      <c r="CV28" s="192"/>
-      <c r="CW28" s="192"/>
-      <c r="CX28" s="192"/>
-      <c r="CY28" s="192"/>
-      <c r="CZ28" s="192"/>
-      <c r="DA28" s="192"/>
-      <c r="DB28" s="192"/>
-      <c r="DC28" s="192"/>
-      <c r="DD28" s="192"/>
-      <c r="DE28" s="192"/>
-      <c r="DF28" s="192"/>
-      <c r="DG28" s="192"/>
-      <c r="DH28" s="192"/>
-      <c r="DI28" s="192"/>
-      <c r="DJ28" s="192"/>
-      <c r="DK28" s="192"/>
-      <c r="DL28" s="192"/>
-      <c r="DM28" s="192"/>
-      <c r="DN28" s="192"/>
-      <c r="DO28" s="192"/>
-      <c r="DP28" s="192"/>
-      <c r="DQ28" s="192"/>
-      <c r="DR28" s="192"/>
-      <c r="DS28" s="192"/>
-      <c r="DT28" s="192"/>
-      <c r="DU28" s="192"/>
-      <c r="DV28" s="192"/>
-      <c r="DW28" s="192"/>
-      <c r="DX28" s="192"/>
-      <c r="DY28" s="192"/>
-      <c r="DZ28" s="192"/>
-      <c r="EA28" s="192"/>
-      <c r="EB28" s="192"/>
-      <c r="EC28" s="192"/>
-      <c r="ED28" s="192"/>
-      <c r="EE28" s="192"/>
-      <c r="EF28" s="192"/>
-      <c r="EG28" s="192"/>
-      <c r="EH28" s="192"/>
-      <c r="EI28" s="192"/>
-      <c r="EJ28" s="192"/>
-      <c r="EK28" s="192"/>
-      <c r="EL28" s="192"/>
-      <c r="EM28" s="192"/>
-      <c r="EN28" s="192"/>
-      <c r="EO28" s="192"/>
-      <c r="EP28" s="192"/>
-      <c r="EQ28" s="192"/>
-      <c r="ER28" s="192"/>
-      <c r="ES28" s="192"/>
-      <c r="ET28" s="192"/>
-      <c r="EU28" s="192"/>
-      <c r="EV28" s="192"/>
-      <c r="EW28" s="192"/>
-      <c r="EX28" s="192"/>
-      <c r="EY28" s="192"/>
-      <c r="EZ28" s="192"/>
-      <c r="FA28" s="192"/>
-      <c r="FB28" s="192"/>
-      <c r="FC28" s="192"/>
-      <c r="FD28" s="192"/>
-      <c r="FE28" s="192"/>
-      <c r="FF28" s="192"/>
-      <c r="FG28" s="192"/>
-      <c r="FH28" s="192"/>
-      <c r="FI28" s="192"/>
-      <c r="FJ28" s="192"/>
-      <c r="FK28" s="192"/>
-      <c r="FL28" s="192"/>
-      <c r="FM28" s="192"/>
-      <c r="FN28" s="192"/>
-      <c r="FO28" s="192"/>
-      <c r="FP28" s="192"/>
-      <c r="FQ28" s="192"/>
-      <c r="FR28" s="192"/>
-      <c r="FS28" s="192"/>
-      <c r="FT28" s="192"/>
-      <c r="FU28" s="192"/>
-      <c r="FV28" s="192"/>
-      <c r="FW28" s="192"/>
-      <c r="FX28" s="192"/>
-      <c r="FY28" s="192"/>
-      <c r="FZ28" s="192"/>
-      <c r="GA28" s="192"/>
-      <c r="GB28" s="192"/>
-      <c r="GC28" s="192"/>
-      <c r="GD28" s="192"/>
-      <c r="GE28" s="192"/>
-      <c r="GF28" s="192"/>
-      <c r="GG28" s="192"/>
-      <c r="GH28" s="192"/>
-      <c r="GI28" s="192"/>
-      <c r="GJ28" s="192"/>
-      <c r="GK28" s="192"/>
-      <c r="GL28" s="192"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="158"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="158"/>
+      <c r="AS28" s="158"/>
+      <c r="AT28" s="158"/>
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="158"/>
+      <c r="AX28" s="158"/>
+      <c r="AY28" s="158"/>
+      <c r="AZ28" s="158"/>
+      <c r="BA28" s="158"/>
+      <c r="BB28" s="158"/>
+      <c r="BC28" s="158"/>
+      <c r="BD28" s="158"/>
+      <c r="BE28" s="158"/>
+      <c r="BF28" s="158"/>
+      <c r="BG28" s="158"/>
+      <c r="BH28" s="158"/>
+      <c r="BI28" s="158"/>
+      <c r="BJ28" s="158"/>
+      <c r="BK28" s="158"/>
+      <c r="BL28" s="158"/>
+      <c r="BM28" s="158"/>
+      <c r="BN28" s="158"/>
+      <c r="BO28" s="158"/>
+      <c r="BP28" s="158"/>
+      <c r="BQ28" s="158"/>
+      <c r="BR28" s="158"/>
+      <c r="BS28" s="158"/>
+      <c r="BT28" s="158"/>
+      <c r="BU28" s="158"/>
+      <c r="BV28" s="158"/>
+      <c r="BW28" s="158"/>
+      <c r="BX28" s="158"/>
+      <c r="BY28" s="158"/>
+      <c r="BZ28" s="158"/>
+      <c r="CA28" s="158"/>
+      <c r="CB28" s="158"/>
+      <c r="CC28" s="158"/>
+      <c r="CD28" s="158"/>
+      <c r="CE28" s="158"/>
+      <c r="CF28" s="158"/>
+      <c r="CG28" s="158"/>
+      <c r="CH28" s="158"/>
+      <c r="CI28" s="158"/>
+      <c r="CJ28" s="158"/>
+      <c r="CK28" s="158"/>
+      <c r="CL28" s="158"/>
+      <c r="CM28" s="158"/>
+      <c r="CN28" s="158"/>
+      <c r="CO28" s="158"/>
+      <c r="CP28" s="158"/>
+      <c r="CQ28" s="158"/>
+      <c r="CR28" s="158"/>
+      <c r="CS28" s="158"/>
+      <c r="CT28" s="158"/>
+      <c r="CU28" s="158"/>
+      <c r="CV28" s="158"/>
+      <c r="CW28" s="158"/>
+      <c r="CX28" s="158"/>
+      <c r="CY28" s="158"/>
+      <c r="CZ28" s="158"/>
+      <c r="DA28" s="158"/>
+      <c r="DB28" s="158"/>
+      <c r="DC28" s="158"/>
+      <c r="DD28" s="158"/>
+      <c r="DE28" s="158"/>
+      <c r="DF28" s="158"/>
+      <c r="DG28" s="158"/>
+      <c r="DH28" s="158"/>
+      <c r="DI28" s="158"/>
+      <c r="DJ28" s="158"/>
+      <c r="DK28" s="158"/>
+      <c r="DL28" s="158"/>
+      <c r="DM28" s="158"/>
+      <c r="DN28" s="158"/>
+      <c r="DO28" s="158"/>
+      <c r="DP28" s="158"/>
+      <c r="DQ28" s="158"/>
+      <c r="DR28" s="158"/>
+      <c r="DS28" s="158"/>
+      <c r="DT28" s="158"/>
+      <c r="DU28" s="158"/>
+      <c r="DV28" s="158"/>
+      <c r="DW28" s="158"/>
+      <c r="DX28" s="158"/>
+      <c r="DY28" s="158"/>
+      <c r="DZ28" s="158"/>
+      <c r="EA28" s="158"/>
+      <c r="EB28" s="158"/>
+      <c r="EC28" s="158"/>
+      <c r="ED28" s="158"/>
+      <c r="EE28" s="158"/>
+      <c r="EF28" s="158"/>
+      <c r="EG28" s="158"/>
+      <c r="EH28" s="158"/>
+      <c r="EI28" s="158"/>
+      <c r="EJ28" s="158"/>
+      <c r="EK28" s="158"/>
+      <c r="EL28" s="158"/>
+      <c r="EM28" s="158"/>
+      <c r="EN28" s="158"/>
+      <c r="EO28" s="158"/>
+      <c r="EP28" s="158"/>
+      <c r="EQ28" s="158"/>
+      <c r="ER28" s="158"/>
+      <c r="ES28" s="158"/>
+      <c r="ET28" s="158"/>
+      <c r="EU28" s="158"/>
+      <c r="EV28" s="158"/>
+      <c r="EW28" s="158"/>
+      <c r="EX28" s="158"/>
+      <c r="EY28" s="158"/>
+      <c r="EZ28" s="158"/>
+      <c r="FA28" s="158"/>
+      <c r="FB28" s="158"/>
+      <c r="FC28" s="158"/>
+      <c r="FD28" s="158"/>
+      <c r="FE28" s="158"/>
+      <c r="FF28" s="158"/>
+      <c r="FG28" s="158"/>
+      <c r="FH28" s="158"/>
+      <c r="FI28" s="158"/>
+      <c r="FJ28" s="158"/>
+      <c r="FK28" s="158"/>
+      <c r="FL28" s="158"/>
+      <c r="FM28" s="158"/>
+      <c r="FN28" s="158"/>
+      <c r="FO28" s="158"/>
+      <c r="FP28" s="158"/>
+      <c r="FQ28" s="158"/>
+      <c r="FR28" s="158"/>
+      <c r="FS28" s="158"/>
+      <c r="FT28" s="158"/>
+      <c r="FU28" s="158"/>
+      <c r="FV28" s="158"/>
+      <c r="FW28" s="158"/>
+      <c r="FX28" s="158"/>
+      <c r="FY28" s="158"/>
+      <c r="FZ28" s="158"/>
+      <c r="GA28" s="158"/>
+      <c r="GB28" s="158"/>
+      <c r="GC28" s="158"/>
+      <c r="GD28" s="158"/>
+      <c r="GE28" s="158"/>
+      <c r="GF28" s="158"/>
+      <c r="GG28" s="158"/>
+      <c r="GH28" s="158"/>
+      <c r="GI28" s="158"/>
+      <c r="GJ28" s="158"/>
+      <c r="GK28" s="158"/>
+      <c r="GL28" s="158"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="191"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="194"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5852,16 +5813,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="194"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5873,28 +5834,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5908,6 +5847,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5921,7 +5882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -5934,14 +5895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6134,11 +6095,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="266" t="s">
+      <c r="E27" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="267"/>
-      <c r="G27" s="268"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="237"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6445,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:J8"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6462,49 +6423,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -6524,7 +6485,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>8</v>
@@ -6532,14 +6493,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6552,38 +6513,32 @@
         <v>42383</v>
       </c>
       <c r="D5" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="203" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-    </row>
-    <row r="6" spans="1:10" s="172" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="168">
+        <v>169</v>
+      </c>
+      <c r="E5" s="188" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+    </row>
+    <row r="6" spans="1:10" s="154" customFormat="1" ht="48" customHeight="1">
+      <c r="A6" s="153">
         <v>2</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="238">
         <v>2</v>
       </c>
-      <c r="C6" s="170">
-        <v>42387</v>
-      </c>
-      <c r="D6" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="205" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="242"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6594,12 +6549,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6610,12 +6565,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6626,12 +6581,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6642,12 +6597,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6658,12 +6613,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6674,12 +6629,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="182"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6690,12 +6645,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6706,12 +6661,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6722,12 +6677,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6738,12 +6693,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="208"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6754,12 +6709,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6770,12 +6725,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6786,12 +6741,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6802,12 +6757,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="208"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6818,12 +6773,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="208"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6834,12 +6789,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6850,12 +6805,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6866,12 +6821,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6882,12 +6837,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="208"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6898,12 +6853,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="208"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6914,12 +6869,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6930,12 +6885,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="208"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6946,12 +6901,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="208"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6962,12 +6917,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6978,12 +6933,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6994,12 +6949,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -7010,12 +6965,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -7026,12 +6981,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="208"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -7042,12 +6997,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-      <c r="J35" s="208"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7058,12 +7013,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7074,12 +7029,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7090,12 +7045,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7106,12 +7061,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-      <c r="J39" s="208"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7122,12 +7077,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7138,12 +7093,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7154,32 +7109,23 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7195,14 +7141,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7244,10 +7199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7273,12 +7228,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7308,20 +7263,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="209" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="210"/>
+      <c r="J4" s="191"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7332,10 +7287,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="219"/>
+      <c r="I5" s="199" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="200"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7346,8 +7301,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="202"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7358,8 +7313,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="221"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="202"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7370,8 +7325,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="221"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7382,8 +7337,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="221"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7394,8 +7349,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="223"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7406,10 +7361,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="209" t="s">
+      <c r="I11" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="210"/>
+      <c r="J11" s="191"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7420,10 +7375,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="212" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="213"/>
+      <c r="I12" s="193" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="194"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7434,8 +7389,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="215"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7446,8 +7401,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="215"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7458,8 +7413,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="215"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7470,8 +7425,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7482,8 +7437,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="215"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7494,8 +7449,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7506,8 +7461,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="215"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7518,8 +7473,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="215"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7530,8 +7485,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7542,8 +7497,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="215"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7554,8 +7509,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="215"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7566,8 +7521,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="215"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7578,8 +7533,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="215"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7590,8 +7545,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7602,8 +7557,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="215"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7614,8 +7569,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="215"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7626,8 +7581,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="215"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7638,8 +7593,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="215"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7650,8 +7605,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="215"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7662,8 +7617,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7674,8 +7629,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7686,8 +7641,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="214"/>
-      <c r="J34" s="215"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7698,8 +7653,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="215"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7710,8 +7665,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="215"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7722,8 +7677,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="214"/>
-      <c r="J37" s="215"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7734,8 +7689,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="215"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7746,8 +7701,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="215"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7758,8 +7713,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="215"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7770,8 +7725,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="215"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7782,8 +7737,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="215"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7794,8 +7749,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7853,13 +7808,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7867,15 +7822,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="224" t="s">
+      <c r="H1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="225"/>
-      <c r="J1" s="226" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="227"/>
-      <c r="L1" s="228"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="207" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="208"/>
+      <c r="L1" s="209"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7892,11 +7847,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7904,16 +7859,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226" t="str">
+      <c r="I2" s="206"/>
+      <c r="J2" s="207" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="227"/>
-      <c r="L2" s="228"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7934,10 +7889,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>108</v>
@@ -7984,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="125">
         <v>51</v>
@@ -8018,7 +7973,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="125">
         <v>51</v>
@@ -8027,16 +7982,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>157</v>
@@ -8046,7 +8001,7 @@
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
@@ -8058,7 +8013,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="125">
         <v>51</v>
@@ -8067,14 +8022,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" s="113"/>
       <c r="H7" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="129"/>
@@ -9056,10 +9011,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9154,10 +9109,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>103</v>
@@ -9189,67 +9144,53 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="1:17" s="34" customFormat="1" ht="11.25">
+    <row r="5" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="125">
+      <c r="B5" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="102" t="s">
+      <c r="D5" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="130"/>
+      <c r="F5" s="243" t="s">
+        <v>204</v>
+      </c>
       <c r="G5" s="61"/>
-      <c r="H5" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="103" t="s">
-        <v>159</v>
+      <c r="H5" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="155" t="s">
+        <v>182</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" s="158" customFormat="1" ht="12" customHeight="1">
-      <c r="A6" s="153">
+        <v>205</v>
+      </c>
+      <c r="K5" s="155"/>
+    </row>
+    <row r="6" spans="1:17" s="34" customFormat="1" ht="11.25">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="153">
-        <v>51</v>
-      </c>
-      <c r="D6" s="154" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="155" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="154" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="157" t="s">
-        <v>209</v>
-      </c>
-      <c r="K6" s="154"/>
-    </row>
-    <row r="7" spans="1:17" s="34" customFormat="1" ht="11.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -9264,7 +9205,7 @@
       <c r="J7" s="62"/>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:17" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -9274,24 +9215,24 @@
       <c r="E8" s="102"/>
       <c r="F8" s="128"/>
       <c r="G8" s="61"/>
-      <c r="H8" s="103"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="103"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" s="34" customFormat="1" ht="11.25">
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="78"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="128"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="61"/>
       <c r="H9" s="78"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="62"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="75"/>
     </row>
     <row r="10" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
@@ -9300,14 +9241,14 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="40"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="75"/>
       <c r="J10" s="73"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9319,10 +9260,11 @@
       <c r="E11" s="75"/>
       <c r="F11" s="40"/>
       <c r="G11" s="61"/>
-      <c r="H11" s="75"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="75"/>
       <c r="J11" s="73"/>
       <c r="K11" s="67"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9350,7 +9292,7 @@
       <c r="E13" s="75"/>
       <c r="F13" s="40"/>
       <c r="G13" s="61"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="75"/>
       <c r="J13" s="73"/>
       <c r="K13" s="67"/>
@@ -9379,12 +9321,12 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="40"/>
       <c r="G15" s="61"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="73"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="67"/>
       <c r="L15" s="98"/>
     </row>
@@ -9430,7 +9372,7 @@
       <c r="E18" s="69"/>
       <c r="F18" s="40"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="60"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
       <c r="K18" s="67"/>
@@ -9542,11 +9484,11 @@
       <c r="E25" s="69"/>
       <c r="F25" s="40"/>
       <c r="G25" s="61"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="98"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="99"/>
     </row>
     <row r="26" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9586,7 +9528,7 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="69"/>
       <c r="F28" s="40"/>
       <c r="G28" s="61"/>
@@ -9726,7 +9668,7 @@
     </row>
     <row r="37" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -9742,7 +9684,7 @@
     </row>
     <row r="38" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -9758,7 +9700,7 @@
     </row>
     <row r="39" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -9774,7 +9716,7 @@
     </row>
     <row r="40" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -9787,10 +9729,15 @@
       <c r="J40" s="60"/>
       <c r="K40" s="61"/>
       <c r="L40" s="99"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -9811,7 +9758,7 @@
     </row>
     <row r="42" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -9832,7 +9779,7 @@
     </row>
     <row r="43" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -9853,7 +9800,7 @@
     </row>
     <row r="44" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -9874,7 +9821,7 @@
     </row>
     <row r="45" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -9895,7 +9842,7 @@
     </row>
     <row r="46" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -9916,7 +9863,7 @@
     </row>
     <row r="47" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -9937,7 +9884,7 @@
     </row>
     <row r="48" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -9958,7 +9905,7 @@
     </row>
     <row r="49" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -9979,7 +9926,7 @@
     </row>
     <row r="50" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -10000,7 +9947,7 @@
     </row>
     <row r="51" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -10021,7 +9968,7 @@
     </row>
     <row r="52" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -10042,7 +9989,7 @@
     </row>
     <row r="53" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -10061,36 +10008,15 @@
       <c r="Q53" s="23"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="33">
-        <v>50</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="99"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="22"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H18 H26:H54 J26:J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H17 H25:H53 J25:J53">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19:J25 K14:L18 I5:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J24 K13:L17 I5:I12">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E53">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10110,7 +10036,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G20:H21"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10135,7 +10061,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -10172,7 +10098,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="241"/>
+      <c r="A2" s="214"/>
       <c r="B2" s="111"/>
       <c r="C2" s="146"/>
       <c r="D2" s="31" t="s">
@@ -10211,10 +10137,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>128</v>
@@ -10225,42 +10151,42 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238" t="s">
+      <c r="H4" s="210"/>
+      <c r="I4" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-    </row>
-    <row r="5" spans="1:13" s="158" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="159">
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="159" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="159">
+      <c r="B5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="35">
         <v>51</v>
       </c>
-      <c r="D5" s="160" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="161" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="160" t="s">
+      <c r="D5" s="244" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="245" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="244" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="239" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="207"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="244"/>
+      <c r="G5" s="246" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="242"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="249"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -10271,11 +10197,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="233"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -10286,11 +10212,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="233"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="217"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -10301,11 +10227,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="217"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -10316,11 +10242,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -10331,11 +10257,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="217"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -10346,11 +10272,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="236"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="217"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -10361,11 +10287,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="217"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -10376,11 +10302,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="233"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="217"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -10391,11 +10317,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="217"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -10406,11 +10332,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="217"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -10421,11 +10347,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="217"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -10436,11 +10362,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="217"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -10451,11 +10377,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="233"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="217"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -10466,11 +10392,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="233"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="217"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -10481,11 +10407,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="217"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -10496,11 +10422,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="233"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="217"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -10511,11 +10437,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="233"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="217"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -10526,11 +10452,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="233"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="217"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -10541,11 +10467,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="233"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="217"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -10556,11 +10482,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="217"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -10571,11 +10497,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -10586,11 +10512,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -10601,11 +10527,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -10616,11 +10542,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -10631,11 +10557,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -10646,11 +10572,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -10661,11 +10587,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="233"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="217"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -10676,11 +10602,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="229"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -10691,11 +10617,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="230"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="232"/>
-      <c r="K34" s="233"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="217"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10713,11 +10639,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
-      <c r="K35" s="233"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="217"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10735,11 +10661,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
-      <c r="K36" s="233"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="217"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10757,11 +10683,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="229"/>
-      <c r="H37" s="230"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="233"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="217"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10779,11 +10705,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="230"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="233"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="217"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10801,11 +10727,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="232"/>
-      <c r="K39" s="233"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="217"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10823,11 +10749,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
-      <c r="K40" s="233"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10845,11 +10771,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="231"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="233"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="217"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10867,11 +10793,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="229"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
-      <c r="K42" s="233"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="217"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10889,11 +10815,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="230"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="233"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="217"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10911,11 +10837,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="230"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="233"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="217"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10933,11 +10859,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="229"/>
-      <c r="H45" s="230"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="233"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="216"/>
+      <c r="K45" s="217"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10955,11 +10881,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="233"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="216"/>
+      <c r="K46" s="217"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10977,11 +10903,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="229"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="233"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="217"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10999,11 +10925,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="230"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="233"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="217"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -11021,11 +10947,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="229"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="231"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="233"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="216"/>
+      <c r="K49" s="217"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -11043,11 +10969,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="229"/>
-      <c r="H50" s="230"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="233"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="217"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -11065,11 +10991,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="230"/>
-      <c r="I51" s="231"/>
-      <c r="J51" s="232"/>
-      <c r="K51" s="233"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="216"/>
+      <c r="K51" s="217"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -11087,11 +11013,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="230"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="232"/>
-      <c r="K52" s="233"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="223"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="216"/>
+      <c r="K52" s="217"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -11109,11 +11035,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="229"/>
-      <c r="H53" s="230"/>
-      <c r="I53" s="231"/>
-      <c r="J53" s="232"/>
-      <c r="K53" s="233"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="223"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="217"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -11131,11 +11057,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="229"/>
-      <c r="H54" s="230"/>
-      <c r="I54" s="231"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="233"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="215"/>
+      <c r="J54" s="216"/>
+      <c r="K54" s="217"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -11153,11 +11079,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="229"/>
-      <c r="H55" s="230"/>
-      <c r="I55" s="231"/>
-      <c r="J55" s="232"/>
-      <c r="K55" s="233"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="223"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="217"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -11175,11 +11101,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="229"/>
-      <c r="H56" s="230"/>
-      <c r="I56" s="231"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="233"/>
+      <c r="G56" s="222"/>
+      <c r="H56" s="223"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="216"/>
+      <c r="K56" s="217"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -11197,11 +11123,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="230"/>
-      <c r="I57" s="231"/>
-      <c r="J57" s="232"/>
-      <c r="K57" s="233"/>
+      <c r="G57" s="222"/>
+      <c r="H57" s="223"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="217"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -11219,11 +11145,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="229"/>
-      <c r="H58" s="230"/>
-      <c r="I58" s="231"/>
-      <c r="J58" s="232"/>
-      <c r="K58" s="233"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="223"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="217"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -11235,29 +11161,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -11272,80 +11249,29 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -11363,7 +11289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8:N8"/>
     </sheetView>
   </sheetViews>
@@ -11392,24 +11318,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="250" t="str">
+      <c r="J1" s="227" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="250"/>
+      <c r="K1" s="227"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11437,22 +11363,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="250" t="str">
+      <c r="J2" s="227" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="250"/>
+      <c r="K2" s="227"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11483,10 +11409,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="134" t="s">
         <v>96</v>
@@ -11509,12 +11435,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="251" t="s">
+      <c r="K4" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="253"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="230"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11536,201 +11462,201 @@
         <v>1</v>
       </c>
       <c r="B5" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="149">
         <v>51</v>
       </c>
       <c r="D5" s="149" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="148"/>
       <c r="G5" s="148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H5" s="148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I5" s="148" t="s">
         <v>54</v>
       </c>
       <c r="J5" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="231" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" s="143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="121" customFormat="1" ht="66" customHeight="1">
+      <c r="A6" s="156">
+        <v>2</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="156">
+        <v>51</v>
+      </c>
+      <c r="D6" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="250" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="250"/>
+      <c r="G6" s="250" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="250" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="251" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="259" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="260"/>
-      <c r="M5" s="260"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="147" t="s">
-        <v>190</v>
-      </c>
-      <c r="P5" s="147" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="R5" s="150" t="s">
-        <v>184</v>
-      </c>
-      <c r="S5" s="143" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="166" customFormat="1" ht="66" customHeight="1">
-      <c r="A6" s="162">
-        <v>2</v>
-      </c>
-      <c r="B6" s="162" t="s">
+      <c r="K6" s="252" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="251" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="251" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="162">
+      <c r="Q6" s="255" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" s="255" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="250" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="121" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A7" s="156">
+        <v>3</v>
+      </c>
+      <c r="B7" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="156">
         <v>51</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D7" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="250" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="251" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="252" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="251" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="251" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="255" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="255" t="s">
+        <v>202</v>
+      </c>
+      <c r="S7" s="250" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A8" s="156">
+        <v>4</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="156">
+        <v>51</v>
+      </c>
+      <c r="D8" s="250" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="251" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="156"/>
+      <c r="G8" s="250" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="250" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="250" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="251" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="252" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="256"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="251" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="251" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q8" s="255" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="163" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="163" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="164" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="254" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="164" t="s">
-        <v>198</v>
-      </c>
-      <c r="P6" s="164" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6" s="165" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="165" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="163" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="166" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A7" s="162">
-        <v>3</v>
-      </c>
-      <c r="B7" s="162" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="162">
-        <v>51</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="163" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="164" t="s">
-        <v>203</v>
-      </c>
-      <c r="K7" s="254" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="164" t="s">
-        <v>204</v>
-      </c>
-      <c r="P7" s="164" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="165" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="165" t="s">
-        <v>206</v>
-      </c>
-      <c r="S7" s="163" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="166" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A8" s="162">
-        <v>4</v>
-      </c>
-      <c r="B8" s="162" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="162">
-        <v>51</v>
-      </c>
-      <c r="D8" s="163" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="164" t="s">
+      <c r="S8" s="258" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="163" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="163" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="164" t="s">
-        <v>217</v>
-      </c>
-      <c r="K8" s="254" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="164" t="s">
-        <v>224</v>
-      </c>
-      <c r="P8" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q8" s="165" t="s">
-        <v>167</v>
-      </c>
-      <c r="R8" s="165" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="167" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -11746,10 +11672,10 @@
       <c r="H9" s="136"/>
       <c r="I9" s="136"/>
       <c r="J9" s="135"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="248"/>
-      <c r="M9" s="248"/>
-      <c r="N9" s="249"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="225"/>
+      <c r="M9" s="225"/>
+      <c r="N9" s="226"/>
       <c r="O9" s="127"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="137"/>
@@ -11771,10 +11697,10 @@
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
       <c r="J10" s="135"/>
-      <c r="K10" s="247"/>
-      <c r="L10" s="248"/>
-      <c r="M10" s="248"/>
-      <c r="N10" s="249"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="226"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="137"/>
@@ -11796,10 +11722,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="248"/>
-      <c r="M11" s="248"/>
-      <c r="N11" s="249"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="226"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11821,10 +11747,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="248"/>
-      <c r="N12" s="249"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="226"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11846,10 +11772,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="248"/>
-      <c r="N13" s="249"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="226"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11871,10 +11797,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="248"/>
-      <c r="N14" s="249"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="226"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -11896,10 +11822,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="248"/>
-      <c r="M15" s="248"/>
-      <c r="N15" s="249"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="226"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -11921,10 +11847,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="248"/>
-      <c r="M16" s="248"/>
-      <c r="N16" s="249"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="226"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -11946,10 +11872,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="248"/>
-      <c r="N17" s="249"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="226"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -11971,10 +11897,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="248"/>
-      <c r="N18" s="249"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="226"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -11996,10 +11922,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="248"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="249"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="226"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -12021,10 +11947,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="248"/>
-      <c r="M20" s="248"/>
-      <c r="N20" s="249"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="226"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -12046,10 +11972,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
-      <c r="N21" s="249"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="226"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -12071,10 +11997,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="247"/>
-      <c r="L22" s="248"/>
-      <c r="M22" s="248"/>
-      <c r="N22" s="249"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="226"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12096,10 +12022,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="248"/>
-      <c r="M23" s="248"/>
-      <c r="N23" s="249"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="226"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12121,10 +12047,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="249"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="226"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12146,10 +12072,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="248"/>
-      <c r="N25" s="249"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="225"/>
+      <c r="M25" s="225"/>
+      <c r="N25" s="226"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12171,10 +12097,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="248"/>
-      <c r="M26" s="248"/>
-      <c r="N26" s="249"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="226"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12196,10 +12122,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="248"/>
-      <c r="N27" s="249"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="225"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="226"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12221,10 +12147,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="247"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="249"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="226"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12246,10 +12172,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="248"/>
-      <c r="N29" s="249"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="226"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12271,10 +12197,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="247"/>
-      <c r="L30" s="248"/>
-      <c r="M30" s="248"/>
-      <c r="N30" s="249"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="226"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12296,10 +12222,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="247"/>
-      <c r="L31" s="248"/>
-      <c r="M31" s="248"/>
-      <c r="N31" s="249"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="226"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12321,10 +12247,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="247"/>
-      <c r="L32" s="248"/>
-      <c r="M32" s="248"/>
-      <c r="N32" s="249"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="226"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12346,10 +12272,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="247"/>
-      <c r="L33" s="248"/>
-      <c r="M33" s="248"/>
-      <c r="N33" s="249"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="225"/>
+      <c r="M33" s="225"/>
+      <c r="N33" s="226"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12371,10 +12297,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="247"/>
-      <c r="L34" s="248"/>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="226"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12396,10 +12322,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="247"/>
-      <c r="L35" s="248"/>
-      <c r="M35" s="248"/>
-      <c r="N35" s="249"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="225"/>
+      <c r="M35" s="225"/>
+      <c r="N35" s="226"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12421,10 +12347,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="247"/>
-      <c r="L36" s="248"/>
-      <c r="M36" s="248"/>
-      <c r="N36" s="249"/>
+      <c r="K36" s="224"/>
+      <c r="L36" s="225"/>
+      <c r="M36" s="225"/>
+      <c r="N36" s="226"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12446,10 +12372,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="247"/>
-      <c r="L37" s="248"/>
-      <c r="M37" s="248"/>
-      <c r="N37" s="249"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="225"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="226"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12471,10 +12397,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="247"/>
-      <c r="L38" s="248"/>
-      <c r="M38" s="248"/>
-      <c r="N38" s="249"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="225"/>
+      <c r="N38" s="226"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12496,10 +12422,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="247"/>
-      <c r="L39" s="248"/>
-      <c r="M39" s="248"/>
-      <c r="N39" s="249"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="225"/>
+      <c r="M39" s="225"/>
+      <c r="N39" s="226"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12521,10 +12447,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="247"/>
-      <c r="L40" s="248"/>
-      <c r="M40" s="248"/>
-      <c r="N40" s="249"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="225"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="226"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12546,10 +12472,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="248"/>
-      <c r="M41" s="248"/>
-      <c r="N41" s="249"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="226"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12571,10 +12497,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="247"/>
-      <c r="L42" s="248"/>
-      <c r="M42" s="248"/>
-      <c r="N42" s="249"/>
+      <c r="K42" s="224"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="226"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12596,10 +12522,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="247"/>
-      <c r="L43" s="248"/>
-      <c r="M43" s="248"/>
-      <c r="N43" s="249"/>
+      <c r="K43" s="224"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="226"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12621,10 +12547,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="248"/>
-      <c r="M44" s="248"/>
-      <c r="N44" s="249"/>
+      <c r="K44" s="224"/>
+      <c r="L44" s="225"/>
+      <c r="M44" s="225"/>
+      <c r="N44" s="226"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12646,10 +12572,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="247"/>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
+      <c r="K45" s="224"/>
+      <c r="L45" s="225"/>
+      <c r="M45" s="225"/>
+      <c r="N45" s="226"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12671,10 +12597,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="247"/>
-      <c r="L46" s="248"/>
-      <c r="M46" s="248"/>
-      <c r="N46" s="249"/>
+      <c r="K46" s="224"/>
+      <c r="L46" s="225"/>
+      <c r="M46" s="225"/>
+      <c r="N46" s="226"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12696,10 +12622,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="247"/>
-      <c r="L47" s="248"/>
-      <c r="M47" s="248"/>
-      <c r="N47" s="249"/>
+      <c r="K47" s="224"/>
+      <c r="L47" s="225"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="226"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12721,10 +12647,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="247"/>
-      <c r="L48" s="248"/>
-      <c r="M48" s="248"/>
-      <c r="N48" s="249"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="225"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="226"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12746,10 +12672,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="247"/>
-      <c r="L49" s="248"/>
-      <c r="M49" s="248"/>
-      <c r="N49" s="249"/>
+      <c r="K49" s="224"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="226"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12771,10 +12697,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="248"/>
-      <c r="N50" s="249"/>
+      <c r="K50" s="224"/>
+      <c r="L50" s="225"/>
+      <c r="M50" s="225"/>
+      <c r="N50" s="226"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12796,10 +12722,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="247"/>
-      <c r="L51" s="248"/>
-      <c r="M51" s="248"/>
-      <c r="N51" s="249"/>
+      <c r="K51" s="224"/>
+      <c r="L51" s="225"/>
+      <c r="M51" s="225"/>
+      <c r="N51" s="226"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12821,10 +12747,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="247"/>
-      <c r="L52" s="248"/>
-      <c r="M52" s="248"/>
-      <c r="N52" s="249"/>
+      <c r="K52" s="224"/>
+      <c r="L52" s="225"/>
+      <c r="M52" s="225"/>
+      <c r="N52" s="226"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12846,10 +12772,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="247"/>
-      <c r="L53" s="248"/>
-      <c r="M53" s="248"/>
-      <c r="N53" s="249"/>
+      <c r="K53" s="224"/>
+      <c r="L53" s="225"/>
+      <c r="M53" s="225"/>
+      <c r="N53" s="226"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12871,10 +12797,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="247"/>
-      <c r="L54" s="248"/>
-      <c r="M54" s="248"/>
-      <c r="N54" s="249"/>
+      <c r="K54" s="224"/>
+      <c r="L54" s="225"/>
+      <c r="M54" s="225"/>
+      <c r="N54" s="226"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -12896,10 +12822,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="247"/>
-      <c r="L55" s="248"/>
-      <c r="M55" s="248"/>
-      <c r="N55" s="249"/>
+      <c r="K55" s="224"/>
+      <c r="L55" s="225"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="226"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -12921,10 +12847,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="247"/>
-      <c r="L56" s="248"/>
-      <c r="M56" s="248"/>
-      <c r="N56" s="249"/>
+      <c r="K56" s="224"/>
+      <c r="L56" s="225"/>
+      <c r="M56" s="225"/>
+      <c r="N56" s="226"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -12946,10 +12872,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="247"/>
-      <c r="L57" s="248"/>
-      <c r="M57" s="248"/>
-      <c r="N57" s="249"/>
+      <c r="K57" s="224"/>
+      <c r="L57" s="225"/>
+      <c r="M57" s="225"/>
+      <c r="N57" s="226"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -12971,10 +12897,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="247"/>
-      <c r="L58" s="248"/>
-      <c r="M58" s="248"/>
-      <c r="N58" s="249"/>
+      <c r="K58" s="224"/>
+      <c r="L58" s="225"/>
+      <c r="M58" s="225"/>
+      <c r="N58" s="226"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -12996,10 +12922,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="247"/>
-      <c r="L59" s="248"/>
-      <c r="M59" s="248"/>
-      <c r="N59" s="249"/>
+      <c r="K59" s="224"/>
+      <c r="L59" s="225"/>
+      <c r="M59" s="225"/>
+      <c r="N59" s="226"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -13021,10 +12947,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="247"/>
-      <c r="L60" s="248"/>
-      <c r="M60" s="248"/>
-      <c r="N60" s="249"/>
+      <c r="K60" s="224"/>
+      <c r="L60" s="225"/>
+      <c r="M60" s="225"/>
+      <c r="N60" s="226"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -13046,10 +12972,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="247"/>
-      <c r="L61" s="248"/>
-      <c r="M61" s="248"/>
-      <c r="N61" s="249"/>
+      <c r="K61" s="224"/>
+      <c r="L61" s="225"/>
+      <c r="M61" s="225"/>
+      <c r="N61" s="226"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -13071,10 +12997,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="247"/>
-      <c r="L62" s="248"/>
-      <c r="M62" s="248"/>
-      <c r="N62" s="249"/>
+      <c r="K62" s="224"/>
+      <c r="L62" s="225"/>
+      <c r="M62" s="225"/>
+      <c r="N62" s="226"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13096,10 +13022,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="247"/>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="249"/>
+      <c r="K63" s="224"/>
+      <c r="L63" s="225"/>
+      <c r="M63" s="225"/>
+      <c r="N63" s="226"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13121,10 +13047,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="247"/>
-      <c r="L64" s="248"/>
-      <c r="M64" s="248"/>
-      <c r="N64" s="249"/>
+      <c r="K64" s="224"/>
+      <c r="L64" s="225"/>
+      <c r="M64" s="225"/>
+      <c r="N64" s="226"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13144,10 +13070,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="247"/>
-      <c r="L65" s="248"/>
-      <c r="M65" s="248"/>
-      <c r="N65" s="249"/>
+      <c r="K65" s="224"/>
+      <c r="L65" s="225"/>
+      <c r="M65" s="225"/>
+      <c r="N65" s="226"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13167,10 +13093,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="247"/>
-      <c r="L66" s="248"/>
-      <c r="M66" s="248"/>
-      <c r="N66" s="249"/>
+      <c r="K66" s="224"/>
+      <c r="L66" s="225"/>
+      <c r="M66" s="225"/>
+      <c r="N66" s="226"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13190,10 +13116,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="247"/>
-      <c r="L67" s="248"/>
-      <c r="M67" s="248"/>
-      <c r="N67" s="249"/>
+      <c r="K67" s="224"/>
+      <c r="L67" s="225"/>
+      <c r="M67" s="225"/>
+      <c r="N67" s="226"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13213,10 +13139,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="247"/>
-      <c r="L68" s="248"/>
-      <c r="M68" s="248"/>
-      <c r="N68" s="249"/>
+      <c r="K68" s="224"/>
+      <c r="L68" s="225"/>
+      <c r="M68" s="225"/>
+      <c r="N68" s="226"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13236,10 +13162,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="247"/>
-      <c r="L69" s="248"/>
-      <c r="M69" s="248"/>
-      <c r="N69" s="249"/>
+      <c r="K69" s="224"/>
+      <c r="L69" s="225"/>
+      <c r="M69" s="225"/>
+      <c r="N69" s="226"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13259,10 +13185,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="247"/>
-      <c r="L70" s="248"/>
-      <c r="M70" s="248"/>
-      <c r="N70" s="249"/>
+      <c r="K70" s="224"/>
+      <c r="L70" s="225"/>
+      <c r="M70" s="225"/>
+      <c r="N70" s="226"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13282,10 +13208,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="247"/>
-      <c r="L71" s="248"/>
-      <c r="M71" s="248"/>
-      <c r="N71" s="249"/>
+      <c r="K71" s="224"/>
+      <c r="L71" s="225"/>
+      <c r="M71" s="225"/>
+      <c r="N71" s="226"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13305,10 +13231,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="247"/>
-      <c r="L72" s="248"/>
-      <c r="M72" s="248"/>
-      <c r="N72" s="249"/>
+      <c r="K72" s="224"/>
+      <c r="L72" s="225"/>
+      <c r="M72" s="225"/>
+      <c r="N72" s="226"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13328,10 +13254,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="247"/>
-      <c r="L73" s="248"/>
-      <c r="M73" s="248"/>
-      <c r="N73" s="249"/>
+      <c r="K73" s="224"/>
+      <c r="L73" s="225"/>
+      <c r="M73" s="225"/>
+      <c r="N73" s="226"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13351,10 +13277,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="247"/>
-      <c r="L74" s="248"/>
-      <c r="M74" s="248"/>
-      <c r="N74" s="249"/>
+      <c r="K74" s="224"/>
+      <c r="L74" s="225"/>
+      <c r="M74" s="225"/>
+      <c r="N74" s="226"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13374,10 +13300,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="247"/>
-      <c r="L75" s="248"/>
-      <c r="M75" s="248"/>
-      <c r="N75" s="249"/>
+      <c r="K75" s="224"/>
+      <c r="L75" s="225"/>
+      <c r="M75" s="225"/>
+      <c r="N75" s="226"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13397,10 +13323,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="247"/>
-      <c r="L76" s="248"/>
-      <c r="M76" s="248"/>
-      <c r="N76" s="249"/>
+      <c r="K76" s="224"/>
+      <c r="L76" s="225"/>
+      <c r="M76" s="225"/>
+      <c r="N76" s="226"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13420,10 +13346,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="247"/>
-      <c r="L77" s="248"/>
-      <c r="M77" s="248"/>
-      <c r="N77" s="249"/>
+      <c r="K77" s="224"/>
+      <c r="L77" s="225"/>
+      <c r="M77" s="225"/>
+      <c r="N77" s="226"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13443,10 +13369,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="247"/>
-      <c r="L78" s="248"/>
-      <c r="M78" s="248"/>
-      <c r="N78" s="249"/>
+      <c r="K78" s="224"/>
+      <c r="L78" s="225"/>
+      <c r="M78" s="225"/>
+      <c r="N78" s="226"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13466,10 +13392,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="247"/>
-      <c r="L79" s="248"/>
-      <c r="M79" s="248"/>
-      <c r="N79" s="249"/>
+      <c r="K79" s="224"/>
+      <c r="L79" s="225"/>
+      <c r="M79" s="225"/>
+      <c r="N79" s="226"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13489,10 +13415,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="247"/>
-      <c r="L80" s="248"/>
-      <c r="M80" s="248"/>
-      <c r="N80" s="249"/>
+      <c r="K80" s="224"/>
+      <c r="L80" s="225"/>
+      <c r="M80" s="225"/>
+      <c r="N80" s="226"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13512,10 +13438,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="247"/>
-      <c r="L81" s="248"/>
-      <c r="M81" s="248"/>
-      <c r="N81" s="249"/>
+      <c r="K81" s="224"/>
+      <c r="L81" s="225"/>
+      <c r="M81" s="225"/>
+      <c r="N81" s="226"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13535,10 +13461,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="247"/>
-      <c r="L82" s="248"/>
-      <c r="M82" s="248"/>
-      <c r="N82" s="249"/>
+      <c r="K82" s="224"/>
+      <c r="L82" s="225"/>
+      <c r="M82" s="225"/>
+      <c r="N82" s="226"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13558,10 +13484,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="247"/>
-      <c r="L83" s="248"/>
-      <c r="M83" s="248"/>
-      <c r="N83" s="249"/>
+      <c r="K83" s="224"/>
+      <c r="L83" s="225"/>
+      <c r="M83" s="225"/>
+      <c r="N83" s="226"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13581,10 +13507,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="247"/>
-      <c r="L84" s="248"/>
-      <c r="M84" s="248"/>
-      <c r="N84" s="249"/>
+      <c r="K84" s="224"/>
+      <c r="L84" s="225"/>
+      <c r="M84" s="225"/>
+      <c r="N84" s="226"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13604,10 +13530,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="247"/>
-      <c r="L85" s="248"/>
-      <c r="M85" s="248"/>
-      <c r="N85" s="249"/>
+      <c r="K85" s="224"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="225"/>
+      <c r="N85" s="226"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13627,10 +13553,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="247"/>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="249"/>
+      <c r="K86" s="224"/>
+      <c r="L86" s="225"/>
+      <c r="M86" s="225"/>
+      <c r="N86" s="226"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13650,10 +13576,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="247"/>
-      <c r="L87" s="248"/>
-      <c r="M87" s="248"/>
-      <c r="N87" s="249"/>
+      <c r="K87" s="224"/>
+      <c r="L87" s="225"/>
+      <c r="M87" s="225"/>
+      <c r="N87" s="226"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13673,10 +13599,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="247"/>
-      <c r="L88" s="248"/>
-      <c r="M88" s="248"/>
-      <c r="N88" s="249"/>
+      <c r="K88" s="224"/>
+      <c r="L88" s="225"/>
+      <c r="M88" s="225"/>
+      <c r="N88" s="226"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13696,10 +13622,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="247"/>
-      <c r="L89" s="248"/>
-      <c r="M89" s="248"/>
-      <c r="N89" s="249"/>
+      <c r="K89" s="224"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="226"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13719,10 +13645,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="247"/>
-      <c r="L90" s="248"/>
-      <c r="M90" s="248"/>
-      <c r="N90" s="249"/>
+      <c r="K90" s="224"/>
+      <c r="L90" s="225"/>
+      <c r="M90" s="225"/>
+      <c r="N90" s="226"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13742,10 +13668,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="247"/>
-      <c r="L91" s="248"/>
-      <c r="M91" s="248"/>
-      <c r="N91" s="249"/>
+      <c r="K91" s="224"/>
+      <c r="L91" s="225"/>
+      <c r="M91" s="225"/>
+      <c r="N91" s="226"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13765,10 +13691,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="247"/>
-      <c r="L92" s="248"/>
-      <c r="M92" s="248"/>
-      <c r="N92" s="249"/>
+      <c r="K92" s="224"/>
+      <c r="L92" s="225"/>
+      <c r="M92" s="225"/>
+      <c r="N92" s="226"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13788,10 +13714,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="247"/>
-      <c r="L93" s="248"/>
-      <c r="M93" s="248"/>
-      <c r="N93" s="249"/>
+      <c r="K93" s="224"/>
+      <c r="L93" s="225"/>
+      <c r="M93" s="225"/>
+      <c r="N93" s="226"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13811,10 +13737,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="247"/>
-      <c r="L94" s="248"/>
-      <c r="M94" s="248"/>
-      <c r="N94" s="249"/>
+      <c r="K94" s="224"/>
+      <c r="L94" s="225"/>
+      <c r="M94" s="225"/>
+      <c r="N94" s="226"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -13902,32 +13828,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
     <mergeCell ref="K92:N92"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
@@ -13944,58 +13896,32 @@
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -14024,8 +13950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:J26"/>
+    <sheetView view="pageBreakPreview" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14041,10 +13967,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14075,8 +14001,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14135,7 +14061,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -14215,7 +14141,7 @@
       <c r="A12" s="72"/>
       <c r="B12" s="43"/>
       <c r="C12" s="139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -14252,7 +14178,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14376,18 +14302,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="262" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="263"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="263"/>
-      <c r="E26" s="263"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="264"/>
+      <c r="A26" s="259" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="261"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -15157,10 +15083,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="201"/>
+      <c r="B1" s="186"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15188,8 +15114,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
     <sheet name="Update History" sheetId="4" r:id="rId2"/>
     <sheet name="Layout Screen" sheetId="10" r:id="rId3"/>
     <sheet name="Item Screen" sheetId="15" r:id="rId4"/>
-    <sheet name="Input Check" sheetId="16" r:id="rId5"/>
-    <sheet name="Data Definition" sheetId="18" r:id="rId6"/>
+    <sheet name="Data Definition" sheetId="18" r:id="rId5"/>
+    <sheet name="Input Check" sheetId="16" r:id="rId6"/>
     <sheet name="Data Input" sheetId="13" r:id="rId7"/>
     <sheet name="Form Func Spec" sheetId="14" r:id="rId8"/>
     <sheet name="Func Spec" sheetId="17" r:id="rId9"/>
@@ -43,12 +43,12 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Definition'!$A$1:$Q$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$J$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Input Check'!$A$1:$J$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$42</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -764,6 +764,55 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>binhminh</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tên kiểu dữ liệu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Các dữ liệu thành phần</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kiểu dữ liệu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
@@ -828,55 +877,6 @@
             <family val="2"/>
           </rPr>
           <t>ID message lỗi</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>binhminh</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tên kiểu dữ liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Các dữ liệu thành phần</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kiểu dữ liệu</t>
         </r>
       </text>
     </comment>
@@ -2152,36 +2152,42 @@
     <t>Truyền 2 tham số @DivisionID và @ObjectID gọi màn hình Lập phiếu thu - AF0061</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT TOP 1 1 FROM AT2006
+    <t>Kiểm tra sự tồn tại của mã vạch và tình trạng cập nhật phiếu điều phối dưới DB</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update tình trạng phiếu điều phối vào bảng AT2006 </t>
+  </si>
+  <si>
+    <t>Update tình trạng đơn hàng vào bảng OT2001</t>
+  </si>
+  <si>
+    <t>@SQL0004</t>
+  </si>
+  <si>
+    <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
+  </si>
+  <si>
+    <t>- Luồng nghiệp vụ 1</t>
+  </si>
+  <si>
+    <t>OT2001</t>
+  </si>
+  <si>
+    <t>@DivisionID, @ObjectID, @VoucherID</t>
+  </si>
+  <si>
+    <t>3
+@@DivisionID
+@@SOrderID
+1</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2006
 WHERE DivisionID = @DivisionID
-AND VoucherID= @VoucherID AND CashierID LIKE NULL </t>
-  </si>
-  <si>
-    <t>Kiểm tra sự tồn tại của mã vạch và tình trạng cập nhật phiếu điều phối dưới DB</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update tình trạng phiếu điều phối vào bảng AT2006 </t>
-  </si>
-  <si>
-    <t>Update tình trạng đơn hàng vào bảng OT2001</t>
-  </si>
-  <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
-    <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
-  </si>
-  <si>
-    <t>- Luồng nghiệp vụ 1</t>
-  </si>
-  <si>
-    <t>OT2001</t>
-  </si>
-  <si>
-    <t>@DivisionID, @ObjectID, @VoucherID</t>
+AND VoucherID= @VoucherID AND CashierID IS NULL</t>
   </si>
   <si>
     <t>UPDATE OT2001 SET 
@@ -2194,19 +2200,13 @@
  = 
 (SELECT OrderQuantity FROM OT2002 OT02
 INNER JOIN AT2006 AT06 ON AT06.DivisionID = OT02.DivisionID AND AT06.OrderID=OT02.SOrderID
-WHERE OT02.DivisionID=@DivisionID AND AT06.OrderID=@OrderID)</t>
+WHERE OT02.DivisionID=@DivisionID AND OT02.SOrderID=@SOrderID)</t>
   </si>
   <si>
     <t>@OrderStatus
 @DivisionID
-@SOrderID=@OrderID
+@SOrderID
 @DeliveryStatus</t>
-  </si>
-  <si>
-    <t>3
-@@DivisionID
-@@SOrderID
-1</t>
   </si>
 </sst>
 </file>
@@ -3083,260 +3083,308 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3346,14 +3394,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3367,76 +3424,19 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3842,7 +3842,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> thi @SQL0003 Kiểm tra đK mã vạch</a:t>
+            <a:t> thi @SQL0001 Kiểm tra đK mã vạch</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="700">
             <a:effectLst/>
@@ -4005,7 +4005,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4057,7 +4057,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4274,7 +4274,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> @SQL0001</a:t>
+            <a:t> @SQL0002</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4381,7 +4381,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> @SQL0002 @SQL0001 vào AT2006</a:t>
+            <a:t> @SQL0003 @SQL0001 vào AT2006</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5296,65 +5296,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="168"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="170" t="s">
+      <c r="A1" s="171"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="169" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169" t="s">
+      <c r="H1" s="172"/>
+      <c r="I1" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="169"/>
+      <c r="J1" s="172"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="169" t="s">
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="165" t="s">
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="167"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5365,56 +5365,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5425,384 +5425,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="166"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="183"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="158"/>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158"/>
-      <c r="AX28" s="158"/>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="158"/>
-      <c r="BB28" s="158"/>
-      <c r="BC28" s="158"/>
-      <c r="BD28" s="158"/>
-      <c r="BE28" s="158"/>
-      <c r="BF28" s="158"/>
-      <c r="BG28" s="158"/>
-      <c r="BH28" s="158"/>
-      <c r="BI28" s="158"/>
-      <c r="BJ28" s="158"/>
-      <c r="BK28" s="158"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="158"/>
-      <c r="BN28" s="158"/>
-      <c r="BO28" s="158"/>
-      <c r="BP28" s="158"/>
-      <c r="BQ28" s="158"/>
-      <c r="BR28" s="158"/>
-      <c r="BS28" s="158"/>
-      <c r="BT28" s="158"/>
-      <c r="BU28" s="158"/>
-      <c r="BV28" s="158"/>
-      <c r="BW28" s="158"/>
-      <c r="BX28" s="158"/>
-      <c r="BY28" s="158"/>
-      <c r="BZ28" s="158"/>
-      <c r="CA28" s="158"/>
-      <c r="CB28" s="158"/>
-      <c r="CC28" s="158"/>
-      <c r="CD28" s="158"/>
-      <c r="CE28" s="158"/>
-      <c r="CF28" s="158"/>
-      <c r="CG28" s="158"/>
-      <c r="CH28" s="158"/>
-      <c r="CI28" s="158"/>
-      <c r="CJ28" s="158"/>
-      <c r="CK28" s="158"/>
-      <c r="CL28" s="158"/>
-      <c r="CM28" s="158"/>
-      <c r="CN28" s="158"/>
-      <c r="CO28" s="158"/>
-      <c r="CP28" s="158"/>
-      <c r="CQ28" s="158"/>
-      <c r="CR28" s="158"/>
-      <c r="CS28" s="158"/>
-      <c r="CT28" s="158"/>
-      <c r="CU28" s="158"/>
-      <c r="CV28" s="158"/>
-      <c r="CW28" s="158"/>
-      <c r="CX28" s="158"/>
-      <c r="CY28" s="158"/>
-      <c r="CZ28" s="158"/>
-      <c r="DA28" s="158"/>
-      <c r="DB28" s="158"/>
-      <c r="DC28" s="158"/>
-      <c r="DD28" s="158"/>
-      <c r="DE28" s="158"/>
-      <c r="DF28" s="158"/>
-      <c r="DG28" s="158"/>
-      <c r="DH28" s="158"/>
-      <c r="DI28" s="158"/>
-      <c r="DJ28" s="158"/>
-      <c r="DK28" s="158"/>
-      <c r="DL28" s="158"/>
-      <c r="DM28" s="158"/>
-      <c r="DN28" s="158"/>
-      <c r="DO28" s="158"/>
-      <c r="DP28" s="158"/>
-      <c r="DQ28" s="158"/>
-      <c r="DR28" s="158"/>
-      <c r="DS28" s="158"/>
-      <c r="DT28" s="158"/>
-      <c r="DU28" s="158"/>
-      <c r="DV28" s="158"/>
-      <c r="DW28" s="158"/>
-      <c r="DX28" s="158"/>
-      <c r="DY28" s="158"/>
-      <c r="DZ28" s="158"/>
-      <c r="EA28" s="158"/>
-      <c r="EB28" s="158"/>
-      <c r="EC28" s="158"/>
-      <c r="ED28" s="158"/>
-      <c r="EE28" s="158"/>
-      <c r="EF28" s="158"/>
-      <c r="EG28" s="158"/>
-      <c r="EH28" s="158"/>
-      <c r="EI28" s="158"/>
-      <c r="EJ28" s="158"/>
-      <c r="EK28" s="158"/>
-      <c r="EL28" s="158"/>
-      <c r="EM28" s="158"/>
-      <c r="EN28" s="158"/>
-      <c r="EO28" s="158"/>
-      <c r="EP28" s="158"/>
-      <c r="EQ28" s="158"/>
-      <c r="ER28" s="158"/>
-      <c r="ES28" s="158"/>
-      <c r="ET28" s="158"/>
-      <c r="EU28" s="158"/>
-      <c r="EV28" s="158"/>
-      <c r="EW28" s="158"/>
-      <c r="EX28" s="158"/>
-      <c r="EY28" s="158"/>
-      <c r="EZ28" s="158"/>
-      <c r="FA28" s="158"/>
-      <c r="FB28" s="158"/>
-      <c r="FC28" s="158"/>
-      <c r="FD28" s="158"/>
-      <c r="FE28" s="158"/>
-      <c r="FF28" s="158"/>
-      <c r="FG28" s="158"/>
-      <c r="FH28" s="158"/>
-      <c r="FI28" s="158"/>
-      <c r="FJ28" s="158"/>
-      <c r="FK28" s="158"/>
-      <c r="FL28" s="158"/>
-      <c r="FM28" s="158"/>
-      <c r="FN28" s="158"/>
-      <c r="FO28" s="158"/>
-      <c r="FP28" s="158"/>
-      <c r="FQ28" s="158"/>
-      <c r="FR28" s="158"/>
-      <c r="FS28" s="158"/>
-      <c r="FT28" s="158"/>
-      <c r="FU28" s="158"/>
-      <c r="FV28" s="158"/>
-      <c r="FW28" s="158"/>
-      <c r="FX28" s="158"/>
-      <c r="FY28" s="158"/>
-      <c r="FZ28" s="158"/>
-      <c r="GA28" s="158"/>
-      <c r="GB28" s="158"/>
-      <c r="GC28" s="158"/>
-      <c r="GD28" s="158"/>
-      <c r="GE28" s="158"/>
-      <c r="GF28" s="158"/>
-      <c r="GG28" s="158"/>
-      <c r="GH28" s="158"/>
-      <c r="GI28" s="158"/>
-      <c r="GJ28" s="158"/>
-      <c r="GK28" s="158"/>
-      <c r="GL28" s="158"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+      <c r="U28" s="185"/>
+      <c r="V28" s="185"/>
+      <c r="W28" s="185"/>
+      <c r="X28" s="185"/>
+      <c r="Y28" s="185"/>
+      <c r="Z28" s="185"/>
+      <c r="AA28" s="185"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="185"/>
+      <c r="AH28" s="185"/>
+      <c r="AI28" s="185"/>
+      <c r="AJ28" s="185"/>
+      <c r="AK28" s="185"/>
+      <c r="AL28" s="185"/>
+      <c r="AM28" s="185"/>
+      <c r="AN28" s="185"/>
+      <c r="AO28" s="185"/>
+      <c r="AP28" s="185"/>
+      <c r="AQ28" s="185"/>
+      <c r="AR28" s="185"/>
+      <c r="AS28" s="185"/>
+      <c r="AT28" s="185"/>
+      <c r="AU28" s="185"/>
+      <c r="AV28" s="185"/>
+      <c r="AW28" s="185"/>
+      <c r="AX28" s="185"/>
+      <c r="AY28" s="185"/>
+      <c r="AZ28" s="185"/>
+      <c r="BA28" s="185"/>
+      <c r="BB28" s="185"/>
+      <c r="BC28" s="185"/>
+      <c r="BD28" s="185"/>
+      <c r="BE28" s="185"/>
+      <c r="BF28" s="185"/>
+      <c r="BG28" s="185"/>
+      <c r="BH28" s="185"/>
+      <c r="BI28" s="185"/>
+      <c r="BJ28" s="185"/>
+      <c r="BK28" s="185"/>
+      <c r="BL28" s="185"/>
+      <c r="BM28" s="185"/>
+      <c r="BN28" s="185"/>
+      <c r="BO28" s="185"/>
+      <c r="BP28" s="185"/>
+      <c r="BQ28" s="185"/>
+      <c r="BR28" s="185"/>
+      <c r="BS28" s="185"/>
+      <c r="BT28" s="185"/>
+      <c r="BU28" s="185"/>
+      <c r="BV28" s="185"/>
+      <c r="BW28" s="185"/>
+      <c r="BX28" s="185"/>
+      <c r="BY28" s="185"/>
+      <c r="BZ28" s="185"/>
+      <c r="CA28" s="185"/>
+      <c r="CB28" s="185"/>
+      <c r="CC28" s="185"/>
+      <c r="CD28" s="185"/>
+      <c r="CE28" s="185"/>
+      <c r="CF28" s="185"/>
+      <c r="CG28" s="185"/>
+      <c r="CH28" s="185"/>
+      <c r="CI28" s="185"/>
+      <c r="CJ28" s="185"/>
+      <c r="CK28" s="185"/>
+      <c r="CL28" s="185"/>
+      <c r="CM28" s="185"/>
+      <c r="CN28" s="185"/>
+      <c r="CO28" s="185"/>
+      <c r="CP28" s="185"/>
+      <c r="CQ28" s="185"/>
+      <c r="CR28" s="185"/>
+      <c r="CS28" s="185"/>
+      <c r="CT28" s="185"/>
+      <c r="CU28" s="185"/>
+      <c r="CV28" s="185"/>
+      <c r="CW28" s="185"/>
+      <c r="CX28" s="185"/>
+      <c r="CY28" s="185"/>
+      <c r="CZ28" s="185"/>
+      <c r="DA28" s="185"/>
+      <c r="DB28" s="185"/>
+      <c r="DC28" s="185"/>
+      <c r="DD28" s="185"/>
+      <c r="DE28" s="185"/>
+      <c r="DF28" s="185"/>
+      <c r="DG28" s="185"/>
+      <c r="DH28" s="185"/>
+      <c r="DI28" s="185"/>
+      <c r="DJ28" s="185"/>
+      <c r="DK28" s="185"/>
+      <c r="DL28" s="185"/>
+      <c r="DM28" s="185"/>
+      <c r="DN28" s="185"/>
+      <c r="DO28" s="185"/>
+      <c r="DP28" s="185"/>
+      <c r="DQ28" s="185"/>
+      <c r="DR28" s="185"/>
+      <c r="DS28" s="185"/>
+      <c r="DT28" s="185"/>
+      <c r="DU28" s="185"/>
+      <c r="DV28" s="185"/>
+      <c r="DW28" s="185"/>
+      <c r="DX28" s="185"/>
+      <c r="DY28" s="185"/>
+      <c r="DZ28" s="185"/>
+      <c r="EA28" s="185"/>
+      <c r="EB28" s="185"/>
+      <c r="EC28" s="185"/>
+      <c r="ED28" s="185"/>
+      <c r="EE28" s="185"/>
+      <c r="EF28" s="185"/>
+      <c r="EG28" s="185"/>
+      <c r="EH28" s="185"/>
+      <c r="EI28" s="185"/>
+      <c r="EJ28" s="185"/>
+      <c r="EK28" s="185"/>
+      <c r="EL28" s="185"/>
+      <c r="EM28" s="185"/>
+      <c r="EN28" s="185"/>
+      <c r="EO28" s="185"/>
+      <c r="EP28" s="185"/>
+      <c r="EQ28" s="185"/>
+      <c r="ER28" s="185"/>
+      <c r="ES28" s="185"/>
+      <c r="ET28" s="185"/>
+      <c r="EU28" s="185"/>
+      <c r="EV28" s="185"/>
+      <c r="EW28" s="185"/>
+      <c r="EX28" s="185"/>
+      <c r="EY28" s="185"/>
+      <c r="EZ28" s="185"/>
+      <c r="FA28" s="185"/>
+      <c r="FB28" s="185"/>
+      <c r="FC28" s="185"/>
+      <c r="FD28" s="185"/>
+      <c r="FE28" s="185"/>
+      <c r="FF28" s="185"/>
+      <c r="FG28" s="185"/>
+      <c r="FH28" s="185"/>
+      <c r="FI28" s="185"/>
+      <c r="FJ28" s="185"/>
+      <c r="FK28" s="185"/>
+      <c r="FL28" s="185"/>
+      <c r="FM28" s="185"/>
+      <c r="FN28" s="185"/>
+      <c r="FO28" s="185"/>
+      <c r="FP28" s="185"/>
+      <c r="FQ28" s="185"/>
+      <c r="FR28" s="185"/>
+      <c r="FS28" s="185"/>
+      <c r="FT28" s="185"/>
+      <c r="FU28" s="185"/>
+      <c r="FV28" s="185"/>
+      <c r="FW28" s="185"/>
+      <c r="FX28" s="185"/>
+      <c r="FY28" s="185"/>
+      <c r="FZ28" s="185"/>
+      <c r="GA28" s="185"/>
+      <c r="GB28" s="185"/>
+      <c r="GC28" s="185"/>
+      <c r="GD28" s="185"/>
+      <c r="GE28" s="185"/>
+      <c r="GF28" s="185"/>
+      <c r="GG28" s="185"/>
+      <c r="GH28" s="185"/>
+      <c r="GI28" s="185"/>
+      <c r="GJ28" s="185"/>
+      <c r="GK28" s="185"/>
+      <c r="GL28" s="185"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="184"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5813,16 +5813,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5834,6 +5834,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5847,28 +5869,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5882,8 +5882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5895,14 +5895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="253" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6095,11 +6095,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="235" t="s">
+      <c r="E27" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="236"/>
-      <c r="G27" s="237"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="256"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6406,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
@@ -6423,10 +6423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="194"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6453,8 +6453,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6493,14 +6493,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="187" t="s">
+      <c r="E4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6515,30 +6515,30 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-    </row>
-    <row r="6" spans="1:10" s="154" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="153">
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+    </row>
+    <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
+      <c r="A6" s="150">
         <v>2</v>
       </c>
-      <c r="B6" s="238">
+      <c r="B6" s="157">
         <v>2</v>
       </c>
-      <c r="C6" s="239"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="242"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6565,12 +6565,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6597,12 +6597,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="182"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6613,12 +6613,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6629,12 +6629,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="182"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6661,12 +6661,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6725,12 +6725,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6757,12 +6757,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6773,12 +6773,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="201"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="201"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6853,12 +6853,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6869,12 +6869,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="201"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6885,12 +6885,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6901,12 +6901,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6917,12 +6917,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="201"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6933,12 +6933,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="201"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="201"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="201"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="201"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -6997,12 +6997,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="201"/>
+      <c r="J35" s="201"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7013,12 +7013,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="201"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="201"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="201"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7061,12 +7061,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="201"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="201"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7109,23 +7109,32 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7141,23 +7150,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7199,10 +7199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="194"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7232,8 +7232,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7263,20 +7263,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="190" t="s">
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="191"/>
+      <c r="J4" s="203"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7287,10 +7287,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="199" t="s">
+      <c r="I5" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="200"/>
+      <c r="J5" s="212"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7301,8 +7301,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="202"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="214"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7313,8 +7313,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="202"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7325,8 +7325,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="214"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7337,8 +7337,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="214"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7349,8 +7349,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="216"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7361,10 +7361,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="190" t="s">
+      <c r="I11" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="191"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7375,10 +7375,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="193" t="s">
+      <c r="I12" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="J12" s="194"/>
+      <c r="J12" s="206"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7389,8 +7389,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="208"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7401,8 +7401,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="208"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7413,8 +7413,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="196"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="208"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7425,8 +7425,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="208"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7437,8 +7437,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="208"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7449,8 +7449,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7461,8 +7461,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7473,8 +7473,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="208"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7485,8 +7485,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="208"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7497,8 +7497,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="208"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7509,8 +7509,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="208"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7521,8 +7521,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7533,8 +7533,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7545,8 +7545,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="208"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7557,8 +7557,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="208"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7569,8 +7569,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="208"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7581,8 +7581,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7593,8 +7593,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="208"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7605,8 +7605,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7617,8 +7617,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="208"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7629,8 +7629,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7641,8 +7641,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7653,8 +7653,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7665,8 +7665,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7677,8 +7677,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7689,8 +7689,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7701,8 +7701,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="196"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="208"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7713,8 +7713,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7725,8 +7725,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="208"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7737,8 +7737,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="208"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7749,8 +7749,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7784,7 +7784,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7808,13 +7808,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7822,15 +7822,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="205" t="s">
+      <c r="H1" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="206"/>
-      <c r="J1" s="207" t="s">
+      <c r="I1" s="218"/>
+      <c r="J1" s="219" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="209"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="221"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7847,11 +7847,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7859,16 +7859,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="J2" s="207" t="str">
+      <c r="I2" s="218"/>
+      <c r="J2" s="219" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="208"/>
-      <c r="L2" s="209"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9011,6 +9011,1260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S58"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="11.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="23" customWidth="1"/>
+    <col min="14" max="16" width="14.140625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" style="23" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="23" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="22" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="93" t="str">
+        <f>'Update History'!D1</f>
+        <v>ASOFT - ERP.NET</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="90" t="str">
+        <f>'Update History'!F1</f>
+        <v>AF0324</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="101" t="str">
+        <f>'Update History'!H1</f>
+        <v>Thị Phượng</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="101" t="str">
+        <f>'Update History'!J1</f>
+        <v>Thị Phượng</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="234"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="93" t="str">
+        <f>'Update History'!D2</f>
+        <v>ASOFT - T</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="90" t="str">
+        <f>'Update History'!F2</f>
+        <v xml:space="preserve">Xác nhận thủ quỹ </v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="51">
+        <f>'Update History'!H2</f>
+        <v>42383</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="51">
+        <f>'Update History'!J2</f>
+        <v>42387</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" ht="11.25">
+      <c r="A4" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="231" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A5" s="35">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="35">
+        <v>51</v>
+      </c>
+      <c r="D5" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="232" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="200"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="237"/>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
+      <c r="A6" s="140">
+        <v>2</v>
+      </c>
+      <c r="B6" s="140"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="239"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="226"/>
+    </row>
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
+      <c r="A7" s="140">
+        <v>3</v>
+      </c>
+      <c r="B7" s="140"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="226"/>
+    </row>
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="140">
+        <v>4</v>
+      </c>
+      <c r="B8" s="140"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="226"/>
+    </row>
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="140">
+        <v>5</v>
+      </c>
+      <c r="B9" s="140"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="226"/>
+    </row>
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="140">
+        <v>6</v>
+      </c>
+      <c r="B10" s="140"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="226"/>
+    </row>
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A11" s="140">
+        <v>7</v>
+      </c>
+      <c r="B11" s="140"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="226"/>
+    </row>
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="125">
+        <v>8</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="226"/>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A13" s="125">
+        <v>9</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="226"/>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="125">
+        <v>10</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="226"/>
+    </row>
+    <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="125">
+        <v>11</v>
+      </c>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="226"/>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="125">
+        <v>12</v>
+      </c>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="226"/>
+    </row>
+    <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="125">
+        <v>13</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="226"/>
+    </row>
+    <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A18" s="125">
+        <v>14</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="228"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+    </row>
+    <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
+      <c r="A19" s="125">
+        <v>15</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="226"/>
+    </row>
+    <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="125">
+        <v>16</v>
+      </c>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="226"/>
+    </row>
+    <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="125">
+        <v>17</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="226"/>
+    </row>
+    <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="125">
+        <v>18</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="228"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="226"/>
+    </row>
+    <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
+      <c r="A23" s="125">
+        <v>19</v>
+      </c>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="226"/>
+    </row>
+    <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="125">
+        <v>20</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="226"/>
+    </row>
+    <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A25" s="125">
+        <v>21</v>
+      </c>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="226"/>
+    </row>
+    <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A26" s="125">
+        <v>22</v>
+      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="226"/>
+    </row>
+    <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="125">
+        <v>23</v>
+      </c>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="226"/>
+    </row>
+    <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A28" s="125">
+        <v>24</v>
+      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="226"/>
+    </row>
+    <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="125">
+        <v>25</v>
+      </c>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="226"/>
+    </row>
+    <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="125">
+        <v>26</v>
+      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="226"/>
+    </row>
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="125">
+        <v>27</v>
+      </c>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="222"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="226"/>
+    </row>
+    <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A32" s="125">
+        <v>28</v>
+      </c>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="226"/>
+    </row>
+    <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A33" s="125">
+        <v>29</v>
+      </c>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="226"/>
+    </row>
+    <row r="34" spans="1:19" ht="11.25">
+      <c r="A34" s="125">
+        <v>30</v>
+      </c>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="226"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="12" customHeight="1">
+      <c r="A35" s="125">
+        <v>31</v>
+      </c>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="222"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="225"/>
+      <c r="K35" s="226"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:19" ht="12" customHeight="1">
+      <c r="A36" s="125">
+        <v>32</v>
+      </c>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="225"/>
+      <c r="K36" s="226"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" ht="12" customHeight="1">
+      <c r="A37" s="125">
+        <v>33</v>
+      </c>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="225"/>
+      <c r="K37" s="226"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:19" ht="12" customHeight="1">
+      <c r="A38" s="125">
+        <v>34</v>
+      </c>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="225"/>
+      <c r="K38" s="226"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="12" customHeight="1">
+      <c r="A39" s="125">
+        <v>35</v>
+      </c>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="225"/>
+      <c r="K39" s="226"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:19" ht="12" customHeight="1">
+      <c r="A40" s="125">
+        <v>36</v>
+      </c>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="225"/>
+      <c r="K40" s="226"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+    </row>
+    <row r="41" spans="1:19" ht="12" customHeight="1">
+      <c r="A41" s="125">
+        <v>37</v>
+      </c>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="226"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+    </row>
+    <row r="42" spans="1:19" ht="12" customHeight="1">
+      <c r="A42" s="125">
+        <v>38</v>
+      </c>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="226"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="43" spans="1:19" ht="12" customHeight="1">
+      <c r="A43" s="125">
+        <v>39</v>
+      </c>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="224"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="226"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="1:19" ht="12" customHeight="1">
+      <c r="A44" s="125">
+        <v>40</v>
+      </c>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="224"/>
+      <c r="J44" s="225"/>
+      <c r="K44" s="226"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+    </row>
+    <row r="45" spans="1:19" ht="12" customHeight="1">
+      <c r="A45" s="125">
+        <v>41</v>
+      </c>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="224"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="226"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+    </row>
+    <row r="46" spans="1:19" ht="12" customHeight="1">
+      <c r="A46" s="125">
+        <v>42</v>
+      </c>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="225"/>
+      <c r="K46" s="226"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+    </row>
+    <row r="47" spans="1:19" ht="12" customHeight="1">
+      <c r="A47" s="125">
+        <v>43</v>
+      </c>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="224"/>
+      <c r="J47" s="225"/>
+      <c r="K47" s="226"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+    </row>
+    <row r="48" spans="1:19" ht="12" customHeight="1">
+      <c r="A48" s="125">
+        <v>44</v>
+      </c>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="225"/>
+      <c r="K48" s="226"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" ht="12" customHeight="1">
+      <c r="A49" s="125">
+        <v>45</v>
+      </c>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="224"/>
+      <c r="J49" s="225"/>
+      <c r="K49" s="226"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+    </row>
+    <row r="50" spans="1:19" ht="12" customHeight="1">
+      <c r="A50" s="125">
+        <v>46</v>
+      </c>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="225"/>
+      <c r="K50" s="226"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+    </row>
+    <row r="51" spans="1:19" ht="12" customHeight="1">
+      <c r="A51" s="125">
+        <v>47</v>
+      </c>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="224"/>
+      <c r="J51" s="225"/>
+      <c r="K51" s="226"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+    </row>
+    <row r="52" spans="1:19" ht="12" customHeight="1">
+      <c r="A52" s="125">
+        <v>48</v>
+      </c>
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="223"/>
+      <c r="I52" s="224"/>
+      <c r="J52" s="225"/>
+      <c r="K52" s="226"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+    </row>
+    <row r="53" spans="1:19" ht="12" customHeight="1">
+      <c r="A53" s="125">
+        <v>49</v>
+      </c>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="223"/>
+      <c r="I53" s="224"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="226"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="12" customHeight="1">
+      <c r="A54" s="125">
+        <v>50</v>
+      </c>
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="224"/>
+      <c r="J54" s="225"/>
+      <c r="K54" s="226"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:19" ht="12" customHeight="1">
+      <c r="A55" s="125">
+        <v>51</v>
+      </c>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="223"/>
+      <c r="I55" s="224"/>
+      <c r="J55" s="225"/>
+      <c r="K55" s="226"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+    </row>
+    <row r="56" spans="1:19" ht="12" customHeight="1">
+      <c r="A56" s="125">
+        <v>52</v>
+      </c>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="222"/>
+      <c r="H56" s="223"/>
+      <c r="I56" s="224"/>
+      <c r="J56" s="225"/>
+      <c r="K56" s="226"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+    </row>
+    <row r="57" spans="1:19" ht="12" customHeight="1">
+      <c r="A57" s="125">
+        <v>53</v>
+      </c>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="222"/>
+      <c r="H57" s="223"/>
+      <c r="I57" s="224"/>
+      <c r="J57" s="225"/>
+      <c r="K57" s="226"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:19" ht="12" customHeight="1">
+      <c r="A58" s="125">
+        <v>54</v>
+      </c>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="223"/>
+      <c r="I58" s="224"/>
+      <c r="J58" s="225"/>
+      <c r="K58" s="226"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="111">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
+      <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9154,26 +10408,26 @@
       <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="243" t="s">
+      <c r="F5" s="159" t="s">
         <v>204</v>
       </c>
       <c r="G5" s="61"/>
-      <c r="H5" s="155" t="s">
+      <c r="H5" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="152" t="s">
         <v>182</v>
       </c>
       <c r="J5" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="155"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:17" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -10031,1266 +11285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S58"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="11.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="23" customWidth="1"/>
-    <col min="14" max="16" width="14.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="36.7109375" style="23" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="23" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="22" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="93" t="str">
-        <f>'Update History'!D1</f>
-        <v>ASOFT - ERP.NET</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="90" t="str">
-        <f>'Update History'!F1</f>
-        <v>AF0324</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="101" t="str">
-        <f>'Update History'!H1</f>
-        <v>Thị Phượng</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="101" t="str">
-        <f>'Update History'!J1</f>
-        <v>Thị Phượng</v>
-      </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-    </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="214"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="93" t="str">
-        <f>'Update History'!D2</f>
-        <v>ASOFT - T</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="90" t="str">
-        <f>'Update History'!F2</f>
-        <v xml:space="preserve">Xác nhận thủ quỹ </v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="51">
-        <f>'Update History'!H2</f>
-        <v>42383</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="51">
-        <f>'Update History'!J2</f>
-        <v>42387</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1" ht="11.25">
-      <c r="A4" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="140" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="132" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="210" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-    </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="35">
-        <v>1</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="35">
-        <v>51</v>
-      </c>
-      <c r="D5" s="244" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="245" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="244" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="246" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="242"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="249"/>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
-      <c r="A6" s="140">
-        <v>2</v>
-      </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="217"/>
-    </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
-      <c r="A7" s="140">
-        <v>3</v>
-      </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="217"/>
-    </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="140">
-        <v>4</v>
-      </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-    </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="140">
-        <v>5</v>
-      </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="217"/>
-    </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="140">
-        <v>6</v>
-      </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="217"/>
-    </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A11" s="140">
-        <v>7</v>
-      </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="217"/>
-    </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="125">
-        <v>8</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="217"/>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A13" s="125">
-        <v>9</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="217"/>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="125">
-        <v>10</v>
-      </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="217"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="125">
-        <v>11</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="217"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="125">
-        <v>12</v>
-      </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="217"/>
-    </row>
-    <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="125">
-        <v>13</v>
-      </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="217"/>
-    </row>
-    <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="125">
-        <v>14</v>
-      </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="217"/>
-    </row>
-    <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
-      <c r="A19" s="125">
-        <v>15</v>
-      </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="217"/>
-    </row>
-    <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="125">
-        <v>16</v>
-      </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="217"/>
-    </row>
-    <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="125">
-        <v>17</v>
-      </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="217"/>
-    </row>
-    <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="125">
-        <v>18</v>
-      </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="217"/>
-    </row>
-    <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
-      <c r="A23" s="125">
-        <v>19</v>
-      </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="217"/>
-    </row>
-    <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="125">
-        <v>20</v>
-      </c>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="217"/>
-    </row>
-    <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="125">
-        <v>21</v>
-      </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="217"/>
-    </row>
-    <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="125">
-        <v>22</v>
-      </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="217"/>
-    </row>
-    <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="125">
-        <v>23</v>
-      </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="217"/>
-    </row>
-    <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="125">
-        <v>24</v>
-      </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="217"/>
-    </row>
-    <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="125">
-        <v>25</v>
-      </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="217"/>
-    </row>
-    <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="125">
-        <v>26</v>
-      </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="217"/>
-    </row>
-    <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="125">
-        <v>27</v>
-      </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="217"/>
-    </row>
-    <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A32" s="125">
-        <v>28</v>
-      </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="217"/>
-    </row>
-    <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A33" s="125">
-        <v>29</v>
-      </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="217"/>
-    </row>
-    <row r="34" spans="1:19" ht="11.25">
-      <c r="A34" s="125">
-        <v>30</v>
-      </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="217"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-    </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1">
-      <c r="A35" s="125">
-        <v>31</v>
-      </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="217"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-    </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1">
-      <c r="A36" s="125">
-        <v>32</v>
-      </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="217"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1">
-      <c r="A37" s="125">
-        <v>33</v>
-      </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="217"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-    </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1">
-      <c r="A38" s="125">
-        <v>34</v>
-      </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="223"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="217"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-    </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1">
-      <c r="A39" s="125">
-        <v>35</v>
-      </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="217"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-    </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1">
-      <c r="A40" s="125">
-        <v>36</v>
-      </c>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="217"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-    </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1">
-      <c r="A41" s="125">
-        <v>37</v>
-      </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="223"/>
-      <c r="I41" s="215"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="217"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1">
-      <c r="A42" s="125">
-        <v>38</v>
-      </c>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="216"/>
-      <c r="K42" s="217"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1">
-      <c r="A43" s="125">
-        <v>39</v>
-      </c>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="217"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1">
-      <c r="A44" s="125">
-        <v>40</v>
-      </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="223"/>
-      <c r="I44" s="215"/>
-      <c r="J44" s="216"/>
-      <c r="K44" s="217"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1">
-      <c r="A45" s="125">
-        <v>41</v>
-      </c>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="222"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="215"/>
-      <c r="J45" s="216"/>
-      <c r="K45" s="217"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-    </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1">
-      <c r="A46" s="125">
-        <v>42</v>
-      </c>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="216"/>
-      <c r="K46" s="217"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-    </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1">
-      <c r="A47" s="125">
-        <v>43</v>
-      </c>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="223"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="216"/>
-      <c r="K47" s="217"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-    </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1">
-      <c r="A48" s="125">
-        <v>44</v>
-      </c>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="222"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="216"/>
-      <c r="K48" s="217"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-    </row>
-    <row r="49" spans="1:19" ht="12" customHeight="1">
-      <c r="A49" s="125">
-        <v>45</v>
-      </c>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="216"/>
-      <c r="K49" s="217"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-    </row>
-    <row r="50" spans="1:19" ht="12" customHeight="1">
-      <c r="A50" s="125">
-        <v>46</v>
-      </c>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="222"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="215"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="217"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-    </row>
-    <row r="51" spans="1:19" ht="12" customHeight="1">
-      <c r="A51" s="125">
-        <v>47</v>
-      </c>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="222"/>
-      <c r="H51" s="223"/>
-      <c r="I51" s="215"/>
-      <c r="J51" s="216"/>
-      <c r="K51" s="217"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-    </row>
-    <row r="52" spans="1:19" ht="12" customHeight="1">
-      <c r="A52" s="125">
-        <v>48</v>
-      </c>
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="222"/>
-      <c r="H52" s="223"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="216"/>
-      <c r="K52" s="217"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-    </row>
-    <row r="53" spans="1:19" ht="12" customHeight="1">
-      <c r="A53" s="125">
-        <v>49</v>
-      </c>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="222"/>
-      <c r="H53" s="223"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="217"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1">
-      <c r="A54" s="125">
-        <v>50</v>
-      </c>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="222"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="215"/>
-      <c r="J54" s="216"/>
-      <c r="K54" s="217"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="1:19" ht="12" customHeight="1">
-      <c r="A55" s="125">
-        <v>51</v>
-      </c>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="222"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="215"/>
-      <c r="J55" s="216"/>
-      <c r="K55" s="217"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-    </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="125">
-        <v>52</v>
-      </c>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="222"/>
-      <c r="H56" s="223"/>
-      <c r="I56" s="215"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="217"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-    </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1">
-      <c r="A57" s="125">
-        <v>53</v>
-      </c>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="223"/>
-      <c r="I57" s="215"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="217"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-    </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1">
-      <c r="A58" s="125">
-        <v>54</v>
-      </c>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="222"/>
-      <c r="H58" s="223"/>
-      <c r="I58" s="215"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="217"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="111">
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
-      <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G8" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11318,24 +11318,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="227" t="str">
+      <c r="J1" s="243" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="227"/>
+      <c r="K1" s="243"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11363,22 +11363,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="227" t="str">
+      <c r="J2" s="243" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="227"/>
+      <c r="K2" s="243"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11435,12 +11435,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="230"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="246"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11458,234 +11458,218 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="121" customFormat="1" ht="81" customHeight="1">
-      <c r="A5" s="149">
+      <c r="A5" s="146">
         <v>1</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="146">
         <v>51</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="162" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="247" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="121" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A6" s="153">
+        <v>2</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="153">
+        <v>51</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148" t="s">
+      <c r="F6" s="155"/>
+      <c r="G6" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H6" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="I5" s="148" t="s">
+      <c r="I6" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="231" t="s">
+      <c r="J6" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="259" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="232"/>
-      <c r="M5" s="232"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="147" t="s">
+      <c r="L6" s="260"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="P5" s="147" t="s">
+      <c r="P6" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="150" t="s">
+      <c r="Q6" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="R5" s="150" t="s">
+      <c r="R6" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="S5" s="143" t="s">
+      <c r="S6" s="155" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="121" customFormat="1" ht="66" customHeight="1">
-      <c r="A6" s="156">
-        <v>2</v>
-      </c>
-      <c r="B6" s="149" t="s">
+    <row r="7" spans="1:21" s="121" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A7" s="153">
+        <v>3</v>
+      </c>
+      <c r="B7" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="156">
-        <v>51</v>
-      </c>
-      <c r="D6" s="156" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="250" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="250" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="250" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="251" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="252" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="251" t="s">
-        <v>194</v>
-      </c>
-      <c r="P6" s="251" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" s="255" t="s">
-        <v>166</v>
-      </c>
-      <c r="R6" s="255" t="s">
-        <v>182</v>
-      </c>
-      <c r="S6" s="250" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="121" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A7" s="156">
-        <v>3</v>
-      </c>
-      <c r="B7" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="156">
+      <c r="C7" s="153">
         <v>51</v>
       </c>
       <c r="D7" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="250" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="250" t="s">
+      <c r="E7" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="251" t="s">
+      <c r="J7" s="163" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="252" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="251" t="s">
-        <v>200</v>
-      </c>
-      <c r="P7" s="251" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="255" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="255" t="s">
-        <v>202</v>
-      </c>
-      <c r="S7" s="250" t="s">
+      <c r="K7" s="191" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="257"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="258"/>
+      <c r="O7" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A8" s="153">
+        <v>4</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="153">
+        <v>51</v>
+      </c>
+      <c r="D8" s="162" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="163" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A8" s="156">
-        <v>4</v>
-      </c>
-      <c r="B8" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="156">
-        <v>51</v>
-      </c>
-      <c r="D8" s="250" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="251" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="156"/>
-      <c r="G8" s="250" t="s">
+      <c r="F8" s="153"/>
+      <c r="G8" s="162" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="162" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="163" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="250" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="250" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="251" t="s">
+      <c r="K8" s="247" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
+      <c r="O8" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q8" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" s="165" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="252" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="251" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="251" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" s="255" t="s">
-        <v>166</v>
-      </c>
-      <c r="R8" s="255" t="s">
-        <v>182</v>
-      </c>
-      <c r="S8" s="258" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A9" s="149">
+      <c r="A9" s="146">
         <v>5</v>
       </c>
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="225"/>
-      <c r="M9" s="225"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="133"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="149">
+      <c r="A10" s="146">
         <v>6</v>
       </c>
       <c r="B10" s="125"/>
@@ -11697,10 +11681,10 @@
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
       <c r="J10" s="135"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="225"/>
-      <c r="N10" s="226"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="242"/>
       <c r="O10" s="127"/>
       <c r="P10" s="127"/>
       <c r="Q10" s="137"/>
@@ -11710,7 +11694,7 @@
       <c r="U10" s="63"/>
     </row>
     <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="149">
+      <c r="A11" s="146">
         <v>7</v>
       </c>
       <c r="B11" s="125"/>
@@ -11722,10 +11706,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="226"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="241"/>
+      <c r="N11" s="242"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11735,7 +11719,7 @@
       <c r="U11" s="63"/>
     </row>
     <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="149">
+      <c r="A12" s="146">
         <v>8</v>
       </c>
       <c r="B12" s="125"/>
@@ -11747,10 +11731,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="226"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="242"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11760,7 +11744,7 @@
       <c r="U12" s="63"/>
     </row>
     <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A13" s="149">
+      <c r="A13" s="146">
         <v>9</v>
       </c>
       <c r="B13" s="125"/>
@@ -11772,10 +11756,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
-      <c r="N13" s="226"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="242"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11785,7 +11769,7 @@
       <c r="U13" s="63"/>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="149">
+      <c r="A14" s="146">
         <v>10</v>
       </c>
       <c r="B14" s="125"/>
@@ -11797,10 +11781,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="225"/>
-      <c r="M14" s="225"/>
-      <c r="N14" s="226"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="241"/>
+      <c r="N14" s="242"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -11810,7 +11794,7 @@
       <c r="U14" s="63"/>
     </row>
     <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="149">
+      <c r="A15" s="146">
         <v>11</v>
       </c>
       <c r="B15" s="125"/>
@@ -11822,10 +11806,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="226"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="241"/>
+      <c r="M15" s="241"/>
+      <c r="N15" s="242"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -11835,7 +11819,7 @@
       <c r="U15" s="63"/>
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="149">
+      <c r="A16" s="146">
         <v>12</v>
       </c>
       <c r="B16" s="125"/>
@@ -11847,10 +11831,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="225"/>
-      <c r="N16" s="226"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
+      <c r="N16" s="242"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -11860,7 +11844,7 @@
       <c r="U16" s="63"/>
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="149">
+      <c r="A17" s="146">
         <v>13</v>
       </c>
       <c r="B17" s="125"/>
@@ -11872,10 +11856,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="226"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="241"/>
+      <c r="N17" s="242"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -11885,7 +11869,7 @@
       <c r="U17" s="63"/>
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="149">
+      <c r="A18" s="146">
         <v>14</v>
       </c>
       <c r="B18" s="125"/>
@@ -11897,10 +11881,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
-      <c r="N18" s="226"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
+      <c r="N18" s="242"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -11910,7 +11894,7 @@
       <c r="U18" s="63"/>
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="149">
+      <c r="A19" s="146">
         <v>15</v>
       </c>
       <c r="B19" s="125"/>
@@ -11922,10 +11906,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="225"/>
-      <c r="M19" s="225"/>
-      <c r="N19" s="226"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="241"/>
+      <c r="M19" s="241"/>
+      <c r="N19" s="242"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -11935,7 +11919,7 @@
       <c r="U19" s="63"/>
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="149">
+      <c r="A20" s="146">
         <v>16</v>
       </c>
       <c r="B20" s="125"/>
@@ -11947,10 +11931,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="226"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="241"/>
+      <c r="N20" s="242"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -11960,7 +11944,7 @@
       <c r="U20" s="63"/>
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="149">
+      <c r="A21" s="146">
         <v>17</v>
       </c>
       <c r="B21" s="125"/>
@@ -11972,10 +11956,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="225"/>
-      <c r="N21" s="226"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="241"/>
+      <c r="M21" s="241"/>
+      <c r="N21" s="242"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -11985,7 +11969,7 @@
       <c r="U21" s="63"/>
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="149">
+      <c r="A22" s="146">
         <v>18</v>
       </c>
       <c r="B22" s="125"/>
@@ -11997,10 +11981,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225"/>
-      <c r="N22" s="226"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="242"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12010,7 +11994,7 @@
       <c r="U22" s="63"/>
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="149">
+      <c r="A23" s="146">
         <v>19</v>
       </c>
       <c r="B23" s="125"/>
@@ -12022,10 +12006,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="225"/>
-      <c r="N23" s="226"/>
+      <c r="K23" s="240"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="242"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12035,7 +12019,7 @@
       <c r="U23" s="63"/>
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="149">
+      <c r="A24" s="146">
         <v>20</v>
       </c>
       <c r="B24" s="125"/>
@@ -12047,10 +12031,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="226"/>
+      <c r="K24" s="240"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="242"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12060,7 +12044,7 @@
       <c r="U24" s="63"/>
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="149">
+      <c r="A25" s="146">
         <v>21</v>
       </c>
       <c r="B25" s="125"/>
@@ -12072,10 +12056,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="225"/>
-      <c r="M25" s="225"/>
-      <c r="N25" s="226"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="242"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12085,7 +12069,7 @@
       <c r="U25" s="63"/>
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="149">
+      <c r="A26" s="146">
         <v>22</v>
       </c>
       <c r="B26" s="125"/>
@@ -12097,10 +12081,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225"/>
-      <c r="N26" s="226"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="242"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12110,7 +12094,7 @@
       <c r="U26" s="63"/>
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="149">
+      <c r="A27" s="146">
         <v>23</v>
       </c>
       <c r="B27" s="125"/>
@@ -12122,10 +12106,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="225"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="226"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="242"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12135,7 +12119,7 @@
       <c r="U27" s="63"/>
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="149">
+      <c r="A28" s="146">
         <v>24</v>
       </c>
       <c r="B28" s="125"/>
@@ -12147,10 +12131,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="225"/>
-      <c r="M28" s="225"/>
-      <c r="N28" s="226"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
+      <c r="N28" s="242"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12160,7 +12144,7 @@
       <c r="U28" s="63"/>
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="149">
+      <c r="A29" s="146">
         <v>25</v>
       </c>
       <c r="B29" s="125"/>
@@ -12172,10 +12156,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="226"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="241"/>
+      <c r="N29" s="242"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12185,7 +12169,7 @@
       <c r="U29" s="63"/>
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="149">
+      <c r="A30" s="146">
         <v>26</v>
       </c>
       <c r="B30" s="125"/>
@@ -12197,10 +12181,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="225"/>
-      <c r="N30" s="226"/>
+      <c r="K30" s="240"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="241"/>
+      <c r="N30" s="242"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12210,7 +12194,7 @@
       <c r="U30" s="63"/>
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="149">
+      <c r="A31" s="146">
         <v>27</v>
       </c>
       <c r="B31" s="125"/>
@@ -12222,10 +12206,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="226"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="241"/>
+      <c r="N31" s="242"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12235,7 +12219,7 @@
       <c r="U31" s="63"/>
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="149">
+      <c r="A32" s="146">
         <v>28</v>
       </c>
       <c r="B32" s="125"/>
@@ -12247,10 +12231,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="226"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="241"/>
+      <c r="N32" s="242"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12260,7 +12244,7 @@
       <c r="U32" s="63"/>
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="149">
+      <c r="A33" s="146">
         <v>29</v>
       </c>
       <c r="B33" s="125"/>
@@ -12272,10 +12256,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="225"/>
-      <c r="M33" s="225"/>
-      <c r="N33" s="226"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="241"/>
+      <c r="M33" s="241"/>
+      <c r="N33" s="242"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12285,7 +12269,7 @@
       <c r="U33" s="63"/>
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="149">
+      <c r="A34" s="146">
         <v>30</v>
       </c>
       <c r="B34" s="125"/>
@@ -12297,10 +12281,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="224"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="226"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="241"/>
+      <c r="N34" s="242"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12310,7 +12294,7 @@
       <c r="U34" s="63"/>
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="149">
+      <c r="A35" s="146">
         <v>31</v>
       </c>
       <c r="B35" s="125"/>
@@ -12322,10 +12306,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="224"/>
-      <c r="L35" s="225"/>
-      <c r="M35" s="225"/>
-      <c r="N35" s="226"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="241"/>
+      <c r="N35" s="242"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12335,7 +12319,7 @@
       <c r="U35" s="63"/>
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="149">
+      <c r="A36" s="146">
         <v>32</v>
       </c>
       <c r="B36" s="125"/>
@@ -12347,10 +12331,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="224"/>
-      <c r="L36" s="225"/>
-      <c r="M36" s="225"/>
-      <c r="N36" s="226"/>
+      <c r="K36" s="240"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
+      <c r="N36" s="242"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12360,7 +12344,7 @@
       <c r="U36" s="63"/>
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="149">
+      <c r="A37" s="146">
         <v>33</v>
       </c>
       <c r="B37" s="125"/>
@@ -12372,10 +12356,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="225"/>
-      <c r="M37" s="225"/>
-      <c r="N37" s="226"/>
+      <c r="K37" s="240"/>
+      <c r="L37" s="241"/>
+      <c r="M37" s="241"/>
+      <c r="N37" s="242"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12385,7 +12369,7 @@
       <c r="U37" s="63"/>
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="149">
+      <c r="A38" s="146">
         <v>34</v>
       </c>
       <c r="B38" s="125"/>
@@ -12397,10 +12381,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="224"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="225"/>
-      <c r="N38" s="226"/>
+      <c r="K38" s="240"/>
+      <c r="L38" s="241"/>
+      <c r="M38" s="241"/>
+      <c r="N38" s="242"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12410,7 +12394,7 @@
       <c r="U38" s="63"/>
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="149">
+      <c r="A39" s="146">
         <v>35</v>
       </c>
       <c r="B39" s="125"/>
@@ -12422,10 +12406,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="224"/>
-      <c r="L39" s="225"/>
-      <c r="M39" s="225"/>
-      <c r="N39" s="226"/>
+      <c r="K39" s="240"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="241"/>
+      <c r="N39" s="242"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12435,7 +12419,7 @@
       <c r="U39" s="63"/>
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="149">
+      <c r="A40" s="146">
         <v>36</v>
       </c>
       <c r="B40" s="125"/>
@@ -12447,10 +12431,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="224"/>
-      <c r="L40" s="225"/>
-      <c r="M40" s="225"/>
-      <c r="N40" s="226"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="242"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12460,7 +12444,7 @@
       <c r="U40" s="63"/>
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="149">
+      <c r="A41" s="146">
         <v>37</v>
       </c>
       <c r="B41" s="125"/>
@@ -12472,10 +12456,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="224"/>
-      <c r="L41" s="225"/>
-      <c r="M41" s="225"/>
-      <c r="N41" s="226"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="241"/>
+      <c r="N41" s="242"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12485,7 +12469,7 @@
       <c r="U41" s="63"/>
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="149">
+      <c r="A42" s="146">
         <v>38</v>
       </c>
       <c r="B42" s="125"/>
@@ -12497,10 +12481,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="224"/>
-      <c r="L42" s="225"/>
-      <c r="M42" s="225"/>
-      <c r="N42" s="226"/>
+      <c r="K42" s="240"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
+      <c r="N42" s="242"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12510,7 +12494,7 @@
       <c r="U42" s="63"/>
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="149">
+      <c r="A43" s="146">
         <v>39</v>
       </c>
       <c r="B43" s="125"/>
@@ -12522,10 +12506,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="224"/>
-      <c r="L43" s="225"/>
-      <c r="M43" s="225"/>
-      <c r="N43" s="226"/>
+      <c r="K43" s="240"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="241"/>
+      <c r="N43" s="242"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12535,7 +12519,7 @@
       <c r="U43" s="63"/>
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="149">
+      <c r="A44" s="146">
         <v>40</v>
       </c>
       <c r="B44" s="125"/>
@@ -12547,10 +12531,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="224"/>
-      <c r="L44" s="225"/>
-      <c r="M44" s="225"/>
-      <c r="N44" s="226"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="242"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12560,7 +12544,7 @@
       <c r="U44" s="63"/>
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="149">
+      <c r="A45" s="146">
         <v>41</v>
       </c>
       <c r="B45" s="125"/>
@@ -12572,10 +12556,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="224"/>
-      <c r="L45" s="225"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="226"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="241"/>
+      <c r="N45" s="242"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12585,7 +12569,7 @@
       <c r="U45" s="63"/>
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="149">
+      <c r="A46" s="146">
         <v>42</v>
       </c>
       <c r="B46" s="125"/>
@@ -12597,10 +12581,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="224"/>
-      <c r="L46" s="225"/>
-      <c r="M46" s="225"/>
-      <c r="N46" s="226"/>
+      <c r="K46" s="240"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="241"/>
+      <c r="N46" s="242"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12610,7 +12594,7 @@
       <c r="U46" s="63"/>
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="149">
+      <c r="A47" s="146">
         <v>43</v>
       </c>
       <c r="B47" s="125"/>
@@ -12622,10 +12606,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="224"/>
-      <c r="L47" s="225"/>
-      <c r="M47" s="225"/>
-      <c r="N47" s="226"/>
+      <c r="K47" s="240"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="241"/>
+      <c r="N47" s="242"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12635,7 +12619,7 @@
       <c r="U47" s="63"/>
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="149">
+      <c r="A48" s="146">
         <v>44</v>
       </c>
       <c r="B48" s="125"/>
@@ -12647,10 +12631,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="224"/>
-      <c r="L48" s="225"/>
-      <c r="M48" s="225"/>
-      <c r="N48" s="226"/>
+      <c r="K48" s="240"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="241"/>
+      <c r="N48" s="242"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12660,7 +12644,7 @@
       <c r="U48" s="63"/>
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="149">
+      <c r="A49" s="146">
         <v>45</v>
       </c>
       <c r="B49" s="125"/>
@@ -12672,10 +12656,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="224"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="225"/>
-      <c r="N49" s="226"/>
+      <c r="K49" s="240"/>
+      <c r="L49" s="241"/>
+      <c r="M49" s="241"/>
+      <c r="N49" s="242"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12685,7 +12669,7 @@
       <c r="U49" s="63"/>
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="149">
+      <c r="A50" s="146">
         <v>46</v>
       </c>
       <c r="B50" s="125"/>
@@ -12697,10 +12681,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="224"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="225"/>
-      <c r="N50" s="226"/>
+      <c r="K50" s="240"/>
+      <c r="L50" s="241"/>
+      <c r="M50" s="241"/>
+      <c r="N50" s="242"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12710,7 +12694,7 @@
       <c r="U50" s="63"/>
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="149">
+      <c r="A51" s="146">
         <v>47</v>
       </c>
       <c r="B51" s="125"/>
@@ -12722,10 +12706,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="224"/>
-      <c r="L51" s="225"/>
-      <c r="M51" s="225"/>
-      <c r="N51" s="226"/>
+      <c r="K51" s="240"/>
+      <c r="L51" s="241"/>
+      <c r="M51" s="241"/>
+      <c r="N51" s="242"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12735,7 +12719,7 @@
       <c r="U51" s="63"/>
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="149">
+      <c r="A52" s="146">
         <v>48</v>
       </c>
       <c r="B52" s="125"/>
@@ -12747,10 +12731,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="224"/>
-      <c r="L52" s="225"/>
-      <c r="M52" s="225"/>
-      <c r="N52" s="226"/>
+      <c r="K52" s="240"/>
+      <c r="L52" s="241"/>
+      <c r="M52" s="241"/>
+      <c r="N52" s="242"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12760,7 +12744,7 @@
       <c r="U52" s="63"/>
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="149">
+      <c r="A53" s="146">
         <v>49</v>
       </c>
       <c r="B53" s="125"/>
@@ -12772,10 +12756,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="224"/>
-      <c r="L53" s="225"/>
-      <c r="M53" s="225"/>
-      <c r="N53" s="226"/>
+      <c r="K53" s="240"/>
+      <c r="L53" s="241"/>
+      <c r="M53" s="241"/>
+      <c r="N53" s="242"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12785,7 +12769,7 @@
       <c r="U53" s="63"/>
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="149">
+      <c r="A54" s="146">
         <v>50</v>
       </c>
       <c r="B54" s="125"/>
@@ -12797,10 +12781,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="224"/>
-      <c r="L54" s="225"/>
-      <c r="M54" s="225"/>
-      <c r="N54" s="226"/>
+      <c r="K54" s="240"/>
+      <c r="L54" s="241"/>
+      <c r="M54" s="241"/>
+      <c r="N54" s="242"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -12810,7 +12794,7 @@
       <c r="U54" s="63"/>
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="149">
+      <c r="A55" s="146">
         <v>51</v>
       </c>
       <c r="B55" s="125"/>
@@ -12822,10 +12806,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="224"/>
-      <c r="L55" s="225"/>
-      <c r="M55" s="225"/>
-      <c r="N55" s="226"/>
+      <c r="K55" s="240"/>
+      <c r="L55" s="241"/>
+      <c r="M55" s="241"/>
+      <c r="N55" s="242"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -12835,7 +12819,7 @@
       <c r="U55" s="63"/>
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="149">
+      <c r="A56" s="146">
         <v>52</v>
       </c>
       <c r="B56" s="125"/>
@@ -12847,10 +12831,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="224"/>
-      <c r="L56" s="225"/>
-      <c r="M56" s="225"/>
-      <c r="N56" s="226"/>
+      <c r="K56" s="240"/>
+      <c r="L56" s="241"/>
+      <c r="M56" s="241"/>
+      <c r="N56" s="242"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -12860,7 +12844,7 @@
       <c r="U56" s="63"/>
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="149">
+      <c r="A57" s="146">
         <v>53</v>
       </c>
       <c r="B57" s="125"/>
@@ -12872,10 +12856,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="224"/>
-      <c r="L57" s="225"/>
-      <c r="M57" s="225"/>
-      <c r="N57" s="226"/>
+      <c r="K57" s="240"/>
+      <c r="L57" s="241"/>
+      <c r="M57" s="241"/>
+      <c r="N57" s="242"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -12885,7 +12869,7 @@
       <c r="U57" s="63"/>
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="149">
+      <c r="A58" s="146">
         <v>54</v>
       </c>
       <c r="B58" s="125"/>
@@ -12897,10 +12881,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="224"/>
-      <c r="L58" s="225"/>
-      <c r="M58" s="225"/>
-      <c r="N58" s="226"/>
+      <c r="K58" s="240"/>
+      <c r="L58" s="241"/>
+      <c r="M58" s="241"/>
+      <c r="N58" s="242"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -12910,7 +12894,7 @@
       <c r="U58" s="63"/>
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="149">
+      <c r="A59" s="146">
         <v>55</v>
       </c>
       <c r="B59" s="125"/>
@@ -12922,10 +12906,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="224"/>
-      <c r="L59" s="225"/>
-      <c r="M59" s="225"/>
-      <c r="N59" s="226"/>
+      <c r="K59" s="240"/>
+      <c r="L59" s="241"/>
+      <c r="M59" s="241"/>
+      <c r="N59" s="242"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -12935,7 +12919,7 @@
       <c r="U59" s="63"/>
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="149">
+      <c r="A60" s="146">
         <v>56</v>
       </c>
       <c r="B60" s="125"/>
@@ -12947,10 +12931,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="224"/>
-      <c r="L60" s="225"/>
-      <c r="M60" s="225"/>
-      <c r="N60" s="226"/>
+      <c r="K60" s="240"/>
+      <c r="L60" s="241"/>
+      <c r="M60" s="241"/>
+      <c r="N60" s="242"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -12960,7 +12944,7 @@
       <c r="U60" s="63"/>
     </row>
     <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="149">
+      <c r="A61" s="146">
         <v>57</v>
       </c>
       <c r="B61" s="125"/>
@@ -12972,10 +12956,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="224"/>
-      <c r="L61" s="225"/>
-      <c r="M61" s="225"/>
-      <c r="N61" s="226"/>
+      <c r="K61" s="240"/>
+      <c r="L61" s="241"/>
+      <c r="M61" s="241"/>
+      <c r="N61" s="242"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -12985,7 +12969,7 @@
       <c r="U61" s="63"/>
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A62" s="149">
+      <c r="A62" s="146">
         <v>58</v>
       </c>
       <c r="B62" s="125"/>
@@ -12997,10 +12981,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="225"/>
-      <c r="N62" s="226"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="241"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="242"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13010,7 +12994,7 @@
       <c r="U62" s="63"/>
     </row>
     <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A63" s="149">
+      <c r="A63" s="146">
         <v>59</v>
       </c>
       <c r="B63" s="125"/>
@@ -13022,10 +13006,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="224"/>
-      <c r="L63" s="225"/>
-      <c r="M63" s="225"/>
-      <c r="N63" s="226"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="241"/>
+      <c r="M63" s="241"/>
+      <c r="N63" s="242"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13035,7 +13019,7 @@
       <c r="U63" s="63"/>
     </row>
     <row r="64" spans="1:21" ht="11.25">
-      <c r="A64" s="149">
+      <c r="A64" s="146">
         <v>60</v>
       </c>
       <c r="B64" s="125"/>
@@ -13047,10 +13031,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="224"/>
-      <c r="L64" s="225"/>
-      <c r="M64" s="225"/>
-      <c r="N64" s="226"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="241"/>
+      <c r="M64" s="241"/>
+      <c r="N64" s="242"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13058,7 +13042,7 @@
       <c r="S64" s="131"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="149">
+      <c r="A65" s="146">
         <v>61</v>
       </c>
       <c r="B65" s="125"/>
@@ -13070,10 +13054,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="224"/>
-      <c r="L65" s="225"/>
-      <c r="M65" s="225"/>
-      <c r="N65" s="226"/>
+      <c r="K65" s="240"/>
+      <c r="L65" s="241"/>
+      <c r="M65" s="241"/>
+      <c r="N65" s="242"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13081,7 +13065,7 @@
       <c r="S65" s="131"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="149">
+      <c r="A66" s="146">
         <v>62</v>
       </c>
       <c r="B66" s="125"/>
@@ -13093,10 +13077,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="224"/>
-      <c r="L66" s="225"/>
-      <c r="M66" s="225"/>
-      <c r="N66" s="226"/>
+      <c r="K66" s="240"/>
+      <c r="L66" s="241"/>
+      <c r="M66" s="241"/>
+      <c r="N66" s="242"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13104,7 +13088,7 @@
       <c r="S66" s="131"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="149">
+      <c r="A67" s="146">
         <v>63</v>
       </c>
       <c r="B67" s="125"/>
@@ -13116,10 +13100,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="224"/>
-      <c r="L67" s="225"/>
-      <c r="M67" s="225"/>
-      <c r="N67" s="226"/>
+      <c r="K67" s="240"/>
+      <c r="L67" s="241"/>
+      <c r="M67" s="241"/>
+      <c r="N67" s="242"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13127,7 +13111,7 @@
       <c r="S67" s="131"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="149">
+      <c r="A68" s="146">
         <v>64</v>
       </c>
       <c r="B68" s="125"/>
@@ -13139,10 +13123,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="224"/>
-      <c r="L68" s="225"/>
-      <c r="M68" s="225"/>
-      <c r="N68" s="226"/>
+      <c r="K68" s="240"/>
+      <c r="L68" s="241"/>
+      <c r="M68" s="241"/>
+      <c r="N68" s="242"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13150,7 +13134,7 @@
       <c r="S68" s="131"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="149">
+      <c r="A69" s="146">
         <v>65</v>
       </c>
       <c r="B69" s="125"/>
@@ -13162,10 +13146,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="224"/>
-      <c r="L69" s="225"/>
-      <c r="M69" s="225"/>
-      <c r="N69" s="226"/>
+      <c r="K69" s="240"/>
+      <c r="L69" s="241"/>
+      <c r="M69" s="241"/>
+      <c r="N69" s="242"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13173,7 +13157,7 @@
       <c r="S69" s="131"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="149">
+      <c r="A70" s="146">
         <v>66</v>
       </c>
       <c r="B70" s="125"/>
@@ -13185,10 +13169,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="224"/>
-      <c r="L70" s="225"/>
-      <c r="M70" s="225"/>
-      <c r="N70" s="226"/>
+      <c r="K70" s="240"/>
+      <c r="L70" s="241"/>
+      <c r="M70" s="241"/>
+      <c r="N70" s="242"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13196,7 +13180,7 @@
       <c r="S70" s="131"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="149">
+      <c r="A71" s="146">
         <v>67</v>
       </c>
       <c r="B71" s="125"/>
@@ -13208,10 +13192,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="224"/>
-      <c r="L71" s="225"/>
-      <c r="M71" s="225"/>
-      <c r="N71" s="226"/>
+      <c r="K71" s="240"/>
+      <c r="L71" s="241"/>
+      <c r="M71" s="241"/>
+      <c r="N71" s="242"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13219,7 +13203,7 @@
       <c r="S71" s="131"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="149">
+      <c r="A72" s="146">
         <v>68</v>
       </c>
       <c r="B72" s="125"/>
@@ -13231,10 +13215,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="224"/>
-      <c r="L72" s="225"/>
-      <c r="M72" s="225"/>
-      <c r="N72" s="226"/>
+      <c r="K72" s="240"/>
+      <c r="L72" s="241"/>
+      <c r="M72" s="241"/>
+      <c r="N72" s="242"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13242,7 +13226,7 @@
       <c r="S72" s="131"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="149">
+      <c r="A73" s="146">
         <v>69</v>
       </c>
       <c r="B73" s="125"/>
@@ -13254,10 +13238,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="224"/>
-      <c r="L73" s="225"/>
-      <c r="M73" s="225"/>
-      <c r="N73" s="226"/>
+      <c r="K73" s="240"/>
+      <c r="L73" s="241"/>
+      <c r="M73" s="241"/>
+      <c r="N73" s="242"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13265,7 +13249,7 @@
       <c r="S73" s="131"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="149">
+      <c r="A74" s="146">
         <v>70</v>
       </c>
       <c r="B74" s="125"/>
@@ -13277,10 +13261,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="224"/>
-      <c r="L74" s="225"/>
-      <c r="M74" s="225"/>
-      <c r="N74" s="226"/>
+      <c r="K74" s="240"/>
+      <c r="L74" s="241"/>
+      <c r="M74" s="241"/>
+      <c r="N74" s="242"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13288,7 +13272,7 @@
       <c r="S74" s="131"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="149">
+      <c r="A75" s="146">
         <v>71</v>
       </c>
       <c r="B75" s="125"/>
@@ -13300,10 +13284,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="224"/>
-      <c r="L75" s="225"/>
-      <c r="M75" s="225"/>
-      <c r="N75" s="226"/>
+      <c r="K75" s="240"/>
+      <c r="L75" s="241"/>
+      <c r="M75" s="241"/>
+      <c r="N75" s="242"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13311,7 +13295,7 @@
       <c r="S75" s="131"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="149">
+      <c r="A76" s="146">
         <v>72</v>
       </c>
       <c r="B76" s="125"/>
@@ -13323,10 +13307,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="224"/>
-      <c r="L76" s="225"/>
-      <c r="M76" s="225"/>
-      <c r="N76" s="226"/>
+      <c r="K76" s="240"/>
+      <c r="L76" s="241"/>
+      <c r="M76" s="241"/>
+      <c r="N76" s="242"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13334,7 +13318,7 @@
       <c r="S76" s="131"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="149">
+      <c r="A77" s="146">
         <v>73</v>
       </c>
       <c r="B77" s="125"/>
@@ -13346,10 +13330,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="224"/>
-      <c r="L77" s="225"/>
-      <c r="M77" s="225"/>
-      <c r="N77" s="226"/>
+      <c r="K77" s="240"/>
+      <c r="L77" s="241"/>
+      <c r="M77" s="241"/>
+      <c r="N77" s="242"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13357,7 +13341,7 @@
       <c r="S77" s="131"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="149">
+      <c r="A78" s="146">
         <v>74</v>
       </c>
       <c r="B78" s="125"/>
@@ -13369,10 +13353,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="224"/>
-      <c r="L78" s="225"/>
-      <c r="M78" s="225"/>
-      <c r="N78" s="226"/>
+      <c r="K78" s="240"/>
+      <c r="L78" s="241"/>
+      <c r="M78" s="241"/>
+      <c r="N78" s="242"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13380,7 +13364,7 @@
       <c r="S78" s="131"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="149">
+      <c r="A79" s="146">
         <v>75</v>
       </c>
       <c r="B79" s="125"/>
@@ -13392,10 +13376,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="224"/>
-      <c r="L79" s="225"/>
-      <c r="M79" s="225"/>
-      <c r="N79" s="226"/>
+      <c r="K79" s="240"/>
+      <c r="L79" s="241"/>
+      <c r="M79" s="241"/>
+      <c r="N79" s="242"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13403,7 +13387,7 @@
       <c r="S79" s="131"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="149">
+      <c r="A80" s="146">
         <v>76</v>
       </c>
       <c r="B80" s="125"/>
@@ -13415,10 +13399,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="224"/>
-      <c r="L80" s="225"/>
-      <c r="M80" s="225"/>
-      <c r="N80" s="226"/>
+      <c r="K80" s="240"/>
+      <c r="L80" s="241"/>
+      <c r="M80" s="241"/>
+      <c r="N80" s="242"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13426,7 +13410,7 @@
       <c r="S80" s="131"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="149">
+      <c r="A81" s="146">
         <v>77</v>
       </c>
       <c r="B81" s="125"/>
@@ -13438,10 +13422,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="224"/>
-      <c r="L81" s="225"/>
-      <c r="M81" s="225"/>
-      <c r="N81" s="226"/>
+      <c r="K81" s="240"/>
+      <c r="L81" s="241"/>
+      <c r="M81" s="241"/>
+      <c r="N81" s="242"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13449,7 +13433,7 @@
       <c r="S81" s="131"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="149">
+      <c r="A82" s="146">
         <v>78</v>
       </c>
       <c r="B82" s="125"/>
@@ -13461,10 +13445,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="224"/>
-      <c r="L82" s="225"/>
-      <c r="M82" s="225"/>
-      <c r="N82" s="226"/>
+      <c r="K82" s="240"/>
+      <c r="L82" s="241"/>
+      <c r="M82" s="241"/>
+      <c r="N82" s="242"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13472,7 +13456,7 @@
       <c r="S82" s="131"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="149">
+      <c r="A83" s="146">
         <v>79</v>
       </c>
       <c r="B83" s="125"/>
@@ -13484,10 +13468,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="224"/>
-      <c r="L83" s="225"/>
-      <c r="M83" s="225"/>
-      <c r="N83" s="226"/>
+      <c r="K83" s="240"/>
+      <c r="L83" s="241"/>
+      <c r="M83" s="241"/>
+      <c r="N83" s="242"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13495,7 +13479,7 @@
       <c r="S83" s="131"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="149">
+      <c r="A84" s="146">
         <v>80</v>
       </c>
       <c r="B84" s="125"/>
@@ -13507,10 +13491,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="224"/>
-      <c r="L84" s="225"/>
-      <c r="M84" s="225"/>
-      <c r="N84" s="226"/>
+      <c r="K84" s="240"/>
+      <c r="L84" s="241"/>
+      <c r="M84" s="241"/>
+      <c r="N84" s="242"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13518,7 +13502,7 @@
       <c r="S84" s="131"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="149">
+      <c r="A85" s="146">
         <v>81</v>
       </c>
       <c r="B85" s="125"/>
@@ -13530,10 +13514,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="224"/>
-      <c r="L85" s="225"/>
-      <c r="M85" s="225"/>
-      <c r="N85" s="226"/>
+      <c r="K85" s="240"/>
+      <c r="L85" s="241"/>
+      <c r="M85" s="241"/>
+      <c r="N85" s="242"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13541,7 +13525,7 @@
       <c r="S85" s="131"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="149">
+      <c r="A86" s="146">
         <v>82</v>
       </c>
       <c r="B86" s="125"/>
@@ -13553,10 +13537,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="224"/>
-      <c r="L86" s="225"/>
-      <c r="M86" s="225"/>
-      <c r="N86" s="226"/>
+      <c r="K86" s="240"/>
+      <c r="L86" s="241"/>
+      <c r="M86" s="241"/>
+      <c r="N86" s="242"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13564,7 +13548,7 @@
       <c r="S86" s="131"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="149">
+      <c r="A87" s="146">
         <v>83</v>
       </c>
       <c r="B87" s="125"/>
@@ -13576,10 +13560,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="224"/>
-      <c r="L87" s="225"/>
-      <c r="M87" s="225"/>
-      <c r="N87" s="226"/>
+      <c r="K87" s="240"/>
+      <c r="L87" s="241"/>
+      <c r="M87" s="241"/>
+      <c r="N87" s="242"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13587,7 +13571,7 @@
       <c r="S87" s="131"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="149">
+      <c r="A88" s="146">
         <v>84</v>
       </c>
       <c r="B88" s="125"/>
@@ -13599,10 +13583,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="224"/>
-      <c r="L88" s="225"/>
-      <c r="M88" s="225"/>
-      <c r="N88" s="226"/>
+      <c r="K88" s="240"/>
+      <c r="L88" s="241"/>
+      <c r="M88" s="241"/>
+      <c r="N88" s="242"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13610,7 +13594,7 @@
       <c r="S88" s="131"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="149">
+      <c r="A89" s="146">
         <v>85</v>
       </c>
       <c r="B89" s="125"/>
@@ -13622,10 +13606,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="224"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
-      <c r="N89" s="226"/>
+      <c r="K89" s="240"/>
+      <c r="L89" s="241"/>
+      <c r="M89" s="241"/>
+      <c r="N89" s="242"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13633,7 +13617,7 @@
       <c r="S89" s="131"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="149">
+      <c r="A90" s="146">
         <v>86</v>
       </c>
       <c r="B90" s="125"/>
@@ -13645,10 +13629,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="224"/>
-      <c r="L90" s="225"/>
-      <c r="M90" s="225"/>
-      <c r="N90" s="226"/>
+      <c r="K90" s="240"/>
+      <c r="L90" s="241"/>
+      <c r="M90" s="241"/>
+      <c r="N90" s="242"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13656,7 +13640,7 @@
       <c r="S90" s="131"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="149">
+      <c r="A91" s="146">
         <v>87</v>
       </c>
       <c r="B91" s="125"/>
@@ -13668,10 +13652,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="224"/>
-      <c r="L91" s="225"/>
-      <c r="M91" s="225"/>
-      <c r="N91" s="226"/>
+      <c r="K91" s="240"/>
+      <c r="L91" s="241"/>
+      <c r="M91" s="241"/>
+      <c r="N91" s="242"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13679,7 +13663,7 @@
       <c r="S91" s="131"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="149">
+      <c r="A92" s="146">
         <v>88</v>
       </c>
       <c r="B92" s="125"/>
@@ -13691,10 +13675,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="224"/>
-      <c r="L92" s="225"/>
-      <c r="M92" s="225"/>
-      <c r="N92" s="226"/>
+      <c r="K92" s="240"/>
+      <c r="L92" s="241"/>
+      <c r="M92" s="241"/>
+      <c r="N92" s="242"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13702,7 +13686,7 @@
       <c r="S92" s="131"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="149">
+      <c r="A93" s="146">
         <v>89</v>
       </c>
       <c r="B93" s="125"/>
@@ -13714,10 +13698,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="224"/>
-      <c r="L93" s="225"/>
-      <c r="M93" s="225"/>
-      <c r="N93" s="226"/>
+      <c r="K93" s="240"/>
+      <c r="L93" s="241"/>
+      <c r="M93" s="241"/>
+      <c r="N93" s="242"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13725,7 +13709,7 @@
       <c r="S93" s="131"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="151">
+      <c r="A94" s="148">
         <v>90</v>
       </c>
       <c r="B94" s="125"/>
@@ -13737,10 +13721,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="224"/>
-      <c r="L94" s="225"/>
-      <c r="M94" s="225"/>
-      <c r="N94" s="226"/>
+      <c r="K94" s="240"/>
+      <c r="L94" s="241"/>
+      <c r="M94" s="241"/>
+      <c r="N94" s="242"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -13748,31 +13732,31 @@
       <c r="S94" s="131"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="152"/>
+      <c r="A95" s="149"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="152"/>
+      <c r="A96" s="149"/>
     </row>
     <row r="97" spans="1:1" ht="12" customHeight="1">
-      <c r="A97" s="152"/>
+      <c r="A97" s="149"/>
     </row>
     <row r="98" spans="1:1" ht="12" customHeight="1">
-      <c r="A98" s="152"/>
+      <c r="A98" s="149"/>
     </row>
     <row r="99" spans="1:1" ht="12" customHeight="1">
-      <c r="A99" s="152"/>
+      <c r="A99" s="149"/>
     </row>
     <row r="100" spans="1:1" ht="12" customHeight="1">
-      <c r="A100" s="152"/>
+      <c r="A100" s="149"/>
     </row>
     <row r="101" spans="1:1" ht="12" customHeight="1">
-      <c r="A101" s="152"/>
+      <c r="A101" s="149"/>
     </row>
     <row r="102" spans="1:1" ht="12" customHeight="1">
-      <c r="A102" s="152"/>
+      <c r="A102" s="149"/>
     </row>
     <row r="103" spans="1:1" ht="12" customHeight="1">
-      <c r="A103" s="152"/>
+      <c r="A103" s="149"/>
     </row>
     <row r="104" spans="1:1" ht="12" customHeight="1">
       <c r="A104" s="118"/>
@@ -13827,43 +13811,49 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
+  <mergeCells count="93">
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K72:N72"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K7:N7"/>
@@ -13880,58 +13870,51 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q8 Q10:Q94"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8 H10:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I8 I10:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R8 R10:R94">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13950,8 +13933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13967,10 +13950,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="194"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14001,8 +13984,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14178,7 +14161,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14302,18 +14285,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="259" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="260"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="261"/>
+      <c r="A26" s="250" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="251"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="252"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -15083,10 +15066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="194"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15114,8 +15097,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2037,9 +2037,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>click Có</t>
-  </si>
-  <si>
     <t>AT2006</t>
   </si>
   <si>
@@ -2207,6 +2204,9 @@
 @DivisionID
 @SOrderID
 @DeliveryStatus</t>
+  </si>
+  <si>
+    <t>Click Có</t>
   </si>
 </sst>
 </file>
@@ -3151,9 +3151,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3199,23 +3217,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3256,9 +3259,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3319,60 +3319,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3382,6 +3382,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3403,6 +3409,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3422,21 +3437,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5296,65 +5296,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="171"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="173" t="s">
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="179" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="172" t="s">
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172" t="s">
+      <c r="H1" s="178"/>
+      <c r="I1" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="172"/>
+      <c r="J1" s="178"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="172" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="168" t="s">
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="170"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5365,56 +5365,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5425,384 +5425,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="183"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="166"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="182"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="171"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="171"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="182"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="171"/>
+      <c r="Q23" s="171"/>
+      <c r="R23" s="171"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="184"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="168"/>
+      <c r="R26" s="168"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="185"/>
-      <c r="AF28" s="185"/>
-      <c r="AG28" s="185"/>
-      <c r="AH28" s="185"/>
-      <c r="AI28" s="185"/>
-      <c r="AJ28" s="185"/>
-      <c r="AK28" s="185"/>
-      <c r="AL28" s="185"/>
-      <c r="AM28" s="185"/>
-      <c r="AN28" s="185"/>
-      <c r="AO28" s="185"/>
-      <c r="AP28" s="185"/>
-      <c r="AQ28" s="185"/>
-      <c r="AR28" s="185"/>
-      <c r="AS28" s="185"/>
-      <c r="AT28" s="185"/>
-      <c r="AU28" s="185"/>
-      <c r="AV28" s="185"/>
-      <c r="AW28" s="185"/>
-      <c r="AX28" s="185"/>
-      <c r="AY28" s="185"/>
-      <c r="AZ28" s="185"/>
-      <c r="BA28" s="185"/>
-      <c r="BB28" s="185"/>
-      <c r="BC28" s="185"/>
-      <c r="BD28" s="185"/>
-      <c r="BE28" s="185"/>
-      <c r="BF28" s="185"/>
-      <c r="BG28" s="185"/>
-      <c r="BH28" s="185"/>
-      <c r="BI28" s="185"/>
-      <c r="BJ28" s="185"/>
-      <c r="BK28" s="185"/>
-      <c r="BL28" s="185"/>
-      <c r="BM28" s="185"/>
-      <c r="BN28" s="185"/>
-      <c r="BO28" s="185"/>
-      <c r="BP28" s="185"/>
-      <c r="BQ28" s="185"/>
-      <c r="BR28" s="185"/>
-      <c r="BS28" s="185"/>
-      <c r="BT28" s="185"/>
-      <c r="BU28" s="185"/>
-      <c r="BV28" s="185"/>
-      <c r="BW28" s="185"/>
-      <c r="BX28" s="185"/>
-      <c r="BY28" s="185"/>
-      <c r="BZ28" s="185"/>
-      <c r="CA28" s="185"/>
-      <c r="CB28" s="185"/>
-      <c r="CC28" s="185"/>
-      <c r="CD28" s="185"/>
-      <c r="CE28" s="185"/>
-      <c r="CF28" s="185"/>
-      <c r="CG28" s="185"/>
-      <c r="CH28" s="185"/>
-      <c r="CI28" s="185"/>
-      <c r="CJ28" s="185"/>
-      <c r="CK28" s="185"/>
-      <c r="CL28" s="185"/>
-      <c r="CM28" s="185"/>
-      <c r="CN28" s="185"/>
-      <c r="CO28" s="185"/>
-      <c r="CP28" s="185"/>
-      <c r="CQ28" s="185"/>
-      <c r="CR28" s="185"/>
-      <c r="CS28" s="185"/>
-      <c r="CT28" s="185"/>
-      <c r="CU28" s="185"/>
-      <c r="CV28" s="185"/>
-      <c r="CW28" s="185"/>
-      <c r="CX28" s="185"/>
-      <c r="CY28" s="185"/>
-      <c r="CZ28" s="185"/>
-      <c r="DA28" s="185"/>
-      <c r="DB28" s="185"/>
-      <c r="DC28" s="185"/>
-      <c r="DD28" s="185"/>
-      <c r="DE28" s="185"/>
-      <c r="DF28" s="185"/>
-      <c r="DG28" s="185"/>
-      <c r="DH28" s="185"/>
-      <c r="DI28" s="185"/>
-      <c r="DJ28" s="185"/>
-      <c r="DK28" s="185"/>
-      <c r="DL28" s="185"/>
-      <c r="DM28" s="185"/>
-      <c r="DN28" s="185"/>
-      <c r="DO28" s="185"/>
-      <c r="DP28" s="185"/>
-      <c r="DQ28" s="185"/>
-      <c r="DR28" s="185"/>
-      <c r="DS28" s="185"/>
-      <c r="DT28" s="185"/>
-      <c r="DU28" s="185"/>
-      <c r="DV28" s="185"/>
-      <c r="DW28" s="185"/>
-      <c r="DX28" s="185"/>
-      <c r="DY28" s="185"/>
-      <c r="DZ28" s="185"/>
-      <c r="EA28" s="185"/>
-      <c r="EB28" s="185"/>
-      <c r="EC28" s="185"/>
-      <c r="ED28" s="185"/>
-      <c r="EE28" s="185"/>
-      <c r="EF28" s="185"/>
-      <c r="EG28" s="185"/>
-      <c r="EH28" s="185"/>
-      <c r="EI28" s="185"/>
-      <c r="EJ28" s="185"/>
-      <c r="EK28" s="185"/>
-      <c r="EL28" s="185"/>
-      <c r="EM28" s="185"/>
-      <c r="EN28" s="185"/>
-      <c r="EO28" s="185"/>
-      <c r="EP28" s="185"/>
-      <c r="EQ28" s="185"/>
-      <c r="ER28" s="185"/>
-      <c r="ES28" s="185"/>
-      <c r="ET28" s="185"/>
-      <c r="EU28" s="185"/>
-      <c r="EV28" s="185"/>
-      <c r="EW28" s="185"/>
-      <c r="EX28" s="185"/>
-      <c r="EY28" s="185"/>
-      <c r="EZ28" s="185"/>
-      <c r="FA28" s="185"/>
-      <c r="FB28" s="185"/>
-      <c r="FC28" s="185"/>
-      <c r="FD28" s="185"/>
-      <c r="FE28" s="185"/>
-      <c r="FF28" s="185"/>
-      <c r="FG28" s="185"/>
-      <c r="FH28" s="185"/>
-      <c r="FI28" s="185"/>
-      <c r="FJ28" s="185"/>
-      <c r="FK28" s="185"/>
-      <c r="FL28" s="185"/>
-      <c r="FM28" s="185"/>
-      <c r="FN28" s="185"/>
-      <c r="FO28" s="185"/>
-      <c r="FP28" s="185"/>
-      <c r="FQ28" s="185"/>
-      <c r="FR28" s="185"/>
-      <c r="FS28" s="185"/>
-      <c r="FT28" s="185"/>
-      <c r="FU28" s="185"/>
-      <c r="FV28" s="185"/>
-      <c r="FW28" s="185"/>
-      <c r="FX28" s="185"/>
-      <c r="FY28" s="185"/>
-      <c r="FZ28" s="185"/>
-      <c r="GA28" s="185"/>
-      <c r="GB28" s="185"/>
-      <c r="GC28" s="185"/>
-      <c r="GD28" s="185"/>
-      <c r="GE28" s="185"/>
-      <c r="GF28" s="185"/>
-      <c r="GG28" s="185"/>
-      <c r="GH28" s="185"/>
-      <c r="GI28" s="185"/>
-      <c r="GJ28" s="185"/>
-      <c r="GK28" s="185"/>
-      <c r="GL28" s="185"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="167"/>
+      <c r="X28" s="167"/>
+      <c r="Y28" s="167"/>
+      <c r="Z28" s="167"/>
+      <c r="AA28" s="167"/>
+      <c r="AB28" s="167"/>
+      <c r="AC28" s="167"/>
+      <c r="AD28" s="167"/>
+      <c r="AE28" s="167"/>
+      <c r="AF28" s="167"/>
+      <c r="AG28" s="167"/>
+      <c r="AH28" s="167"/>
+      <c r="AI28" s="167"/>
+      <c r="AJ28" s="167"/>
+      <c r="AK28" s="167"/>
+      <c r="AL28" s="167"/>
+      <c r="AM28" s="167"/>
+      <c r="AN28" s="167"/>
+      <c r="AO28" s="167"/>
+      <c r="AP28" s="167"/>
+      <c r="AQ28" s="167"/>
+      <c r="AR28" s="167"/>
+      <c r="AS28" s="167"/>
+      <c r="AT28" s="167"/>
+      <c r="AU28" s="167"/>
+      <c r="AV28" s="167"/>
+      <c r="AW28" s="167"/>
+      <c r="AX28" s="167"/>
+      <c r="AY28" s="167"/>
+      <c r="AZ28" s="167"/>
+      <c r="BA28" s="167"/>
+      <c r="BB28" s="167"/>
+      <c r="BC28" s="167"/>
+      <c r="BD28" s="167"/>
+      <c r="BE28" s="167"/>
+      <c r="BF28" s="167"/>
+      <c r="BG28" s="167"/>
+      <c r="BH28" s="167"/>
+      <c r="BI28" s="167"/>
+      <c r="BJ28" s="167"/>
+      <c r="BK28" s="167"/>
+      <c r="BL28" s="167"/>
+      <c r="BM28" s="167"/>
+      <c r="BN28" s="167"/>
+      <c r="BO28" s="167"/>
+      <c r="BP28" s="167"/>
+      <c r="BQ28" s="167"/>
+      <c r="BR28" s="167"/>
+      <c r="BS28" s="167"/>
+      <c r="BT28" s="167"/>
+      <c r="BU28" s="167"/>
+      <c r="BV28" s="167"/>
+      <c r="BW28" s="167"/>
+      <c r="BX28" s="167"/>
+      <c r="BY28" s="167"/>
+      <c r="BZ28" s="167"/>
+      <c r="CA28" s="167"/>
+      <c r="CB28" s="167"/>
+      <c r="CC28" s="167"/>
+      <c r="CD28" s="167"/>
+      <c r="CE28" s="167"/>
+      <c r="CF28" s="167"/>
+      <c r="CG28" s="167"/>
+      <c r="CH28" s="167"/>
+      <c r="CI28" s="167"/>
+      <c r="CJ28" s="167"/>
+      <c r="CK28" s="167"/>
+      <c r="CL28" s="167"/>
+      <c r="CM28" s="167"/>
+      <c r="CN28" s="167"/>
+      <c r="CO28" s="167"/>
+      <c r="CP28" s="167"/>
+      <c r="CQ28" s="167"/>
+      <c r="CR28" s="167"/>
+      <c r="CS28" s="167"/>
+      <c r="CT28" s="167"/>
+      <c r="CU28" s="167"/>
+      <c r="CV28" s="167"/>
+      <c r="CW28" s="167"/>
+      <c r="CX28" s="167"/>
+      <c r="CY28" s="167"/>
+      <c r="CZ28" s="167"/>
+      <c r="DA28" s="167"/>
+      <c r="DB28" s="167"/>
+      <c r="DC28" s="167"/>
+      <c r="DD28" s="167"/>
+      <c r="DE28" s="167"/>
+      <c r="DF28" s="167"/>
+      <c r="DG28" s="167"/>
+      <c r="DH28" s="167"/>
+      <c r="DI28" s="167"/>
+      <c r="DJ28" s="167"/>
+      <c r="DK28" s="167"/>
+      <c r="DL28" s="167"/>
+      <c r="DM28" s="167"/>
+      <c r="DN28" s="167"/>
+      <c r="DO28" s="167"/>
+      <c r="DP28" s="167"/>
+      <c r="DQ28" s="167"/>
+      <c r="DR28" s="167"/>
+      <c r="DS28" s="167"/>
+      <c r="DT28" s="167"/>
+      <c r="DU28" s="167"/>
+      <c r="DV28" s="167"/>
+      <c r="DW28" s="167"/>
+      <c r="DX28" s="167"/>
+      <c r="DY28" s="167"/>
+      <c r="DZ28" s="167"/>
+      <c r="EA28" s="167"/>
+      <c r="EB28" s="167"/>
+      <c r="EC28" s="167"/>
+      <c r="ED28" s="167"/>
+      <c r="EE28" s="167"/>
+      <c r="EF28" s="167"/>
+      <c r="EG28" s="167"/>
+      <c r="EH28" s="167"/>
+      <c r="EI28" s="167"/>
+      <c r="EJ28" s="167"/>
+      <c r="EK28" s="167"/>
+      <c r="EL28" s="167"/>
+      <c r="EM28" s="167"/>
+      <c r="EN28" s="167"/>
+      <c r="EO28" s="167"/>
+      <c r="EP28" s="167"/>
+      <c r="EQ28" s="167"/>
+      <c r="ER28" s="167"/>
+      <c r="ES28" s="167"/>
+      <c r="ET28" s="167"/>
+      <c r="EU28" s="167"/>
+      <c r="EV28" s="167"/>
+      <c r="EW28" s="167"/>
+      <c r="EX28" s="167"/>
+      <c r="EY28" s="167"/>
+      <c r="EZ28" s="167"/>
+      <c r="FA28" s="167"/>
+      <c r="FB28" s="167"/>
+      <c r="FC28" s="167"/>
+      <c r="FD28" s="167"/>
+      <c r="FE28" s="167"/>
+      <c r="FF28" s="167"/>
+      <c r="FG28" s="167"/>
+      <c r="FH28" s="167"/>
+      <c r="FI28" s="167"/>
+      <c r="FJ28" s="167"/>
+      <c r="FK28" s="167"/>
+      <c r="FL28" s="167"/>
+      <c r="FM28" s="167"/>
+      <c r="FN28" s="167"/>
+      <c r="FO28" s="167"/>
+      <c r="FP28" s="167"/>
+      <c r="FQ28" s="167"/>
+      <c r="FR28" s="167"/>
+      <c r="FS28" s="167"/>
+      <c r="FT28" s="167"/>
+      <c r="FU28" s="167"/>
+      <c r="FV28" s="167"/>
+      <c r="FW28" s="167"/>
+      <c r="FX28" s="167"/>
+      <c r="FY28" s="167"/>
+      <c r="FZ28" s="167"/>
+      <c r="GA28" s="167"/>
+      <c r="GB28" s="167"/>
+      <c r="GC28" s="167"/>
+      <c r="GD28" s="167"/>
+      <c r="GE28" s="167"/>
+      <c r="GF28" s="167"/>
+      <c r="GG28" s="167"/>
+      <c r="GH28" s="167"/>
+      <c r="GI28" s="167"/>
+      <c r="GJ28" s="167"/>
+      <c r="GK28" s="167"/>
+      <c r="GL28" s="167"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="184"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="187"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5813,16 +5813,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="187"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5834,28 +5834,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5869,6 +5847,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5895,14 +5895,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="258" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6095,11 +6095,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="254" t="s">
+      <c r="E27" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="255"/>
-      <c r="G27" s="256"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="261"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6406,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
@@ -6423,10 +6423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6453,8 +6453,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6493,14 +6493,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6515,14 +6515,14 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="196" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
+      <c r="E5" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
       <c r="A6" s="150">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="C6" s="158"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6565,12 +6565,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="193"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6581,12 +6581,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="191"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6597,12 +6597,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="190"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6613,12 +6613,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="190"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6629,12 +6629,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="190"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="191"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6661,12 +6661,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="190"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6725,12 +6725,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6757,12 +6757,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6773,12 +6773,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6789,12 +6789,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="201"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6805,12 +6805,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="201"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="188"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6853,12 +6853,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="188"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6869,12 +6869,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="188"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6885,12 +6885,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="188"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6901,12 +6901,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6917,12 +6917,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="201"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6933,12 +6933,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="201"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="201"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="201"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="188"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="201"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -6997,12 +6997,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="201"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7013,12 +7013,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
-      <c r="J36" s="201"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="201"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="201"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7061,12 +7061,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="201"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="201"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7109,32 +7109,23 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="201"/>
-      <c r="I42" s="201"/>
-      <c r="J42" s="201"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7150,14 +7141,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7199,10 +7199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7232,8 +7232,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="205" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J12" s="206"/>
     </row>
@@ -7808,13 +7808,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7847,11 +7847,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7985,10 +7985,10 @@
         <v>173</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H6" s="128" t="s">
         <v>175</v>
@@ -9013,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9039,7 +9039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="226" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -9076,7 +9076,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="234"/>
+      <c r="A2" s="227"/>
       <c r="B2" s="111"/>
       <c r="C2" s="145"/>
       <c r="D2" s="31" t="s">
@@ -9129,15 +9129,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231" t="s">
+      <c r="H4" s="222"/>
+      <c r="I4" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="35">
@@ -9149,22 +9149,20 @@
       <c r="C5" s="35">
         <v>51</v>
       </c>
-      <c r="D5" s="160" t="s">
-        <v>179</v>
-      </c>
+      <c r="D5" s="160"/>
       <c r="E5" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="160"/>
+      <c r="G5" s="223" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="160" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="232" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="200"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="228" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="229"/>
+      <c r="K5" s="230"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -9175,11 +9173,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="226"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="233"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -9190,11 +9188,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="226"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="233"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -9205,11 +9203,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="226"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -9220,11 +9218,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="226"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -9235,11 +9233,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="226"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="233"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -9250,11 +9248,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="225"/>
-      <c r="K11" s="226"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -9265,11 +9263,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="226"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -9280,11 +9278,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="226"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="233"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -9295,11 +9293,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="226"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -9310,11 +9308,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="226"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -9325,11 +9323,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="225"/>
-      <c r="K16" s="226"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -9340,11 +9338,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="226"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -9355,11 +9353,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="226"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -9370,11 +9368,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="224"/>
-      <c r="J19" s="225"/>
-      <c r="K19" s="226"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -9385,11 +9383,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="226"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="233"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -9400,11 +9398,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="226"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="233"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -9415,11 +9413,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="228"/>
-      <c r="I22" s="224"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="226"/>
+      <c r="G22" s="234"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="233"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -9430,11 +9428,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="224"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="226"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="233"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -9445,11 +9443,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="226"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="233"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -9460,11 +9458,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="225"/>
-      <c r="K25" s="226"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -9475,11 +9473,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="226"/>
+      <c r="G26" s="238"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -9490,11 +9488,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="225"/>
-      <c r="K27" s="226"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="232"/>
+      <c r="K27" s="233"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -9505,11 +9503,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="225"/>
-      <c r="K28" s="226"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="233"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -9520,11 +9518,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="226"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="233"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -9535,11 +9533,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="226"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="233"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -9550,11 +9548,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="225"/>
-      <c r="K31" s="226"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="233"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -9565,11 +9563,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="224"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="226"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="233"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -9580,11 +9578,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="225"/>
-      <c r="K33" s="226"/>
+      <c r="G33" s="238"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="233"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -9595,11 +9593,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="226"/>
+      <c r="G34" s="238"/>
+      <c r="H34" s="239"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="233"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9617,11 +9615,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="222"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="224"/>
-      <c r="J35" s="225"/>
-      <c r="K35" s="226"/>
+      <c r="G35" s="238"/>
+      <c r="H35" s="239"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="233"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9639,11 +9637,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="224"/>
-      <c r="J36" s="225"/>
-      <c r="K36" s="226"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="239"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="233"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9661,11 +9659,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="225"/>
-      <c r="K37" s="226"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="239"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="232"/>
+      <c r="K37" s="233"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9683,11 +9681,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="223"/>
-      <c r="I38" s="224"/>
-      <c r="J38" s="225"/>
-      <c r="K38" s="226"/>
+      <c r="G38" s="238"/>
+      <c r="H38" s="239"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="233"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9705,11 +9703,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="224"/>
-      <c r="J39" s="225"/>
-      <c r="K39" s="226"/>
+      <c r="G39" s="238"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="232"/>
+      <c r="K39" s="233"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9727,11 +9725,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="225"/>
-      <c r="K40" s="226"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="239"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
+      <c r="K40" s="233"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9749,11 +9747,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="223"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="226"/>
+      <c r="G41" s="238"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="232"/>
+      <c r="K41" s="233"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9771,11 +9769,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="224"/>
-      <c r="J42" s="225"/>
-      <c r="K42" s="226"/>
+      <c r="G42" s="238"/>
+      <c r="H42" s="239"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
+      <c r="K42" s="233"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9793,11 +9791,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="224"/>
-      <c r="J43" s="225"/>
-      <c r="K43" s="226"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="239"/>
+      <c r="I43" s="231"/>
+      <c r="J43" s="232"/>
+      <c r="K43" s="233"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9815,11 +9813,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="223"/>
-      <c r="I44" s="224"/>
-      <c r="J44" s="225"/>
-      <c r="K44" s="226"/>
+      <c r="G44" s="238"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9837,11 +9835,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="222"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="224"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="226"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="231"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9859,11 +9857,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="224"/>
-      <c r="J46" s="225"/>
-      <c r="K46" s="226"/>
+      <c r="G46" s="238"/>
+      <c r="H46" s="239"/>
+      <c r="I46" s="231"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="233"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9881,11 +9879,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="223"/>
-      <c r="I47" s="224"/>
-      <c r="J47" s="225"/>
-      <c r="K47" s="226"/>
+      <c r="G47" s="238"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="232"/>
+      <c r="K47" s="233"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9903,11 +9901,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="222"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="224"/>
-      <c r="J48" s="225"/>
-      <c r="K48" s="226"/>
+      <c r="G48" s="238"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="233"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9925,11 +9923,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="224"/>
-      <c r="J49" s="225"/>
-      <c r="K49" s="226"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="239"/>
+      <c r="I49" s="231"/>
+      <c r="J49" s="232"/>
+      <c r="K49" s="233"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9947,11 +9945,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="222"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="224"/>
-      <c r="J50" s="225"/>
-      <c r="K50" s="226"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="239"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="233"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9969,11 +9967,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="222"/>
-      <c r="H51" s="223"/>
-      <c r="I51" s="224"/>
-      <c r="J51" s="225"/>
-      <c r="K51" s="226"/>
+      <c r="G51" s="238"/>
+      <c r="H51" s="239"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="233"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9991,11 +9989,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="222"/>
-      <c r="H52" s="223"/>
-      <c r="I52" s="224"/>
-      <c r="J52" s="225"/>
-      <c r="K52" s="226"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="233"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10013,11 +10011,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="222"/>
-      <c r="H53" s="223"/>
-      <c r="I53" s="224"/>
-      <c r="J53" s="225"/>
-      <c r="K53" s="226"/>
+      <c r="G53" s="238"/>
+      <c r="H53" s="239"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="233"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10035,11 +10033,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="222"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="224"/>
-      <c r="J54" s="225"/>
-      <c r="K54" s="226"/>
+      <c r="G54" s="238"/>
+      <c r="H54" s="239"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="233"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10057,11 +10055,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="222"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="224"/>
-      <c r="J55" s="225"/>
-      <c r="K55" s="226"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="231"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="233"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10079,11 +10077,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="222"/>
-      <c r="H56" s="223"/>
-      <c r="I56" s="224"/>
-      <c r="J56" s="225"/>
-      <c r="K56" s="226"/>
+      <c r="G56" s="238"/>
+      <c r="H56" s="239"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="232"/>
+      <c r="K56" s="233"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10101,11 +10099,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="223"/>
-      <c r="I57" s="224"/>
-      <c r="J57" s="225"/>
-      <c r="K57" s="226"/>
+      <c r="G57" s="238"/>
+      <c r="H57" s="239"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="233"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -10123,11 +10121,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="222"/>
-      <c r="H58" s="223"/>
-      <c r="I58" s="224"/>
-      <c r="J58" s="225"/>
-      <c r="K58" s="226"/>
+      <c r="G58" s="238"/>
+      <c r="H58" s="239"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="232"/>
+      <c r="K58" s="233"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -10139,29 +10137,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -10176,80 +10225,29 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -10415,17 +10413,17 @@
         <v>158</v>
       </c>
       <c r="F5" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="61"/>
       <c r="H5" s="152" t="s">
         <v>177</v>
       </c>
       <c r="I5" s="152" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" s="152"/>
     </row>
@@ -11318,24 +11316,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="243" t="str">
+      <c r="J1" s="245" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="243"/>
+      <c r="K1" s="245"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11363,22 +11361,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="243" t="str">
+      <c r="J2" s="245" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="243"/>
+      <c r="K2" s="245"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11435,12 +11433,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="244" t="s">
+      <c r="K4" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="246"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11468,15 +11466,15 @@
         <v>51</v>
       </c>
       <c r="D5" s="156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="162"/>
       <c r="G5" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="162" t="s">
         <v>197</v>
-      </c>
-      <c r="H5" s="162" t="s">
-        <v>198</v>
       </c>
       <c r="I5" s="162" t="s">
         <v>54</v>
@@ -11484,26 +11482,26 @@
       <c r="J5" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="247" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="248"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="249"/>
+      <c r="K5" s="249" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="251"/>
       <c r="O5" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="163" t="s">
         <v>200</v>
-      </c>
-      <c r="P5" s="163" t="s">
-        <v>201</v>
       </c>
       <c r="Q5" s="164" t="s">
         <v>105</v>
       </c>
       <c r="R5" s="164" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S5" s="162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="121" customFormat="1" ht="57.75" customHeight="1">
@@ -11517,17 +11515,17 @@
         <v>51</v>
       </c>
       <c r="D6" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="155" t="s">
         <v>180</v>
-      </c>
-      <c r="E6" s="155" t="s">
-        <v>181</v>
       </c>
       <c r="F6" s="155"/>
       <c r="G6" s="155" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="155" t="s">
         <v>54</v>
@@ -11535,26 +11533,26 @@
       <c r="J6" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="259" t="s">
+      <c r="K6" s="252" t="s">
+        <v>186</v>
+      </c>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="154" t="s">
         <v>187</v>
       </c>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="154" t="s">
+      <c r="P6" s="154" t="s">
         <v>188</v>
-      </c>
-      <c r="P6" s="154" t="s">
-        <v>189</v>
       </c>
       <c r="Q6" s="147" t="s">
         <v>166</v>
       </c>
       <c r="R6" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S6" s="155" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="121" customFormat="1" ht="47.25" customHeight="1">
@@ -11568,44 +11566,44 @@
         <v>51</v>
       </c>
       <c r="D7" s="156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="162" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="162"/>
       <c r="G7" s="162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I7" s="162" t="s">
         <v>54</v>
       </c>
       <c r="J7" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="191" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="192" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="163" t="s">
+      <c r="P7" s="163" t="s">
         <v>194</v>
-      </c>
-      <c r="P7" s="163" t="s">
-        <v>195</v>
       </c>
       <c r="Q7" s="164" t="s">
         <v>166</v>
       </c>
       <c r="R7" s="164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S7" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
@@ -11619,44 +11617,44 @@
         <v>51</v>
       </c>
       <c r="D8" s="162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E8" s="163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="153"/>
       <c r="G8" s="162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I8" s="162" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="163" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="247" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="249" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="249"/>
-      <c r="O8" s="163" t="s">
-        <v>220</v>
-      </c>
       <c r="P8" s="163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="164" t="s">
         <v>166</v>
       </c>
       <c r="R8" s="164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S8" s="165" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
@@ -13812,32 +13810,57 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="93">
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
     <mergeCell ref="K92:N92"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
@@ -13854,57 +13877,32 @@
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q8 Q10:Q94"/>
@@ -13950,10 +13948,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13984,8 +13982,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14044,7 +14042,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -14161,7 +14159,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14285,18 +14283,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="250" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="251"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="251"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="252"/>
+      <c r="A26" s="255" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="257"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -15066,10 +15064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15097,8 +15095,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2059,25 +2059,6 @@
     <t>VoucherID</t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE AT2006 SET
- CashierID = @CashierID,
- CashierTime= @CashierTime
- WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
-</t>
-  </si>
-  <si>
-    <t>@CashierID
-@CashierTime
-@DivisionID
-@VoucherID</t>
-  </si>
-  <si>
-    <t>@@CashierID
-GETDATE()
-@@DivisionID
-@@VoucherID</t>
-  </si>
-  <si>
     <t>Login
 -&gt; S
 -&gt; Phân hệ
@@ -2091,29 +2072,6 @@
 Xác nhận thủ quỹ (Customize Hoàng Trần) - CustomizeIndex = 51, màn hình này được tạo mới và gắn link vào module T  -&gt; Nghiệp vụ -&gt; M Barcode Quỹ</t>
   </si>
   <si>
-    <t>DeliveryStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE AT2006 SET
- DeliveryStatus= @DeliveryStatus
- WHERE DivisionID = @DivisionID AND VoucherID= @VoucherID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DeliveryStatus
-@DivisionID
-@VoucherID </t>
-  </si>
-  <si>
-    <t>1
-@@DivisionID
-@@VoucherID</t>
-  </si>
-  <si>
-    <t>Trường hợp lập xong phiếu thu
-Thực thi câu SQL này để update tình trạng hoàn thành phiếu điều phối dưới DB vào bảng AT2006</t>
-  </si>
-  <si>
     <t>Kiểm tra điều kiện tồn tại mã vạch</t>
   </si>
   <si>
@@ -2134,36 +2092,21 @@
     <t>Load</t>
   </si>
   <si>
-    <t>Thỏa câu @SQL0003, thực thi câu @SQL0001 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006</t>
-  </si>
-  <si>
     <t>@VoucherID</t>
   </si>
   <si>
     <t>AFML000397</t>
   </si>
   <si>
-    <t>@DivisionID, @ObjectID</t>
-  </si>
-  <si>
-    <t>Truyền 2 tham số @DivisionID và @ObjectID gọi màn hình Lập phiếu thu - AF0061</t>
-  </si>
-  <si>
     <t>Kiểm tra sự tồn tại của mã vạch và tình trạng cập nhật phiếu điều phối dưới DB</t>
   </si>
   <si>
     <t>OrderStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Update tình trạng phiếu điều phối vào bảng AT2006 </t>
-  </si>
-  <si>
     <t>Update tình trạng đơn hàng vào bảng OT2001</t>
   </si>
   <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
     <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
   </si>
   <si>
@@ -2171,9 +2114,6 @@
   </si>
   <si>
     <t>OT2001</t>
-  </si>
-  <si>
-    <t>@DivisionID, @ObjectID, @VoucherID</t>
   </si>
   <si>
     <t>3
@@ -2207,6 +2147,37 @@
   </si>
   <si>
     <t>Click Có</t>
+  </si>
+  <si>
+    <t>@DivisionID, @VoucherID</t>
+  </si>
+  <si>
+    <t>Truyền 2 tham số @DivisionID và @VoucherID gọi màn hình Lập phiếu thu - AF0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE AT2006 SET
+ CashierID = @CashierID,
+ CashierTime= @CashierTime
+ DeliveyStatus=@DeliveryStatus
+ WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
+</t>
+  </si>
+  <si>
+    <t>@CashierID
+@CashierTime
+@DeliveryStatus
+@DivisionID
+@VoucherID</t>
+  </si>
+  <si>
+    <t>@@CashierID
+GETDATE()
+'1' or '0'
+@@DivisionID
+@@VoucherID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thỏa câu @SQL0001, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006. trường hợp có thu tiền thì DeliveryStatus =1 </t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2712,6 +2683,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2726,7 +2708,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3115,282 +3097,273 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,6 +3411,82 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4285,13 +4334,8 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>trở về  AF0324 </a:t>
+            <a:t>@SQL0003</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="700">
-            <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4302,13 +4346,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>331333</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>423521</xdr:rowOff>
+      <xdr:rowOff>491554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>521834</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1175996</xdr:rowOff>
+      <xdr:rowOff>1105578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4317,8 +4361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6412025" y="4250530"/>
-          <a:ext cx="1891394" cy="752475"/>
+          <a:off x="6412025" y="4318563"/>
+          <a:ext cx="1293020" cy="614024"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
           <a:avLst/>
@@ -4349,30 +4393,6 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Gọi</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> AF0061</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="700">
-            <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
             <a:t>Update</a:t>
           </a:r>
           <a:r>
@@ -4381,7 +4401,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> @SQL0003 @SQL0001 vào AT2006</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4392,7 +4412,7 @@
               <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Update @SQL0004 vào OT2001</a:t>
+            <a:t>@SQL0002 @SQL0003</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="700">
             <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -4409,7 +4429,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1731509</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>799759</xdr:rowOff>
+      <xdr:rowOff>798566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -4427,8 +4447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5694589" y="4626768"/>
-          <a:ext cx="717436" cy="1"/>
+          <a:off x="5694589" y="4625575"/>
+          <a:ext cx="717436" cy="1194"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4479,6 +4499,218 @@
         <a:xfrm>
           <a:off x="5025457" y="5060156"/>
           <a:ext cx="2382" cy="691576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838539</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>611983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731385</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>983458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620124" y="4438992"/>
+          <a:ext cx="743292" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t>Load Form AF0061 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2015220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144577</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2386695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6332423" y="5842229"/>
+          <a:ext cx="743292" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t>Load form AF0324</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1693409</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2200958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2204013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="4"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5656489" y="6027967"/>
+          <a:ext cx="675934" cy="3055"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>797721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838539</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>798566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="4"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7705045" y="4624730"/>
+          <a:ext cx="915079" cy="845"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5296,65 +5528,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="179" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="172" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="178" t="s">
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="178"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="178" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="174" t="s">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="168"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="176"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5365,56 +5597,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="165"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5425,384 +5657,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="165"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="182"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="171"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="168"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="167"/>
-      <c r="V28" s="167"/>
-      <c r="W28" s="167"/>
-      <c r="X28" s="167"/>
-      <c r="Y28" s="167"/>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="167"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="167"/>
-      <c r="AH28" s="167"/>
-      <c r="AI28" s="167"/>
-      <c r="AJ28" s="167"/>
-      <c r="AK28" s="167"/>
-      <c r="AL28" s="167"/>
-      <c r="AM28" s="167"/>
-      <c r="AN28" s="167"/>
-      <c r="AO28" s="167"/>
-      <c r="AP28" s="167"/>
-      <c r="AQ28" s="167"/>
-      <c r="AR28" s="167"/>
-      <c r="AS28" s="167"/>
-      <c r="AT28" s="167"/>
-      <c r="AU28" s="167"/>
-      <c r="AV28" s="167"/>
-      <c r="AW28" s="167"/>
-      <c r="AX28" s="167"/>
-      <c r="AY28" s="167"/>
-      <c r="AZ28" s="167"/>
-      <c r="BA28" s="167"/>
-      <c r="BB28" s="167"/>
-      <c r="BC28" s="167"/>
-      <c r="BD28" s="167"/>
-      <c r="BE28" s="167"/>
-      <c r="BF28" s="167"/>
-      <c r="BG28" s="167"/>
-      <c r="BH28" s="167"/>
-      <c r="BI28" s="167"/>
-      <c r="BJ28" s="167"/>
-      <c r="BK28" s="167"/>
-      <c r="BL28" s="167"/>
-      <c r="BM28" s="167"/>
-      <c r="BN28" s="167"/>
-      <c r="BO28" s="167"/>
-      <c r="BP28" s="167"/>
-      <c r="BQ28" s="167"/>
-      <c r="BR28" s="167"/>
-      <c r="BS28" s="167"/>
-      <c r="BT28" s="167"/>
-      <c r="BU28" s="167"/>
-      <c r="BV28" s="167"/>
-      <c r="BW28" s="167"/>
-      <c r="BX28" s="167"/>
-      <c r="BY28" s="167"/>
-      <c r="BZ28" s="167"/>
-      <c r="CA28" s="167"/>
-      <c r="CB28" s="167"/>
-      <c r="CC28" s="167"/>
-      <c r="CD28" s="167"/>
-      <c r="CE28" s="167"/>
-      <c r="CF28" s="167"/>
-      <c r="CG28" s="167"/>
-      <c r="CH28" s="167"/>
-      <c r="CI28" s="167"/>
-      <c r="CJ28" s="167"/>
-      <c r="CK28" s="167"/>
-      <c r="CL28" s="167"/>
-      <c r="CM28" s="167"/>
-      <c r="CN28" s="167"/>
-      <c r="CO28" s="167"/>
-      <c r="CP28" s="167"/>
-      <c r="CQ28" s="167"/>
-      <c r="CR28" s="167"/>
-      <c r="CS28" s="167"/>
-      <c r="CT28" s="167"/>
-      <c r="CU28" s="167"/>
-      <c r="CV28" s="167"/>
-      <c r="CW28" s="167"/>
-      <c r="CX28" s="167"/>
-      <c r="CY28" s="167"/>
-      <c r="CZ28" s="167"/>
-      <c r="DA28" s="167"/>
-      <c r="DB28" s="167"/>
-      <c r="DC28" s="167"/>
-      <c r="DD28" s="167"/>
-      <c r="DE28" s="167"/>
-      <c r="DF28" s="167"/>
-      <c r="DG28" s="167"/>
-      <c r="DH28" s="167"/>
-      <c r="DI28" s="167"/>
-      <c r="DJ28" s="167"/>
-      <c r="DK28" s="167"/>
-      <c r="DL28" s="167"/>
-      <c r="DM28" s="167"/>
-      <c r="DN28" s="167"/>
-      <c r="DO28" s="167"/>
-      <c r="DP28" s="167"/>
-      <c r="DQ28" s="167"/>
-      <c r="DR28" s="167"/>
-      <c r="DS28" s="167"/>
-      <c r="DT28" s="167"/>
-      <c r="DU28" s="167"/>
-      <c r="DV28" s="167"/>
-      <c r="DW28" s="167"/>
-      <c r="DX28" s="167"/>
-      <c r="DY28" s="167"/>
-      <c r="DZ28" s="167"/>
-      <c r="EA28" s="167"/>
-      <c r="EB28" s="167"/>
-      <c r="EC28" s="167"/>
-      <c r="ED28" s="167"/>
-      <c r="EE28" s="167"/>
-      <c r="EF28" s="167"/>
-      <c r="EG28" s="167"/>
-      <c r="EH28" s="167"/>
-      <c r="EI28" s="167"/>
-      <c r="EJ28" s="167"/>
-      <c r="EK28" s="167"/>
-      <c r="EL28" s="167"/>
-      <c r="EM28" s="167"/>
-      <c r="EN28" s="167"/>
-      <c r="EO28" s="167"/>
-      <c r="EP28" s="167"/>
-      <c r="EQ28" s="167"/>
-      <c r="ER28" s="167"/>
-      <c r="ES28" s="167"/>
-      <c r="ET28" s="167"/>
-      <c r="EU28" s="167"/>
-      <c r="EV28" s="167"/>
-      <c r="EW28" s="167"/>
-      <c r="EX28" s="167"/>
-      <c r="EY28" s="167"/>
-      <c r="EZ28" s="167"/>
-      <c r="FA28" s="167"/>
-      <c r="FB28" s="167"/>
-      <c r="FC28" s="167"/>
-      <c r="FD28" s="167"/>
-      <c r="FE28" s="167"/>
-      <c r="FF28" s="167"/>
-      <c r="FG28" s="167"/>
-      <c r="FH28" s="167"/>
-      <c r="FI28" s="167"/>
-      <c r="FJ28" s="167"/>
-      <c r="FK28" s="167"/>
-      <c r="FL28" s="167"/>
-      <c r="FM28" s="167"/>
-      <c r="FN28" s="167"/>
-      <c r="FO28" s="167"/>
-      <c r="FP28" s="167"/>
-      <c r="FQ28" s="167"/>
-      <c r="FR28" s="167"/>
-      <c r="FS28" s="167"/>
-      <c r="FT28" s="167"/>
-      <c r="FU28" s="167"/>
-      <c r="FV28" s="167"/>
-      <c r="FW28" s="167"/>
-      <c r="FX28" s="167"/>
-      <c r="FY28" s="167"/>
-      <c r="FZ28" s="167"/>
-      <c r="GA28" s="167"/>
-      <c r="GB28" s="167"/>
-      <c r="GC28" s="167"/>
-      <c r="GD28" s="167"/>
-      <c r="GE28" s="167"/>
-      <c r="GF28" s="167"/>
-      <c r="GG28" s="167"/>
-      <c r="GH28" s="167"/>
-      <c r="GI28" s="167"/>
-      <c r="GJ28" s="167"/>
-      <c r="GK28" s="167"/>
-      <c r="GL28" s="167"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="184"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="184"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="184"/>
+      <c r="AJ28" s="184"/>
+      <c r="AK28" s="184"/>
+      <c r="AL28" s="184"/>
+      <c r="AM28" s="184"/>
+      <c r="AN28" s="184"/>
+      <c r="AO28" s="184"/>
+      <c r="AP28" s="184"/>
+      <c r="AQ28" s="184"/>
+      <c r="AR28" s="184"/>
+      <c r="AS28" s="184"/>
+      <c r="AT28" s="184"/>
+      <c r="AU28" s="184"/>
+      <c r="AV28" s="184"/>
+      <c r="AW28" s="184"/>
+      <c r="AX28" s="184"/>
+      <c r="AY28" s="184"/>
+      <c r="AZ28" s="184"/>
+      <c r="BA28" s="184"/>
+      <c r="BB28" s="184"/>
+      <c r="BC28" s="184"/>
+      <c r="BD28" s="184"/>
+      <c r="BE28" s="184"/>
+      <c r="BF28" s="184"/>
+      <c r="BG28" s="184"/>
+      <c r="BH28" s="184"/>
+      <c r="BI28" s="184"/>
+      <c r="BJ28" s="184"/>
+      <c r="BK28" s="184"/>
+      <c r="BL28" s="184"/>
+      <c r="BM28" s="184"/>
+      <c r="BN28" s="184"/>
+      <c r="BO28" s="184"/>
+      <c r="BP28" s="184"/>
+      <c r="BQ28" s="184"/>
+      <c r="BR28" s="184"/>
+      <c r="BS28" s="184"/>
+      <c r="BT28" s="184"/>
+      <c r="BU28" s="184"/>
+      <c r="BV28" s="184"/>
+      <c r="BW28" s="184"/>
+      <c r="BX28" s="184"/>
+      <c r="BY28" s="184"/>
+      <c r="BZ28" s="184"/>
+      <c r="CA28" s="184"/>
+      <c r="CB28" s="184"/>
+      <c r="CC28" s="184"/>
+      <c r="CD28" s="184"/>
+      <c r="CE28" s="184"/>
+      <c r="CF28" s="184"/>
+      <c r="CG28" s="184"/>
+      <c r="CH28" s="184"/>
+      <c r="CI28" s="184"/>
+      <c r="CJ28" s="184"/>
+      <c r="CK28" s="184"/>
+      <c r="CL28" s="184"/>
+      <c r="CM28" s="184"/>
+      <c r="CN28" s="184"/>
+      <c r="CO28" s="184"/>
+      <c r="CP28" s="184"/>
+      <c r="CQ28" s="184"/>
+      <c r="CR28" s="184"/>
+      <c r="CS28" s="184"/>
+      <c r="CT28" s="184"/>
+      <c r="CU28" s="184"/>
+      <c r="CV28" s="184"/>
+      <c r="CW28" s="184"/>
+      <c r="CX28" s="184"/>
+      <c r="CY28" s="184"/>
+      <c r="CZ28" s="184"/>
+      <c r="DA28" s="184"/>
+      <c r="DB28" s="184"/>
+      <c r="DC28" s="184"/>
+      <c r="DD28" s="184"/>
+      <c r="DE28" s="184"/>
+      <c r="DF28" s="184"/>
+      <c r="DG28" s="184"/>
+      <c r="DH28" s="184"/>
+      <c r="DI28" s="184"/>
+      <c r="DJ28" s="184"/>
+      <c r="DK28" s="184"/>
+      <c r="DL28" s="184"/>
+      <c r="DM28" s="184"/>
+      <c r="DN28" s="184"/>
+      <c r="DO28" s="184"/>
+      <c r="DP28" s="184"/>
+      <c r="DQ28" s="184"/>
+      <c r="DR28" s="184"/>
+      <c r="DS28" s="184"/>
+      <c r="DT28" s="184"/>
+      <c r="DU28" s="184"/>
+      <c r="DV28" s="184"/>
+      <c r="DW28" s="184"/>
+      <c r="DX28" s="184"/>
+      <c r="DY28" s="184"/>
+      <c r="DZ28" s="184"/>
+      <c r="EA28" s="184"/>
+      <c r="EB28" s="184"/>
+      <c r="EC28" s="184"/>
+      <c r="ED28" s="184"/>
+      <c r="EE28" s="184"/>
+      <c r="EF28" s="184"/>
+      <c r="EG28" s="184"/>
+      <c r="EH28" s="184"/>
+      <c r="EI28" s="184"/>
+      <c r="EJ28" s="184"/>
+      <c r="EK28" s="184"/>
+      <c r="EL28" s="184"/>
+      <c r="EM28" s="184"/>
+      <c r="EN28" s="184"/>
+      <c r="EO28" s="184"/>
+      <c r="EP28" s="184"/>
+      <c r="EQ28" s="184"/>
+      <c r="ER28" s="184"/>
+      <c r="ES28" s="184"/>
+      <c r="ET28" s="184"/>
+      <c r="EU28" s="184"/>
+      <c r="EV28" s="184"/>
+      <c r="EW28" s="184"/>
+      <c r="EX28" s="184"/>
+      <c r="EY28" s="184"/>
+      <c r="EZ28" s="184"/>
+      <c r="FA28" s="184"/>
+      <c r="FB28" s="184"/>
+      <c r="FC28" s="184"/>
+      <c r="FD28" s="184"/>
+      <c r="FE28" s="184"/>
+      <c r="FF28" s="184"/>
+      <c r="FG28" s="184"/>
+      <c r="FH28" s="184"/>
+      <c r="FI28" s="184"/>
+      <c r="FJ28" s="184"/>
+      <c r="FK28" s="184"/>
+      <c r="FL28" s="184"/>
+      <c r="FM28" s="184"/>
+      <c r="FN28" s="184"/>
+      <c r="FO28" s="184"/>
+      <c r="FP28" s="184"/>
+      <c r="FQ28" s="184"/>
+      <c r="FR28" s="184"/>
+      <c r="FS28" s="184"/>
+      <c r="FT28" s="184"/>
+      <c r="FU28" s="184"/>
+      <c r="FV28" s="184"/>
+      <c r="FW28" s="184"/>
+      <c r="FX28" s="184"/>
+      <c r="FY28" s="184"/>
+      <c r="FZ28" s="184"/>
+      <c r="GA28" s="184"/>
+      <c r="GB28" s="184"/>
+      <c r="GC28" s="184"/>
+      <c r="GD28" s="184"/>
+      <c r="GE28" s="184"/>
+      <c r="GF28" s="184"/>
+      <c r="GG28" s="184"/>
+      <c r="GH28" s="184"/>
+      <c r="GI28" s="184"/>
+      <c r="GJ28" s="184"/>
+      <c r="GK28" s="184"/>
+      <c r="GL28" s="184"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="168"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="168"/>
-      <c r="R29" s="168"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="166"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -5813,16 +6045,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="166"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -5834,6 +6066,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5847,28 +6101,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5895,14 +6127,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6095,11 +6327,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="259" t="s">
+      <c r="E27" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="260"/>
-      <c r="G27" s="261"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="258"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6423,10 +6655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="193"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6453,8 +6685,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6493,14 +6725,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6515,30 +6747,30 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="197" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
+      <c r="E5" s="195" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
     </row>
     <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
       <c r="A6" s="150">
         <v>2</v>
       </c>
-      <c r="B6" s="157">
+      <c r="B6" s="156">
         <v>2</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6549,12 +6781,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="191"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="189"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6565,12 +6797,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="192"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6581,12 +6813,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="191"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6597,12 +6829,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6613,12 +6845,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6629,12 +6861,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6645,12 +6877,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="191"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="189"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6661,12 +6893,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="189"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6677,12 +6909,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6693,12 +6925,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6709,12 +6941,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6725,12 +6957,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6741,12 +6973,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6757,12 +6989,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -6773,12 +7005,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -6789,12 +7021,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -6805,12 +7037,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -6821,12 +7053,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -6837,12 +7069,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -6853,12 +7085,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -6869,12 +7101,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="188"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -6885,12 +7117,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -6901,12 +7133,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="188"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -6917,12 +7149,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -6933,12 +7165,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -6949,12 +7181,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -6965,12 +7197,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -6981,12 +7213,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -6997,12 +7229,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7013,12 +7245,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7029,12 +7261,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7045,12 +7277,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7061,12 +7293,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7077,12 +7309,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7093,12 +7325,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7109,23 +7341,32 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7141,23 +7382,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7199,10 +7431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="193"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7232,8 +7464,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7263,20 +7495,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202" t="s">
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="203"/>
+      <c r="J4" s="202"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7287,10 +7519,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="211" t="s">
+      <c r="I5" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="212"/>
+      <c r="J5" s="211"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7301,8 +7533,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="214"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="213"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7313,8 +7545,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="214"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="213"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7325,8 +7557,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="214"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="213"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7337,8 +7569,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="214"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="213"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7349,8 +7581,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="216"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="215"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7361,10 +7593,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="202" t="s">
+      <c r="I11" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="203"/>
+      <c r="J11" s="202"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7375,10 +7607,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="205" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="206"/>
+      <c r="I12" s="204" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="205"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7389,8 +7621,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7401,8 +7633,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="208"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="207"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7413,8 +7645,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="208"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="207"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7425,8 +7657,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7437,8 +7669,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7449,8 +7681,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7461,8 +7693,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="208"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7473,8 +7705,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="208"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7485,8 +7717,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="208"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7497,8 +7729,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="208"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7509,8 +7741,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="208"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7521,8 +7753,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7533,8 +7765,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="207"/>
-      <c r="J25" s="208"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7545,8 +7777,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7557,8 +7789,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="207"/>
-      <c r="J27" s="208"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7569,8 +7801,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="208"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7581,8 +7813,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="207"/>
-      <c r="J29" s="208"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7593,8 +7825,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="208"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7605,8 +7837,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="208"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7617,8 +7849,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="208"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7629,8 +7861,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="208"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7641,8 +7873,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="208"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="207"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7653,8 +7885,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="208"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7665,8 +7897,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="208"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7677,8 +7909,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="208"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7689,8 +7921,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="208"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7701,8 +7933,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="208"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7713,8 +7945,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7725,8 +7957,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="208"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7737,8 +7969,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="208"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="207"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7749,8 +7981,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="209"/>
-      <c r="J43" s="210"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7781,7 +8013,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
@@ -7808,13 +8040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7822,15 +8054,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="217" t="s">
+      <c r="H1" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="218"/>
-      <c r="J1" s="219" t="s">
+      <c r="I1" s="217"/>
+      <c r="J1" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="220"/>
-      <c r="L1" s="221"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="220"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -7847,11 +8079,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7859,16 +8091,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219" t="str">
+      <c r="I2" s="217"/>
+      <c r="J2" s="218" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="220"/>
-      <c r="L2" s="221"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="220"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9013,8 +9245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9039,7 +9271,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -9076,7 +9308,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="227"/>
+      <c r="A2" s="233"/>
       <c r="B2" s="111"/>
       <c r="C2" s="145"/>
       <c r="D2" s="31" t="s">
@@ -9129,15 +9361,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="230" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222" t="s">
+      <c r="H4" s="230"/>
+      <c r="I4" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="35">
@@ -9149,20 +9381,20 @@
       <c r="C5" s="35">
         <v>51</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="223" t="s">
+      <c r="D5" s="159"/>
+      <c r="E5" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="159"/>
+      <c r="G5" s="231" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="199"/>
+      <c r="I5" s="234" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="201"/>
-      <c r="I5" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="J5" s="229"/>
-      <c r="K5" s="230"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="236"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -9173,11 +9405,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="233"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="225"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -9188,11 +9420,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="233"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="225"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -9203,11 +9435,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="225"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -9218,11 +9450,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="225"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -9233,11 +9465,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="233"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="225"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -9248,11 +9480,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="225"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -9263,11 +9495,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="225"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -9278,11 +9510,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="233"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="225"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -9293,11 +9525,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="225"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -9308,11 +9540,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="225"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -9323,11 +9555,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="225"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -9338,11 +9570,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="225"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -9353,11 +9585,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="233"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="225"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -9368,11 +9600,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="233"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="225"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -9383,11 +9615,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="225"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -9398,11 +9630,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="233"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="225"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -9413,11 +9645,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="233"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="225"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -9428,11 +9660,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="233"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="225"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -9443,11 +9675,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="233"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="225"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -9458,11 +9690,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="225"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -9473,11 +9705,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="225"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -9488,11 +9720,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="225"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -9503,11 +9735,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="225"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -9518,11 +9750,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="225"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -9533,11 +9765,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -9548,11 +9780,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="225"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -9563,11 +9795,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="233"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="225"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -9578,11 +9810,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="238"/>
-      <c r="H33" s="239"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -9593,11 +9825,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="239"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="232"/>
-      <c r="K34" s="233"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="222"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="225"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9615,11 +9847,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="239"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
-      <c r="K35" s="233"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="225"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9637,11 +9869,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="239"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="232"/>
-      <c r="K36" s="233"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="225"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9659,11 +9891,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="238"/>
-      <c r="H37" s="239"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="232"/>
-      <c r="K37" s="233"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="225"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9681,11 +9913,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="238"/>
-      <c r="H38" s="239"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="233"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="222"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="225"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9703,11 +9935,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="239"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="232"/>
-      <c r="K39" s="233"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="225"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9725,11 +9957,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
-      <c r="K40" s="233"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="225"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9747,11 +9979,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="238"/>
-      <c r="H41" s="239"/>
-      <c r="I41" s="231"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="233"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="225"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9769,11 +10001,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="238"/>
-      <c r="H42" s="239"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
-      <c r="K42" s="233"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="222"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="224"/>
+      <c r="K42" s="225"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9791,11 +10023,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="238"/>
-      <c r="H43" s="239"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="233"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="224"/>
+      <c r="K43" s="225"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9813,11 +10045,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="233"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="222"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="224"/>
+      <c r="K44" s="225"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9835,11 +10067,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="233"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="222"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="224"/>
+      <c r="K45" s="225"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9857,11 +10089,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="239"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="233"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="222"/>
+      <c r="I46" s="223"/>
+      <c r="J46" s="224"/>
+      <c r="K46" s="225"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9879,11 +10111,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="238"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="233"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="222"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="224"/>
+      <c r="K47" s="225"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9901,11 +10133,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="233"/>
+      <c r="G48" s="221"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="224"/>
+      <c r="K48" s="225"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9923,11 +10155,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="238"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="231"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="233"/>
+      <c r="G49" s="221"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="224"/>
+      <c r="K49" s="225"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9945,11 +10177,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="238"/>
-      <c r="H50" s="239"/>
-      <c r="I50" s="231"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="233"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="222"/>
+      <c r="I50" s="223"/>
+      <c r="J50" s="224"/>
+      <c r="K50" s="225"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9967,11 +10199,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="238"/>
-      <c r="H51" s="239"/>
-      <c r="I51" s="231"/>
-      <c r="J51" s="232"/>
-      <c r="K51" s="233"/>
+      <c r="G51" s="221"/>
+      <c r="H51" s="222"/>
+      <c r="I51" s="223"/>
+      <c r="J51" s="224"/>
+      <c r="K51" s="225"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9989,11 +10221,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="238"/>
-      <c r="H52" s="239"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="232"/>
-      <c r="K52" s="233"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="222"/>
+      <c r="I52" s="223"/>
+      <c r="J52" s="224"/>
+      <c r="K52" s="225"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10011,11 +10243,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="238"/>
-      <c r="H53" s="239"/>
-      <c r="I53" s="231"/>
-      <c r="J53" s="232"/>
-      <c r="K53" s="233"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="222"/>
+      <c r="I53" s="223"/>
+      <c r="J53" s="224"/>
+      <c r="K53" s="225"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10033,11 +10265,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="238"/>
-      <c r="H54" s="239"/>
-      <c r="I54" s="231"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="233"/>
+      <c r="G54" s="221"/>
+      <c r="H54" s="222"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="224"/>
+      <c r="K54" s="225"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10055,11 +10287,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="238"/>
-      <c r="H55" s="239"/>
-      <c r="I55" s="231"/>
-      <c r="J55" s="232"/>
-      <c r="K55" s="233"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="222"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="224"/>
+      <c r="K55" s="225"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10077,11 +10309,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="238"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="231"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="233"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="222"/>
+      <c r="I56" s="223"/>
+      <c r="J56" s="224"/>
+      <c r="K56" s="225"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10099,11 +10331,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="238"/>
-      <c r="H57" s="239"/>
-      <c r="I57" s="231"/>
-      <c r="J57" s="232"/>
-      <c r="K57" s="233"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="222"/>
+      <c r="I57" s="223"/>
+      <c r="J57" s="224"/>
+      <c r="K57" s="225"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -10121,11 +10353,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="238"/>
-      <c r="H58" s="239"/>
-      <c r="I58" s="231"/>
-      <c r="J58" s="232"/>
-      <c r="K58" s="233"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="222"/>
+      <c r="I58" s="223"/>
+      <c r="J58" s="224"/>
+      <c r="K58" s="225"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -10137,6 +10369,103 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
@@ -10151,103 +10480,6 @@
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="I57:K57"/>
     <mergeCell ref="I58:K58"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -10265,7 +10497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A36"/>
     </sheetView>
   </sheetViews>
@@ -10412,8 +10644,8 @@
       <c r="E5" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="159" t="s">
-        <v>203</v>
+      <c r="F5" s="158" t="s">
+        <v>194</v>
       </c>
       <c r="G5" s="61"/>
       <c r="H5" s="152" t="s">
@@ -10423,7 +10655,7 @@
         <v>181</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K5" s="152"/>
     </row>
@@ -11287,8 +11519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G8" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11316,24 +11548,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="245" t="str">
+      <c r="J1" s="242" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="245"/>
+      <c r="K1" s="242"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11361,22 +11593,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="245" t="str">
+      <c r="J2" s="242" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="245"/>
+      <c r="K2" s="242"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11433,12 +11665,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="246" t="s">
+      <c r="K4" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="248"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11465,43 +11697,43 @@
       <c r="C5" s="146">
         <v>51</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162" t="s">
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="162" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="246" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="162" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="S5" s="161" t="s">
         <v>196</v>
-      </c>
-      <c r="H5" s="162" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="249" t="s">
-        <v>217</v>
-      </c>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="251"/>
-      <c r="O5" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5" s="163" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="164" t="s">
-        <v>201</v>
-      </c>
-      <c r="S5" s="162" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="121" customFormat="1" ht="57.75" customHeight="1">
@@ -11517,33 +11749,33 @@
       <c r="D6" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="154" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155" t="s">
+      <c r="F6" s="154"/>
+      <c r="G6" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="163" t="s">
+      <c r="J6" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="252" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="154" t="s">
-        <v>187</v>
-      </c>
-      <c r="P6" s="154" t="s">
-        <v>188</v>
+      <c r="K6" s="249" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" s="250"/>
+      <c r="M6" s="250"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="164" t="s">
+        <v>211</v>
       </c>
       <c r="Q6" s="147" t="s">
         <v>166</v>
@@ -11551,143 +11783,109 @@
       <c r="R6" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="S6" s="155" t="s">
+      <c r="S6" s="154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
+      <c r="A7" s="259">
+        <v>4</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="259">
+        <v>51</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="260" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="259"/>
+      <c r="G7" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="261" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="262"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="260" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="260" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="121" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="153">
-        <v>3</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="153">
-        <v>51</v>
-      </c>
-      <c r="D7" s="156" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="163" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="192" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="P7" s="163" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="164" t="s">
+      <c r="Q7" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="164" t="s">
+      <c r="R7" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="S7" s="162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A8" s="153">
-        <v>4</v>
-      </c>
-      <c r="B8" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="153">
-        <v>51</v>
-      </c>
-      <c r="D8" s="162" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="163" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="162" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="163" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="249" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="251"/>
-      <c r="O8" s="163" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="163" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="R8" s="164" t="s">
-        <v>181</v>
-      </c>
-      <c r="S8" s="165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
+      <c r="S7" s="264" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="277" customFormat="1" ht="12" customHeight="1">
+      <c r="K8" s="279"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="278"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+    </row>
+    <row r="9" spans="1:21" s="32" customFormat="1" ht="11.25">
       <c r="A9" s="146">
         <v>5</v>
       </c>
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="284"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="146">
+      <c r="A10" s="265">
         <v>6</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="241"/>
-      <c r="N10" s="242"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="135"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="270"/>
+      <c r="K10" s="271"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="273"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="276"/>
+      <c r="S10" s="270"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -11704,10 +11902,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="241"/>
-      <c r="M11" s="241"/>
-      <c r="N11" s="242"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="241"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11729,10 +11927,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="241"/>
-      <c r="M12" s="241"/>
-      <c r="N12" s="242"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="240"/>
+      <c r="N12" s="241"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11754,10 +11952,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="241"/>
-      <c r="N13" s="242"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="241"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11779,10 +11977,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="241"/>
-      <c r="M14" s="241"/>
-      <c r="N14" s="242"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="241"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -11804,10 +12002,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="242"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="240"/>
+      <c r="N15" s="241"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -11829,10 +12027,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241"/>
-      <c r="N16" s="242"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
+      <c r="N16" s="241"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -11854,10 +12052,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="242"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="240"/>
+      <c r="N17" s="241"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -11879,10 +12077,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="241"/>
-      <c r="N18" s="242"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="240"/>
+      <c r="M18" s="240"/>
+      <c r="N18" s="241"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -11904,10 +12102,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="240"/>
-      <c r="L19" s="241"/>
-      <c r="M19" s="241"/>
-      <c r="N19" s="242"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="240"/>
+      <c r="M19" s="240"/>
+      <c r="N19" s="241"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -11929,10 +12127,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="242"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="241"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -11954,10 +12152,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="242"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="240"/>
+      <c r="M21" s="240"/>
+      <c r="N21" s="241"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -11979,10 +12177,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="242"/>
+      <c r="K22" s="239"/>
+      <c r="L22" s="240"/>
+      <c r="M22" s="240"/>
+      <c r="N22" s="241"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12004,10 +12202,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="242"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="240"/>
+      <c r="N23" s="241"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12029,10 +12227,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="242"/>
+      <c r="K24" s="239"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="240"/>
+      <c r="N24" s="241"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12054,10 +12252,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="240"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="242"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="240"/>
+      <c r="N25" s="241"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12079,10 +12277,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="242"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="240"/>
+      <c r="N26" s="241"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12104,10 +12302,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="242"/>
+      <c r="K27" s="239"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="240"/>
+      <c r="N27" s="241"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12129,10 +12327,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="240"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="241"/>
-      <c r="N28" s="242"/>
+      <c r="K28" s="239"/>
+      <c r="L28" s="240"/>
+      <c r="M28" s="240"/>
+      <c r="N28" s="241"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12154,10 +12352,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="242"/>
+      <c r="K29" s="239"/>
+      <c r="L29" s="240"/>
+      <c r="M29" s="240"/>
+      <c r="N29" s="241"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12179,10 +12377,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="240"/>
-      <c r="L30" s="241"/>
-      <c r="M30" s="241"/>
-      <c r="N30" s="242"/>
+      <c r="K30" s="239"/>
+      <c r="L30" s="240"/>
+      <c r="M30" s="240"/>
+      <c r="N30" s="241"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12204,10 +12402,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="241"/>
-      <c r="M31" s="241"/>
-      <c r="N31" s="242"/>
+      <c r="K31" s="239"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="240"/>
+      <c r="N31" s="241"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12229,10 +12427,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="241"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="242"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+      <c r="N32" s="241"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12254,10 +12452,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="241"/>
-      <c r="M33" s="241"/>
-      <c r="N33" s="242"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="240"/>
+      <c r="M33" s="240"/>
+      <c r="N33" s="241"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12279,10 +12477,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="241"/>
-      <c r="M34" s="241"/>
-      <c r="N34" s="242"/>
+      <c r="K34" s="239"/>
+      <c r="L34" s="240"/>
+      <c r="M34" s="240"/>
+      <c r="N34" s="241"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12304,10 +12502,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="241"/>
-      <c r="M35" s="241"/>
-      <c r="N35" s="242"/>
+      <c r="K35" s="239"/>
+      <c r="L35" s="240"/>
+      <c r="M35" s="240"/>
+      <c r="N35" s="241"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12329,10 +12527,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="240"/>
-      <c r="L36" s="241"/>
-      <c r="M36" s="241"/>
-      <c r="N36" s="242"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="240"/>
+      <c r="M36" s="240"/>
+      <c r="N36" s="241"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12354,10 +12552,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="240"/>
-      <c r="L37" s="241"/>
-      <c r="M37" s="241"/>
-      <c r="N37" s="242"/>
+      <c r="K37" s="239"/>
+      <c r="L37" s="240"/>
+      <c r="M37" s="240"/>
+      <c r="N37" s="241"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12379,10 +12577,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="240"/>
-      <c r="L38" s="241"/>
-      <c r="M38" s="241"/>
-      <c r="N38" s="242"/>
+      <c r="K38" s="239"/>
+      <c r="L38" s="240"/>
+      <c r="M38" s="240"/>
+      <c r="N38" s="241"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12404,10 +12602,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="240"/>
-      <c r="L39" s="241"/>
-      <c r="M39" s="241"/>
-      <c r="N39" s="242"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="240"/>
+      <c r="M39" s="240"/>
+      <c r="N39" s="241"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12429,10 +12627,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="240"/>
-      <c r="L40" s="241"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="242"/>
+      <c r="K40" s="239"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="241"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12454,10 +12652,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="241"/>
-      <c r="M41" s="241"/>
-      <c r="N41" s="242"/>
+      <c r="K41" s="239"/>
+      <c r="L41" s="240"/>
+      <c r="M41" s="240"/>
+      <c r="N41" s="241"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12479,10 +12677,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="240"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="241"/>
-      <c r="N42" s="242"/>
+      <c r="K42" s="239"/>
+      <c r="L42" s="240"/>
+      <c r="M42" s="240"/>
+      <c r="N42" s="241"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12504,10 +12702,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="240"/>
-      <c r="L43" s="241"/>
-      <c r="M43" s="241"/>
-      <c r="N43" s="242"/>
+      <c r="K43" s="239"/>
+      <c r="L43" s="240"/>
+      <c r="M43" s="240"/>
+      <c r="N43" s="241"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12529,10 +12727,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="241"/>
-      <c r="M44" s="241"/>
-      <c r="N44" s="242"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="240"/>
+      <c r="N44" s="241"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12554,10 +12752,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="240"/>
-      <c r="L45" s="241"/>
-      <c r="M45" s="241"/>
-      <c r="N45" s="242"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="240"/>
+      <c r="M45" s="240"/>
+      <c r="N45" s="241"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12579,10 +12777,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="240"/>
-      <c r="L46" s="241"/>
-      <c r="M46" s="241"/>
-      <c r="N46" s="242"/>
+      <c r="K46" s="239"/>
+      <c r="L46" s="240"/>
+      <c r="M46" s="240"/>
+      <c r="N46" s="241"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12604,10 +12802,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="240"/>
-      <c r="L47" s="241"/>
-      <c r="M47" s="241"/>
-      <c r="N47" s="242"/>
+      <c r="K47" s="239"/>
+      <c r="L47" s="240"/>
+      <c r="M47" s="240"/>
+      <c r="N47" s="241"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12629,10 +12827,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="240"/>
-      <c r="L48" s="241"/>
-      <c r="M48" s="241"/>
-      <c r="N48" s="242"/>
+      <c r="K48" s="239"/>
+      <c r="L48" s="240"/>
+      <c r="M48" s="240"/>
+      <c r="N48" s="241"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12654,10 +12852,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="241"/>
-      <c r="M49" s="241"/>
-      <c r="N49" s="242"/>
+      <c r="K49" s="239"/>
+      <c r="L49" s="240"/>
+      <c r="M49" s="240"/>
+      <c r="N49" s="241"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12679,10 +12877,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="240"/>
-      <c r="L50" s="241"/>
-      <c r="M50" s="241"/>
-      <c r="N50" s="242"/>
+      <c r="K50" s="239"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="240"/>
+      <c r="N50" s="241"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12704,10 +12902,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="240"/>
-      <c r="L51" s="241"/>
-      <c r="M51" s="241"/>
-      <c r="N51" s="242"/>
+      <c r="K51" s="239"/>
+      <c r="L51" s="240"/>
+      <c r="M51" s="240"/>
+      <c r="N51" s="241"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12729,10 +12927,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="240"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="241"/>
-      <c r="N52" s="242"/>
+      <c r="K52" s="239"/>
+      <c r="L52" s="240"/>
+      <c r="M52" s="240"/>
+      <c r="N52" s="241"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12754,10 +12952,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="240"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="242"/>
+      <c r="K53" s="239"/>
+      <c r="L53" s="240"/>
+      <c r="M53" s="240"/>
+      <c r="N53" s="241"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12779,10 +12977,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="240"/>
-      <c r="L54" s="241"/>
-      <c r="M54" s="241"/>
-      <c r="N54" s="242"/>
+      <c r="K54" s="239"/>
+      <c r="L54" s="240"/>
+      <c r="M54" s="240"/>
+      <c r="N54" s="241"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -12804,10 +13002,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="240"/>
-      <c r="L55" s="241"/>
-      <c r="M55" s="241"/>
-      <c r="N55" s="242"/>
+      <c r="K55" s="239"/>
+      <c r="L55" s="240"/>
+      <c r="M55" s="240"/>
+      <c r="N55" s="241"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -12829,10 +13027,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="240"/>
-      <c r="L56" s="241"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="242"/>
+      <c r="K56" s="239"/>
+      <c r="L56" s="240"/>
+      <c r="M56" s="240"/>
+      <c r="N56" s="241"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -12854,10 +13052,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="241"/>
-      <c r="M57" s="241"/>
-      <c r="N57" s="242"/>
+      <c r="K57" s="239"/>
+      <c r="L57" s="240"/>
+      <c r="M57" s="240"/>
+      <c r="N57" s="241"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -12879,10 +13077,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="240"/>
-      <c r="L58" s="241"/>
-      <c r="M58" s="241"/>
-      <c r="N58" s="242"/>
+      <c r="K58" s="239"/>
+      <c r="L58" s="240"/>
+      <c r="M58" s="240"/>
+      <c r="N58" s="241"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -12904,10 +13102,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="240"/>
-      <c r="L59" s="241"/>
-      <c r="M59" s="241"/>
-      <c r="N59" s="242"/>
+      <c r="K59" s="239"/>
+      <c r="L59" s="240"/>
+      <c r="M59" s="240"/>
+      <c r="N59" s="241"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -12929,10 +13127,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="240"/>
-      <c r="L60" s="241"/>
-      <c r="M60" s="241"/>
-      <c r="N60" s="242"/>
+      <c r="K60" s="239"/>
+      <c r="L60" s="240"/>
+      <c r="M60" s="240"/>
+      <c r="N60" s="241"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -12954,10 +13152,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="240"/>
-      <c r="L61" s="241"/>
-      <c r="M61" s="241"/>
-      <c r="N61" s="242"/>
+      <c r="K61" s="239"/>
+      <c r="L61" s="240"/>
+      <c r="M61" s="240"/>
+      <c r="N61" s="241"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -12979,10 +13177,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="240"/>
-      <c r="L62" s="241"/>
-      <c r="M62" s="241"/>
-      <c r="N62" s="242"/>
+      <c r="K62" s="239"/>
+      <c r="L62" s="240"/>
+      <c r="M62" s="240"/>
+      <c r="N62" s="241"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13004,10 +13202,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="240"/>
-      <c r="L63" s="241"/>
-      <c r="M63" s="241"/>
-      <c r="N63" s="242"/>
+      <c r="K63" s="239"/>
+      <c r="L63" s="240"/>
+      <c r="M63" s="240"/>
+      <c r="N63" s="241"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13029,10 +13227,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="240"/>
-      <c r="L64" s="241"/>
-      <c r="M64" s="241"/>
-      <c r="N64" s="242"/>
+      <c r="K64" s="239"/>
+      <c r="L64" s="240"/>
+      <c r="M64" s="240"/>
+      <c r="N64" s="241"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13052,10 +13250,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="240"/>
-      <c r="L65" s="241"/>
-      <c r="M65" s="241"/>
-      <c r="N65" s="242"/>
+      <c r="K65" s="239"/>
+      <c r="L65" s="240"/>
+      <c r="M65" s="240"/>
+      <c r="N65" s="241"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13075,10 +13273,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="241"/>
-      <c r="M66" s="241"/>
-      <c r="N66" s="242"/>
+      <c r="K66" s="239"/>
+      <c r="L66" s="240"/>
+      <c r="M66" s="240"/>
+      <c r="N66" s="241"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13098,10 +13296,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="240"/>
-      <c r="L67" s="241"/>
-      <c r="M67" s="241"/>
-      <c r="N67" s="242"/>
+      <c r="K67" s="239"/>
+      <c r="L67" s="240"/>
+      <c r="M67" s="240"/>
+      <c r="N67" s="241"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13121,10 +13319,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="240"/>
-      <c r="L68" s="241"/>
-      <c r="M68" s="241"/>
-      <c r="N68" s="242"/>
+      <c r="K68" s="239"/>
+      <c r="L68" s="240"/>
+      <c r="M68" s="240"/>
+      <c r="N68" s="241"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13144,10 +13342,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="240"/>
-      <c r="L69" s="241"/>
-      <c r="M69" s="241"/>
-      <c r="N69" s="242"/>
+      <c r="K69" s="239"/>
+      <c r="L69" s="240"/>
+      <c r="M69" s="240"/>
+      <c r="N69" s="241"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13167,10 +13365,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="240"/>
-      <c r="L70" s="241"/>
-      <c r="M70" s="241"/>
-      <c r="N70" s="242"/>
+      <c r="K70" s="239"/>
+      <c r="L70" s="240"/>
+      <c r="M70" s="240"/>
+      <c r="N70" s="241"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13190,10 +13388,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="240"/>
-      <c r="L71" s="241"/>
-      <c r="M71" s="241"/>
-      <c r="N71" s="242"/>
+      <c r="K71" s="239"/>
+      <c r="L71" s="240"/>
+      <c r="M71" s="240"/>
+      <c r="N71" s="241"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13213,10 +13411,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="240"/>
-      <c r="L72" s="241"/>
-      <c r="M72" s="241"/>
-      <c r="N72" s="242"/>
+      <c r="K72" s="239"/>
+      <c r="L72" s="240"/>
+      <c r="M72" s="240"/>
+      <c r="N72" s="241"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13236,10 +13434,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="240"/>
-      <c r="L73" s="241"/>
-      <c r="M73" s="241"/>
-      <c r="N73" s="242"/>
+      <c r="K73" s="239"/>
+      <c r="L73" s="240"/>
+      <c r="M73" s="240"/>
+      <c r="N73" s="241"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13259,10 +13457,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="240"/>
-      <c r="L74" s="241"/>
-      <c r="M74" s="241"/>
-      <c r="N74" s="242"/>
+      <c r="K74" s="239"/>
+      <c r="L74" s="240"/>
+      <c r="M74" s="240"/>
+      <c r="N74" s="241"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13282,10 +13480,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="240"/>
-      <c r="L75" s="241"/>
-      <c r="M75" s="241"/>
-      <c r="N75" s="242"/>
+      <c r="K75" s="239"/>
+      <c r="L75" s="240"/>
+      <c r="M75" s="240"/>
+      <c r="N75" s="241"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13305,10 +13503,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="240"/>
-      <c r="L76" s="241"/>
-      <c r="M76" s="241"/>
-      <c r="N76" s="242"/>
+      <c r="K76" s="239"/>
+      <c r="L76" s="240"/>
+      <c r="M76" s="240"/>
+      <c r="N76" s="241"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13328,10 +13526,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="240"/>
-      <c r="L77" s="241"/>
-      <c r="M77" s="241"/>
-      <c r="N77" s="242"/>
+      <c r="K77" s="239"/>
+      <c r="L77" s="240"/>
+      <c r="M77" s="240"/>
+      <c r="N77" s="241"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13351,10 +13549,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="240"/>
-      <c r="L78" s="241"/>
-      <c r="M78" s="241"/>
-      <c r="N78" s="242"/>
+      <c r="K78" s="239"/>
+      <c r="L78" s="240"/>
+      <c r="M78" s="240"/>
+      <c r="N78" s="241"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13374,10 +13572,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="240"/>
-      <c r="L79" s="241"/>
-      <c r="M79" s="241"/>
-      <c r="N79" s="242"/>
+      <c r="K79" s="239"/>
+      <c r="L79" s="240"/>
+      <c r="M79" s="240"/>
+      <c r="N79" s="241"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13397,10 +13595,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="240"/>
-      <c r="L80" s="241"/>
-      <c r="M80" s="241"/>
-      <c r="N80" s="242"/>
+      <c r="K80" s="239"/>
+      <c r="L80" s="240"/>
+      <c r="M80" s="240"/>
+      <c r="N80" s="241"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13420,10 +13618,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="240"/>
-      <c r="L81" s="241"/>
-      <c r="M81" s="241"/>
-      <c r="N81" s="242"/>
+      <c r="K81" s="239"/>
+      <c r="L81" s="240"/>
+      <c r="M81" s="240"/>
+      <c r="N81" s="241"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13443,10 +13641,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="240"/>
-      <c r="L82" s="241"/>
-      <c r="M82" s="241"/>
-      <c r="N82" s="242"/>
+      <c r="K82" s="239"/>
+      <c r="L82" s="240"/>
+      <c r="M82" s="240"/>
+      <c r="N82" s="241"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13466,10 +13664,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="240"/>
-      <c r="L83" s="241"/>
-      <c r="M83" s="241"/>
-      <c r="N83" s="242"/>
+      <c r="K83" s="239"/>
+      <c r="L83" s="240"/>
+      <c r="M83" s="240"/>
+      <c r="N83" s="241"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13489,10 +13687,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="240"/>
-      <c r="L84" s="241"/>
-      <c r="M84" s="241"/>
-      <c r="N84" s="242"/>
+      <c r="K84" s="239"/>
+      <c r="L84" s="240"/>
+      <c r="M84" s="240"/>
+      <c r="N84" s="241"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13512,10 +13710,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="240"/>
-      <c r="L85" s="241"/>
-      <c r="M85" s="241"/>
-      <c r="N85" s="242"/>
+      <c r="K85" s="239"/>
+      <c r="L85" s="240"/>
+      <c r="M85" s="240"/>
+      <c r="N85" s="241"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13535,10 +13733,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="240"/>
-      <c r="L86" s="241"/>
-      <c r="M86" s="241"/>
-      <c r="N86" s="242"/>
+      <c r="K86" s="239"/>
+      <c r="L86" s="240"/>
+      <c r="M86" s="240"/>
+      <c r="N86" s="241"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13558,10 +13756,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="240"/>
-      <c r="L87" s="241"/>
-      <c r="M87" s="241"/>
-      <c r="N87" s="242"/>
+      <c r="K87" s="239"/>
+      <c r="L87" s="240"/>
+      <c r="M87" s="240"/>
+      <c r="N87" s="241"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13581,10 +13779,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="240"/>
-      <c r="L88" s="241"/>
-      <c r="M88" s="241"/>
-      <c r="N88" s="242"/>
+      <c r="K88" s="239"/>
+      <c r="L88" s="240"/>
+      <c r="M88" s="240"/>
+      <c r="N88" s="241"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13604,10 +13802,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="240"/>
-      <c r="L89" s="241"/>
-      <c r="M89" s="241"/>
-      <c r="N89" s="242"/>
+      <c r="K89" s="239"/>
+      <c r="L89" s="240"/>
+      <c r="M89" s="240"/>
+      <c r="N89" s="241"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13627,10 +13825,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="240"/>
-      <c r="L90" s="241"/>
-      <c r="M90" s="241"/>
-      <c r="N90" s="242"/>
+      <c r="K90" s="239"/>
+      <c r="L90" s="240"/>
+      <c r="M90" s="240"/>
+      <c r="N90" s="241"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13650,10 +13848,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="240"/>
-      <c r="L91" s="241"/>
-      <c r="M91" s="241"/>
-      <c r="N91" s="242"/>
+      <c r="K91" s="239"/>
+      <c r="L91" s="240"/>
+      <c r="M91" s="240"/>
+      <c r="N91" s="241"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13673,10 +13871,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="240"/>
-      <c r="L92" s="241"/>
-      <c r="M92" s="241"/>
-      <c r="N92" s="242"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="240"/>
+      <c r="M92" s="240"/>
+      <c r="N92" s="241"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13696,10 +13894,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="240"/>
-      <c r="L93" s="241"/>
-      <c r="M93" s="241"/>
-      <c r="N93" s="242"/>
+      <c r="K93" s="239"/>
+      <c r="L93" s="240"/>
+      <c r="M93" s="240"/>
+      <c r="N93" s="241"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13719,10 +13917,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="240"/>
-      <c r="L94" s="241"/>
-      <c r="M94" s="241"/>
-      <c r="N94" s="242"/>
+      <c r="K94" s="239"/>
+      <c r="L94" s="240"/>
+      <c r="M94" s="240"/>
+      <c r="N94" s="241"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -13809,58 +14007,34 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="93">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
+  <mergeCells count="94">
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K54:N54"/>
     <mergeCell ref="K92:N92"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
@@ -13877,42 +14051,67 @@
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q8 Q10:Q94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H8 H10:H94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q10:Q94 Q5:Q7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H94 H5:H7">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I8 I10:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I94 I5:I7">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R8 R10:R94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R94 R5:R7">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13931,7 +14130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
@@ -13948,10 +14147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="193"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13982,8 +14181,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14159,7 +14358,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14283,18 +14482,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="255" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="257"/>
+      <c r="A26" s="252" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="253"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="254"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -15047,7 +15246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
@@ -15064,10 +15263,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="193"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15095,8 +15294,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Quet Barcode thu quy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\13_DETAIL_DESIGN\Quet Barcode thu quy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2127,6 +2127,46 @@
 AND VoucherID= @VoucherID AND CashierID IS NULL</t>
   </si>
   <si>
+    <t>@OrderStatus
+@DivisionID
+@SOrderID
+@DeliveryStatus</t>
+  </si>
+  <si>
+    <t>Click Có</t>
+  </si>
+  <si>
+    <t>@DivisionID, @VoucherID</t>
+  </si>
+  <si>
+    <t>Truyền 2 tham số @DivisionID và @VoucherID gọi màn hình Lập phiếu thu - AF0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE AT2006 SET
+ CashierID = @CashierID,
+ CashierTime= @CashierTime
+ DeliveyStatus=@DeliveryStatus
+ WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
+</t>
+  </si>
+  <si>
+    <t>@CashierID
+@CashierTime
+@DeliveryStatus
+@DivisionID
+@VoucherID</t>
+  </si>
+  <si>
+    <t>Biến môi trường
+GETDATE()
+'1'
+Biến môi trường
+@@VoucherID</t>
+  </si>
+  <si>
+    <t>Thỏa câu @SQL0001, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006.</t>
+  </si>
+  <si>
     <t>UPDATE OT2001 SET 
 OrderStatus = 3 
 WHERE DivisionID= @DivisionID 
@@ -2134,50 +2174,13 @@
 (SELECT SUM(ActualQuantity) FROM AT2007 AT07
 INNER JOIN AT2006 AT06 ON AT06.DivisionID= AT07.DivisionID AND AT06.VoucherID=AT07.VoucherID
 WHERE AT07.DivisionID = @DivisionID AND AT06.OrderID = @OrderID AND AT06.DeliveryStatus = 1)
- = 
+ &gt;= 
 (SELECT OrderQuantity FROM OT2002 OT02
 INNER JOIN AT2006 AT06 ON AT06.DivisionID = OT02.DivisionID AND AT06.OrderID=OT02.SOrderID
 WHERE OT02.DivisionID=@DivisionID AND OT02.SOrderID=@SOrderID)</t>
   </si>
   <si>
-    <t>@OrderStatus
-@DivisionID
-@SOrderID
-@DeliveryStatus</t>
-  </si>
-  <si>
-    <t>Click Có</t>
-  </si>
-  <si>
-    <t>@DivisionID, @VoucherID</t>
-  </si>
-  <si>
-    <t>Truyền 2 tham số @DivisionID và @VoucherID gọi màn hình Lập phiếu thu - AF0061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE AT2006 SET
- CashierID = @CashierID,
- CashierTime= @CashierTime
- DeliveyStatus=@DeliveryStatus
- WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
-</t>
-  </si>
-  <si>
-    <t>@CashierID
-@CashierTime
-@DeliveryStatus
-@DivisionID
-@VoucherID</t>
-  </si>
-  <si>
-    <t>@@CashierID
-GETDATE()
-'1' or '0'
-@@DivisionID
-@@VoucherID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thỏa câu @SQL0001, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006. trường hợp có thu tiền thì DeliveryStatus =1 </t>
+    <t>Tham khảo luồng nghiệp 1</t>
   </si>
 </sst>
 </file>
@@ -3130,303 +3133,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3447,15 +3159,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3470,6 +3173,285 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3487,6 +3469,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5072,7 +5075,7 @@
   <dimension ref="A1:GM31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:R17"/>
+      <selection activeCell="B14" sqref="B14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -5528,65 +5531,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="170"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="171" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="185"/>
+      <c r="I1" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="171"/>
+      <c r="J1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="171" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="167" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="168"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="182"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5597,56 +5600,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="179"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="165"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="179"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5657,384 +5660,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="179"/>
+      <c r="R17" s="179"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="182"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="182"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="179"/>
+      <c r="Q20" s="179"/>
+      <c r="R20" s="179"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="179"/>
+      <c r="R21" s="179"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="195"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="195"/>
+      <c r="R22" s="195"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="195"/>
+      <c r="R23" s="195"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="183"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="197"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="184"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="184"/>
-      <c r="AM28" s="184"/>
-      <c r="AN28" s="184"/>
-      <c r="AO28" s="184"/>
-      <c r="AP28" s="184"/>
-      <c r="AQ28" s="184"/>
-      <c r="AR28" s="184"/>
-      <c r="AS28" s="184"/>
-      <c r="AT28" s="184"/>
-      <c r="AU28" s="184"/>
-      <c r="AV28" s="184"/>
-      <c r="AW28" s="184"/>
-      <c r="AX28" s="184"/>
-      <c r="AY28" s="184"/>
-      <c r="AZ28" s="184"/>
-      <c r="BA28" s="184"/>
-      <c r="BB28" s="184"/>
-      <c r="BC28" s="184"/>
-      <c r="BD28" s="184"/>
-      <c r="BE28" s="184"/>
-      <c r="BF28" s="184"/>
-      <c r="BG28" s="184"/>
-      <c r="BH28" s="184"/>
-      <c r="BI28" s="184"/>
-      <c r="BJ28" s="184"/>
-      <c r="BK28" s="184"/>
-      <c r="BL28" s="184"/>
-      <c r="BM28" s="184"/>
-      <c r="BN28" s="184"/>
-      <c r="BO28" s="184"/>
-      <c r="BP28" s="184"/>
-      <c r="BQ28" s="184"/>
-      <c r="BR28" s="184"/>
-      <c r="BS28" s="184"/>
-      <c r="BT28" s="184"/>
-      <c r="BU28" s="184"/>
-      <c r="BV28" s="184"/>
-      <c r="BW28" s="184"/>
-      <c r="BX28" s="184"/>
-      <c r="BY28" s="184"/>
-      <c r="BZ28" s="184"/>
-      <c r="CA28" s="184"/>
-      <c r="CB28" s="184"/>
-      <c r="CC28" s="184"/>
-      <c r="CD28" s="184"/>
-      <c r="CE28" s="184"/>
-      <c r="CF28" s="184"/>
-      <c r="CG28" s="184"/>
-      <c r="CH28" s="184"/>
-      <c r="CI28" s="184"/>
-      <c r="CJ28" s="184"/>
-      <c r="CK28" s="184"/>
-      <c r="CL28" s="184"/>
-      <c r="CM28" s="184"/>
-      <c r="CN28" s="184"/>
-      <c r="CO28" s="184"/>
-      <c r="CP28" s="184"/>
-      <c r="CQ28" s="184"/>
-      <c r="CR28" s="184"/>
-      <c r="CS28" s="184"/>
-      <c r="CT28" s="184"/>
-      <c r="CU28" s="184"/>
-      <c r="CV28" s="184"/>
-      <c r="CW28" s="184"/>
-      <c r="CX28" s="184"/>
-      <c r="CY28" s="184"/>
-      <c r="CZ28" s="184"/>
-      <c r="DA28" s="184"/>
-      <c r="DB28" s="184"/>
-      <c r="DC28" s="184"/>
-      <c r="DD28" s="184"/>
-      <c r="DE28" s="184"/>
-      <c r="DF28" s="184"/>
-      <c r="DG28" s="184"/>
-      <c r="DH28" s="184"/>
-      <c r="DI28" s="184"/>
-      <c r="DJ28" s="184"/>
-      <c r="DK28" s="184"/>
-      <c r="DL28" s="184"/>
-      <c r="DM28" s="184"/>
-      <c r="DN28" s="184"/>
-      <c r="DO28" s="184"/>
-      <c r="DP28" s="184"/>
-      <c r="DQ28" s="184"/>
-      <c r="DR28" s="184"/>
-      <c r="DS28" s="184"/>
-      <c r="DT28" s="184"/>
-      <c r="DU28" s="184"/>
-      <c r="DV28" s="184"/>
-      <c r="DW28" s="184"/>
-      <c r="DX28" s="184"/>
-      <c r="DY28" s="184"/>
-      <c r="DZ28" s="184"/>
-      <c r="EA28" s="184"/>
-      <c r="EB28" s="184"/>
-      <c r="EC28" s="184"/>
-      <c r="ED28" s="184"/>
-      <c r="EE28" s="184"/>
-      <c r="EF28" s="184"/>
-      <c r="EG28" s="184"/>
-      <c r="EH28" s="184"/>
-      <c r="EI28" s="184"/>
-      <c r="EJ28" s="184"/>
-      <c r="EK28" s="184"/>
-      <c r="EL28" s="184"/>
-      <c r="EM28" s="184"/>
-      <c r="EN28" s="184"/>
-      <c r="EO28" s="184"/>
-      <c r="EP28" s="184"/>
-      <c r="EQ28" s="184"/>
-      <c r="ER28" s="184"/>
-      <c r="ES28" s="184"/>
-      <c r="ET28" s="184"/>
-      <c r="EU28" s="184"/>
-      <c r="EV28" s="184"/>
-      <c r="EW28" s="184"/>
-      <c r="EX28" s="184"/>
-      <c r="EY28" s="184"/>
-      <c r="EZ28" s="184"/>
-      <c r="FA28" s="184"/>
-      <c r="FB28" s="184"/>
-      <c r="FC28" s="184"/>
-      <c r="FD28" s="184"/>
-      <c r="FE28" s="184"/>
-      <c r="FF28" s="184"/>
-      <c r="FG28" s="184"/>
-      <c r="FH28" s="184"/>
-      <c r="FI28" s="184"/>
-      <c r="FJ28" s="184"/>
-      <c r="FK28" s="184"/>
-      <c r="FL28" s="184"/>
-      <c r="FM28" s="184"/>
-      <c r="FN28" s="184"/>
-      <c r="FO28" s="184"/>
-      <c r="FP28" s="184"/>
-      <c r="FQ28" s="184"/>
-      <c r="FR28" s="184"/>
-      <c r="FS28" s="184"/>
-      <c r="FT28" s="184"/>
-      <c r="FU28" s="184"/>
-      <c r="FV28" s="184"/>
-      <c r="FW28" s="184"/>
-      <c r="FX28" s="184"/>
-      <c r="FY28" s="184"/>
-      <c r="FZ28" s="184"/>
-      <c r="GA28" s="184"/>
-      <c r="GB28" s="184"/>
-      <c r="GC28" s="184"/>
-      <c r="GD28" s="184"/>
-      <c r="GE28" s="184"/>
-      <c r="GF28" s="184"/>
-      <c r="GG28" s="184"/>
-      <c r="GH28" s="184"/>
-      <c r="GI28" s="184"/>
-      <c r="GJ28" s="184"/>
-      <c r="GK28" s="184"/>
-      <c r="GL28" s="184"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="198"/>
+      <c r="T28" s="198"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="198"/>
+      <c r="AD28" s="198"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="198"/>
+      <c r="AG28" s="198"/>
+      <c r="AH28" s="198"/>
+      <c r="AI28" s="198"/>
+      <c r="AJ28" s="198"/>
+      <c r="AK28" s="198"/>
+      <c r="AL28" s="198"/>
+      <c r="AM28" s="198"/>
+      <c r="AN28" s="198"/>
+      <c r="AO28" s="198"/>
+      <c r="AP28" s="198"/>
+      <c r="AQ28" s="198"/>
+      <c r="AR28" s="198"/>
+      <c r="AS28" s="198"/>
+      <c r="AT28" s="198"/>
+      <c r="AU28" s="198"/>
+      <c r="AV28" s="198"/>
+      <c r="AW28" s="198"/>
+      <c r="AX28" s="198"/>
+      <c r="AY28" s="198"/>
+      <c r="AZ28" s="198"/>
+      <c r="BA28" s="198"/>
+      <c r="BB28" s="198"/>
+      <c r="BC28" s="198"/>
+      <c r="BD28" s="198"/>
+      <c r="BE28" s="198"/>
+      <c r="BF28" s="198"/>
+      <c r="BG28" s="198"/>
+      <c r="BH28" s="198"/>
+      <c r="BI28" s="198"/>
+      <c r="BJ28" s="198"/>
+      <c r="BK28" s="198"/>
+      <c r="BL28" s="198"/>
+      <c r="BM28" s="198"/>
+      <c r="BN28" s="198"/>
+      <c r="BO28" s="198"/>
+      <c r="BP28" s="198"/>
+      <c r="BQ28" s="198"/>
+      <c r="BR28" s="198"/>
+      <c r="BS28" s="198"/>
+      <c r="BT28" s="198"/>
+      <c r="BU28" s="198"/>
+      <c r="BV28" s="198"/>
+      <c r="BW28" s="198"/>
+      <c r="BX28" s="198"/>
+      <c r="BY28" s="198"/>
+      <c r="BZ28" s="198"/>
+      <c r="CA28" s="198"/>
+      <c r="CB28" s="198"/>
+      <c r="CC28" s="198"/>
+      <c r="CD28" s="198"/>
+      <c r="CE28" s="198"/>
+      <c r="CF28" s="198"/>
+      <c r="CG28" s="198"/>
+      <c r="CH28" s="198"/>
+      <c r="CI28" s="198"/>
+      <c r="CJ28" s="198"/>
+      <c r="CK28" s="198"/>
+      <c r="CL28" s="198"/>
+      <c r="CM28" s="198"/>
+      <c r="CN28" s="198"/>
+      <c r="CO28" s="198"/>
+      <c r="CP28" s="198"/>
+      <c r="CQ28" s="198"/>
+      <c r="CR28" s="198"/>
+      <c r="CS28" s="198"/>
+      <c r="CT28" s="198"/>
+      <c r="CU28" s="198"/>
+      <c r="CV28" s="198"/>
+      <c r="CW28" s="198"/>
+      <c r="CX28" s="198"/>
+      <c r="CY28" s="198"/>
+      <c r="CZ28" s="198"/>
+      <c r="DA28" s="198"/>
+      <c r="DB28" s="198"/>
+      <c r="DC28" s="198"/>
+      <c r="DD28" s="198"/>
+      <c r="DE28" s="198"/>
+      <c r="DF28" s="198"/>
+      <c r="DG28" s="198"/>
+      <c r="DH28" s="198"/>
+      <c r="DI28" s="198"/>
+      <c r="DJ28" s="198"/>
+      <c r="DK28" s="198"/>
+      <c r="DL28" s="198"/>
+      <c r="DM28" s="198"/>
+      <c r="DN28" s="198"/>
+      <c r="DO28" s="198"/>
+      <c r="DP28" s="198"/>
+      <c r="DQ28" s="198"/>
+      <c r="DR28" s="198"/>
+      <c r="DS28" s="198"/>
+      <c r="DT28" s="198"/>
+      <c r="DU28" s="198"/>
+      <c r="DV28" s="198"/>
+      <c r="DW28" s="198"/>
+      <c r="DX28" s="198"/>
+      <c r="DY28" s="198"/>
+      <c r="DZ28" s="198"/>
+      <c r="EA28" s="198"/>
+      <c r="EB28" s="198"/>
+      <c r="EC28" s="198"/>
+      <c r="ED28" s="198"/>
+      <c r="EE28" s="198"/>
+      <c r="EF28" s="198"/>
+      <c r="EG28" s="198"/>
+      <c r="EH28" s="198"/>
+      <c r="EI28" s="198"/>
+      <c r="EJ28" s="198"/>
+      <c r="EK28" s="198"/>
+      <c r="EL28" s="198"/>
+      <c r="EM28" s="198"/>
+      <c r="EN28" s="198"/>
+      <c r="EO28" s="198"/>
+      <c r="EP28" s="198"/>
+      <c r="EQ28" s="198"/>
+      <c r="ER28" s="198"/>
+      <c r="ES28" s="198"/>
+      <c r="ET28" s="198"/>
+      <c r="EU28" s="198"/>
+      <c r="EV28" s="198"/>
+      <c r="EW28" s="198"/>
+      <c r="EX28" s="198"/>
+      <c r="EY28" s="198"/>
+      <c r="EZ28" s="198"/>
+      <c r="FA28" s="198"/>
+      <c r="FB28" s="198"/>
+      <c r="FC28" s="198"/>
+      <c r="FD28" s="198"/>
+      <c r="FE28" s="198"/>
+      <c r="FF28" s="198"/>
+      <c r="FG28" s="198"/>
+      <c r="FH28" s="198"/>
+      <c r="FI28" s="198"/>
+      <c r="FJ28" s="198"/>
+      <c r="FK28" s="198"/>
+      <c r="FL28" s="198"/>
+      <c r="FM28" s="198"/>
+      <c r="FN28" s="198"/>
+      <c r="FO28" s="198"/>
+      <c r="FP28" s="198"/>
+      <c r="FQ28" s="198"/>
+      <c r="FR28" s="198"/>
+      <c r="FS28" s="198"/>
+      <c r="FT28" s="198"/>
+      <c r="FU28" s="198"/>
+      <c r="FV28" s="198"/>
+      <c r="FW28" s="198"/>
+      <c r="FX28" s="198"/>
+      <c r="FY28" s="198"/>
+      <c r="FZ28" s="198"/>
+      <c r="GA28" s="198"/>
+      <c r="GB28" s="198"/>
+      <c r="GC28" s="198"/>
+      <c r="GD28" s="198"/>
+      <c r="GE28" s="198"/>
+      <c r="GF28" s="198"/>
+      <c r="GG28" s="198"/>
+      <c r="GH28" s="198"/>
+      <c r="GI28" s="198"/>
+      <c r="GJ28" s="198"/>
+      <c r="GK28" s="198"/>
+      <c r="GL28" s="198"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
+      <c r="A30" s="200"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -6045,16 +6048,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
+      <c r="A31" s="200"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -6127,14 +6130,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6327,11 +6330,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="256" t="s">
+      <c r="E27" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="257"/>
-      <c r="G27" s="258"/>
+      <c r="F27" s="283"/>
+      <c r="G27" s="284"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6638,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6655,10 +6658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6685,8 +6688,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6725,14 +6728,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="194" t="s">
+      <c r="E4" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6747,14 +6750,14 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
     </row>
     <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
       <c r="A6" s="150">
@@ -6765,12 +6768,12 @@
       </c>
       <c r="C6" s="157"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="213"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6781,12 +6784,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="203"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6797,12 +6800,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="190"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="206"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6813,12 +6816,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6829,12 +6832,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="189"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6845,12 +6848,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6861,12 +6864,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6877,12 +6880,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="189"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6893,12 +6896,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="189"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6909,12 +6912,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6925,12 +6928,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6941,12 +6944,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6957,12 +6960,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6973,12 +6976,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6989,12 +6992,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -7005,12 +7008,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -7021,12 +7024,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="200"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -7037,12 +7040,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -7053,12 +7056,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="200"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -7069,12 +7072,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="200"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -7085,12 +7088,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -7101,12 +7104,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -7117,12 +7120,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -7133,12 +7136,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -7149,12 +7152,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="200"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="214"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -7165,12 +7168,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="200"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="214"/>
+      <c r="J31" s="214"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -7181,12 +7184,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -7197,12 +7200,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="214"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -7213,12 +7216,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="214"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -7229,12 +7232,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7245,12 +7248,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="200"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="214"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7261,12 +7264,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="214"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7277,12 +7280,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="200"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="214"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7293,12 +7296,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7309,12 +7312,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7325,12 +7328,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7341,12 +7344,12 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="200"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -7431,10 +7434,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7464,8 +7467,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7495,20 +7498,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="201" t="s">
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="202"/>
+      <c r="J4" s="216"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7519,10 +7522,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="210" t="s">
+      <c r="I5" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="211"/>
+      <c r="J5" s="225"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7533,8 +7536,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="213"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="227"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7545,8 +7548,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="213"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7557,8 +7560,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="213"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="227"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7569,8 +7572,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="213"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="227"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7581,8 +7584,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="229"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7593,10 +7596,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="201" t="s">
+      <c r="I11" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="202"/>
+      <c r="J11" s="216"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7607,10 +7610,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="204" t="s">
+      <c r="I12" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="205"/>
+      <c r="J12" s="219"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7621,8 +7624,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="207"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="221"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7633,8 +7636,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="207"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="221"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7645,8 +7648,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="207"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="221"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7657,8 +7660,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="221"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7669,8 +7672,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7681,8 +7684,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="207"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="221"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7693,8 +7696,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="221"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7705,8 +7708,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="221"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7717,8 +7720,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="221"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7729,8 +7732,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="221"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7741,8 +7744,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="221"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7753,8 +7756,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="221"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7765,8 +7768,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="207"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="221"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7777,8 +7780,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="207"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7789,8 +7792,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="221"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7801,8 +7804,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="221"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7813,8 +7816,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="207"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7825,8 +7828,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="221"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7837,8 +7840,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="221"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7849,8 +7852,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="207"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="221"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7861,8 +7864,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7873,8 +7876,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="207"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="221"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7885,8 +7888,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="207"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="221"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7897,8 +7900,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="221"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7909,8 +7912,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="221"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7921,8 +7924,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="221"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7933,8 +7936,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="221"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7945,8 +7948,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="221"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7957,8 +7960,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="207"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="221"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7969,8 +7972,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="207"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="221"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7981,8 +7984,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="208"/>
-      <c r="J43" s="209"/>
+      <c r="I43" s="222"/>
+      <c r="J43" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8040,13 +8043,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8054,15 +8057,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="216" t="s">
+      <c r="H1" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="217"/>
-      <c r="J1" s="218" t="s">
+      <c r="I1" s="231"/>
+      <c r="J1" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="219"/>
-      <c r="L1" s="220"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -8079,11 +8082,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8091,16 +8094,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="216" t="s">
+      <c r="H2" s="230" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="217"/>
-      <c r="J2" s="218" t="str">
+      <c r="I2" s="231"/>
+      <c r="J2" s="232" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="219"/>
-      <c r="L2" s="220"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="234"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9274,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="246" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -9308,7 +9311,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="233"/>
+      <c r="A2" s="247"/>
       <c r="B2" s="111"/>
       <c r="C2" s="145"/>
       <c r="D2" s="31" t="s">
@@ -9361,15 +9364,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="230" t="s">
+      <c r="G4" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230" t="s">
+      <c r="H4" s="244"/>
+      <c r="I4" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="35">
@@ -9383,18 +9386,18 @@
       </c>
       <c r="D5" s="159"/>
       <c r="E5" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="159"/>
+      <c r="G5" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="231" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="199"/>
-      <c r="I5" s="234" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="235"/>
-      <c r="K5" s="236"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="248" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="249"/>
+      <c r="K5" s="250"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -9405,11 +9408,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -9420,11 +9423,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="225"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -9435,11 +9438,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="239"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -9450,11 +9453,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="225"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -9465,11 +9468,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="225"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="239"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -9480,11 +9483,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="225"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="239"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -9495,11 +9498,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="224"/>
-      <c r="K12" s="225"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="239"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -9510,11 +9513,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="225"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="239"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -9525,11 +9528,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="225"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="239"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -9540,11 +9543,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="225"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="239"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -9555,11 +9558,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="225"/>
+      <c r="G16" s="240"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="239"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -9570,11 +9573,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="225"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="239"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -9585,11 +9588,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="225"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="237"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="239"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -9600,11 +9603,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="224"/>
-      <c r="K19" s="225"/>
+      <c r="G19" s="240"/>
+      <c r="H19" s="241"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="239"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -9615,11 +9618,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="225"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="237"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="239"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -9630,11 +9633,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="225"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="239"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -9645,11 +9648,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="224"/>
-      <c r="K22" s="225"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="238"/>
+      <c r="K22" s="239"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -9660,11 +9663,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="225"/>
+      <c r="G23" s="240"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="239"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -9675,11 +9678,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="225"/>
+      <c r="G24" s="235"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="237"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="239"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -9690,11 +9693,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="225"/>
+      <c r="G25" s="235"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="239"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -9705,11 +9708,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="225"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="237"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="239"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -9720,11 +9723,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="225"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="237"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="239"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -9735,11 +9738,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="225"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="239"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -9750,11 +9753,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="225"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="237"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="239"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -9765,11 +9768,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="225"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="237"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="239"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -9780,11 +9783,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="225"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="237"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="239"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -9795,11 +9798,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="222"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="225"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="237"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="239"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -9810,11 +9813,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="225"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="239"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -9825,11 +9828,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="222"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="225"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="236"/>
+      <c r="I34" s="237"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="239"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9847,11 +9850,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="222"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="225"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="236"/>
+      <c r="I35" s="237"/>
+      <c r="J35" s="238"/>
+      <c r="K35" s="239"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9869,11 +9872,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="221"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="224"/>
-      <c r="K36" s="225"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="237"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="239"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9891,11 +9894,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="222"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="225"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="238"/>
+      <c r="K37" s="239"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9913,11 +9916,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="223"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="225"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="236"/>
+      <c r="I38" s="237"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="239"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9935,11 +9938,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="224"/>
-      <c r="K39" s="225"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236"/>
+      <c r="I39" s="237"/>
+      <c r="J39" s="238"/>
+      <c r="K39" s="239"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9957,11 +9960,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="225"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="237"/>
+      <c r="J40" s="238"/>
+      <c r="K40" s="239"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9979,11 +9982,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="225"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="236"/>
+      <c r="I41" s="237"/>
+      <c r="J41" s="238"/>
+      <c r="K41" s="239"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10001,11 +10004,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="222"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="224"/>
-      <c r="K42" s="225"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="237"/>
+      <c r="J42" s="238"/>
+      <c r="K42" s="239"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10023,11 +10026,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="222"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="224"/>
-      <c r="K43" s="225"/>
+      <c r="G43" s="235"/>
+      <c r="H43" s="236"/>
+      <c r="I43" s="237"/>
+      <c r="J43" s="238"/>
+      <c r="K43" s="239"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10045,11 +10048,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="222"/>
-      <c r="I44" s="223"/>
-      <c r="J44" s="224"/>
-      <c r="K44" s="225"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="237"/>
+      <c r="J44" s="238"/>
+      <c r="K44" s="239"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10067,11 +10070,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="222"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="224"/>
-      <c r="K45" s="225"/>
+      <c r="G45" s="235"/>
+      <c r="H45" s="236"/>
+      <c r="I45" s="237"/>
+      <c r="J45" s="238"/>
+      <c r="K45" s="239"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10089,11 +10092,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="221"/>
-      <c r="H46" s="222"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="224"/>
-      <c r="K46" s="225"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="236"/>
+      <c r="I46" s="237"/>
+      <c r="J46" s="238"/>
+      <c r="K46" s="239"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10111,11 +10114,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="221"/>
-      <c r="H47" s="222"/>
-      <c r="I47" s="223"/>
-      <c r="J47" s="224"/>
-      <c r="K47" s="225"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="236"/>
+      <c r="I47" s="237"/>
+      <c r="J47" s="238"/>
+      <c r="K47" s="239"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10133,11 +10136,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="222"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="224"/>
-      <c r="K48" s="225"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="237"/>
+      <c r="J48" s="238"/>
+      <c r="K48" s="239"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10155,11 +10158,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="223"/>
-      <c r="J49" s="224"/>
-      <c r="K49" s="225"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="237"/>
+      <c r="J49" s="238"/>
+      <c r="K49" s="239"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10177,11 +10180,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="221"/>
-      <c r="H50" s="222"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="225"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="236"/>
+      <c r="I50" s="237"/>
+      <c r="J50" s="238"/>
+      <c r="K50" s="239"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10199,11 +10202,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="221"/>
-      <c r="H51" s="222"/>
-      <c r="I51" s="223"/>
-      <c r="J51" s="224"/>
-      <c r="K51" s="225"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="236"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
+      <c r="K51" s="239"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10221,11 +10224,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="221"/>
-      <c r="H52" s="222"/>
-      <c r="I52" s="223"/>
-      <c r="J52" s="224"/>
-      <c r="K52" s="225"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="236"/>
+      <c r="I52" s="237"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="239"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10243,11 +10246,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="222"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="224"/>
-      <c r="K53" s="225"/>
+      <c r="G53" s="235"/>
+      <c r="H53" s="236"/>
+      <c r="I53" s="237"/>
+      <c r="J53" s="238"/>
+      <c r="K53" s="239"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10265,11 +10268,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="222"/>
-      <c r="I54" s="223"/>
-      <c r="J54" s="224"/>
-      <c r="K54" s="225"/>
+      <c r="G54" s="235"/>
+      <c r="H54" s="236"/>
+      <c r="I54" s="237"/>
+      <c r="J54" s="238"/>
+      <c r="K54" s="239"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10287,11 +10290,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="221"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="224"/>
-      <c r="K55" s="225"/>
+      <c r="G55" s="235"/>
+      <c r="H55" s="236"/>
+      <c r="I55" s="237"/>
+      <c r="J55" s="238"/>
+      <c r="K55" s="239"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10309,11 +10312,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="222"/>
-      <c r="I56" s="223"/>
-      <c r="J56" s="224"/>
-      <c r="K56" s="225"/>
+      <c r="G56" s="235"/>
+      <c r="H56" s="236"/>
+      <c r="I56" s="237"/>
+      <c r="J56" s="238"/>
+      <c r="K56" s="239"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10331,11 +10334,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="221"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="223"/>
-      <c r="J57" s="224"/>
-      <c r="K57" s="225"/>
+      <c r="G57" s="235"/>
+      <c r="H57" s="236"/>
+      <c r="I57" s="237"/>
+      <c r="J57" s="238"/>
+      <c r="K57" s="239"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -10353,11 +10356,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="221"/>
-      <c r="H58" s="222"/>
-      <c r="I58" s="223"/>
-      <c r="J58" s="224"/>
-      <c r="K58" s="225"/>
+      <c r="G58" s="235"/>
+      <c r="H58" s="236"/>
+      <c r="I58" s="237"/>
+      <c r="J58" s="238"/>
+      <c r="K58" s="239"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -11520,7 +11523,7 @@
   <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+      <selection activeCell="K5" sqref="K5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11548,24 +11551,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="242" t="str">
+      <c r="J1" s="256" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="242"/>
+      <c r="K1" s="256"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11593,22 +11596,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="242" t="str">
+      <c r="J2" s="256" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="242"/>
+      <c r="K2" s="256"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11665,12 +11668,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="243" t="s">
+      <c r="K4" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="244"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="245"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="259"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11714,12 +11717,12 @@
       <c r="J5" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="246" t="s">
+      <c r="K5" s="269" t="s">
         <v>203</v>
       </c>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="248"/>
+      <c r="L5" s="270"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="271"/>
       <c r="O5" s="162" t="s">
         <v>191</v>
       </c>
@@ -11765,17 +11768,17 @@
       <c r="J6" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="249" t="s">
+      <c r="K6" s="263" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="264"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="164" t="s">
         <v>209</v>
       </c>
-      <c r="L6" s="250"/>
-      <c r="M6" s="250"/>
-      <c r="N6" s="251"/>
-      <c r="O6" s="164" t="s">
+      <c r="P6" s="164" t="s">
         <v>210</v>
-      </c>
-      <c r="P6" s="164" t="s">
-        <v>211</v>
       </c>
       <c r="Q6" s="147" t="s">
         <v>166</v>
@@ -11784,26 +11787,26 @@
         <v>181</v>
       </c>
       <c r="S6" s="154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A7" s="259">
+      <c r="A7" s="165">
         <v>4</v>
       </c>
       <c r="B7" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="259">
+      <c r="C7" s="165">
         <v>51</v>
       </c>
       <c r="D7" s="163" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="260" t="s">
+      <c r="E7" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="259"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="163" t="s">
         <v>198</v>
       </c>
@@ -11816,16 +11819,16 @@
       <c r="J7" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="261" t="s">
+      <c r="K7" s="260" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="262"/>
-      <c r="M7" s="262"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="260" t="s">
-        <v>205</v>
-      </c>
-      <c r="P7" s="260" t="s">
+      <c r="P7" s="166" t="s">
         <v>202</v>
       </c>
       <c r="Q7" s="163" t="s">
@@ -11834,22 +11837,22 @@
       <c r="R7" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="S7" s="264" t="s">
+      <c r="S7" s="167" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="277" customFormat="1" ht="12" customHeight="1">
-      <c r="K8" s="279"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="281"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="278"/>
-      <c r="Q8" s="278"/>
-      <c r="R8" s="278"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="278"/>
-      <c r="U8" s="278"/>
+    <row r="8" spans="1:21" s="177" customFormat="1" ht="12" customHeight="1">
+      <c r="K8" s="272"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
     </row>
     <row r="9" spans="1:21" s="32" customFormat="1" ht="11.25">
       <c r="A9" s="146">
@@ -11857,35 +11860,35 @@
       </c>
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="283"/>
-      <c r="N9" s="284"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="277"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="265">
+      <c r="A10" s="168">
         <v>6</v>
       </c>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="270"/>
-      <c r="K10" s="271"/>
-      <c r="L10" s="272"/>
-      <c r="M10" s="272"/>
-      <c r="N10" s="273"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="276"/>
-      <c r="S10" s="270"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="173"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -11902,10 +11905,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="241"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="255"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11927,10 +11930,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="241"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="255"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11952,10 +11955,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="241"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="255"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11977,10 +11980,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
-      <c r="N14" s="241"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="255"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -12002,10 +12005,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="240"/>
-      <c r="M15" s="240"/>
-      <c r="N15" s="241"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="255"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -12027,10 +12030,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="240"/>
-      <c r="M16" s="240"/>
-      <c r="N16" s="241"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="255"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -12052,10 +12055,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="240"/>
-      <c r="N17" s="241"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="255"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -12077,10 +12080,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="240"/>
-      <c r="N18" s="241"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="255"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -12102,10 +12105,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="240"/>
-      <c r="M19" s="240"/>
-      <c r="N19" s="241"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="255"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -12127,10 +12130,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="240"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="241"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="255"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -12152,10 +12155,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="239"/>
-      <c r="L21" s="240"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="241"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="255"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -12177,10 +12180,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="239"/>
-      <c r="L22" s="240"/>
-      <c r="M22" s="240"/>
-      <c r="N22" s="241"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="254"/>
+      <c r="N22" s="255"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12202,10 +12205,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="240"/>
-      <c r="N23" s="241"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="254"/>
+      <c r="N23" s="255"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12227,10 +12230,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="240"/>
-      <c r="N24" s="241"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="254"/>
+      <c r="N24" s="255"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12252,10 +12255,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="240"/>
-      <c r="N25" s="241"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="254"/>
+      <c r="N25" s="255"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12277,10 +12280,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="241"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="254"/>
+      <c r="N26" s="255"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12302,10 +12305,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
-      <c r="N27" s="241"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="254"/>
+      <c r="N27" s="255"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12327,10 +12330,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="239"/>
-      <c r="L28" s="240"/>
-      <c r="M28" s="240"/>
-      <c r="N28" s="241"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="254"/>
+      <c r="N28" s="255"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12352,10 +12355,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="241"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="254"/>
+      <c r="N29" s="255"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12377,10 +12380,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="239"/>
-      <c r="L30" s="240"/>
-      <c r="M30" s="240"/>
-      <c r="N30" s="241"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="254"/>
+      <c r="N30" s="255"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12402,10 +12405,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="239"/>
-      <c r="L31" s="240"/>
-      <c r="M31" s="240"/>
-      <c r="N31" s="241"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="254"/>
+      <c r="N31" s="255"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12427,10 +12430,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="239"/>
-      <c r="L32" s="240"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="241"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="254"/>
+      <c r="N32" s="255"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12452,10 +12455,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="239"/>
-      <c r="L33" s="240"/>
-      <c r="M33" s="240"/>
-      <c r="N33" s="241"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="254"/>
+      <c r="N33" s="255"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12477,10 +12480,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="239"/>
-      <c r="L34" s="240"/>
-      <c r="M34" s="240"/>
-      <c r="N34" s="241"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="254"/>
+      <c r="N34" s="255"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12502,10 +12505,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="239"/>
-      <c r="L35" s="240"/>
-      <c r="M35" s="240"/>
-      <c r="N35" s="241"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="254"/>
+      <c r="M35" s="254"/>
+      <c r="N35" s="255"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12527,10 +12530,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="239"/>
-      <c r="L36" s="240"/>
-      <c r="M36" s="240"/>
-      <c r="N36" s="241"/>
+      <c r="K36" s="253"/>
+      <c r="L36" s="254"/>
+      <c r="M36" s="254"/>
+      <c r="N36" s="255"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12552,10 +12555,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="239"/>
-      <c r="L37" s="240"/>
-      <c r="M37" s="240"/>
-      <c r="N37" s="241"/>
+      <c r="K37" s="253"/>
+      <c r="L37" s="254"/>
+      <c r="M37" s="254"/>
+      <c r="N37" s="255"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12577,10 +12580,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="239"/>
-      <c r="L38" s="240"/>
-      <c r="M38" s="240"/>
-      <c r="N38" s="241"/>
+      <c r="K38" s="253"/>
+      <c r="L38" s="254"/>
+      <c r="M38" s="254"/>
+      <c r="N38" s="255"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12602,10 +12605,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="239"/>
-      <c r="L39" s="240"/>
-      <c r="M39" s="240"/>
-      <c r="N39" s="241"/>
+      <c r="K39" s="253"/>
+      <c r="L39" s="254"/>
+      <c r="M39" s="254"/>
+      <c r="N39" s="255"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12627,10 +12630,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="239"/>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="241"/>
+      <c r="K40" s="253"/>
+      <c r="L40" s="254"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="255"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12652,10 +12655,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="239"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="240"/>
-      <c r="N41" s="241"/>
+      <c r="K41" s="253"/>
+      <c r="L41" s="254"/>
+      <c r="M41" s="254"/>
+      <c r="N41" s="255"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12677,10 +12680,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="239"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="240"/>
-      <c r="N42" s="241"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="254"/>
+      <c r="M42" s="254"/>
+      <c r="N42" s="255"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12702,10 +12705,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="239"/>
-      <c r="L43" s="240"/>
-      <c r="M43" s="240"/>
-      <c r="N43" s="241"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="254"/>
+      <c r="M43" s="254"/>
+      <c r="N43" s="255"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12727,10 +12730,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="240"/>
-      <c r="N44" s="241"/>
+      <c r="K44" s="253"/>
+      <c r="L44" s="254"/>
+      <c r="M44" s="254"/>
+      <c r="N44" s="255"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12752,10 +12755,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="240"/>
-      <c r="M45" s="240"/>
-      <c r="N45" s="241"/>
+      <c r="K45" s="253"/>
+      <c r="L45" s="254"/>
+      <c r="M45" s="254"/>
+      <c r="N45" s="255"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12777,10 +12780,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="239"/>
-      <c r="L46" s="240"/>
-      <c r="M46" s="240"/>
-      <c r="N46" s="241"/>
+      <c r="K46" s="253"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="255"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12802,10 +12805,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="239"/>
-      <c r="L47" s="240"/>
-      <c r="M47" s="240"/>
-      <c r="N47" s="241"/>
+      <c r="K47" s="253"/>
+      <c r="L47" s="254"/>
+      <c r="M47" s="254"/>
+      <c r="N47" s="255"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12827,10 +12830,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="239"/>
-      <c r="L48" s="240"/>
-      <c r="M48" s="240"/>
-      <c r="N48" s="241"/>
+      <c r="K48" s="253"/>
+      <c r="L48" s="254"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="255"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12852,10 +12855,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="239"/>
-      <c r="L49" s="240"/>
-      <c r="M49" s="240"/>
-      <c r="N49" s="241"/>
+      <c r="K49" s="253"/>
+      <c r="L49" s="254"/>
+      <c r="M49" s="254"/>
+      <c r="N49" s="255"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12877,10 +12880,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="239"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="240"/>
-      <c r="N50" s="241"/>
+      <c r="K50" s="253"/>
+      <c r="L50" s="254"/>
+      <c r="M50" s="254"/>
+      <c r="N50" s="255"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12902,10 +12905,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="239"/>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="241"/>
+      <c r="K51" s="253"/>
+      <c r="L51" s="254"/>
+      <c r="M51" s="254"/>
+      <c r="N51" s="255"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12927,10 +12930,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="239"/>
-      <c r="L52" s="240"/>
-      <c r="M52" s="240"/>
-      <c r="N52" s="241"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="254"/>
+      <c r="M52" s="254"/>
+      <c r="N52" s="255"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12952,10 +12955,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="240"/>
-      <c r="M53" s="240"/>
-      <c r="N53" s="241"/>
+      <c r="K53" s="253"/>
+      <c r="L53" s="254"/>
+      <c r="M53" s="254"/>
+      <c r="N53" s="255"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12977,10 +12980,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="240"/>
-      <c r="M54" s="240"/>
-      <c r="N54" s="241"/>
+      <c r="K54" s="253"/>
+      <c r="L54" s="254"/>
+      <c r="M54" s="254"/>
+      <c r="N54" s="255"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -13002,10 +13005,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="239"/>
-      <c r="L55" s="240"/>
-      <c r="M55" s="240"/>
-      <c r="N55" s="241"/>
+      <c r="K55" s="253"/>
+      <c r="L55" s="254"/>
+      <c r="M55" s="254"/>
+      <c r="N55" s="255"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -13027,10 +13030,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="239"/>
-      <c r="L56" s="240"/>
-      <c r="M56" s="240"/>
-      <c r="N56" s="241"/>
+      <c r="K56" s="253"/>
+      <c r="L56" s="254"/>
+      <c r="M56" s="254"/>
+      <c r="N56" s="255"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -13052,10 +13055,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="239"/>
-      <c r="L57" s="240"/>
-      <c r="M57" s="240"/>
-      <c r="N57" s="241"/>
+      <c r="K57" s="253"/>
+      <c r="L57" s="254"/>
+      <c r="M57" s="254"/>
+      <c r="N57" s="255"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -13077,10 +13080,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="239"/>
-      <c r="L58" s="240"/>
-      <c r="M58" s="240"/>
-      <c r="N58" s="241"/>
+      <c r="K58" s="253"/>
+      <c r="L58" s="254"/>
+      <c r="M58" s="254"/>
+      <c r="N58" s="255"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -13102,10 +13105,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="239"/>
-      <c r="L59" s="240"/>
-      <c r="M59" s="240"/>
-      <c r="N59" s="241"/>
+      <c r="K59" s="253"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="254"/>
+      <c r="N59" s="255"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -13127,10 +13130,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="239"/>
-      <c r="L60" s="240"/>
-      <c r="M60" s="240"/>
-      <c r="N60" s="241"/>
+      <c r="K60" s="253"/>
+      <c r="L60" s="254"/>
+      <c r="M60" s="254"/>
+      <c r="N60" s="255"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -13152,10 +13155,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="239"/>
-      <c r="L61" s="240"/>
-      <c r="M61" s="240"/>
-      <c r="N61" s="241"/>
+      <c r="K61" s="253"/>
+      <c r="L61" s="254"/>
+      <c r="M61" s="254"/>
+      <c r="N61" s="255"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -13177,10 +13180,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="239"/>
-      <c r="L62" s="240"/>
-      <c r="M62" s="240"/>
-      <c r="N62" s="241"/>
+      <c r="K62" s="253"/>
+      <c r="L62" s="254"/>
+      <c r="M62" s="254"/>
+      <c r="N62" s="255"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13202,10 +13205,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="239"/>
-      <c r="L63" s="240"/>
-      <c r="M63" s="240"/>
-      <c r="N63" s="241"/>
+      <c r="K63" s="253"/>
+      <c r="L63" s="254"/>
+      <c r="M63" s="254"/>
+      <c r="N63" s="255"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13227,10 +13230,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="239"/>
-      <c r="L64" s="240"/>
-      <c r="M64" s="240"/>
-      <c r="N64" s="241"/>
+      <c r="K64" s="253"/>
+      <c r="L64" s="254"/>
+      <c r="M64" s="254"/>
+      <c r="N64" s="255"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13250,10 +13253,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="239"/>
-      <c r="L65" s="240"/>
-      <c r="M65" s="240"/>
-      <c r="N65" s="241"/>
+      <c r="K65" s="253"/>
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
+      <c r="N65" s="255"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13273,10 +13276,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="239"/>
-      <c r="L66" s="240"/>
-      <c r="M66" s="240"/>
-      <c r="N66" s="241"/>
+      <c r="K66" s="253"/>
+      <c r="L66" s="254"/>
+      <c r="M66" s="254"/>
+      <c r="N66" s="255"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13296,10 +13299,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="239"/>
-      <c r="L67" s="240"/>
-      <c r="M67" s="240"/>
-      <c r="N67" s="241"/>
+      <c r="K67" s="253"/>
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="255"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13319,10 +13322,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="239"/>
-      <c r="L68" s="240"/>
-      <c r="M68" s="240"/>
-      <c r="N68" s="241"/>
+      <c r="K68" s="253"/>
+      <c r="L68" s="254"/>
+      <c r="M68" s="254"/>
+      <c r="N68" s="255"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13342,10 +13345,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="239"/>
-      <c r="L69" s="240"/>
-      <c r="M69" s="240"/>
-      <c r="N69" s="241"/>
+      <c r="K69" s="253"/>
+      <c r="L69" s="254"/>
+      <c r="M69" s="254"/>
+      <c r="N69" s="255"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13365,10 +13368,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="239"/>
-      <c r="L70" s="240"/>
-      <c r="M70" s="240"/>
-      <c r="N70" s="241"/>
+      <c r="K70" s="253"/>
+      <c r="L70" s="254"/>
+      <c r="M70" s="254"/>
+      <c r="N70" s="255"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13388,10 +13391,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="239"/>
-      <c r="L71" s="240"/>
-      <c r="M71" s="240"/>
-      <c r="N71" s="241"/>
+      <c r="K71" s="253"/>
+      <c r="L71" s="254"/>
+      <c r="M71" s="254"/>
+      <c r="N71" s="255"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13411,10 +13414,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="239"/>
-      <c r="L72" s="240"/>
-      <c r="M72" s="240"/>
-      <c r="N72" s="241"/>
+      <c r="K72" s="253"/>
+      <c r="L72" s="254"/>
+      <c r="M72" s="254"/>
+      <c r="N72" s="255"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13434,10 +13437,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="239"/>
-      <c r="L73" s="240"/>
-      <c r="M73" s="240"/>
-      <c r="N73" s="241"/>
+      <c r="K73" s="253"/>
+      <c r="L73" s="254"/>
+      <c r="M73" s="254"/>
+      <c r="N73" s="255"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13457,10 +13460,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="239"/>
-      <c r="L74" s="240"/>
-      <c r="M74" s="240"/>
-      <c r="N74" s="241"/>
+      <c r="K74" s="253"/>
+      <c r="L74" s="254"/>
+      <c r="M74" s="254"/>
+      <c r="N74" s="255"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13480,10 +13483,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="239"/>
-      <c r="L75" s="240"/>
-      <c r="M75" s="240"/>
-      <c r="N75" s="241"/>
+      <c r="K75" s="253"/>
+      <c r="L75" s="254"/>
+      <c r="M75" s="254"/>
+      <c r="N75" s="255"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13503,10 +13506,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="239"/>
-      <c r="L76" s="240"/>
-      <c r="M76" s="240"/>
-      <c r="N76" s="241"/>
+      <c r="K76" s="253"/>
+      <c r="L76" s="254"/>
+      <c r="M76" s="254"/>
+      <c r="N76" s="255"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13526,10 +13529,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="239"/>
-      <c r="L77" s="240"/>
-      <c r="M77" s="240"/>
-      <c r="N77" s="241"/>
+      <c r="K77" s="253"/>
+      <c r="L77" s="254"/>
+      <c r="M77" s="254"/>
+      <c r="N77" s="255"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13549,10 +13552,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="239"/>
-      <c r="L78" s="240"/>
-      <c r="M78" s="240"/>
-      <c r="N78" s="241"/>
+      <c r="K78" s="253"/>
+      <c r="L78" s="254"/>
+      <c r="M78" s="254"/>
+      <c r="N78" s="255"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13572,10 +13575,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="239"/>
-      <c r="L79" s="240"/>
-      <c r="M79" s="240"/>
-      <c r="N79" s="241"/>
+      <c r="K79" s="253"/>
+      <c r="L79" s="254"/>
+      <c r="M79" s="254"/>
+      <c r="N79" s="255"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13595,10 +13598,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="239"/>
-      <c r="L80" s="240"/>
-      <c r="M80" s="240"/>
-      <c r="N80" s="241"/>
+      <c r="K80" s="253"/>
+      <c r="L80" s="254"/>
+      <c r="M80" s="254"/>
+      <c r="N80" s="255"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13618,10 +13621,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="239"/>
-      <c r="L81" s="240"/>
-      <c r="M81" s="240"/>
-      <c r="N81" s="241"/>
+      <c r="K81" s="253"/>
+      <c r="L81" s="254"/>
+      <c r="M81" s="254"/>
+      <c r="N81" s="255"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13641,10 +13644,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="239"/>
-      <c r="L82" s="240"/>
-      <c r="M82" s="240"/>
-      <c r="N82" s="241"/>
+      <c r="K82" s="253"/>
+      <c r="L82" s="254"/>
+      <c r="M82" s="254"/>
+      <c r="N82" s="255"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13664,10 +13667,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="239"/>
-      <c r="L83" s="240"/>
-      <c r="M83" s="240"/>
-      <c r="N83" s="241"/>
+      <c r="K83" s="253"/>
+      <c r="L83" s="254"/>
+      <c r="M83" s="254"/>
+      <c r="N83" s="255"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13687,10 +13690,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="239"/>
-      <c r="L84" s="240"/>
-      <c r="M84" s="240"/>
-      <c r="N84" s="241"/>
+      <c r="K84" s="253"/>
+      <c r="L84" s="254"/>
+      <c r="M84" s="254"/>
+      <c r="N84" s="255"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13710,10 +13713,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="239"/>
-      <c r="L85" s="240"/>
-      <c r="M85" s="240"/>
-      <c r="N85" s="241"/>
+      <c r="K85" s="253"/>
+      <c r="L85" s="254"/>
+      <c r="M85" s="254"/>
+      <c r="N85" s="255"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13733,10 +13736,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="239"/>
-      <c r="L86" s="240"/>
-      <c r="M86" s="240"/>
-      <c r="N86" s="241"/>
+      <c r="K86" s="253"/>
+      <c r="L86" s="254"/>
+      <c r="M86" s="254"/>
+      <c r="N86" s="255"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13756,10 +13759,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="239"/>
-      <c r="L87" s="240"/>
-      <c r="M87" s="240"/>
-      <c r="N87" s="241"/>
+      <c r="K87" s="253"/>
+      <c r="L87" s="254"/>
+      <c r="M87" s="254"/>
+      <c r="N87" s="255"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13779,10 +13782,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="239"/>
-      <c r="L88" s="240"/>
-      <c r="M88" s="240"/>
-      <c r="N88" s="241"/>
+      <c r="K88" s="253"/>
+      <c r="L88" s="254"/>
+      <c r="M88" s="254"/>
+      <c r="N88" s="255"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13802,10 +13805,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="239"/>
-      <c r="L89" s="240"/>
-      <c r="M89" s="240"/>
-      <c r="N89" s="241"/>
+      <c r="K89" s="253"/>
+      <c r="L89" s="254"/>
+      <c r="M89" s="254"/>
+      <c r="N89" s="255"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13825,10 +13828,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="239"/>
-      <c r="L90" s="240"/>
-      <c r="M90" s="240"/>
-      <c r="N90" s="241"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="254"/>
+      <c r="M90" s="254"/>
+      <c r="N90" s="255"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13848,10 +13851,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="239"/>
-      <c r="L91" s="240"/>
-      <c r="M91" s="240"/>
-      <c r="N91" s="241"/>
+      <c r="K91" s="253"/>
+      <c r="L91" s="254"/>
+      <c r="M91" s="254"/>
+      <c r="N91" s="255"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13871,10 +13874,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="239"/>
-      <c r="L92" s="240"/>
-      <c r="M92" s="240"/>
-      <c r="N92" s="241"/>
+      <c r="K92" s="253"/>
+      <c r="L92" s="254"/>
+      <c r="M92" s="254"/>
+      <c r="N92" s="255"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13894,10 +13897,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="239"/>
-      <c r="L93" s="240"/>
-      <c r="M93" s="240"/>
-      <c r="N93" s="241"/>
+      <c r="K93" s="253"/>
+      <c r="L93" s="254"/>
+      <c r="M93" s="254"/>
+      <c r="N93" s="255"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13917,10 +13920,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="239"/>
-      <c r="L94" s="240"/>
-      <c r="M94" s="240"/>
-      <c r="N94" s="241"/>
+      <c r="K94" s="253"/>
+      <c r="L94" s="254"/>
+      <c r="M94" s="254"/>
+      <c r="N94" s="255"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -14013,20 +14016,22 @@
     <mergeCell ref="K40:N40"/>
     <mergeCell ref="K41:N41"/>
     <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
     <mergeCell ref="K50:N50"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
     <mergeCell ref="K52:N52"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="K73:N73"/>
@@ -14035,7 +14040,9 @@
     <mergeCell ref="K56:N56"/>
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -14062,15 +14069,11 @@
     <mergeCell ref="K84:N84"/>
     <mergeCell ref="K85:N85"/>
     <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K88:N88"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="K30:N30"/>
@@ -14130,8 +14133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:J26"/>
+    <sheetView view="pageBreakPreview" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14147,10 +14150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14181,8 +14184,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14358,7 +14361,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14482,18 +14485,18 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="252" t="s">
+      <c r="A26" s="278" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="253"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="254"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="279"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
+      <c r="H26" s="279"/>
+      <c r="I26" s="279"/>
+      <c r="J26" s="280"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -14632,7 +14635,9 @@
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="B38" s="43"/>
-      <c r="C38" s="76"/>
+      <c r="C38" s="76" t="s">
+        <v>213</v>
+      </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
@@ -14668,7 +14673,9 @@
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
       <c r="B41" s="76"/>
-      <c r="C41" s="43"/>
+      <c r="C41" s="76" t="s">
+        <v>213</v>
+      </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
@@ -15246,7 +15253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
@@ -15263,10 +15270,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15294,8 +15301,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\13_DETAIL_DESIGN\Quet Barcode thu quy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Quet Barcode thu quy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="225">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2107,9 +2107,6 @@
     <t>Update tình trạng đơn hàng vào bảng OT2001</t>
   </si>
   <si>
-    <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0004 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
-  </si>
-  <si>
     <t>- Luồng nghiệp vụ 1</t>
   </si>
   <si>
@@ -2120,11 +2117,6 @@
 @@DivisionID
 @@SOrderID
 1</t>
-  </si>
-  <si>
-    <t>SELECT TOP 1 1 FROM AT2006
-WHERE DivisionID = @DivisionID
-AND VoucherID= @VoucherID AND CashierID IS NULL</t>
   </si>
   <si>
     <t>@OrderStatus
@@ -2162,9 +2154,6 @@
 '1'
 Biến môi trường
 @@VoucherID</t>
-  </si>
-  <si>
-    <t>Thỏa câu @SQL0001, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006.</t>
   </si>
   <si>
     <t>UPDATE OT2001 SET 
@@ -2181,6 +2170,59 @@
   </si>
   <si>
     <t>Tham khảo luồng nghiệp 1</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID= @VoucherID AND CashierID IS NULL AND CashierTime IS NULL</t>
+  </si>
+  <si>
+    <t>Update tình trạng phiếu điều phối vào bảng AT2006</t>
+  </si>
+  <si>
+    <t>@SQL0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE AT2006 SET
+ DeliveyStatus=@DeliveryStatus
+ WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
+</t>
+  </si>
+  <si>
+    <t>@DeliveryStatus
+@DivisionID
+@VoucherID</t>
+  </si>
+  <si>
+    <t>DeliveryStatus</t>
+  </si>
+  <si>
+    <t>Kiểm tra tình trạng phiếu điều phối dưới bảng AT2006</t>
+  </si>
+  <si>
+    <t>@SQL0005</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2006
+WHERE DivisionID = @DivisionID
+AND VoucherID= @VoucherID AND DeliveryStatus=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực thi @SQL0001 trả về 0 thực thi @SQL0004 để kiểm tra ĐK tình trạng phiếu điều phối </t>
+  </si>
+  <si>
+    <t>1
+Biến môi trường
+@@VoucherID</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 trả về 1, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006.</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0004 trả giá trị về 0 thực thi @SQL0005 để update tình trạng phiếu điều phối</t>
+  </si>
+  <si>
+    <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0003 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2753,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3143,9 +3185,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3155,9 +3194,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3169,9 +3205,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3452,24 +3490,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3490,6 +3510,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3637,15 +3666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>226559</xdr:colOff>
+      <xdr:colOff>127909</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>540203</xdr:rowOff>
+      <xdr:rowOff>163172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>388484</xdr:colOff>
+      <xdr:colOff>289834</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1061697</xdr:rowOff>
+      <xdr:rowOff>684666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3654,8 +3683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226559" y="4367212"/>
-          <a:ext cx="859291" cy="521494"/>
+          <a:off x="127909" y="3883875"/>
+          <a:ext cx="856456" cy="521494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3697,15 +3726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>393245</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>366372</xdr:rowOff>
+      <xdr:colOff>294595</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1731509</xdr:colOff>
+      <xdr:colOff>1632859</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1233147</xdr:rowOff>
+      <xdr:rowOff>856116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3714,7 +3743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356325" y="4193381"/>
+          <a:off x="4243501" y="3710044"/>
           <a:ext cx="1338264" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3756,16 +3785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>302758</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71888</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2023722</xdr:rowOff>
+      <xdr:rowOff>1611707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>159883</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413768</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2395197</xdr:rowOff>
+      <xdr:rowOff>1983182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3774,8 +3803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1918606" y="5850731"/>
-          <a:ext cx="1039246" cy="371475"/>
+          <a:off x="71888" y="5430693"/>
+          <a:ext cx="1042776" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3813,15 +3842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>93208</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>242547</xdr:rowOff>
+      <xdr:colOff>122125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369433</xdr:colOff>
+      <xdr:colOff>398350</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1356972</xdr:rowOff>
+      <xdr:rowOff>979934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3830,8 +3859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1709056" y="4069556"/>
-          <a:ext cx="1458346" cy="1114425"/>
+          <a:off x="1729469" y="3586212"/>
+          <a:ext cx="1456928" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -3911,9 +3940,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1893433</xdr:colOff>
+      <xdr:colOff>1794783</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>625928</xdr:rowOff>
+      <xdr:rowOff>248897</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="293478" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -3923,7 +3952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5856513" y="4452937"/>
+          <a:off x="5743689" y="3969600"/>
           <a:ext cx="293478" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3963,9 +3992,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>607558</xdr:colOff>
+      <xdr:colOff>508908</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1311728</xdr:rowOff>
+      <xdr:rowOff>934697</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="448200" cy="217560"/>
     <xdr:sp macro="" textlink="">
@@ -3975,7 +4004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4570638" y="5138737"/>
+          <a:off x="4457814" y="4655400"/>
           <a:ext cx="448200" cy="217560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4015,9 +4044,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>626608</xdr:colOff>
+      <xdr:colOff>527958</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1530803</xdr:rowOff>
+      <xdr:rowOff>1043219</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4027,7 +4056,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2242456" y="5357812"/>
+          <a:off x="2135302" y="4763922"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4067,9 +4096,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
+      <xdr:colOff>513671</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>568778</xdr:rowOff>
+      <xdr:rowOff>191747</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4079,7 +4108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3410290" y="4395787"/>
+          <a:off x="3301718" y="3912450"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4119,15 +4148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>388484</xdr:colOff>
+      <xdr:colOff>289834</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>799760</xdr:rowOff>
+      <xdr:rowOff>422722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>93208</xdr:colOff>
+      <xdr:colOff>122125</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>800950</xdr:rowOff>
+      <xdr:rowOff>423919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4139,8 +4168,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1085850" y="4626769"/>
-          <a:ext cx="623206" cy="1190"/>
+          <a:off x="984365" y="4143425"/>
+          <a:ext cx="745104" cy="1197"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4169,15 +4198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369433</xdr:colOff>
+      <xdr:colOff>398350</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>799760</xdr:rowOff>
+      <xdr:rowOff>422722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>393245</xdr:colOff>
+      <xdr:colOff>294595</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>799760</xdr:rowOff>
+      <xdr:rowOff>422729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4189,8 +4218,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3167402" y="4626769"/>
-          <a:ext cx="1188923" cy="0"/>
+          <a:off x="3186397" y="4143425"/>
+          <a:ext cx="1057104" cy="7"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4219,28 +4248,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>821871</xdr:colOff>
+      <xdr:colOff>845650</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1356972</xdr:rowOff>
+      <xdr:rowOff>979934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>821871</xdr:colOff>
+      <xdr:colOff>850589</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2023722</xdr:rowOff>
+      <xdr:rowOff>1273515</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
+          <a:endCxn id="24" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2437719" y="5183981"/>
-          <a:ext cx="0" cy="666750"/>
+        <a:xfrm flipH="1">
+          <a:off x="2452994" y="4700637"/>
+          <a:ext cx="4939" cy="293581"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4269,15 +4298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>436109</xdr:colOff>
+      <xdr:colOff>337459</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1924723</xdr:rowOff>
+      <xdr:rowOff>1448472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1693409</xdr:colOff>
+      <xdr:colOff>1594759</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2483302</xdr:rowOff>
+      <xdr:rowOff>2007051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4286,7 +4315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4399189" y="5751732"/>
+          <a:off x="4286365" y="5169175"/>
           <a:ext cx="1257300" cy="558579"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
@@ -4347,15 +4376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>331333</xdr:colOff>
+      <xdr:colOff>232683</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>491554</xdr:rowOff>
+      <xdr:rowOff>114523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>773907</xdr:colOff>
+      <xdr:colOff>675257</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1105578</xdr:rowOff>
+      <xdr:rowOff>728547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4364,8 +4393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6412025" y="4318563"/>
-          <a:ext cx="1293020" cy="614024"/>
+          <a:off x="6294949" y="3835226"/>
+          <a:ext cx="1285933" cy="614024"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDrum">
           <a:avLst/>
@@ -4430,15 +4459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1731509</xdr:colOff>
+      <xdr:colOff>1632859</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>798566</xdr:rowOff>
+      <xdr:rowOff>421535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>331333</xdr:colOff>
+      <xdr:colOff>232683</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>799760</xdr:rowOff>
+      <xdr:rowOff>422729</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4450,8 +4479,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5694589" y="4625575"/>
-          <a:ext cx="717436" cy="1194"/>
+          <a:off x="5581765" y="4142238"/>
+          <a:ext cx="713184" cy="1194"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4480,15 +4509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1062377</xdr:colOff>
+      <xdr:colOff>963727</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1233147</xdr:rowOff>
+      <xdr:rowOff>856116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1064759</xdr:colOff>
+      <xdr:colOff>966109</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1924723</xdr:rowOff>
+      <xdr:rowOff>1448472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4500,8 +4529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5025457" y="5060156"/>
-          <a:ext cx="2382" cy="691576"/>
+          <a:off x="4912633" y="4576819"/>
+          <a:ext cx="2382" cy="592356"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4530,15 +4559,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>838539</xdr:colOff>
+      <xdr:colOff>739889</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>611983</xdr:rowOff>
+      <xdr:rowOff>234952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>731385</xdr:colOff>
+      <xdr:colOff>632735</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>983458</xdr:rowOff>
+      <xdr:rowOff>606427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4547,8 +4576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620124" y="4438992"/>
-          <a:ext cx="743292" cy="371475"/>
+          <a:off x="8488873" y="3955655"/>
+          <a:ext cx="736206" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4586,15 +4615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>251731</xdr:colOff>
+      <xdr:colOff>153081</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2015220</xdr:rowOff>
+      <xdr:rowOff>1538969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>144577</xdr:colOff>
+      <xdr:colOff>45927</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2386695</xdr:rowOff>
+      <xdr:rowOff>1910444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4603,8 +4632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6332423" y="5842229"/>
-          <a:ext cx="743292" cy="371475"/>
+          <a:off x="6215347" y="5259672"/>
+          <a:ext cx="736205" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,15 +4671,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1693409</xdr:colOff>
+      <xdr:colOff>1594759</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2200958</xdr:rowOff>
+      <xdr:rowOff>1724707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>251731</xdr:colOff>
+      <xdr:colOff>153081</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>2204013</xdr:rowOff>
+      <xdr:rowOff>1727762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4662,8 +4691,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5656489" y="6027967"/>
-          <a:ext cx="675934" cy="3055"/>
+          <a:off x="5543665" y="5445410"/>
+          <a:ext cx="671682" cy="3055"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4692,15 +4721,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>773907</xdr:colOff>
+      <xdr:colOff>675257</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>797721</xdr:rowOff>
+      <xdr:rowOff>420690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>838539</xdr:colOff>
+      <xdr:colOff>739889</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>798566</xdr:rowOff>
+      <xdr:rowOff>421535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4712,8 +4741,805 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7705045" y="4624730"/>
-          <a:ext cx="915079" cy="845"/>
+          <a:off x="7580882" y="4141393"/>
+          <a:ext cx="907991" cy="845"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90481</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1273515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>420115</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2327390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Decision 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1697825" y="4994218"/>
+          <a:ext cx="1510337" cy="1053875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Thực</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> thi @SQL0004</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t>Ktra ĐK DeliveryStatus</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>530681</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1596400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1225212" y="5317103"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1087835</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2528184</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705288" y="6347170"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>395231</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2277041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568384</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3149486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Flowchart: Decision 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3183278" y="5997744"/>
+          <a:ext cx="1334012" cy="872445"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>Confirm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> message  AFML000395</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667658</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3246494</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="448200" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3455705" y="6967197"/>
+          <a:ext cx="448200" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Không</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723221</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2521005</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="293478" cy="217560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4672127" y="6241708"/>
+          <a:ext cx="293478" cy="217560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Có</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437614</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3502294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534055</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4060873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Flowchart: Direct Access Storage 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3232213" y="7321280"/>
+          <a:ext cx="1255616" cy="558579"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> @SQL0005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@SQL0003</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303328</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2526909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2898384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7208953" y="6247612"/>
+          <a:ext cx="736206" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t>Load Form AF0061 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>845650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2327390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>395231</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2713264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Elbow Connector 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2625199" y="5875888"/>
+          <a:ext cx="385874" cy="730284"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413768</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1797445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90481</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1800453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1114664" y="5616431"/>
+          <a:ext cx="593270" cy="3008"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1061395</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3149486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1065422</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3502294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3855994" y="6968472"/>
+          <a:ext cx="4027" cy="352808"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568384</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2710027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1180818</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2713264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4517290" y="6430730"/>
+          <a:ext cx="612434" cy="3237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1180818</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2430737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2989316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Flowchart: Direct Access Storage 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129724" y="6151440"/>
+          <a:ext cx="1257300" cy="558579"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> @SQL0005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@SQL0003</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2710027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303328</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2712647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="4"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6387024" y="6430730"/>
+          <a:ext cx="821929" cy="2620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5531,65 +6357,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="184"/>
-      <c r="B1" s="184"/>
-      <c r="C1" s="186" t="s">
+      <c r="A1" s="182"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="185" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185" t="s">
+      <c r="H1" s="183"/>
+      <c r="I1" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="185"/>
+      <c r="J1" s="183"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="185" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="183" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="181" t="s">
+      <c r="A3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="179" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="180"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -5600,56 +6426,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="179"/>
-      <c r="R14" s="179"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="179"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -5660,384 +6486,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="179"/>
-      <c r="Q17" s="179"/>
-      <c r="R17" s="179"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="179"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="179"/>
-      <c r="Q21" s="179"/>
-      <c r="R21" s="179"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="195"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="195"/>
-      <c r="O22" s="195"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="195"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="195"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="195"/>
-      <c r="R23" s="195"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="193"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="197"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="195"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="199"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="198"/>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="198"/>
-      <c r="X28" s="198"/>
-      <c r="Y28" s="198"/>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="198"/>
-      <c r="AD28" s="198"/>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="198"/>
-      <c r="AJ28" s="198"/>
-      <c r="AK28" s="198"/>
-      <c r="AL28" s="198"/>
-      <c r="AM28" s="198"/>
-      <c r="AN28" s="198"/>
-      <c r="AO28" s="198"/>
-      <c r="AP28" s="198"/>
-      <c r="AQ28" s="198"/>
-      <c r="AR28" s="198"/>
-      <c r="AS28" s="198"/>
-      <c r="AT28" s="198"/>
-      <c r="AU28" s="198"/>
-      <c r="AV28" s="198"/>
-      <c r="AW28" s="198"/>
-      <c r="AX28" s="198"/>
-      <c r="AY28" s="198"/>
-      <c r="AZ28" s="198"/>
-      <c r="BA28" s="198"/>
-      <c r="BB28" s="198"/>
-      <c r="BC28" s="198"/>
-      <c r="BD28" s="198"/>
-      <c r="BE28" s="198"/>
-      <c r="BF28" s="198"/>
-      <c r="BG28" s="198"/>
-      <c r="BH28" s="198"/>
-      <c r="BI28" s="198"/>
-      <c r="BJ28" s="198"/>
-      <c r="BK28" s="198"/>
-      <c r="BL28" s="198"/>
-      <c r="BM28" s="198"/>
-      <c r="BN28" s="198"/>
-      <c r="BO28" s="198"/>
-      <c r="BP28" s="198"/>
-      <c r="BQ28" s="198"/>
-      <c r="BR28" s="198"/>
-      <c r="BS28" s="198"/>
-      <c r="BT28" s="198"/>
-      <c r="BU28" s="198"/>
-      <c r="BV28" s="198"/>
-      <c r="BW28" s="198"/>
-      <c r="BX28" s="198"/>
-      <c r="BY28" s="198"/>
-      <c r="BZ28" s="198"/>
-      <c r="CA28" s="198"/>
-      <c r="CB28" s="198"/>
-      <c r="CC28" s="198"/>
-      <c r="CD28" s="198"/>
-      <c r="CE28" s="198"/>
-      <c r="CF28" s="198"/>
-      <c r="CG28" s="198"/>
-      <c r="CH28" s="198"/>
-      <c r="CI28" s="198"/>
-      <c r="CJ28" s="198"/>
-      <c r="CK28" s="198"/>
-      <c r="CL28" s="198"/>
-      <c r="CM28" s="198"/>
-      <c r="CN28" s="198"/>
-      <c r="CO28" s="198"/>
-      <c r="CP28" s="198"/>
-      <c r="CQ28" s="198"/>
-      <c r="CR28" s="198"/>
-      <c r="CS28" s="198"/>
-      <c r="CT28" s="198"/>
-      <c r="CU28" s="198"/>
-      <c r="CV28" s="198"/>
-      <c r="CW28" s="198"/>
-      <c r="CX28" s="198"/>
-      <c r="CY28" s="198"/>
-      <c r="CZ28" s="198"/>
-      <c r="DA28" s="198"/>
-      <c r="DB28" s="198"/>
-      <c r="DC28" s="198"/>
-      <c r="DD28" s="198"/>
-      <c r="DE28" s="198"/>
-      <c r="DF28" s="198"/>
-      <c r="DG28" s="198"/>
-      <c r="DH28" s="198"/>
-      <c r="DI28" s="198"/>
-      <c r="DJ28" s="198"/>
-      <c r="DK28" s="198"/>
-      <c r="DL28" s="198"/>
-      <c r="DM28" s="198"/>
-      <c r="DN28" s="198"/>
-      <c r="DO28" s="198"/>
-      <c r="DP28" s="198"/>
-      <c r="DQ28" s="198"/>
-      <c r="DR28" s="198"/>
-      <c r="DS28" s="198"/>
-      <c r="DT28" s="198"/>
-      <c r="DU28" s="198"/>
-      <c r="DV28" s="198"/>
-      <c r="DW28" s="198"/>
-      <c r="DX28" s="198"/>
-      <c r="DY28" s="198"/>
-      <c r="DZ28" s="198"/>
-      <c r="EA28" s="198"/>
-      <c r="EB28" s="198"/>
-      <c r="EC28" s="198"/>
-      <c r="ED28" s="198"/>
-      <c r="EE28" s="198"/>
-      <c r="EF28" s="198"/>
-      <c r="EG28" s="198"/>
-      <c r="EH28" s="198"/>
-      <c r="EI28" s="198"/>
-      <c r="EJ28" s="198"/>
-      <c r="EK28" s="198"/>
-      <c r="EL28" s="198"/>
-      <c r="EM28" s="198"/>
-      <c r="EN28" s="198"/>
-      <c r="EO28" s="198"/>
-      <c r="EP28" s="198"/>
-      <c r="EQ28" s="198"/>
-      <c r="ER28" s="198"/>
-      <c r="ES28" s="198"/>
-      <c r="ET28" s="198"/>
-      <c r="EU28" s="198"/>
-      <c r="EV28" s="198"/>
-      <c r="EW28" s="198"/>
-      <c r="EX28" s="198"/>
-      <c r="EY28" s="198"/>
-      <c r="EZ28" s="198"/>
-      <c r="FA28" s="198"/>
-      <c r="FB28" s="198"/>
-      <c r="FC28" s="198"/>
-      <c r="FD28" s="198"/>
-      <c r="FE28" s="198"/>
-      <c r="FF28" s="198"/>
-      <c r="FG28" s="198"/>
-      <c r="FH28" s="198"/>
-      <c r="FI28" s="198"/>
-      <c r="FJ28" s="198"/>
-      <c r="FK28" s="198"/>
-      <c r="FL28" s="198"/>
-      <c r="FM28" s="198"/>
-      <c r="FN28" s="198"/>
-      <c r="FO28" s="198"/>
-      <c r="FP28" s="198"/>
-      <c r="FQ28" s="198"/>
-      <c r="FR28" s="198"/>
-      <c r="FS28" s="198"/>
-      <c r="FT28" s="198"/>
-      <c r="FU28" s="198"/>
-      <c r="FV28" s="198"/>
-      <c r="FW28" s="198"/>
-      <c r="FX28" s="198"/>
-      <c r="FY28" s="198"/>
-      <c r="FZ28" s="198"/>
-      <c r="GA28" s="198"/>
-      <c r="GB28" s="198"/>
-      <c r="GC28" s="198"/>
-      <c r="GD28" s="198"/>
-      <c r="GE28" s="198"/>
-      <c r="GF28" s="198"/>
-      <c r="GG28" s="198"/>
-      <c r="GH28" s="198"/>
-      <c r="GI28" s="198"/>
-      <c r="GJ28" s="198"/>
-      <c r="GK28" s="198"/>
-      <c r="GL28" s="198"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="196"/>
+      <c r="T28" s="196"/>
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="196"/>
+      <c r="X28" s="196"/>
+      <c r="Y28" s="196"/>
+      <c r="Z28" s="196"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="196"/>
+      <c r="AC28" s="196"/>
+      <c r="AD28" s="196"/>
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="196"/>
+      <c r="AH28" s="196"/>
+      <c r="AI28" s="196"/>
+      <c r="AJ28" s="196"/>
+      <c r="AK28" s="196"/>
+      <c r="AL28" s="196"/>
+      <c r="AM28" s="196"/>
+      <c r="AN28" s="196"/>
+      <c r="AO28" s="196"/>
+      <c r="AP28" s="196"/>
+      <c r="AQ28" s="196"/>
+      <c r="AR28" s="196"/>
+      <c r="AS28" s="196"/>
+      <c r="AT28" s="196"/>
+      <c r="AU28" s="196"/>
+      <c r="AV28" s="196"/>
+      <c r="AW28" s="196"/>
+      <c r="AX28" s="196"/>
+      <c r="AY28" s="196"/>
+      <c r="AZ28" s="196"/>
+      <c r="BA28" s="196"/>
+      <c r="BB28" s="196"/>
+      <c r="BC28" s="196"/>
+      <c r="BD28" s="196"/>
+      <c r="BE28" s="196"/>
+      <c r="BF28" s="196"/>
+      <c r="BG28" s="196"/>
+      <c r="BH28" s="196"/>
+      <c r="BI28" s="196"/>
+      <c r="BJ28" s="196"/>
+      <c r="BK28" s="196"/>
+      <c r="BL28" s="196"/>
+      <c r="BM28" s="196"/>
+      <c r="BN28" s="196"/>
+      <c r="BO28" s="196"/>
+      <c r="BP28" s="196"/>
+      <c r="BQ28" s="196"/>
+      <c r="BR28" s="196"/>
+      <c r="BS28" s="196"/>
+      <c r="BT28" s="196"/>
+      <c r="BU28" s="196"/>
+      <c r="BV28" s="196"/>
+      <c r="BW28" s="196"/>
+      <c r="BX28" s="196"/>
+      <c r="BY28" s="196"/>
+      <c r="BZ28" s="196"/>
+      <c r="CA28" s="196"/>
+      <c r="CB28" s="196"/>
+      <c r="CC28" s="196"/>
+      <c r="CD28" s="196"/>
+      <c r="CE28" s="196"/>
+      <c r="CF28" s="196"/>
+      <c r="CG28" s="196"/>
+      <c r="CH28" s="196"/>
+      <c r="CI28" s="196"/>
+      <c r="CJ28" s="196"/>
+      <c r="CK28" s="196"/>
+      <c r="CL28" s="196"/>
+      <c r="CM28" s="196"/>
+      <c r="CN28" s="196"/>
+      <c r="CO28" s="196"/>
+      <c r="CP28" s="196"/>
+      <c r="CQ28" s="196"/>
+      <c r="CR28" s="196"/>
+      <c r="CS28" s="196"/>
+      <c r="CT28" s="196"/>
+      <c r="CU28" s="196"/>
+      <c r="CV28" s="196"/>
+      <c r="CW28" s="196"/>
+      <c r="CX28" s="196"/>
+      <c r="CY28" s="196"/>
+      <c r="CZ28" s="196"/>
+      <c r="DA28" s="196"/>
+      <c r="DB28" s="196"/>
+      <c r="DC28" s="196"/>
+      <c r="DD28" s="196"/>
+      <c r="DE28" s="196"/>
+      <c r="DF28" s="196"/>
+      <c r="DG28" s="196"/>
+      <c r="DH28" s="196"/>
+      <c r="DI28" s="196"/>
+      <c r="DJ28" s="196"/>
+      <c r="DK28" s="196"/>
+      <c r="DL28" s="196"/>
+      <c r="DM28" s="196"/>
+      <c r="DN28" s="196"/>
+      <c r="DO28" s="196"/>
+      <c r="DP28" s="196"/>
+      <c r="DQ28" s="196"/>
+      <c r="DR28" s="196"/>
+      <c r="DS28" s="196"/>
+      <c r="DT28" s="196"/>
+      <c r="DU28" s="196"/>
+      <c r="DV28" s="196"/>
+      <c r="DW28" s="196"/>
+      <c r="DX28" s="196"/>
+      <c r="DY28" s="196"/>
+      <c r="DZ28" s="196"/>
+      <c r="EA28" s="196"/>
+      <c r="EB28" s="196"/>
+      <c r="EC28" s="196"/>
+      <c r="ED28" s="196"/>
+      <c r="EE28" s="196"/>
+      <c r="EF28" s="196"/>
+      <c r="EG28" s="196"/>
+      <c r="EH28" s="196"/>
+      <c r="EI28" s="196"/>
+      <c r="EJ28" s="196"/>
+      <c r="EK28" s="196"/>
+      <c r="EL28" s="196"/>
+      <c r="EM28" s="196"/>
+      <c r="EN28" s="196"/>
+      <c r="EO28" s="196"/>
+      <c r="EP28" s="196"/>
+      <c r="EQ28" s="196"/>
+      <c r="ER28" s="196"/>
+      <c r="ES28" s="196"/>
+      <c r="ET28" s="196"/>
+      <c r="EU28" s="196"/>
+      <c r="EV28" s="196"/>
+      <c r="EW28" s="196"/>
+      <c r="EX28" s="196"/>
+      <c r="EY28" s="196"/>
+      <c r="EZ28" s="196"/>
+      <c r="FA28" s="196"/>
+      <c r="FB28" s="196"/>
+      <c r="FC28" s="196"/>
+      <c r="FD28" s="196"/>
+      <c r="FE28" s="196"/>
+      <c r="FF28" s="196"/>
+      <c r="FG28" s="196"/>
+      <c r="FH28" s="196"/>
+      <c r="FI28" s="196"/>
+      <c r="FJ28" s="196"/>
+      <c r="FK28" s="196"/>
+      <c r="FL28" s="196"/>
+      <c r="FM28" s="196"/>
+      <c r="FN28" s="196"/>
+      <c r="FO28" s="196"/>
+      <c r="FP28" s="196"/>
+      <c r="FQ28" s="196"/>
+      <c r="FR28" s="196"/>
+      <c r="FS28" s="196"/>
+      <c r="FT28" s="196"/>
+      <c r="FU28" s="196"/>
+      <c r="FV28" s="196"/>
+      <c r="FW28" s="196"/>
+      <c r="FX28" s="196"/>
+      <c r="FY28" s="196"/>
+      <c r="FZ28" s="196"/>
+      <c r="GA28" s="196"/>
+      <c r="GB28" s="196"/>
+      <c r="GC28" s="196"/>
+      <c r="GD28" s="196"/>
+      <c r="GE28" s="196"/>
+      <c r="GF28" s="196"/>
+      <c r="GG28" s="196"/>
+      <c r="GH28" s="196"/>
+      <c r="GI28" s="196"/>
+      <c r="GJ28" s="196"/>
+      <c r="GK28" s="196"/>
+      <c r="GL28" s="196"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="200"/>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="200"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -6048,16 +6874,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="200"/>
-      <c r="B31" s="200"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="200"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -6130,14 +6956,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6330,11 +7156,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="282" t="s">
+      <c r="E27" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="283"/>
-      <c r="G27" s="284"/>
+      <c r="F27" s="275"/>
+      <c r="G27" s="276"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6641,7 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:J34"/>
     </sheetView>
   </sheetViews>
@@ -6658,10 +7484,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6688,8 +7514,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6728,14 +7554,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -6750,14 +7576,14 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="207" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
     </row>
     <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
       <c r="A6" s="150">
@@ -6768,12 +7594,12 @@
       </c>
       <c r="C6" s="157"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="213"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -6784,12 +7610,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="201"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -6800,12 +7626,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="206"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="204"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -6816,12 +7642,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="203"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -6832,12 +7658,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -6848,12 +7674,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -6864,12 +7690,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -6880,12 +7706,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="203"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -6896,12 +7722,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="203"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -6912,12 +7738,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="214"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -6928,12 +7754,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="214"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -6944,12 +7770,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -6960,12 +7786,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -6976,12 +7802,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -6992,12 +7818,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="214"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -7008,12 +7834,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="214"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="212"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -7024,12 +7850,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="214"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="212"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -7040,12 +7866,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="214"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -7056,12 +7882,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -7072,12 +7898,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="212"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -7088,12 +7914,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -7104,12 +7930,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="214"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -7120,12 +7946,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="212"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -7136,12 +7962,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="212"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -7152,12 +7978,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="214"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -7168,12 +7994,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="214"/>
-      <c r="J31" s="214"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="212"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -7184,12 +8010,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="212"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -7200,12 +8026,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="214"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -7216,12 +8042,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="214"/>
-      <c r="J34" s="214"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="212"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -7232,12 +8058,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -7248,12 +8074,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="214"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -7264,12 +8090,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="214"/>
-      <c r="J37" s="214"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -7280,12 +8106,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -7296,12 +8122,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="214"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -7312,12 +8138,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="212"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -7328,12 +8154,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="214"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="212"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="212"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -7344,12 +8170,12 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -7434,10 +8260,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7467,8 +8293,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7498,20 +8324,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="215" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="216"/>
+      <c r="J4" s="214"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -7522,10 +8348,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="224" t="s">
+      <c r="I5" s="222" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="225"/>
+      <c r="J5" s="223"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -7536,8 +8362,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="227"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="225"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -7548,8 +8374,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="226"/>
-      <c r="J7" s="227"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="225"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -7560,8 +8386,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="227"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="225"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -7572,8 +8398,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="227"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -7584,8 +8410,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="229"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="227"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -7596,10 +8422,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="215" t="s">
+      <c r="I11" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="216"/>
+      <c r="J11" s="214"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -7610,10 +8436,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="218" t="s">
+      <c r="I12" s="216" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="219"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -7624,8 +8450,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="221"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="219"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -7636,8 +8462,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="221"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="219"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -7648,8 +8474,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="221"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="219"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -7660,8 +8486,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="221"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="219"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -7672,8 +8498,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="221"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="219"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -7684,8 +8510,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="221"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="219"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -7696,8 +8522,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="221"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="219"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -7708,8 +8534,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="221"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="219"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -7720,8 +8546,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="221"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -7732,8 +8558,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="221"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="219"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -7744,8 +8570,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="221"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -7756,8 +8582,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="221"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="219"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -7768,8 +8594,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="221"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="219"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -7780,8 +8606,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="221"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -7792,8 +8618,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="221"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="219"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -7804,8 +8630,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="221"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="219"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -7816,8 +8642,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="221"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="219"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -7828,8 +8654,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="221"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -7840,8 +8666,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="221"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="219"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -7852,8 +8678,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="221"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -7864,8 +8690,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="221"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="219"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -7876,8 +8702,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="221"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="219"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -7888,8 +8714,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="221"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="219"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -7900,8 +8726,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="221"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -7912,8 +8738,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="221"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="219"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -7924,8 +8750,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="221"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="219"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -7936,8 +8762,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="221"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="219"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -7948,8 +8774,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="220"/>
-      <c r="J40" s="221"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="219"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -7960,8 +8786,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="221"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="219"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -7972,8 +8798,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="221"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="219"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -7984,8 +8810,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="222"/>
-      <c r="J43" s="223"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8043,13 +8869,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8057,15 +8883,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="230" t="s">
+      <c r="H1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="232" t="s">
+      <c r="I1" s="229"/>
+      <c r="J1" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="233"/>
-      <c r="L1" s="234"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="232"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -8082,11 +8908,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8094,16 +8920,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="230" t="s">
+      <c r="H2" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="231"/>
-      <c r="J2" s="232" t="str">
+      <c r="I2" s="229"/>
+      <c r="J2" s="230" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="233"/>
-      <c r="L2" s="234"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="232"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -9274,7 +10100,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="244" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -9311,7 +10137,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
+      <c r="A2" s="245"/>
       <c r="B2" s="111"/>
       <c r="C2" s="145"/>
       <c r="D2" s="31" t="s">
@@ -9364,15 +10190,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="244" t="s">
+      <c r="G4" s="242" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244" t="s">
+      <c r="H4" s="242"/>
+      <c r="I4" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="35">
@@ -9386,18 +10212,18 @@
       </c>
       <c r="D5" s="159"/>
       <c r="E5" s="160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="159"/>
-      <c r="G5" s="245" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="213"/>
-      <c r="I5" s="248" t="s">
+      <c r="G5" s="243" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="249"/>
-      <c r="K5" s="250"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="246" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="247"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -9408,11 +10234,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="237"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -9423,11 +10249,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="237"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="140">
@@ -9438,11 +10264,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="239"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="237"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
       <c r="A9" s="140">
@@ -9453,11 +10279,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="239"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="237"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
       <c r="A10" s="140">
@@ -9468,11 +10294,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="237"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="140">
@@ -9483,11 +10309,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="239"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="237"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -9498,11 +10324,11 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="239"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="237"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
       <c r="A13" s="125">
@@ -9513,11 +10339,11 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="239"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="237"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="125">
@@ -9528,11 +10354,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="239"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="237"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -9543,11 +10369,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="239"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="237"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -9558,11 +10384,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="239"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="237"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -9573,11 +10399,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="239"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="237"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -9588,11 +10414,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="237"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="239"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="237"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -9603,11 +10429,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="239"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="239"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="237"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -9618,11 +10444,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="237"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="239"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="237"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -9633,11 +10459,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="239"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="239"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="237"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -9648,11 +10474,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="238"/>
-      <c r="K22" s="239"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="239"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="237"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -9663,11 +10489,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="239"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="237"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -9678,11 +10504,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="235"/>
-      <c r="H24" s="236"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="239"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="237"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -9693,11 +10519,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="235"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="239"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="237"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -9708,11 +10534,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="239"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="234"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -9723,11 +10549,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="239"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="234"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="236"/>
+      <c r="K27" s="237"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -9738,11 +10564,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="239"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="234"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="237"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -9753,11 +10579,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="237"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="239"/>
+      <c r="G29" s="233"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -9768,11 +10594,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="239"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="234"/>
+      <c r="I30" s="235"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="237"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -9783,11 +10609,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="238"/>
-      <c r="K31" s="239"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="234"/>
+      <c r="I31" s="235"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="237"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -9798,11 +10624,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="237"/>
-      <c r="J32" s="238"/>
-      <c r="K32" s="239"/>
+      <c r="G32" s="233"/>
+      <c r="H32" s="234"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="237"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -9813,11 +10639,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="235"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="239"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="234"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="237"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -9828,11 +10654,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="235"/>
-      <c r="H34" s="236"/>
-      <c r="I34" s="237"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="239"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="237"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9850,11 +10676,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="235"/>
-      <c r="H35" s="236"/>
-      <c r="I35" s="237"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="239"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="234"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="237"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9872,11 +10698,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="235"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="237"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="239"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="234"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="237"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9894,11 +10720,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="235"/>
-      <c r="H37" s="236"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="238"/>
-      <c r="K37" s="239"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="237"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9916,11 +10742,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="235"/>
-      <c r="H38" s="236"/>
-      <c r="I38" s="237"/>
-      <c r="J38" s="238"/>
-      <c r="K38" s="239"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="234"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="236"/>
+      <c r="K38" s="237"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9938,11 +10764,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="235"/>
-      <c r="H39" s="236"/>
-      <c r="I39" s="237"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="239"/>
+      <c r="G39" s="233"/>
+      <c r="H39" s="234"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="236"/>
+      <c r="K39" s="237"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9960,11 +10786,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="238"/>
-      <c r="K40" s="239"/>
+      <c r="G40" s="233"/>
+      <c r="H40" s="234"/>
+      <c r="I40" s="235"/>
+      <c r="J40" s="236"/>
+      <c r="K40" s="237"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9982,11 +10808,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="237"/>
-      <c r="J41" s="238"/>
-      <c r="K41" s="239"/>
+      <c r="G41" s="233"/>
+      <c r="H41" s="234"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="236"/>
+      <c r="K41" s="237"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10004,11 +10830,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="237"/>
-      <c r="J42" s="238"/>
-      <c r="K42" s="239"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="237"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10026,11 +10852,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="235"/>
-      <c r="H43" s="236"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="238"/>
-      <c r="K43" s="239"/>
+      <c r="G43" s="233"/>
+      <c r="H43" s="234"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="236"/>
+      <c r="K43" s="237"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10048,11 +10874,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="236"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="238"/>
-      <c r="K44" s="239"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="234"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="236"/>
+      <c r="K44" s="237"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10070,11 +10896,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="235"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="237"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="239"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="234"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="237"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10092,11 +10918,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="235"/>
-      <c r="H46" s="236"/>
-      <c r="I46" s="237"/>
-      <c r="J46" s="238"/>
-      <c r="K46" s="239"/>
+      <c r="G46" s="233"/>
+      <c r="H46" s="234"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="236"/>
+      <c r="K46" s="237"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10114,11 +10940,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="236"/>
-      <c r="I47" s="237"/>
-      <c r="J47" s="238"/>
-      <c r="K47" s="239"/>
+      <c r="G47" s="233"/>
+      <c r="H47" s="234"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="237"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10136,11 +10962,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="236"/>
-      <c r="I48" s="237"/>
-      <c r="J48" s="238"/>
-      <c r="K48" s="239"/>
+      <c r="G48" s="233"/>
+      <c r="H48" s="234"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="237"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10158,11 +10984,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="235"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="238"/>
-      <c r="K49" s="239"/>
+      <c r="G49" s="233"/>
+      <c r="H49" s="234"/>
+      <c r="I49" s="235"/>
+      <c r="J49" s="236"/>
+      <c r="K49" s="237"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10180,11 +11006,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="235"/>
-      <c r="H50" s="236"/>
-      <c r="I50" s="237"/>
-      <c r="J50" s="238"/>
-      <c r="K50" s="239"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="234"/>
+      <c r="I50" s="235"/>
+      <c r="J50" s="236"/>
+      <c r="K50" s="237"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10202,11 +11028,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="235"/>
-      <c r="H51" s="236"/>
-      <c r="I51" s="237"/>
-      <c r="J51" s="238"/>
-      <c r="K51" s="239"/>
+      <c r="G51" s="233"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="235"/>
+      <c r="J51" s="236"/>
+      <c r="K51" s="237"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10224,11 +11050,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="235"/>
-      <c r="H52" s="236"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="238"/>
-      <c r="K52" s="239"/>
+      <c r="G52" s="233"/>
+      <c r="H52" s="234"/>
+      <c r="I52" s="235"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="237"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10246,11 +11072,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="235"/>
-      <c r="H53" s="236"/>
-      <c r="I53" s="237"/>
-      <c r="J53" s="238"/>
-      <c r="K53" s="239"/>
+      <c r="G53" s="233"/>
+      <c r="H53" s="234"/>
+      <c r="I53" s="235"/>
+      <c r="J53" s="236"/>
+      <c r="K53" s="237"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10268,11 +11094,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="235"/>
-      <c r="H54" s="236"/>
-      <c r="I54" s="237"/>
-      <c r="J54" s="238"/>
-      <c r="K54" s="239"/>
+      <c r="G54" s="233"/>
+      <c r="H54" s="234"/>
+      <c r="I54" s="235"/>
+      <c r="J54" s="236"/>
+      <c r="K54" s="237"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10290,11 +11116,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="235"/>
-      <c r="H55" s="236"/>
-      <c r="I55" s="237"/>
-      <c r="J55" s="238"/>
-      <c r="K55" s="239"/>
+      <c r="G55" s="233"/>
+      <c r="H55" s="234"/>
+      <c r="I55" s="235"/>
+      <c r="J55" s="236"/>
+      <c r="K55" s="237"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10312,11 +11138,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="235"/>
-      <c r="H56" s="236"/>
-      <c r="I56" s="237"/>
-      <c r="J56" s="238"/>
-      <c r="K56" s="239"/>
+      <c r="G56" s="233"/>
+      <c r="H56" s="234"/>
+      <c r="I56" s="235"/>
+      <c r="J56" s="236"/>
+      <c r="K56" s="237"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10334,11 +11160,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="235"/>
-      <c r="H57" s="236"/>
-      <c r="I57" s="237"/>
-      <c r="J57" s="238"/>
-      <c r="K57" s="239"/>
+      <c r="G57" s="233"/>
+      <c r="H57" s="234"/>
+      <c r="I57" s="235"/>
+      <c r="J57" s="236"/>
+      <c r="K57" s="237"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -10356,11 +11182,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="236"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="238"/>
-      <c r="K58" s="239"/>
+      <c r="G58" s="233"/>
+      <c r="H58" s="234"/>
+      <c r="I58" s="235"/>
+      <c r="J58" s="236"/>
+      <c r="K58" s="237"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -10501,7 +11327,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A36"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11522,8 +12348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:N5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="124" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11551,24 +12377,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="256" t="str">
+      <c r="J1" s="254" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="256"/>
+      <c r="K1" s="254"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11596,22 +12422,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="256" t="str">
+      <c r="J2" s="254" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="256"/>
+      <c r="K2" s="254"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -11668,12 +12494,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="257" t="s">
+      <c r="K4" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="258"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="259"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -11717,12 +12543,12 @@
       <c r="J5" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="269" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
+      <c r="K5" s="267" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="268"/>
+      <c r="M5" s="268"/>
+      <c r="N5" s="269"/>
       <c r="O5" s="162" t="s">
         <v>191</v>
       </c>
@@ -11768,17 +12594,17 @@
       <c r="J6" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="263" t="s">
+      <c r="K6" s="261" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="263"/>
+      <c r="O6" s="164" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="164" t="s">
         <v>208</v>
-      </c>
-      <c r="L6" s="264"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="265"/>
-      <c r="O6" s="164" t="s">
-        <v>209</v>
-      </c>
-      <c r="P6" s="164" t="s">
-        <v>210</v>
       </c>
       <c r="Q6" s="147" t="s">
         <v>166</v>
@@ -11787,12 +12613,12 @@
         <v>181</v>
       </c>
       <c r="S6" s="154" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
-      <c r="A7" s="165">
-        <v>4</v>
+      <c r="A7" s="146">
+        <v>3</v>
       </c>
       <c r="B7" s="148" t="s">
         <v>164</v>
@@ -11801,7 +12627,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="163" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="166" t="s">
         <v>197</v>
@@ -11819,17 +12645,17 @@
       <c r="J7" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="260" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="262"/>
+      <c r="K7" s="258" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="259"/>
+      <c r="M7" s="259"/>
+      <c r="N7" s="260"/>
       <c r="O7" s="166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P7" s="166" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="163" t="s">
         <v>166</v>
@@ -11838,57 +12664,130 @@
         <v>181</v>
       </c>
       <c r="S7" s="167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="177" customFormat="1" ht="12" customHeight="1">
-      <c r="K8" s="272"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-    </row>
-    <row r="9" spans="1:21" s="32" customFormat="1" ht="11.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="159" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A8" s="176">
+        <v>4</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="176">
+        <v>51</v>
+      </c>
+      <c r="D8" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="G8" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="267" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="269"/>
+      <c r="O8" s="175" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="1:21" s="32" customFormat="1" ht="57" customHeight="1">
       <c r="A9" s="146">
         <v>5</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="277"/>
+      <c r="B9" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="176">
+        <v>51</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="159"/>
+      <c r="G9" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="277" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="279"/>
+      <c r="O9" s="175" t="s">
+        <v>215</v>
+      </c>
+      <c r="P9" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="120" t="s">
+        <v>223</v>
+      </c>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="168">
+      <c r="A10" s="176">
         <v>6</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="267"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="173"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="264"/>
+      <c r="L10" s="265"/>
+      <c r="M10" s="265"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="171"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
     </row>
@@ -11905,10 +12804,10 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="255"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="253"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
@@ -11918,7 +12817,7 @@
       <c r="U11" s="63"/>
     </row>
     <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="146">
+      <c r="A12" s="176">
         <v>8</v>
       </c>
       <c r="B12" s="125"/>
@@ -11930,10 +12829,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="255"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="253"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -11955,10 +12854,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="255"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="253"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -11968,7 +12867,7 @@
       <c r="U13" s="63"/>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="146">
+      <c r="A14" s="176">
         <v>10</v>
       </c>
       <c r="B14" s="125"/>
@@ -11980,10 +12879,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="255"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="253"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -12005,10 +12904,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="255"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="252"/>
+      <c r="N15" s="253"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -12018,7 +12917,7 @@
       <c r="U15" s="63"/>
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="146">
+      <c r="A16" s="176">
         <v>12</v>
       </c>
       <c r="B16" s="125"/>
@@ -12030,10 +12929,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="255"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="252"/>
+      <c r="N16" s="253"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -12055,10 +12954,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="255"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="252"/>
+      <c r="N17" s="253"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -12068,7 +12967,7 @@
       <c r="U17" s="63"/>
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="146">
+      <c r="A18" s="176">
         <v>14</v>
       </c>
       <c r="B18" s="125"/>
@@ -12080,10 +12979,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="254"/>
-      <c r="N18" s="255"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="252"/>
+      <c r="N18" s="253"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -12105,10 +13004,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="254"/>
-      <c r="N19" s="255"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="252"/>
+      <c r="N19" s="253"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -12118,7 +13017,7 @@
       <c r="U19" s="63"/>
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="146">
+      <c r="A20" s="176">
         <v>16</v>
       </c>
       <c r="B20" s="125"/>
@@ -12130,10 +13029,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="254"/>
-      <c r="N20" s="255"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="253"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -12155,10 +13054,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="255"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="252"/>
+      <c r="N21" s="253"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -12168,7 +13067,7 @@
       <c r="U21" s="63"/>
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="146">
+      <c r="A22" s="176">
         <v>18</v>
       </c>
       <c r="B22" s="125"/>
@@ -12180,10 +13079,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="254"/>
-      <c r="N22" s="255"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="252"/>
+      <c r="N22" s="253"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -12205,10 +13104,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="254"/>
-      <c r="N23" s="255"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="252"/>
+      <c r="N23" s="253"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -12218,7 +13117,7 @@
       <c r="U23" s="63"/>
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="146">
+      <c r="A24" s="176">
         <v>20</v>
       </c>
       <c r="B24" s="125"/>
@@ -12230,10 +13129,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="254"/>
-      <c r="N24" s="255"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="252"/>
+      <c r="N24" s="253"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -12255,10 +13154,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="254"/>
-      <c r="N25" s="255"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
+      <c r="N25" s="253"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -12268,7 +13167,7 @@
       <c r="U25" s="63"/>
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="146">
+      <c r="A26" s="176">
         <v>22</v>
       </c>
       <c r="B26" s="125"/>
@@ -12280,10 +13179,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="254"/>
-      <c r="N26" s="255"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="252"/>
+      <c r="N26" s="253"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -12305,10 +13204,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254"/>
-      <c r="M27" s="254"/>
-      <c r="N27" s="255"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="252"/>
+      <c r="N27" s="253"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -12318,7 +13217,7 @@
       <c r="U27" s="63"/>
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="146">
+      <c r="A28" s="176">
         <v>24</v>
       </c>
       <c r="B28" s="125"/>
@@ -12330,10 +13229,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="254"/>
-      <c r="N28" s="255"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="252"/>
+      <c r="N28" s="253"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -12355,10 +13254,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="254"/>
-      <c r="N29" s="255"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="252"/>
+      <c r="N29" s="253"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -12368,7 +13267,7 @@
       <c r="U29" s="63"/>
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="146">
+      <c r="A30" s="176">
         <v>26</v>
       </c>
       <c r="B30" s="125"/>
@@ -12380,10 +13279,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="254"/>
-      <c r="N30" s="255"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="252"/>
+      <c r="N30" s="253"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -12405,10 +13304,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="254"/>
-      <c r="M31" s="254"/>
-      <c r="N31" s="255"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="252"/>
+      <c r="N31" s="253"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -12418,7 +13317,7 @@
       <c r="U31" s="63"/>
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="146">
+      <c r="A32" s="176">
         <v>28</v>
       </c>
       <c r="B32" s="125"/>
@@ -12430,10 +13329,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="254"/>
-      <c r="N32" s="255"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="252"/>
+      <c r="N32" s="253"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -12455,10 +13354,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="254"/>
-      <c r="N33" s="255"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
+      <c r="N33" s="253"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -12468,7 +13367,7 @@
       <c r="U33" s="63"/>
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="146">
+      <c r="A34" s="176">
         <v>30</v>
       </c>
       <c r="B34" s="125"/>
@@ -12480,10 +13379,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="254"/>
-      <c r="N34" s="255"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="252"/>
+      <c r="N34" s="253"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -12505,10 +13404,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="253"/>
-      <c r="L35" s="254"/>
-      <c r="M35" s="254"/>
-      <c r="N35" s="255"/>
+      <c r="K35" s="251"/>
+      <c r="L35" s="252"/>
+      <c r="M35" s="252"/>
+      <c r="N35" s="253"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -12530,10 +13429,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="253"/>
-      <c r="L36" s="254"/>
-      <c r="M36" s="254"/>
-      <c r="N36" s="255"/>
+      <c r="K36" s="251"/>
+      <c r="L36" s="252"/>
+      <c r="M36" s="252"/>
+      <c r="N36" s="253"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -12555,10 +13454,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="253"/>
-      <c r="L37" s="254"/>
-      <c r="M37" s="254"/>
-      <c r="N37" s="255"/>
+      <c r="K37" s="251"/>
+      <c r="L37" s="252"/>
+      <c r="M37" s="252"/>
+      <c r="N37" s="253"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -12580,10 +13479,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="253"/>
-      <c r="L38" s="254"/>
-      <c r="M38" s="254"/>
-      <c r="N38" s="255"/>
+      <c r="K38" s="251"/>
+      <c r="L38" s="252"/>
+      <c r="M38" s="252"/>
+      <c r="N38" s="253"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -12605,10 +13504,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="253"/>
-      <c r="L39" s="254"/>
-      <c r="M39" s="254"/>
-      <c r="N39" s="255"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="252"/>
+      <c r="M39" s="252"/>
+      <c r="N39" s="253"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -12630,10 +13529,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="253"/>
-      <c r="L40" s="254"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="255"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="252"/>
+      <c r="M40" s="252"/>
+      <c r="N40" s="253"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -12655,10 +13554,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="253"/>
-      <c r="L41" s="254"/>
-      <c r="M41" s="254"/>
-      <c r="N41" s="255"/>
+      <c r="K41" s="251"/>
+      <c r="L41" s="252"/>
+      <c r="M41" s="252"/>
+      <c r="N41" s="253"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -12680,10 +13579,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="253"/>
-      <c r="L42" s="254"/>
-      <c r="M42" s="254"/>
-      <c r="N42" s="255"/>
+      <c r="K42" s="251"/>
+      <c r="L42" s="252"/>
+      <c r="M42" s="252"/>
+      <c r="N42" s="253"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -12705,10 +13604,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="253"/>
-      <c r="L43" s="254"/>
-      <c r="M43" s="254"/>
-      <c r="N43" s="255"/>
+      <c r="K43" s="251"/>
+      <c r="L43" s="252"/>
+      <c r="M43" s="252"/>
+      <c r="N43" s="253"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -12730,10 +13629,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="253"/>
-      <c r="L44" s="254"/>
-      <c r="M44" s="254"/>
-      <c r="N44" s="255"/>
+      <c r="K44" s="251"/>
+      <c r="L44" s="252"/>
+      <c r="M44" s="252"/>
+      <c r="N44" s="253"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -12755,10 +13654,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="253"/>
-      <c r="L45" s="254"/>
-      <c r="M45" s="254"/>
-      <c r="N45" s="255"/>
+      <c r="K45" s="251"/>
+      <c r="L45" s="252"/>
+      <c r="M45" s="252"/>
+      <c r="N45" s="253"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -12780,10 +13679,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="253"/>
-      <c r="L46" s="254"/>
-      <c r="M46" s="254"/>
-      <c r="N46" s="255"/>
+      <c r="K46" s="251"/>
+      <c r="L46" s="252"/>
+      <c r="M46" s="252"/>
+      <c r="N46" s="253"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -12805,10 +13704,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="253"/>
-      <c r="L47" s="254"/>
-      <c r="M47" s="254"/>
-      <c r="N47" s="255"/>
+      <c r="K47" s="251"/>
+      <c r="L47" s="252"/>
+      <c r="M47" s="252"/>
+      <c r="N47" s="253"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -12830,10 +13729,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="253"/>
-      <c r="L48" s="254"/>
-      <c r="M48" s="254"/>
-      <c r="N48" s="255"/>
+      <c r="K48" s="251"/>
+      <c r="L48" s="252"/>
+      <c r="M48" s="252"/>
+      <c r="N48" s="253"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -12855,10 +13754,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="253"/>
-      <c r="L49" s="254"/>
-      <c r="M49" s="254"/>
-      <c r="N49" s="255"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="252"/>
+      <c r="M49" s="252"/>
+      <c r="N49" s="253"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -12880,10 +13779,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="253"/>
-      <c r="L50" s="254"/>
-      <c r="M50" s="254"/>
-      <c r="N50" s="255"/>
+      <c r="K50" s="251"/>
+      <c r="L50" s="252"/>
+      <c r="M50" s="252"/>
+      <c r="N50" s="253"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -12905,10 +13804,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="253"/>
-      <c r="L51" s="254"/>
-      <c r="M51" s="254"/>
-      <c r="N51" s="255"/>
+      <c r="K51" s="251"/>
+      <c r="L51" s="252"/>
+      <c r="M51" s="252"/>
+      <c r="N51" s="253"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -12930,10 +13829,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="253"/>
-      <c r="L52" s="254"/>
-      <c r="M52" s="254"/>
-      <c r="N52" s="255"/>
+      <c r="K52" s="251"/>
+      <c r="L52" s="252"/>
+      <c r="M52" s="252"/>
+      <c r="N52" s="253"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -12955,10 +13854,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="253"/>
-      <c r="L53" s="254"/>
-      <c r="M53" s="254"/>
-      <c r="N53" s="255"/>
+      <c r="K53" s="251"/>
+      <c r="L53" s="252"/>
+      <c r="M53" s="252"/>
+      <c r="N53" s="253"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -12980,10 +13879,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="253"/>
-      <c r="L54" s="254"/>
-      <c r="M54" s="254"/>
-      <c r="N54" s="255"/>
+      <c r="K54" s="251"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
+      <c r="N54" s="253"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -13005,10 +13904,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="253"/>
-      <c r="L55" s="254"/>
-      <c r="M55" s="254"/>
-      <c r="N55" s="255"/>
+      <c r="K55" s="251"/>
+      <c r="L55" s="252"/>
+      <c r="M55" s="252"/>
+      <c r="N55" s="253"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -13030,10 +13929,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="253"/>
-      <c r="L56" s="254"/>
-      <c r="M56" s="254"/>
-      <c r="N56" s="255"/>
+      <c r="K56" s="251"/>
+      <c r="L56" s="252"/>
+      <c r="M56" s="252"/>
+      <c r="N56" s="253"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -13055,10 +13954,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="253"/>
-      <c r="L57" s="254"/>
-      <c r="M57" s="254"/>
-      <c r="N57" s="255"/>
+      <c r="K57" s="251"/>
+      <c r="L57" s="252"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="253"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -13080,10 +13979,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="253"/>
-      <c r="L58" s="254"/>
-      <c r="M58" s="254"/>
-      <c r="N58" s="255"/>
+      <c r="K58" s="251"/>
+      <c r="L58" s="252"/>
+      <c r="M58" s="252"/>
+      <c r="N58" s="253"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -13105,10 +14004,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="253"/>
-      <c r="L59" s="254"/>
-      <c r="M59" s="254"/>
-      <c r="N59" s="255"/>
+      <c r="K59" s="251"/>
+      <c r="L59" s="252"/>
+      <c r="M59" s="252"/>
+      <c r="N59" s="253"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -13130,10 +14029,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="253"/>
-      <c r="L60" s="254"/>
-      <c r="M60" s="254"/>
-      <c r="N60" s="255"/>
+      <c r="K60" s="251"/>
+      <c r="L60" s="252"/>
+      <c r="M60" s="252"/>
+      <c r="N60" s="253"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -13155,10 +14054,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="253"/>
-      <c r="L61" s="254"/>
-      <c r="M61" s="254"/>
-      <c r="N61" s="255"/>
+      <c r="K61" s="251"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="253"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -13180,10 +14079,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="253"/>
-      <c r="L62" s="254"/>
-      <c r="M62" s="254"/>
-      <c r="N62" s="255"/>
+      <c r="K62" s="251"/>
+      <c r="L62" s="252"/>
+      <c r="M62" s="252"/>
+      <c r="N62" s="253"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -13205,10 +14104,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="253"/>
-      <c r="L63" s="254"/>
-      <c r="M63" s="254"/>
-      <c r="N63" s="255"/>
+      <c r="K63" s="251"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
+      <c r="N63" s="253"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -13230,10 +14129,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="253"/>
-      <c r="L64" s="254"/>
-      <c r="M64" s="254"/>
-      <c r="N64" s="255"/>
+      <c r="K64" s="251"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="252"/>
+      <c r="N64" s="253"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -13253,10 +14152,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="253"/>
-      <c r="L65" s="254"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="255"/>
+      <c r="K65" s="251"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="252"/>
+      <c r="N65" s="253"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -13276,10 +14175,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="253"/>
-      <c r="L66" s="254"/>
-      <c r="M66" s="254"/>
-      <c r="N66" s="255"/>
+      <c r="K66" s="251"/>
+      <c r="L66" s="252"/>
+      <c r="M66" s="252"/>
+      <c r="N66" s="253"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -13299,10 +14198,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="253"/>
-      <c r="L67" s="254"/>
-      <c r="M67" s="254"/>
-      <c r="N67" s="255"/>
+      <c r="K67" s="251"/>
+      <c r="L67" s="252"/>
+      <c r="M67" s="252"/>
+      <c r="N67" s="253"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -13322,10 +14221,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="253"/>
-      <c r="L68" s="254"/>
-      <c r="M68" s="254"/>
-      <c r="N68" s="255"/>
+      <c r="K68" s="251"/>
+      <c r="L68" s="252"/>
+      <c r="M68" s="252"/>
+      <c r="N68" s="253"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -13345,10 +14244,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="253"/>
-      <c r="L69" s="254"/>
-      <c r="M69" s="254"/>
-      <c r="N69" s="255"/>
+      <c r="K69" s="251"/>
+      <c r="L69" s="252"/>
+      <c r="M69" s="252"/>
+      <c r="N69" s="253"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -13368,10 +14267,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="253"/>
-      <c r="L70" s="254"/>
-      <c r="M70" s="254"/>
-      <c r="N70" s="255"/>
+      <c r="K70" s="251"/>
+      <c r="L70" s="252"/>
+      <c r="M70" s="252"/>
+      <c r="N70" s="253"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -13391,10 +14290,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="253"/>
-      <c r="L71" s="254"/>
-      <c r="M71" s="254"/>
-      <c r="N71" s="255"/>
+      <c r="K71" s="251"/>
+      <c r="L71" s="252"/>
+      <c r="M71" s="252"/>
+      <c r="N71" s="253"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -13414,10 +14313,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="253"/>
-      <c r="L72" s="254"/>
-      <c r="M72" s="254"/>
-      <c r="N72" s="255"/>
+      <c r="K72" s="251"/>
+      <c r="L72" s="252"/>
+      <c r="M72" s="252"/>
+      <c r="N72" s="253"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -13437,10 +14336,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="253"/>
-      <c r="L73" s="254"/>
-      <c r="M73" s="254"/>
-      <c r="N73" s="255"/>
+      <c r="K73" s="251"/>
+      <c r="L73" s="252"/>
+      <c r="M73" s="252"/>
+      <c r="N73" s="253"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -13460,10 +14359,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="253"/>
-      <c r="L74" s="254"/>
-      <c r="M74" s="254"/>
-      <c r="N74" s="255"/>
+      <c r="K74" s="251"/>
+      <c r="L74" s="252"/>
+      <c r="M74" s="252"/>
+      <c r="N74" s="253"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -13483,10 +14382,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="253"/>
-      <c r="L75" s="254"/>
-      <c r="M75" s="254"/>
-      <c r="N75" s="255"/>
+      <c r="K75" s="251"/>
+      <c r="L75" s="252"/>
+      <c r="M75" s="252"/>
+      <c r="N75" s="253"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -13506,10 +14405,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="253"/>
-      <c r="L76" s="254"/>
-      <c r="M76" s="254"/>
-      <c r="N76" s="255"/>
+      <c r="K76" s="251"/>
+      <c r="L76" s="252"/>
+      <c r="M76" s="252"/>
+      <c r="N76" s="253"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -13529,10 +14428,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="253"/>
-      <c r="L77" s="254"/>
-      <c r="M77" s="254"/>
-      <c r="N77" s="255"/>
+      <c r="K77" s="251"/>
+      <c r="L77" s="252"/>
+      <c r="M77" s="252"/>
+      <c r="N77" s="253"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -13552,10 +14451,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="253"/>
-      <c r="L78" s="254"/>
-      <c r="M78" s="254"/>
-      <c r="N78" s="255"/>
+      <c r="K78" s="251"/>
+      <c r="L78" s="252"/>
+      <c r="M78" s="252"/>
+      <c r="N78" s="253"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -13575,10 +14474,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="253"/>
-      <c r="L79" s="254"/>
-      <c r="M79" s="254"/>
-      <c r="N79" s="255"/>
+      <c r="K79" s="251"/>
+      <c r="L79" s="252"/>
+      <c r="M79" s="252"/>
+      <c r="N79" s="253"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -13598,10 +14497,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="253"/>
-      <c r="L80" s="254"/>
-      <c r="M80" s="254"/>
-      <c r="N80" s="255"/>
+      <c r="K80" s="251"/>
+      <c r="L80" s="252"/>
+      <c r="M80" s="252"/>
+      <c r="N80" s="253"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -13621,10 +14520,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="253"/>
-      <c r="L81" s="254"/>
-      <c r="M81" s="254"/>
-      <c r="N81" s="255"/>
+      <c r="K81" s="251"/>
+      <c r="L81" s="252"/>
+      <c r="M81" s="252"/>
+      <c r="N81" s="253"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -13644,10 +14543,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="253"/>
-      <c r="L82" s="254"/>
-      <c r="M82" s="254"/>
-      <c r="N82" s="255"/>
+      <c r="K82" s="251"/>
+      <c r="L82" s="252"/>
+      <c r="M82" s="252"/>
+      <c r="N82" s="253"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -13667,10 +14566,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="253"/>
-      <c r="L83" s="254"/>
-      <c r="M83" s="254"/>
-      <c r="N83" s="255"/>
+      <c r="K83" s="251"/>
+      <c r="L83" s="252"/>
+      <c r="M83" s="252"/>
+      <c r="N83" s="253"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -13690,10 +14589,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="253"/>
-      <c r="L84" s="254"/>
-      <c r="M84" s="254"/>
-      <c r="N84" s="255"/>
+      <c r="K84" s="251"/>
+      <c r="L84" s="252"/>
+      <c r="M84" s="252"/>
+      <c r="N84" s="253"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -13713,10 +14612,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="253"/>
-      <c r="L85" s="254"/>
-      <c r="M85" s="254"/>
-      <c r="N85" s="255"/>
+      <c r="K85" s="251"/>
+      <c r="L85" s="252"/>
+      <c r="M85" s="252"/>
+      <c r="N85" s="253"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -13736,10 +14635,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="253"/>
-      <c r="L86" s="254"/>
-      <c r="M86" s="254"/>
-      <c r="N86" s="255"/>
+      <c r="K86" s="251"/>
+      <c r="L86" s="252"/>
+      <c r="M86" s="252"/>
+      <c r="N86" s="253"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -13759,10 +14658,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="253"/>
-      <c r="L87" s="254"/>
-      <c r="M87" s="254"/>
-      <c r="N87" s="255"/>
+      <c r="K87" s="251"/>
+      <c r="L87" s="252"/>
+      <c r="M87" s="252"/>
+      <c r="N87" s="253"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -13782,10 +14681,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="253"/>
-      <c r="L88" s="254"/>
-      <c r="M88" s="254"/>
-      <c r="N88" s="255"/>
+      <c r="K88" s="251"/>
+      <c r="L88" s="252"/>
+      <c r="M88" s="252"/>
+      <c r="N88" s="253"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -13805,10 +14704,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="253"/>
-      <c r="L89" s="254"/>
-      <c r="M89" s="254"/>
-      <c r="N89" s="255"/>
+      <c r="K89" s="251"/>
+      <c r="L89" s="252"/>
+      <c r="M89" s="252"/>
+      <c r="N89" s="253"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -13828,10 +14727,10 @@
       <c r="H90" s="136"/>
       <c r="I90" s="136"/>
       <c r="J90" s="128"/>
-      <c r="K90" s="253"/>
-      <c r="L90" s="254"/>
-      <c r="M90" s="254"/>
-      <c r="N90" s="255"/>
+      <c r="K90" s="251"/>
+      <c r="L90" s="252"/>
+      <c r="M90" s="252"/>
+      <c r="N90" s="253"/>
       <c r="O90" s="131"/>
       <c r="P90" s="131"/>
       <c r="Q90" s="137"/>
@@ -13851,10 +14750,10 @@
       <c r="H91" s="136"/>
       <c r="I91" s="136"/>
       <c r="J91" s="128"/>
-      <c r="K91" s="253"/>
-      <c r="L91" s="254"/>
-      <c r="M91" s="254"/>
-      <c r="N91" s="255"/>
+      <c r="K91" s="251"/>
+      <c r="L91" s="252"/>
+      <c r="M91" s="252"/>
+      <c r="N91" s="253"/>
       <c r="O91" s="131"/>
       <c r="P91" s="131"/>
       <c r="Q91" s="137"/>
@@ -13874,10 +14773,10 @@
       <c r="H92" s="136"/>
       <c r="I92" s="136"/>
       <c r="J92" s="128"/>
-      <c r="K92" s="253"/>
-      <c r="L92" s="254"/>
-      <c r="M92" s="254"/>
-      <c r="N92" s="255"/>
+      <c r="K92" s="251"/>
+      <c r="L92" s="252"/>
+      <c r="M92" s="252"/>
+      <c r="N92" s="253"/>
       <c r="O92" s="131"/>
       <c r="P92" s="131"/>
       <c r="Q92" s="137"/>
@@ -13897,10 +14796,10 @@
       <c r="H93" s="136"/>
       <c r="I93" s="136"/>
       <c r="J93" s="128"/>
-      <c r="K93" s="253"/>
-      <c r="L93" s="254"/>
-      <c r="M93" s="254"/>
-      <c r="N93" s="255"/>
+      <c r="K93" s="251"/>
+      <c r="L93" s="252"/>
+      <c r="M93" s="252"/>
+      <c r="N93" s="253"/>
       <c r="O93" s="131"/>
       <c r="P93" s="131"/>
       <c r="Q93" s="137"/>
@@ -13920,10 +14819,10 @@
       <c r="H94" s="136"/>
       <c r="I94" s="136"/>
       <c r="J94" s="128"/>
-      <c r="K94" s="253"/>
-      <c r="L94" s="254"/>
-      <c r="M94" s="254"/>
-      <c r="N94" s="255"/>
+      <c r="K94" s="251"/>
+      <c r="L94" s="252"/>
+      <c r="M94" s="252"/>
+      <c r="N94" s="253"/>
       <c r="O94" s="131"/>
       <c r="P94" s="131"/>
       <c r="Q94" s="137"/>
@@ -14108,10 +15007,10 @@
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q10:Q94 Q5:Q7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H94 H5:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I94 I5:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R94 R5:R7">
@@ -14133,8 +15032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="106" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -14150,10 +15049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14184,8 +15083,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14361,7 +15260,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="C15" s="117" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
@@ -14484,19 +15383,19 @@
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" ht="208.5" customHeight="1">
-      <c r="A26" s="278" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="279"/>
-      <c r="C26" s="279"/>
-      <c r="D26" s="279"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="279"/>
-      <c r="I26" s="279"/>
-      <c r="J26" s="280"/>
+    <row r="26" spans="1:10" ht="334.5" customHeight="1">
+      <c r="A26" s="270" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="271"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="271"/>
+      <c r="H26" s="271"/>
+      <c r="I26" s="271"/>
+      <c r="J26" s="272"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
       <c r="A27" s="116"/>
@@ -14636,7 +15535,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="B38" s="43"/>
       <c r="C38" s="76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -14674,7 +15573,7 @@
       <c r="A41" s="42"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -15270,10 +16169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="207"/>
+      <c r="B1" s="205"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -15301,8 +16200,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Quet Barcode thu quy/AF0324_Xac nhan thu quy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="847" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="214">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2177,49 +2177,7 @@
 AND VoucherID= @VoucherID AND CashierID IS NULL AND CashierTime IS NULL</t>
   </si>
   <si>
-    <t>Update tình trạng phiếu điều phối vào bảng AT2006</t>
-  </si>
-  <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE AT2006 SET
- DeliveyStatus=@DeliveryStatus
- WHERE DivisionID = @DivisionID AND VoucherID = @VoucherID
-</t>
-  </si>
-  <si>
-    <t>@DeliveryStatus
-@DivisionID
-@VoucherID</t>
-  </si>
-  <si>
-    <t>DeliveryStatus</t>
-  </si>
-  <si>
-    <t>Kiểm tra tình trạng phiếu điều phối dưới bảng AT2006</t>
-  </si>
-  <si>
-    <t>@SQL0005</t>
-  </si>
-  <si>
-    <t>SELECT TOP 1 1 FROM AT2006
-WHERE DivisionID = @DivisionID
-AND VoucherID= @VoucherID AND DeliveryStatus=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực thi @SQL0001 trả về 0 thực thi @SQL0004 để kiểm tra ĐK tình trạng phiếu điều phối </t>
-  </si>
-  <si>
-    <t>1
-Biến môi trường
-@@VoucherID</t>
-  </si>
-  <si>
     <t>Thực thi @SQL0001 trả về 1, thực thi câu @SQL0002 để update Mã thủ quỹ, ngày, giờ, phút giây thực thi quét barcode vào bảng AT2006.</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0004 trả giá trị về 0 thực thi @SQL0005 để update tình trạng phiếu điều phối</t>
   </si>
   <si>
     <t>Sau khi thực thi @SQL0002 tiến hành thực thi câu @SQL0003 để Update tình trạng đơn hàng nếu các phiếu điều phối đã hoàn tất</t>
@@ -2753,7 +2711,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3211,9 +3169,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3259,23 +3238,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3316,9 +3280,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3379,59 +3340,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3511,14 +3481,17 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3785,16 +3758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>71888</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>332478</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1611707</xdr:rowOff>
+      <xdr:rowOff>1387061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>413768</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198108</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1983182</xdr:rowOff>
+      <xdr:rowOff>1758536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3803,7 +3776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71888" y="5430693"/>
+          <a:off x="1949931" y="5206047"/>
           <a:ext cx="1042776" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4248,28 +4221,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>845650</xdr:colOff>
+      <xdr:colOff>848811</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>979934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>850589</xdr:colOff>
+      <xdr:colOff>853866</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1273515</xdr:rowOff>
+      <xdr:rowOff>1387061</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="24" idx="0"/>
+          <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2452994" y="4700637"/>
-          <a:ext cx="4939" cy="293581"/>
+        <a:xfrm>
+          <a:off x="2466264" y="4798920"/>
+          <a:ext cx="5055" cy="407127"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4743,803 +4716,6 @@
         <a:xfrm flipV="1">
           <a:off x="7580882" y="4141393"/>
           <a:ext cx="907991" cy="845"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90481</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1273515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>420115</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2327390</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Flowchart: Decision 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1697825" y="4994218"/>
-          <a:ext cx="1510337" cy="1053875"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700"/>
-            <a:t>Thực</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0"/>
-            <a:t> thi @SQL0004</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0"/>
-            <a:t>Ktra ĐK DeliveryStatus</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>530681</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1596400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1225212" y="5317103"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1087835</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2528184</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705288" y="6347170"/>
-          <a:ext cx="256160" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>395231</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2277041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>568384</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3149486</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flowchart: Decision 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3183278" y="5997744"/>
-          <a:ext cx="1334012" cy="872445"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700"/>
-            <a:t>Confirm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0"/>
-            <a:t> message  AFML000395</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>667658</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3246494</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="448200" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3455705" y="6967197"/>
-          <a:ext cx="448200" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>Không</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723221</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2521005</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="293478" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="TextBox 44"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4672127" y="6241708"/>
-          <a:ext cx="293478" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800"/>
-            <a:t>Có</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>437614</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3502294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>534055</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4060873</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Flowchart: Direct Access Storage 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3232213" y="7321280"/>
-          <a:ext cx="1255616" cy="558579"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDrum">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Update</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> @SQL0005</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@SQL0003</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>303328</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2526909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>196175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2898384</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7208953" y="6247612"/>
-          <a:ext cx="736206" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" baseline="0"/>
-            <a:t>Load Form AF0061 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>845650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2327390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>395231</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2713264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Elbow Connector 53"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="2"/>
-          <a:endCxn id="43" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2625199" y="5875888"/>
-          <a:ext cx="385874" cy="730284"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>413768</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1797445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90481</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1800453</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="1"/>
-          <a:endCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1114664" y="5616431"/>
-          <a:ext cx="593270" cy="3008"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1061395</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3149486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1065422</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3502294</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3855994" y="6968472"/>
-          <a:ext cx="4027" cy="352808"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>568384</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2710027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1180818</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2713264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="43" idx="3"/>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4517290" y="6430730"/>
-          <a:ext cx="612434" cy="3237"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1180818</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2430737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>324758</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2989316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Flowchart: Direct Access Storage 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5129724" y="6151440"/>
-          <a:ext cx="1257300" cy="558579"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDrum">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Update</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> @SQL0005</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" baseline="0">
-              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@SQL0003</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>324758</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2710027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>303328</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2712647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="4"/>
-          <a:endCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6387024" y="6430730"/>
-          <a:ext cx="821929" cy="2620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6357,65 +5533,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="182"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="184" t="s">
+      <c r="A1" s="189"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="183" t="s">
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183" t="s">
+      <c r="H1" s="190"/>
+      <c r="I1" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="183"/>
+      <c r="J1" s="190"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="183" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="179" t="s">
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="186" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="180"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="180"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="105"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="181"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
@@ -6426,56 +5602,56 @@
       <c r="R13" s="106"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="182"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -6486,384 +5662,384 @@
       <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="177"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="182"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="194"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="184"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="177"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="182"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="193"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="193"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="195"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="195"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="196"/>
-      <c r="T28" s="196"/>
-      <c r="U28" s="196"/>
-      <c r="V28" s="196"/>
-      <c r="W28" s="196"/>
-      <c r="X28" s="196"/>
-      <c r="Y28" s="196"/>
-      <c r="Z28" s="196"/>
-      <c r="AA28" s="196"/>
-      <c r="AB28" s="196"/>
-      <c r="AC28" s="196"/>
-      <c r="AD28" s="196"/>
-      <c r="AE28" s="196"/>
-      <c r="AF28" s="196"/>
-      <c r="AG28" s="196"/>
-      <c r="AH28" s="196"/>
-      <c r="AI28" s="196"/>
-      <c r="AJ28" s="196"/>
-      <c r="AK28" s="196"/>
-      <c r="AL28" s="196"/>
-      <c r="AM28" s="196"/>
-      <c r="AN28" s="196"/>
-      <c r="AO28" s="196"/>
-      <c r="AP28" s="196"/>
-      <c r="AQ28" s="196"/>
-      <c r="AR28" s="196"/>
-      <c r="AS28" s="196"/>
-      <c r="AT28" s="196"/>
-      <c r="AU28" s="196"/>
-      <c r="AV28" s="196"/>
-      <c r="AW28" s="196"/>
-      <c r="AX28" s="196"/>
-      <c r="AY28" s="196"/>
-      <c r="AZ28" s="196"/>
-      <c r="BA28" s="196"/>
-      <c r="BB28" s="196"/>
-      <c r="BC28" s="196"/>
-      <c r="BD28" s="196"/>
-      <c r="BE28" s="196"/>
-      <c r="BF28" s="196"/>
-      <c r="BG28" s="196"/>
-      <c r="BH28" s="196"/>
-      <c r="BI28" s="196"/>
-      <c r="BJ28" s="196"/>
-      <c r="BK28" s="196"/>
-      <c r="BL28" s="196"/>
-      <c r="BM28" s="196"/>
-      <c r="BN28" s="196"/>
-      <c r="BO28" s="196"/>
-      <c r="BP28" s="196"/>
-      <c r="BQ28" s="196"/>
-      <c r="BR28" s="196"/>
-      <c r="BS28" s="196"/>
-      <c r="BT28" s="196"/>
-      <c r="BU28" s="196"/>
-      <c r="BV28" s="196"/>
-      <c r="BW28" s="196"/>
-      <c r="BX28" s="196"/>
-      <c r="BY28" s="196"/>
-      <c r="BZ28" s="196"/>
-      <c r="CA28" s="196"/>
-      <c r="CB28" s="196"/>
-      <c r="CC28" s="196"/>
-      <c r="CD28" s="196"/>
-      <c r="CE28" s="196"/>
-      <c r="CF28" s="196"/>
-      <c r="CG28" s="196"/>
-      <c r="CH28" s="196"/>
-      <c r="CI28" s="196"/>
-      <c r="CJ28" s="196"/>
-      <c r="CK28" s="196"/>
-      <c r="CL28" s="196"/>
-      <c r="CM28" s="196"/>
-      <c r="CN28" s="196"/>
-      <c r="CO28" s="196"/>
-      <c r="CP28" s="196"/>
-      <c r="CQ28" s="196"/>
-      <c r="CR28" s="196"/>
-      <c r="CS28" s="196"/>
-      <c r="CT28" s="196"/>
-      <c r="CU28" s="196"/>
-      <c r="CV28" s="196"/>
-      <c r="CW28" s="196"/>
-      <c r="CX28" s="196"/>
-      <c r="CY28" s="196"/>
-      <c r="CZ28" s="196"/>
-      <c r="DA28" s="196"/>
-      <c r="DB28" s="196"/>
-      <c r="DC28" s="196"/>
-      <c r="DD28" s="196"/>
-      <c r="DE28" s="196"/>
-      <c r="DF28" s="196"/>
-      <c r="DG28" s="196"/>
-      <c r="DH28" s="196"/>
-      <c r="DI28" s="196"/>
-      <c r="DJ28" s="196"/>
-      <c r="DK28" s="196"/>
-      <c r="DL28" s="196"/>
-      <c r="DM28" s="196"/>
-      <c r="DN28" s="196"/>
-      <c r="DO28" s="196"/>
-      <c r="DP28" s="196"/>
-      <c r="DQ28" s="196"/>
-      <c r="DR28" s="196"/>
-      <c r="DS28" s="196"/>
-      <c r="DT28" s="196"/>
-      <c r="DU28" s="196"/>
-      <c r="DV28" s="196"/>
-      <c r="DW28" s="196"/>
-      <c r="DX28" s="196"/>
-      <c r="DY28" s="196"/>
-      <c r="DZ28" s="196"/>
-      <c r="EA28" s="196"/>
-      <c r="EB28" s="196"/>
-      <c r="EC28" s="196"/>
-      <c r="ED28" s="196"/>
-      <c r="EE28" s="196"/>
-      <c r="EF28" s="196"/>
-      <c r="EG28" s="196"/>
-      <c r="EH28" s="196"/>
-      <c r="EI28" s="196"/>
-      <c r="EJ28" s="196"/>
-      <c r="EK28" s="196"/>
-      <c r="EL28" s="196"/>
-      <c r="EM28" s="196"/>
-      <c r="EN28" s="196"/>
-      <c r="EO28" s="196"/>
-      <c r="EP28" s="196"/>
-      <c r="EQ28" s="196"/>
-      <c r="ER28" s="196"/>
-      <c r="ES28" s="196"/>
-      <c r="ET28" s="196"/>
-      <c r="EU28" s="196"/>
-      <c r="EV28" s="196"/>
-      <c r="EW28" s="196"/>
-      <c r="EX28" s="196"/>
-      <c r="EY28" s="196"/>
-      <c r="EZ28" s="196"/>
-      <c r="FA28" s="196"/>
-      <c r="FB28" s="196"/>
-      <c r="FC28" s="196"/>
-      <c r="FD28" s="196"/>
-      <c r="FE28" s="196"/>
-      <c r="FF28" s="196"/>
-      <c r="FG28" s="196"/>
-      <c r="FH28" s="196"/>
-      <c r="FI28" s="196"/>
-      <c r="FJ28" s="196"/>
-      <c r="FK28" s="196"/>
-      <c r="FL28" s="196"/>
-      <c r="FM28" s="196"/>
-      <c r="FN28" s="196"/>
-      <c r="FO28" s="196"/>
-      <c r="FP28" s="196"/>
-      <c r="FQ28" s="196"/>
-      <c r="FR28" s="196"/>
-      <c r="FS28" s="196"/>
-      <c r="FT28" s="196"/>
-      <c r="FU28" s="196"/>
-      <c r="FV28" s="196"/>
-      <c r="FW28" s="196"/>
-      <c r="FX28" s="196"/>
-      <c r="FY28" s="196"/>
-      <c r="FZ28" s="196"/>
-      <c r="GA28" s="196"/>
-      <c r="GB28" s="196"/>
-      <c r="GC28" s="196"/>
-      <c r="GD28" s="196"/>
-      <c r="GE28" s="196"/>
-      <c r="GF28" s="196"/>
-      <c r="GG28" s="196"/>
-      <c r="GH28" s="196"/>
-      <c r="GI28" s="196"/>
-      <c r="GJ28" s="196"/>
-      <c r="GK28" s="196"/>
-      <c r="GL28" s="196"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="179"/>
+      <c r="U28" s="179"/>
+      <c r="V28" s="179"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="179"/>
+      <c r="Y28" s="179"/>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="179"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="179"/>
+      <c r="AG28" s="179"/>
+      <c r="AH28" s="179"/>
+      <c r="AI28" s="179"/>
+      <c r="AJ28" s="179"/>
+      <c r="AK28" s="179"/>
+      <c r="AL28" s="179"/>
+      <c r="AM28" s="179"/>
+      <c r="AN28" s="179"/>
+      <c r="AO28" s="179"/>
+      <c r="AP28" s="179"/>
+      <c r="AQ28" s="179"/>
+      <c r="AR28" s="179"/>
+      <c r="AS28" s="179"/>
+      <c r="AT28" s="179"/>
+      <c r="AU28" s="179"/>
+      <c r="AV28" s="179"/>
+      <c r="AW28" s="179"/>
+      <c r="AX28" s="179"/>
+      <c r="AY28" s="179"/>
+      <c r="AZ28" s="179"/>
+      <c r="BA28" s="179"/>
+      <c r="BB28" s="179"/>
+      <c r="BC28" s="179"/>
+      <c r="BD28" s="179"/>
+      <c r="BE28" s="179"/>
+      <c r="BF28" s="179"/>
+      <c r="BG28" s="179"/>
+      <c r="BH28" s="179"/>
+      <c r="BI28" s="179"/>
+      <c r="BJ28" s="179"/>
+      <c r="BK28" s="179"/>
+      <c r="BL28" s="179"/>
+      <c r="BM28" s="179"/>
+      <c r="BN28" s="179"/>
+      <c r="BO28" s="179"/>
+      <c r="BP28" s="179"/>
+      <c r="BQ28" s="179"/>
+      <c r="BR28" s="179"/>
+      <c r="BS28" s="179"/>
+      <c r="BT28" s="179"/>
+      <c r="BU28" s="179"/>
+      <c r="BV28" s="179"/>
+      <c r="BW28" s="179"/>
+      <c r="BX28" s="179"/>
+      <c r="BY28" s="179"/>
+      <c r="BZ28" s="179"/>
+      <c r="CA28" s="179"/>
+      <c r="CB28" s="179"/>
+      <c r="CC28" s="179"/>
+      <c r="CD28" s="179"/>
+      <c r="CE28" s="179"/>
+      <c r="CF28" s="179"/>
+      <c r="CG28" s="179"/>
+      <c r="CH28" s="179"/>
+      <c r="CI28" s="179"/>
+      <c r="CJ28" s="179"/>
+      <c r="CK28" s="179"/>
+      <c r="CL28" s="179"/>
+      <c r="CM28" s="179"/>
+      <c r="CN28" s="179"/>
+      <c r="CO28" s="179"/>
+      <c r="CP28" s="179"/>
+      <c r="CQ28" s="179"/>
+      <c r="CR28" s="179"/>
+      <c r="CS28" s="179"/>
+      <c r="CT28" s="179"/>
+      <c r="CU28" s="179"/>
+      <c r="CV28" s="179"/>
+      <c r="CW28" s="179"/>
+      <c r="CX28" s="179"/>
+      <c r="CY28" s="179"/>
+      <c r="CZ28" s="179"/>
+      <c r="DA28" s="179"/>
+      <c r="DB28" s="179"/>
+      <c r="DC28" s="179"/>
+      <c r="DD28" s="179"/>
+      <c r="DE28" s="179"/>
+      <c r="DF28" s="179"/>
+      <c r="DG28" s="179"/>
+      <c r="DH28" s="179"/>
+      <c r="DI28" s="179"/>
+      <c r="DJ28" s="179"/>
+      <c r="DK28" s="179"/>
+      <c r="DL28" s="179"/>
+      <c r="DM28" s="179"/>
+      <c r="DN28" s="179"/>
+      <c r="DO28" s="179"/>
+      <c r="DP28" s="179"/>
+      <c r="DQ28" s="179"/>
+      <c r="DR28" s="179"/>
+      <c r="DS28" s="179"/>
+      <c r="DT28" s="179"/>
+      <c r="DU28" s="179"/>
+      <c r="DV28" s="179"/>
+      <c r="DW28" s="179"/>
+      <c r="DX28" s="179"/>
+      <c r="DY28" s="179"/>
+      <c r="DZ28" s="179"/>
+      <c r="EA28" s="179"/>
+      <c r="EB28" s="179"/>
+      <c r="EC28" s="179"/>
+      <c r="ED28" s="179"/>
+      <c r="EE28" s="179"/>
+      <c r="EF28" s="179"/>
+      <c r="EG28" s="179"/>
+      <c r="EH28" s="179"/>
+      <c r="EI28" s="179"/>
+      <c r="EJ28" s="179"/>
+      <c r="EK28" s="179"/>
+      <c r="EL28" s="179"/>
+      <c r="EM28" s="179"/>
+      <c r="EN28" s="179"/>
+      <c r="EO28" s="179"/>
+      <c r="EP28" s="179"/>
+      <c r="EQ28" s="179"/>
+      <c r="ER28" s="179"/>
+      <c r="ES28" s="179"/>
+      <c r="ET28" s="179"/>
+      <c r="EU28" s="179"/>
+      <c r="EV28" s="179"/>
+      <c r="EW28" s="179"/>
+      <c r="EX28" s="179"/>
+      <c r="EY28" s="179"/>
+      <c r="EZ28" s="179"/>
+      <c r="FA28" s="179"/>
+      <c r="FB28" s="179"/>
+      <c r="FC28" s="179"/>
+      <c r="FD28" s="179"/>
+      <c r="FE28" s="179"/>
+      <c r="FF28" s="179"/>
+      <c r="FG28" s="179"/>
+      <c r="FH28" s="179"/>
+      <c r="FI28" s="179"/>
+      <c r="FJ28" s="179"/>
+      <c r="FK28" s="179"/>
+      <c r="FL28" s="179"/>
+      <c r="FM28" s="179"/>
+      <c r="FN28" s="179"/>
+      <c r="FO28" s="179"/>
+      <c r="FP28" s="179"/>
+      <c r="FQ28" s="179"/>
+      <c r="FR28" s="179"/>
+      <c r="FS28" s="179"/>
+      <c r="FT28" s="179"/>
+      <c r="FU28" s="179"/>
+      <c r="FV28" s="179"/>
+      <c r="FW28" s="179"/>
+      <c r="FX28" s="179"/>
+      <c r="FY28" s="179"/>
+      <c r="FZ28" s="179"/>
+      <c r="GA28" s="179"/>
+      <c r="GB28" s="179"/>
+      <c r="GC28" s="179"/>
+      <c r="GD28" s="179"/>
+      <c r="GE28" s="179"/>
+      <c r="GF28" s="179"/>
+      <c r="GG28" s="179"/>
+      <c r="GH28" s="179"/>
+      <c r="GI28" s="179"/>
+      <c r="GJ28" s="179"/>
+      <c r="GK28" s="179"/>
+      <c r="GL28" s="179"/>
       <c r="GM28" s="108"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="195"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="195"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="195"/>
-      <c r="O29" s="195"/>
-      <c r="P29" s="195"/>
-      <c r="Q29" s="195"/>
-      <c r="R29" s="195"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="198"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="198"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
@@ -6874,16 +6050,16 @@
       <c r="R30" s="109"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="198"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
@@ -6895,28 +6071,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -6930,6 +6084,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -6956,14 +6132,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="273" t="s">
+      <c r="B1" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -7156,11 +6332,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="274" t="s">
+      <c r="E27" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="275"/>
-      <c r="G27" s="276"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="280"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -7484,10 +6660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7514,8 +6690,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7554,14 +6730,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="120">
@@ -7576,14 +6752,14 @@
       <c r="D5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="207" t="s">
+      <c r="E5" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
     </row>
     <row r="6" spans="1:10" s="151" customFormat="1" ht="12.75">
       <c r="A6" s="150">
@@ -7594,12 +6770,12 @@
       </c>
       <c r="C6" s="157"/>
       <c r="D6" s="73"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="213"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="81">
@@ -7610,12 +6786,12 @@
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="203"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="82">
@@ -7626,12 +6802,12 @@
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="206"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="83">
@@ -7642,12 +6818,12 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="84">
@@ -7658,12 +6834,12 @@
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="85">
@@ -7674,12 +6850,12 @@
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="86">
@@ -7690,12 +6866,12 @@
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="87">
@@ -7706,12 +6882,12 @@
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="203"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="88">
@@ -7722,12 +6898,12 @@
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="203"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -7738,12 +6914,12 @@
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="80">
@@ -7754,12 +6930,12 @@
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="81">
@@ -7770,12 +6946,12 @@
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="82">
@@ -7786,12 +6962,12 @@
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="83">
@@ -7802,12 +6978,12 @@
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="84">
@@ -7818,12 +6994,12 @@
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="85">
@@ -7834,12 +7010,12 @@
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="86">
@@ -7850,12 +7026,12 @@
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="87">
@@ -7866,12 +7042,12 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="212"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="88">
@@ -7882,12 +7058,12 @@
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -7898,12 +7074,12 @@
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -7914,12 +7090,12 @@
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="80">
@@ -7930,12 +7106,12 @@
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="81">
@@ -7946,12 +7122,12 @@
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="82">
@@ -7962,12 +7138,12 @@
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="83">
@@ -7978,12 +7154,12 @@
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="84">
@@ -7994,12 +7170,12 @@
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="85">
@@ -8010,12 +7186,12 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="212"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="86">
@@ -8026,12 +7202,12 @@
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="87">
@@ -8042,12 +7218,12 @@
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
-      <c r="J34" s="212"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="88">
@@ -8058,12 +7234,12 @@
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -8074,12 +7250,12 @@
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="80">
@@ -8090,12 +7266,12 @@
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="212"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="81">
@@ -8106,12 +7282,12 @@
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="82">
@@ -8122,12 +7298,12 @@
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="83">
@@ -8138,12 +7314,12 @@
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="84">
@@ -8154,12 +7330,12 @@
       </c>
       <c r="C41" s="71"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="212"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="85">
@@ -8170,32 +7346,23 @@
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="212"/>
-      <c r="F42" s="212"/>
-      <c r="G42" s="212"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -8211,14 +7378,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -8260,10 +7436,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -8293,8 +7469,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -8324,20 +7500,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213" t="s">
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="214"/>
+      <c r="J4" s="215"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -8348,10 +7524,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="223"/>
+      <c r="J5" s="224"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -8362,8 +7538,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="226"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -8374,8 +7550,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="226"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -8386,8 +7562,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -8398,8 +7574,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225"/>
+      <c r="I9" s="225"/>
+      <c r="J9" s="226"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -8410,8 +7586,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="227"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="228"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -8422,10 +7598,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="213" t="s">
+      <c r="I11" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="214"/>
+      <c r="J11" s="215"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -8436,10 +7612,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="216" t="s">
+      <c r="I12" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="217"/>
+      <c r="J12" s="218"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -8450,8 +7626,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -8462,8 +7638,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -8474,8 +7650,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -8486,8 +7662,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -8498,8 +7674,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -8510,8 +7686,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -8522,8 +7698,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -8534,8 +7710,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -8546,8 +7722,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -8558,8 +7734,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="220"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -8570,8 +7746,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -8582,8 +7758,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="220"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -8594,8 +7770,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="220"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -8606,8 +7782,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="220"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -8618,8 +7794,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="220"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -8630,8 +7806,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="220"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -8642,8 +7818,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="220"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -8654,8 +7830,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -8666,8 +7842,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="220"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -8678,8 +7854,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="220"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -8690,8 +7866,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="220"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -8702,8 +7878,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="220"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -8714,8 +7890,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="220"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -8726,8 +7902,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -8738,8 +7914,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="220"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -8750,8 +7926,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="220"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -8762,8 +7938,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="220"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -8774,8 +7950,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="220"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -8786,8 +7962,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="220"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -8798,8 +7974,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="220"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -8810,8 +7986,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="220"/>
-      <c r="J43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8869,13 +8045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8883,15 +8059,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="228" t="s">
+      <c r="H1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="229"/>
-      <c r="J1" s="230" t="s">
+      <c r="I1" s="230"/>
+      <c r="J1" s="231" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="231"/>
-      <c r="L1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="233"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -8908,11 +8084,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -8920,16 +8096,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="H2" s="228" t="s">
+      <c r="H2" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="229"/>
-      <c r="J2" s="230" t="str">
+      <c r="I2" s="230"/>
+      <c r="J2" s="231" t="str">
         <f>'Update History'!F2</f>
         <v xml:space="preserve">Xác nhận thủ quỹ </v>
       </c>
-      <c r="K2" s="231"/>
-      <c r="L2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="233"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -10074,8 +9250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10100,7 +9276,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="110"/>
@@ -10137,7 +9313,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="245"/>
+      <c r="A2" s="239"/>
       <c r="B2" s="111"/>
       <c r="C2" s="145"/>
       <c r="D2" s="31" t="s">
@@ -10190,15 +9366,15 @@
       <c r="F4" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="242" t="s">
+      <c r="G4" s="234" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242" t="s">
+      <c r="H4" s="234"/>
+      <c r="I4" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="35">
@@ -10215,15 +9391,15 @@
         <v>204</v>
       </c>
       <c r="F5" s="159"/>
-      <c r="G5" s="243" t="s">
+      <c r="G5" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="246" t="s">
+      <c r="H5" s="213"/>
+      <c r="I5" s="240" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="247"/>
-      <c r="K5" s="248"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="242"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="140">
@@ -10234,11 +9410,11 @@
       <c r="D6" s="27"/>
       <c r="E6" s="142"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="237"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="140">
@@ -10249,13 +9425,13 @@
       <c r="D7" s="27"/>
       <c r="E7" s="142"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="237"/>
-    </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="G7" s="248"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="245"/>
+    </row>
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="140">
         <v>4</v>
       </c>
@@ -10264,13 +9440,13 @@
       <c r="D8" s="27"/>
       <c r="E8" s="141"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="237"/>
-    </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="24.75" customHeight="1">
+      <c r="G8" s="236"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="245"/>
+    </row>
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="140">
         <v>5</v>
       </c>
@@ -10279,13 +9455,13 @@
       <c r="D9" s="27"/>
       <c r="E9" s="141"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
-    </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="G9" s="236"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="245"/>
+    </row>
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A10" s="140">
         <v>6</v>
       </c>
@@ -10294,13 +9470,13 @@
       <c r="D10" s="27"/>
       <c r="E10" s="142"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
-    </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="28.5" customHeight="1">
+      <c r="G10" s="236"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
+    </row>
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A11" s="140">
         <v>7</v>
       </c>
@@ -10309,11 +9485,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="141"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="245"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="125">
@@ -10324,13 +9500,13 @@
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="133"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="37.5" customHeight="1">
+      <c r="G12" s="246"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="125">
         <v>9</v>
       </c>
@@ -10339,13 +9515,13 @@
       <c r="D13" s="125"/>
       <c r="E13" s="130"/>
       <c r="F13" s="133"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="237"/>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1">
+      <c r="G13" s="246"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="245"/>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="11.25">
       <c r="A14" s="125">
         <v>10</v>
       </c>
@@ -10354,11 +9530,11 @@
       <c r="D14" s="125"/>
       <c r="E14" s="125"/>
       <c r="F14" s="133"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="237"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="245"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="125">
@@ -10369,11 +9545,11 @@
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
       <c r="F15" s="133"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="237"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="125">
@@ -10384,11 +9560,11 @@
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
       <c r="F16" s="133"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="245"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="125">
@@ -10399,11 +9575,11 @@
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
       <c r="F17" s="133"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="244"/>
+      <c r="K17" s="245"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="125">
@@ -10414,11 +9590,11 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="133"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="237"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="245"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A19" s="125">
@@ -10429,11 +9605,11 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="133"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="245"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="125">
@@ -10444,11 +9620,11 @@
       <c r="D20" s="125"/>
       <c r="E20" s="125"/>
       <c r="F20" s="133"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="245"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="125">
@@ -10459,11 +9635,11 @@
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
       <c r="F21" s="133"/>
-      <c r="G21" s="238"/>
-      <c r="H21" s="239"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="237"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="245"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="125">
@@ -10474,11 +9650,11 @@
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="133"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="239"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="237"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="245"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="11.25">
       <c r="A23" s="125">
@@ -10489,11 +9665,11 @@
       <c r="D23" s="125"/>
       <c r="E23" s="125"/>
       <c r="F23" s="133"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="237"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="245"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="125">
@@ -10504,11 +9680,11 @@
       <c r="D24" s="125"/>
       <c r="E24" s="125"/>
       <c r="F24" s="133"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="236"/>
-      <c r="K24" s="237"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="245"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="125">
@@ -10519,11 +9695,11 @@
       <c r="D25" s="125"/>
       <c r="E25" s="125"/>
       <c r="F25" s="133"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="244"/>
+      <c r="K25" s="245"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="125">
@@ -10534,11 +9710,11 @@
       <c r="D26" s="125"/>
       <c r="E26" s="125"/>
       <c r="F26" s="133"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="125">
@@ -10549,11 +9725,11 @@
       <c r="D27" s="125"/>
       <c r="E27" s="125"/>
       <c r="F27" s="133"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="237"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="245"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="125">
@@ -10564,11 +9740,11 @@
       <c r="D28" s="125"/>
       <c r="E28" s="125"/>
       <c r="F28" s="133"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="235"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="237"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
+      <c r="K28" s="245"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="125">
@@ -10579,11 +9755,11 @@
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
       <c r="F29" s="133"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="243"/>
+      <c r="J29" s="244"/>
+      <c r="K29" s="245"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="125">
@@ -10594,11 +9770,11 @@
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
       <c r="F30" s="133"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="235"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="237"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="243"/>
+      <c r="J30" s="244"/>
+      <c r="K30" s="245"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="125">
@@ -10609,11 +9785,11 @@
       <c r="D31" s="125"/>
       <c r="E31" s="125"/>
       <c r="F31" s="133"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="235"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="237"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="245"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="125">
@@ -10624,11 +9800,11 @@
       <c r="D32" s="125"/>
       <c r="E32" s="125"/>
       <c r="F32" s="133"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="237"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="243"/>
+      <c r="J32" s="244"/>
+      <c r="K32" s="245"/>
     </row>
     <row r="33" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A33" s="125">
@@ -10639,11 +9815,11 @@
       <c r="D33" s="125"/>
       <c r="E33" s="125"/>
       <c r="F33" s="133"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="244"/>
+      <c r="K33" s="245"/>
     </row>
     <row r="34" spans="1:19" ht="11.25">
       <c r="A34" s="125">
@@ -10654,11 +9830,11 @@
       <c r="D34" s="125"/>
       <c r="E34" s="125"/>
       <c r="F34" s="133"/>
-      <c r="G34" s="233"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="237"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="243"/>
+      <c r="J34" s="244"/>
+      <c r="K34" s="245"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -10676,11 +9852,11 @@
       <c r="D35" s="125"/>
       <c r="E35" s="125"/>
       <c r="F35" s="133"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="235"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="237"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="251"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="245"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -10698,11 +9874,11 @@
       <c r="D36" s="125"/>
       <c r="E36" s="125"/>
       <c r="F36" s="133"/>
-      <c r="G36" s="233"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="235"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="237"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="251"/>
+      <c r="I36" s="243"/>
+      <c r="J36" s="244"/>
+      <c r="K36" s="245"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -10720,11 +9896,11 @@
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
       <c r="F37" s="133"/>
-      <c r="G37" s="233"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="235"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="237"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="251"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="244"/>
+      <c r="K37" s="245"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -10742,11 +9918,11 @@
       <c r="D38" s="125"/>
       <c r="E38" s="125"/>
       <c r="F38" s="133"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="235"/>
-      <c r="J38" s="236"/>
-      <c r="K38" s="237"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="251"/>
+      <c r="I38" s="243"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="245"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -10764,11 +9940,11 @@
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="133"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="235"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="251"/>
+      <c r="I39" s="243"/>
+      <c r="J39" s="244"/>
+      <c r="K39" s="245"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -10786,11 +9962,11 @@
       <c r="D40" s="125"/>
       <c r="E40" s="125"/>
       <c r="F40" s="133"/>
-      <c r="G40" s="233"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="235"/>
-      <c r="J40" s="236"/>
-      <c r="K40" s="237"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="243"/>
+      <c r="J40" s="244"/>
+      <c r="K40" s="245"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -10808,11 +9984,11 @@
       <c r="D41" s="125"/>
       <c r="E41" s="125"/>
       <c r="F41" s="133"/>
-      <c r="G41" s="233"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="235"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="237"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="251"/>
+      <c r="I41" s="243"/>
+      <c r="J41" s="244"/>
+      <c r="K41" s="245"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -10830,11 +10006,11 @@
       <c r="D42" s="125"/>
       <c r="E42" s="125"/>
       <c r="F42" s="133"/>
-      <c r="G42" s="233"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="237"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="251"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="244"/>
+      <c r="K42" s="245"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10852,11 +10028,11 @@
       <c r="D43" s="125"/>
       <c r="E43" s="125"/>
       <c r="F43" s="133"/>
-      <c r="G43" s="233"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="235"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="237"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="251"/>
+      <c r="I43" s="243"/>
+      <c r="J43" s="244"/>
+      <c r="K43" s="245"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10874,11 +10050,11 @@
       <c r="D44" s="125"/>
       <c r="E44" s="125"/>
       <c r="F44" s="133"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="237"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="251"/>
+      <c r="I44" s="243"/>
+      <c r="J44" s="244"/>
+      <c r="K44" s="245"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10896,11 +10072,11 @@
       <c r="D45" s="125"/>
       <c r="E45" s="125"/>
       <c r="F45" s="133"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="235"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="237"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="251"/>
+      <c r="I45" s="243"/>
+      <c r="J45" s="244"/>
+      <c r="K45" s="245"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10918,11 +10094,11 @@
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="133"/>
-      <c r="G46" s="233"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="235"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="237"/>
+      <c r="G46" s="250"/>
+      <c r="H46" s="251"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="244"/>
+      <c r="K46" s="245"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10940,11 +10116,11 @@
       <c r="D47" s="125"/>
       <c r="E47" s="125"/>
       <c r="F47" s="133"/>
-      <c r="G47" s="233"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="237"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="251"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
+      <c r="K47" s="245"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10962,11 +10138,11 @@
       <c r="D48" s="125"/>
       <c r="E48" s="125"/>
       <c r="F48" s="133"/>
-      <c r="G48" s="233"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="237"/>
+      <c r="G48" s="250"/>
+      <c r="H48" s="251"/>
+      <c r="I48" s="243"/>
+      <c r="J48" s="244"/>
+      <c r="K48" s="245"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10984,11 +10160,11 @@
       <c r="D49" s="125"/>
       <c r="E49" s="125"/>
       <c r="F49" s="133"/>
-      <c r="G49" s="233"/>
-      <c r="H49" s="234"/>
-      <c r="I49" s="235"/>
-      <c r="J49" s="236"/>
-      <c r="K49" s="237"/>
+      <c r="G49" s="250"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="244"/>
+      <c r="K49" s="245"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -11006,11 +10182,11 @@
       <c r="D50" s="125"/>
       <c r="E50" s="125"/>
       <c r="F50" s="133"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="234"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="236"/>
-      <c r="K50" s="237"/>
+      <c r="G50" s="250"/>
+      <c r="H50" s="251"/>
+      <c r="I50" s="243"/>
+      <c r="J50" s="244"/>
+      <c r="K50" s="245"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -11028,11 +10204,11 @@
       <c r="D51" s="125"/>
       <c r="E51" s="125"/>
       <c r="F51" s="133"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="237"/>
+      <c r="G51" s="250"/>
+      <c r="H51" s="251"/>
+      <c r="I51" s="243"/>
+      <c r="J51" s="244"/>
+      <c r="K51" s="245"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -11050,11 +10226,11 @@
       <c r="D52" s="125"/>
       <c r="E52" s="125"/>
       <c r="F52" s="133"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="234"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="237"/>
+      <c r="G52" s="250"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="243"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="245"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -11072,11 +10248,11 @@
       <c r="D53" s="125"/>
       <c r="E53" s="125"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="235"/>
-      <c r="J53" s="236"/>
-      <c r="K53" s="237"/>
+      <c r="G53" s="250"/>
+      <c r="H53" s="251"/>
+      <c r="I53" s="243"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="245"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -11094,11 +10270,11 @@
       <c r="D54" s="125"/>
       <c r="E54" s="125"/>
       <c r="F54" s="133"/>
-      <c r="G54" s="233"/>
-      <c r="H54" s="234"/>
-      <c r="I54" s="235"/>
-      <c r="J54" s="236"/>
-      <c r="K54" s="237"/>
+      <c r="G54" s="250"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="244"/>
+      <c r="K54" s="245"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -11116,11 +10292,11 @@
       <c r="D55" s="125"/>
       <c r="E55" s="125"/>
       <c r="F55" s="133"/>
-      <c r="G55" s="233"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="235"/>
-      <c r="J55" s="236"/>
-      <c r="K55" s="237"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="251"/>
+      <c r="I55" s="243"/>
+      <c r="J55" s="244"/>
+      <c r="K55" s="245"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -11138,11 +10314,11 @@
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="133"/>
-      <c r="G56" s="233"/>
-      <c r="H56" s="234"/>
-      <c r="I56" s="235"/>
-      <c r="J56" s="236"/>
-      <c r="K56" s="237"/>
+      <c r="G56" s="250"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="243"/>
+      <c r="J56" s="244"/>
+      <c r="K56" s="245"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -11160,11 +10336,11 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="133"/>
-      <c r="G57" s="233"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="235"/>
-      <c r="J57" s="236"/>
-      <c r="K57" s="237"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="251"/>
+      <c r="I57" s="243"/>
+      <c r="J57" s="244"/>
+      <c r="K57" s="245"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -11182,11 +10358,11 @@
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="133"/>
-      <c r="G58" s="233"/>
-      <c r="H58" s="234"/>
-      <c r="I58" s="235"/>
-      <c r="J58" s="236"/>
-      <c r="K58" s="237"/>
+      <c r="G58" s="250"/>
+      <c r="H58" s="251"/>
+      <c r="I58" s="243"/>
+      <c r="J58" s="244"/>
+      <c r="K58" s="245"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -11198,29 +10374,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="111">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -11235,80 +10462,29 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F58">
@@ -12346,10 +11522,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048467"/>
+  <dimension ref="A1:AN1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="124" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="124" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12376,25 +11552,25 @@
     <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="254" t="str">
+      <c r="J1" s="258" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="254"/>
+      <c r="K1" s="258"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -12421,23 +11597,23 @@
       <c r="T1" s="52"/>
       <c r="U1" s="52"/>
     </row>
-    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
+    <row r="2" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="254" t="str">
+      <c r="J2" s="258" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - T</v>
       </c>
-      <c r="K2" s="254"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="26" t="s">
         <v>48</v>
       </c>
@@ -12463,7 +11639,7 @@
       <c r="T2" s="52"/>
       <c r="U2" s="52"/>
     </row>
-    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:40" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="134" t="s">
         <v>43</v>
       </c>
@@ -12494,12 +11670,12 @@
       <c r="J4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="255" t="s">
+      <c r="K4" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="257"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="261"/>
       <c r="O4" s="134" t="s">
         <v>55</v>
       </c>
@@ -12516,7 +11692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="121" customFormat="1" ht="81" customHeight="1">
+    <row r="5" spans="1:40" s="121" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="146">
         <v>1</v>
       </c>
@@ -12543,12 +11719,12 @@
       <c r="J5" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="267" t="s">
+      <c r="K5" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="268"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="269"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="273"/>
       <c r="O5" s="162" t="s">
         <v>191</v>
       </c>
@@ -12565,7 +11741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="121" customFormat="1" ht="57.75" customHeight="1">
+    <row r="6" spans="1:40" s="121" customFormat="1" ht="57.75" customHeight="1">
       <c r="A6" s="153">
         <v>2</v>
       </c>
@@ -12594,12 +11770,12 @@
       <c r="J6" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="261" t="s">
+      <c r="K6" s="265" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="263"/>
+      <c r="L6" s="266"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
       <c r="O6" s="164" t="s">
         <v>207</v>
       </c>
@@ -12613,10 +11789,10 @@
         <v>181</v>
       </c>
       <c r="S6" s="154" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="121" customFormat="1" ht="172.5" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="121" customFormat="1" ht="172.5" customHeight="1">
       <c r="A7" s="146">
         <v>3</v>
       </c>
@@ -12645,12 +11821,12 @@
       <c r="J7" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="258" t="s">
+      <c r="K7" s="262" t="s">
         <v>209</v>
       </c>
-      <c r="L7" s="259"/>
-      <c r="M7" s="259"/>
-      <c r="N7" s="260"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="264"/>
       <c r="O7" s="166" t="s">
         <v>202</v>
       </c>
@@ -12664,109 +11840,96 @@
         <v>181</v>
       </c>
       <c r="S7" s="167" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="159" customFormat="1" ht="50.25" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="159" customFormat="1" ht="11.25">
       <c r="A8" s="176">
         <v>4</v>
       </c>
-      <c r="B8" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="176">
-        <v>51</v>
-      </c>
-      <c r="D8" s="159" t="s">
-        <v>179</v>
-      </c>
+      <c r="B8" s="146"/>
+      <c r="C8" s="176"/>
       <c r="E8" s="73"/>
-      <c r="G8" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="162" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="267" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="175" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="175" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>166</v>
-      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-    </row>
-    <row r="9" spans="1:21" s="32" customFormat="1" ht="57" customHeight="1">
+      <c r="S8" s="281"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="284"/>
+      <c r="W8" s="284"/>
+      <c r="X8" s="284"/>
+      <c r="Y8" s="284"/>
+      <c r="Z8" s="284"/>
+      <c r="AA8" s="284"/>
+      <c r="AB8" s="284"/>
+      <c r="AC8" s="284"/>
+      <c r="AD8" s="284"/>
+      <c r="AE8" s="284"/>
+      <c r="AF8" s="284"/>
+      <c r="AG8" s="284"/>
+      <c r="AH8" s="284"/>
+      <c r="AI8" s="284"/>
+      <c r="AJ8" s="284"/>
+      <c r="AK8" s="284"/>
+      <c r="AL8" s="284"/>
+      <c r="AM8" s="284"/>
+      <c r="AN8" s="284"/>
+    </row>
+    <row r="9" spans="1:40" s="32" customFormat="1" ht="11.25">
       <c r="A9" s="146">
         <v>5</v>
       </c>
-      <c r="B9" s="146" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="176">
-        <v>51</v>
-      </c>
-      <c r="D9" s="159" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>216</v>
-      </c>
+      <c r="B9" s="146"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="159"/>
-      <c r="G9" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="162" t="s">
-        <v>218</v>
-      </c>
-      <c r="K9" s="277" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="278"/>
-      <c r="M9" s="278"/>
-      <c r="N9" s="279"/>
-      <c r="O9" s="175" t="s">
-        <v>215</v>
-      </c>
-      <c r="P9" s="175" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>166</v>
-      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-    </row>
-    <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="S9" s="281"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+    </row>
+    <row r="10" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="176">
         <v>6</v>
       </c>
@@ -12779,19 +11942,38 @@
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
       <c r="J10" s="171"/>
-      <c r="K10" s="264"/>
-      <c r="L10" s="265"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="266"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="270"/>
       <c r="O10" s="172"/>
       <c r="P10" s="172"/>
       <c r="Q10" s="173"/>
       <c r="R10" s="174"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-    </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="S10" s="282"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+    </row>
+    <row r="11" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="146">
         <v>7</v>
       </c>
@@ -12804,19 +11986,38 @@
       <c r="H11" s="136"/>
       <c r="I11" s="136"/>
       <c r="J11" s="135"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="253"/>
+      <c r="K11" s="255"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="257"/>
       <c r="O11" s="127"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="138"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-    </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="S11" s="177"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+    </row>
+    <row r="12" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="176">
         <v>8</v>
       </c>
@@ -12829,10 +12030,10 @@
       <c r="H12" s="136"/>
       <c r="I12" s="136"/>
       <c r="J12" s="135"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="253"/>
+      <c r="K12" s="255"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="257"/>
       <c r="O12" s="127"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="137"/>
@@ -12841,7 +12042,7 @@
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:40" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="146">
         <v>9</v>
       </c>
@@ -12854,10 +12055,10 @@
       <c r="H13" s="136"/>
       <c r="I13" s="136"/>
       <c r="J13" s="135"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="253"/>
+      <c r="K13" s="255"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="257"/>
       <c r="O13" s="127"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="137"/>
@@ -12866,7 +12067,7 @@
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
     </row>
-    <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="176">
         <v>10</v>
       </c>
@@ -12879,10 +12080,10 @@
       <c r="H14" s="136"/>
       <c r="I14" s="136"/>
       <c r="J14" s="135"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="253"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="257"/>
       <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="137"/>
@@ -12891,7 +12092,7 @@
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
     </row>
-    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="146">
         <v>11</v>
       </c>
@@ -12904,10 +12105,10 @@
       <c r="H15" s="136"/>
       <c r="I15" s="136"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="252"/>
-      <c r="N15" s="253"/>
+      <c r="K15" s="255"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="257"/>
       <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="137"/>
@@ -12916,7 +12117,7 @@
       <c r="T15" s="63"/>
       <c r="U15" s="63"/>
     </row>
-    <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:40" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="176">
         <v>12</v>
       </c>
@@ -12929,10 +12130,10 @@
       <c r="H16" s="136"/>
       <c r="I16" s="136"/>
       <c r="J16" s="128"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="253"/>
+      <c r="K16" s="255"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="257"/>
       <c r="O16" s="127"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="137"/>
@@ -12954,10 +12155,10 @@
       <c r="H17" s="136"/>
       <c r="I17" s="136"/>
       <c r="J17" s="128"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="253"/>
+      <c r="K17" s="255"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="257"/>
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="137"/>
@@ -12979,10 +12180,10 @@
       <c r="H18" s="136"/>
       <c r="I18" s="136"/>
       <c r="J18" s="128"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="253"/>
+      <c r="K18" s="255"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="257"/>
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="137"/>
@@ -13004,10 +12205,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="128"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="253"/>
+      <c r="K19" s="255"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="257"/>
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
       <c r="Q19" s="137"/>
@@ -13029,10 +12230,10 @@
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="128"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="253"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="256"/>
+      <c r="M20" s="256"/>
+      <c r="N20" s="257"/>
       <c r="O20" s="131"/>
       <c r="P20" s="131"/>
       <c r="Q20" s="137"/>
@@ -13054,10 +12255,10 @@
       <c r="H21" s="136"/>
       <c r="I21" s="136"/>
       <c r="J21" s="128"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="253"/>
+      <c r="K21" s="255"/>
+      <c r="L21" s="256"/>
+      <c r="M21" s="256"/>
+      <c r="N21" s="257"/>
       <c r="O21" s="131"/>
       <c r="P21" s="131"/>
       <c r="Q21" s="137"/>
@@ -13079,10 +12280,10 @@
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="253"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="257"/>
       <c r="O22" s="131"/>
       <c r="P22" s="131"/>
       <c r="Q22" s="137"/>
@@ -13104,10 +12305,10 @@
       <c r="H23" s="136"/>
       <c r="I23" s="136"/>
       <c r="J23" s="128"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="253"/>
+      <c r="K23" s="255"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="257"/>
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
       <c r="Q23" s="137"/>
@@ -13129,10 +12330,10 @@
       <c r="H24" s="136"/>
       <c r="I24" s="136"/>
       <c r="J24" s="128"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="252"/>
-      <c r="N24" s="253"/>
+      <c r="K24" s="255"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="257"/>
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
       <c r="Q24" s="137"/>
@@ -13154,10 +12355,10 @@
       <c r="H25" s="136"/>
       <c r="I25" s="136"/>
       <c r="J25" s="128"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="253"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="256"/>
+      <c r="M25" s="256"/>
+      <c r="N25" s="257"/>
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
       <c r="Q25" s="137"/>
@@ -13179,10 +12380,10 @@
       <c r="H26" s="136"/>
       <c r="I26" s="136"/>
       <c r="J26" s="128"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="252"/>
-      <c r="N26" s="253"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="256"/>
+      <c r="M26" s="256"/>
+      <c r="N26" s="257"/>
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
       <c r="Q26" s="137"/>
@@ -13204,10 +12405,10 @@
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
       <c r="J27" s="128"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="252"/>
-      <c r="N27" s="253"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
+      <c r="N27" s="257"/>
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
       <c r="Q27" s="137"/>
@@ -13229,10 +12430,10 @@
       <c r="H28" s="136"/>
       <c r="I28" s="136"/>
       <c r="J28" s="128"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="252"/>
-      <c r="N28" s="253"/>
+      <c r="K28" s="255"/>
+      <c r="L28" s="256"/>
+      <c r="M28" s="256"/>
+      <c r="N28" s="257"/>
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
       <c r="Q28" s="137"/>
@@ -13254,10 +12455,10 @@
       <c r="H29" s="136"/>
       <c r="I29" s="136"/>
       <c r="J29" s="128"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="252"/>
-      <c r="N29" s="253"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="256"/>
+      <c r="M29" s="256"/>
+      <c r="N29" s="257"/>
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
       <c r="Q29" s="137"/>
@@ -13279,10 +12480,10 @@
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
       <c r="J30" s="128"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="252"/>
-      <c r="N30" s="253"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="256"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="257"/>
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
       <c r="Q30" s="137"/>
@@ -13304,10 +12505,10 @@
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="128"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="252"/>
-      <c r="N31" s="253"/>
+      <c r="K31" s="255"/>
+      <c r="L31" s="256"/>
+      <c r="M31" s="256"/>
+      <c r="N31" s="257"/>
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="137"/>
@@ -13329,10 +12530,10 @@
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="252"/>
-      <c r="N32" s="253"/>
+      <c r="K32" s="255"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="256"/>
+      <c r="N32" s="257"/>
       <c r="O32" s="131"/>
       <c r="P32" s="131"/>
       <c r="Q32" s="137"/>
@@ -13354,10 +12555,10 @@
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="128"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="252"/>
-      <c r="N33" s="253"/>
+      <c r="K33" s="255"/>
+      <c r="L33" s="256"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="257"/>
       <c r="O33" s="131"/>
       <c r="P33" s="131"/>
       <c r="Q33" s="137"/>
@@ -13379,10 +12580,10 @@
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="135"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="252"/>
-      <c r="N34" s="253"/>
+      <c r="K34" s="255"/>
+      <c r="L34" s="256"/>
+      <c r="M34" s="256"/>
+      <c r="N34" s="257"/>
       <c r="O34" s="127"/>
       <c r="P34" s="127"/>
       <c r="Q34" s="137"/>
@@ -13404,10 +12605,10 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="128"/>
-      <c r="K35" s="251"/>
-      <c r="L35" s="252"/>
-      <c r="M35" s="252"/>
-      <c r="N35" s="253"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="256"/>
+      <c r="N35" s="257"/>
       <c r="O35" s="131"/>
       <c r="P35" s="131"/>
       <c r="Q35" s="137"/>
@@ -13429,10 +12630,10 @@
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="128"/>
-      <c r="K36" s="251"/>
-      <c r="L36" s="252"/>
-      <c r="M36" s="252"/>
-      <c r="N36" s="253"/>
+      <c r="K36" s="255"/>
+      <c r="L36" s="256"/>
+      <c r="M36" s="256"/>
+      <c r="N36" s="257"/>
       <c r="O36" s="131"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="137"/>
@@ -13454,10 +12655,10 @@
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="128"/>
-      <c r="K37" s="251"/>
-      <c r="L37" s="252"/>
-      <c r="M37" s="252"/>
-      <c r="N37" s="253"/>
+      <c r="K37" s="255"/>
+      <c r="L37" s="256"/>
+      <c r="M37" s="256"/>
+      <c r="N37" s="257"/>
       <c r="O37" s="131"/>
       <c r="P37" s="131"/>
       <c r="Q37" s="137"/>
@@ -13479,10 +12680,10 @@
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="128"/>
-      <c r="K38" s="251"/>
-      <c r="L38" s="252"/>
-      <c r="M38" s="252"/>
-      <c r="N38" s="253"/>
+      <c r="K38" s="255"/>
+      <c r="L38" s="256"/>
+      <c r="M38" s="256"/>
+      <c r="N38" s="257"/>
       <c r="O38" s="131"/>
       <c r="P38" s="131"/>
       <c r="Q38" s="137"/>
@@ -13504,10 +12705,10 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="128"/>
-      <c r="K39" s="251"/>
-      <c r="L39" s="252"/>
-      <c r="M39" s="252"/>
-      <c r="N39" s="253"/>
+      <c r="K39" s="255"/>
+      <c r="L39" s="256"/>
+      <c r="M39" s="256"/>
+      <c r="N39" s="257"/>
       <c r="O39" s="131"/>
       <c r="P39" s="131"/>
       <c r="Q39" s="137"/>
@@ -13529,10 +12730,10 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="128"/>
-      <c r="K40" s="251"/>
-      <c r="L40" s="252"/>
-      <c r="M40" s="252"/>
-      <c r="N40" s="253"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="256"/>
+      <c r="M40" s="256"/>
+      <c r="N40" s="257"/>
       <c r="O40" s="131"/>
       <c r="P40" s="131"/>
       <c r="Q40" s="137"/>
@@ -13554,10 +12755,10 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="128"/>
-      <c r="K41" s="251"/>
-      <c r="L41" s="252"/>
-      <c r="M41" s="252"/>
-      <c r="N41" s="253"/>
+      <c r="K41" s="255"/>
+      <c r="L41" s="256"/>
+      <c r="M41" s="256"/>
+      <c r="N41" s="257"/>
       <c r="O41" s="131"/>
       <c r="P41" s="131"/>
       <c r="Q41" s="137"/>
@@ -13579,10 +12780,10 @@
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="128"/>
-      <c r="K42" s="251"/>
-      <c r="L42" s="252"/>
-      <c r="M42" s="252"/>
-      <c r="N42" s="253"/>
+      <c r="K42" s="255"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
       <c r="O42" s="131"/>
       <c r="P42" s="131"/>
       <c r="Q42" s="137"/>
@@ -13604,10 +12805,10 @@
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="128"/>
-      <c r="K43" s="251"/>
-      <c r="L43" s="252"/>
-      <c r="M43" s="252"/>
-      <c r="N43" s="253"/>
+      <c r="K43" s="255"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="256"/>
+      <c r="N43" s="257"/>
       <c r="O43" s="131"/>
       <c r="P43" s="131"/>
       <c r="Q43" s="137"/>
@@ -13629,10 +12830,10 @@
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="128"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="252"/>
-      <c r="M44" s="252"/>
-      <c r="N44" s="253"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="256"/>
+      <c r="M44" s="256"/>
+      <c r="N44" s="257"/>
       <c r="O44" s="131"/>
       <c r="P44" s="131"/>
       <c r="Q44" s="137"/>
@@ -13654,10 +12855,10 @@
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="128"/>
-      <c r="K45" s="251"/>
-      <c r="L45" s="252"/>
-      <c r="M45" s="252"/>
-      <c r="N45" s="253"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="256"/>
+      <c r="N45" s="257"/>
       <c r="O45" s="131"/>
       <c r="P45" s="131"/>
       <c r="Q45" s="137"/>
@@ -13679,10 +12880,10 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="128"/>
-      <c r="K46" s="251"/>
-      <c r="L46" s="252"/>
-      <c r="M46" s="252"/>
-      <c r="N46" s="253"/>
+      <c r="K46" s="255"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="256"/>
+      <c r="N46" s="257"/>
       <c r="O46" s="131"/>
       <c r="P46" s="131"/>
       <c r="Q46" s="137"/>
@@ -13704,10 +12905,10 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="128"/>
-      <c r="K47" s="251"/>
-      <c r="L47" s="252"/>
-      <c r="M47" s="252"/>
-      <c r="N47" s="253"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="256"/>
+      <c r="M47" s="256"/>
+      <c r="N47" s="257"/>
       <c r="O47" s="131"/>
       <c r="P47" s="131"/>
       <c r="Q47" s="137"/>
@@ -13729,10 +12930,10 @@
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="128"/>
-      <c r="K48" s="251"/>
-      <c r="L48" s="252"/>
-      <c r="M48" s="252"/>
-      <c r="N48" s="253"/>
+      <c r="K48" s="255"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="256"/>
+      <c r="N48" s="257"/>
       <c r="O48" s="131"/>
       <c r="P48" s="131"/>
       <c r="Q48" s="137"/>
@@ -13754,10 +12955,10 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="128"/>
-      <c r="K49" s="251"/>
-      <c r="L49" s="252"/>
-      <c r="M49" s="252"/>
-      <c r="N49" s="253"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="256"/>
+      <c r="N49" s="257"/>
       <c r="O49" s="131"/>
       <c r="P49" s="131"/>
       <c r="Q49" s="137"/>
@@ -13779,10 +12980,10 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="128"/>
-      <c r="K50" s="251"/>
-      <c r="L50" s="252"/>
-      <c r="M50" s="252"/>
-      <c r="N50" s="253"/>
+      <c r="K50" s="255"/>
+      <c r="L50" s="256"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="257"/>
       <c r="O50" s="131"/>
       <c r="P50" s="131"/>
       <c r="Q50" s="137"/>
@@ -13804,10 +13005,10 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="128"/>
-      <c r="K51" s="251"/>
-      <c r="L51" s="252"/>
-      <c r="M51" s="252"/>
-      <c r="N51" s="253"/>
+      <c r="K51" s="255"/>
+      <c r="L51" s="256"/>
+      <c r="M51" s="256"/>
+      <c r="N51" s="257"/>
       <c r="O51" s="131"/>
       <c r="P51" s="131"/>
       <c r="Q51" s="137"/>
@@ -13829,10 +13030,10 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="128"/>
-      <c r="K52" s="251"/>
-      <c r="L52" s="252"/>
-      <c r="M52" s="252"/>
-      <c r="N52" s="253"/>
+      <c r="K52" s="255"/>
+      <c r="L52" s="256"/>
+      <c r="M52" s="256"/>
+      <c r="N52" s="257"/>
       <c r="O52" s="131"/>
       <c r="P52" s="131"/>
       <c r="Q52" s="137"/>
@@ -13854,10 +13055,10 @@
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="128"/>
-      <c r="K53" s="251"/>
-      <c r="L53" s="252"/>
-      <c r="M53" s="252"/>
-      <c r="N53" s="253"/>
+      <c r="K53" s="255"/>
+      <c r="L53" s="256"/>
+      <c r="M53" s="256"/>
+      <c r="N53" s="257"/>
       <c r="O53" s="131"/>
       <c r="P53" s="131"/>
       <c r="Q53" s="137"/>
@@ -13879,10 +13080,10 @@
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="128"/>
-      <c r="K54" s="251"/>
-      <c r="L54" s="252"/>
-      <c r="M54" s="252"/>
-      <c r="N54" s="253"/>
+      <c r="K54" s="255"/>
+      <c r="L54" s="256"/>
+      <c r="M54" s="256"/>
+      <c r="N54" s="257"/>
       <c r="O54" s="131"/>
       <c r="P54" s="131"/>
       <c r="Q54" s="137"/>
@@ -13904,10 +13105,10 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="128"/>
-      <c r="K55" s="251"/>
-      <c r="L55" s="252"/>
-      <c r="M55" s="252"/>
-      <c r="N55" s="253"/>
+      <c r="K55" s="255"/>
+      <c r="L55" s="256"/>
+      <c r="M55" s="256"/>
+      <c r="N55" s="257"/>
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="137"/>
@@ -13929,10 +13130,10 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="128"/>
-      <c r="K56" s="251"/>
-      <c r="L56" s="252"/>
-      <c r="M56" s="252"/>
-      <c r="N56" s="253"/>
+      <c r="K56" s="255"/>
+      <c r="L56" s="256"/>
+      <c r="M56" s="256"/>
+      <c r="N56" s="257"/>
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="137"/>
@@ -13954,10 +13155,10 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="128"/>
-      <c r="K57" s="251"/>
-      <c r="L57" s="252"/>
-      <c r="M57" s="252"/>
-      <c r="N57" s="253"/>
+      <c r="K57" s="255"/>
+      <c r="L57" s="256"/>
+      <c r="M57" s="256"/>
+      <c r="N57" s="257"/>
       <c r="O57" s="131"/>
       <c r="P57" s="131"/>
       <c r="Q57" s="137"/>
@@ -13979,10 +13180,10 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="128"/>
-      <c r="K58" s="251"/>
-      <c r="L58" s="252"/>
-      <c r="M58" s="252"/>
-      <c r="N58" s="253"/>
+      <c r="K58" s="255"/>
+      <c r="L58" s="256"/>
+      <c r="M58" s="256"/>
+      <c r="N58" s="257"/>
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="137"/>
@@ -14004,10 +13205,10 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="128"/>
-      <c r="K59" s="251"/>
-      <c r="L59" s="252"/>
-      <c r="M59" s="252"/>
-      <c r="N59" s="253"/>
+      <c r="K59" s="255"/>
+      <c r="L59" s="256"/>
+      <c r="M59" s="256"/>
+      <c r="N59" s="257"/>
       <c r="O59" s="131"/>
       <c r="P59" s="131"/>
       <c r="Q59" s="137"/>
@@ -14029,10 +13230,10 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="128"/>
-      <c r="K60" s="251"/>
-      <c r="L60" s="252"/>
-      <c r="M60" s="252"/>
-      <c r="N60" s="253"/>
+      <c r="K60" s="255"/>
+      <c r="L60" s="256"/>
+      <c r="M60" s="256"/>
+      <c r="N60" s="257"/>
       <c r="O60" s="131"/>
       <c r="P60" s="131"/>
       <c r="Q60" s="137"/>
@@ -14054,10 +13255,10 @@
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="128"/>
-      <c r="K61" s="251"/>
-      <c r="L61" s="252"/>
-      <c r="M61" s="252"/>
-      <c r="N61" s="253"/>
+      <c r="K61" s="255"/>
+      <c r="L61" s="256"/>
+      <c r="M61" s="256"/>
+      <c r="N61" s="257"/>
       <c r="O61" s="131"/>
       <c r="P61" s="131"/>
       <c r="Q61" s="137"/>
@@ -14079,10 +13280,10 @@
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="128"/>
-      <c r="K62" s="251"/>
-      <c r="L62" s="252"/>
-      <c r="M62" s="252"/>
-      <c r="N62" s="253"/>
+      <c r="K62" s="255"/>
+      <c r="L62" s="256"/>
+      <c r="M62" s="256"/>
+      <c r="N62" s="257"/>
       <c r="O62" s="131"/>
       <c r="P62" s="131"/>
       <c r="Q62" s="137"/>
@@ -14104,10 +13305,10 @@
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="128"/>
-      <c r="K63" s="251"/>
-      <c r="L63" s="252"/>
-      <c r="M63" s="252"/>
-      <c r="N63" s="253"/>
+      <c r="K63" s="255"/>
+      <c r="L63" s="256"/>
+      <c r="M63" s="256"/>
+      <c r="N63" s="257"/>
       <c r="O63" s="131"/>
       <c r="P63" s="131"/>
       <c r="Q63" s="137"/>
@@ -14129,10 +13330,10 @@
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="128"/>
-      <c r="K64" s="251"/>
-      <c r="L64" s="252"/>
-      <c r="M64" s="252"/>
-      <c r="N64" s="253"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="256"/>
+      <c r="M64" s="256"/>
+      <c r="N64" s="257"/>
       <c r="O64" s="131"/>
       <c r="P64" s="131"/>
       <c r="Q64" s="137"/>
@@ -14152,10 +13353,10 @@
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
       <c r="J65" s="128"/>
-      <c r="K65" s="251"/>
-      <c r="L65" s="252"/>
-      <c r="M65" s="252"/>
-      <c r="N65" s="253"/>
+      <c r="K65" s="255"/>
+      <c r="L65" s="256"/>
+      <c r="M65" s="256"/>
+      <c r="N65" s="257"/>
       <c r="O65" s="131"/>
       <c r="P65" s="131"/>
       <c r="Q65" s="137"/>
@@ -14175,10 +13376,10 @@
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="251"/>
-      <c r="L66" s="252"/>
-      <c r="M66" s="252"/>
-      <c r="N66" s="253"/>
+      <c r="K66" s="255"/>
+      <c r="L66" s="256"/>
+      <c r="M66" s="256"/>
+      <c r="N66" s="257"/>
       <c r="O66" s="131"/>
       <c r="P66" s="131"/>
       <c r="Q66" s="137"/>
@@ -14198,10 +13399,10 @@
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="128"/>
-      <c r="K67" s="251"/>
-      <c r="L67" s="252"/>
-      <c r="M67" s="252"/>
-      <c r="N67" s="253"/>
+      <c r="K67" s="255"/>
+      <c r="L67" s="256"/>
+      <c r="M67" s="256"/>
+      <c r="N67" s="257"/>
       <c r="O67" s="131"/>
       <c r="P67" s="131"/>
       <c r="Q67" s="137"/>
@@ -14221,10 +13422,10 @@
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="128"/>
-      <c r="K68" s="251"/>
-      <c r="L68" s="252"/>
-      <c r="M68" s="252"/>
-      <c r="N68" s="253"/>
+      <c r="K68" s="255"/>
+      <c r="L68" s="256"/>
+      <c r="M68" s="256"/>
+      <c r="N68" s="257"/>
       <c r="O68" s="131"/>
       <c r="P68" s="131"/>
       <c r="Q68" s="137"/>
@@ -14244,10 +13445,10 @@
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
       <c r="J69" s="128"/>
-      <c r="K69" s="251"/>
-      <c r="L69" s="252"/>
-      <c r="M69" s="252"/>
-      <c r="N69" s="253"/>
+      <c r="K69" s="255"/>
+      <c r="L69" s="256"/>
+      <c r="M69" s="256"/>
+      <c r="N69" s="257"/>
       <c r="O69" s="131"/>
       <c r="P69" s="131"/>
       <c r="Q69" s="137"/>
@@ -14267,10 +13468,10 @@
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
       <c r="J70" s="128"/>
-      <c r="K70" s="251"/>
-      <c r="L70" s="252"/>
-      <c r="M70" s="252"/>
-      <c r="N70" s="253"/>
+      <c r="K70" s="255"/>
+      <c r="L70" s="256"/>
+      <c r="M70" s="256"/>
+      <c r="N70" s="257"/>
       <c r="O70" s="131"/>
       <c r="P70" s="131"/>
       <c r="Q70" s="137"/>
@@ -14290,10 +13491,10 @@
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="128"/>
-      <c r="K71" s="251"/>
-      <c r="L71" s="252"/>
-      <c r="M71" s="252"/>
-      <c r="N71" s="253"/>
+      <c r="K71" s="255"/>
+      <c r="L71" s="256"/>
+      <c r="M71" s="256"/>
+      <c r="N71" s="257"/>
       <c r="O71" s="131"/>
       <c r="P71" s="131"/>
       <c r="Q71" s="137"/>
@@ -14313,10 +13514,10 @@
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="128"/>
-      <c r="K72" s="251"/>
-      <c r="L72" s="252"/>
-      <c r="M72" s="252"/>
-      <c r="N72" s="253"/>
+      <c r="K72" s="255"/>
+      <c r="L72" s="256"/>
+      <c r="M72" s="256"/>
+      <c r="N72" s="257"/>
       <c r="O72" s="131"/>
       <c r="P72" s="131"/>
       <c r="Q72" s="137"/>
@@ -14336,10 +13537,10 @@
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="128"/>
-      <c r="K73" s="251"/>
-      <c r="L73" s="252"/>
-      <c r="M73" s="252"/>
-      <c r="N73" s="253"/>
+      <c r="K73" s="255"/>
+      <c r="L73" s="256"/>
+      <c r="M73" s="256"/>
+      <c r="N73" s="257"/>
       <c r="O73" s="131"/>
       <c r="P73" s="131"/>
       <c r="Q73" s="137"/>
@@ -14359,10 +13560,10 @@
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="128"/>
-      <c r="K74" s="251"/>
-      <c r="L74" s="252"/>
-      <c r="M74" s="252"/>
-      <c r="N74" s="253"/>
+      <c r="K74" s="255"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="256"/>
+      <c r="N74" s="257"/>
       <c r="O74" s="131"/>
       <c r="P74" s="131"/>
       <c r="Q74" s="137"/>
@@ -14382,10 +13583,10 @@
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="128"/>
-      <c r="K75" s="251"/>
-      <c r="L75" s="252"/>
-      <c r="M75" s="252"/>
-      <c r="N75" s="253"/>
+      <c r="K75" s="255"/>
+      <c r="L75" s="256"/>
+      <c r="M75" s="256"/>
+      <c r="N75" s="257"/>
       <c r="O75" s="131"/>
       <c r="P75" s="131"/>
       <c r="Q75" s="137"/>
@@ -14405,10 +13606,10 @@
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="128"/>
-      <c r="K76" s="251"/>
-      <c r="L76" s="252"/>
-      <c r="M76" s="252"/>
-      <c r="N76" s="253"/>
+      <c r="K76" s="255"/>
+      <c r="L76" s="256"/>
+      <c r="M76" s="256"/>
+      <c r="N76" s="257"/>
       <c r="O76" s="131"/>
       <c r="P76" s="131"/>
       <c r="Q76" s="137"/>
@@ -14428,10 +13629,10 @@
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="128"/>
-      <c r="K77" s="251"/>
-      <c r="L77" s="252"/>
-      <c r="M77" s="252"/>
-      <c r="N77" s="253"/>
+      <c r="K77" s="255"/>
+      <c r="L77" s="256"/>
+      <c r="M77" s="256"/>
+      <c r="N77" s="257"/>
       <c r="O77" s="131"/>
       <c r="P77" s="131"/>
       <c r="Q77" s="137"/>
@@ -14451,10 +13652,10 @@
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="128"/>
-      <c r="K78" s="251"/>
-      <c r="L78" s="252"/>
-      <c r="M78" s="252"/>
-      <c r="N78" s="253"/>
+      <c r="K78" s="255"/>
+      <c r="L78" s="256"/>
+      <c r="M78" s="256"/>
+      <c r="N78" s="257"/>
       <c r="O78" s="131"/>
       <c r="P78" s="131"/>
       <c r="Q78" s="137"/>
@@ -14474,10 +13675,10 @@
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="128"/>
-      <c r="K79" s="251"/>
-      <c r="L79" s="252"/>
-      <c r="M79" s="252"/>
-      <c r="N79" s="253"/>
+      <c r="K79" s="255"/>
+      <c r="L79" s="256"/>
+      <c r="M79" s="256"/>
+      <c r="N79" s="257"/>
       <c r="O79" s="131"/>
       <c r="P79" s="131"/>
       <c r="Q79" s="137"/>
@@ -14497,10 +13698,10 @@
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="128"/>
-      <c r="K80" s="251"/>
-      <c r="L80" s="252"/>
-      <c r="M80" s="252"/>
-      <c r="N80" s="253"/>
+      <c r="K80" s="255"/>
+      <c r="L80" s="256"/>
+      <c r="M80" s="256"/>
+      <c r="N80" s="257"/>
       <c r="O80" s="131"/>
       <c r="P80" s="131"/>
       <c r="Q80" s="137"/>
@@ -14520,10 +13721,10 @@
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="128"/>
-      <c r="K81" s="251"/>
-      <c r="L81" s="252"/>
-      <c r="M81" s="252"/>
-      <c r="N81" s="253"/>
+      <c r="K81" s="255"/>
+      <c r="L81" s="256"/>
+      <c r="M81" s="256"/>
+      <c r="N81" s="257"/>
       <c r="O81" s="131"/>
       <c r="P81" s="131"/>
       <c r="Q81" s="137"/>
@@ -14543,10 +13744,10 @@
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="128"/>
-      <c r="K82" s="251"/>
-      <c r="L82" s="252"/>
-      <c r="M82" s="252"/>
-      <c r="N82" s="253"/>
+      <c r="K82" s="255"/>
+      <c r="L82" s="256"/>
+      <c r="M82" s="256"/>
+      <c r="N82" s="257"/>
       <c r="O82" s="131"/>
       <c r="P82" s="131"/>
       <c r="Q82" s="137"/>
@@ -14566,10 +13767,10 @@
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="128"/>
-      <c r="K83" s="251"/>
-      <c r="L83" s="252"/>
-      <c r="M83" s="252"/>
-      <c r="N83" s="253"/>
+      <c r="K83" s="255"/>
+      <c r="L83" s="256"/>
+      <c r="M83" s="256"/>
+      <c r="N83" s="257"/>
       <c r="O83" s="131"/>
       <c r="P83" s="131"/>
       <c r="Q83" s="137"/>
@@ -14589,10 +13790,10 @@
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="128"/>
-      <c r="K84" s="251"/>
-      <c r="L84" s="252"/>
-      <c r="M84" s="252"/>
-      <c r="N84" s="253"/>
+      <c r="K84" s="255"/>
+      <c r="L84" s="256"/>
+      <c r="M84" s="256"/>
+      <c r="N84" s="257"/>
       <c r="O84" s="131"/>
       <c r="P84" s="131"/>
       <c r="Q84" s="137"/>
@@ -14612,10 +13813,10 @@
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="128"/>
-      <c r="K85" s="251"/>
-      <c r="L85" s="252"/>
-      <c r="M85" s="252"/>
-      <c r="N85" s="253"/>
+      <c r="K85" s="255"/>
+      <c r="L85" s="256"/>
+      <c r="M85" s="256"/>
+      <c r="N85" s="257"/>
       <c r="O85" s="131"/>
       <c r="P85" s="131"/>
       <c r="Q85" s="137"/>
@@ -14635,10 +13836,10 @@
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="128"/>
-      <c r="K86" s="251"/>
-      <c r="L86" s="252"/>
-      <c r="M86" s="252"/>
-      <c r="N86" s="253"/>
+      <c r="K86" s="255"/>
+      <c r="L86" s="256"/>
+      <c r="M86" s="256"/>
+      <c r="N86" s="257"/>
       <c r="O86" s="131"/>
       <c r="P86" s="131"/>
       <c r="Q86" s="137"/>
@@ -14658,10 +13859,10 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="128"/>
-      <c r="K87" s="251"/>
-      <c r="L87" s="252"/>
-      <c r="M87" s="252"/>
-      <c r="N87" s="253"/>
+      <c r="K87" s="255"/>
+      <c r="L87" s="256"/>
+      <c r="M87" s="256"/>
+      <c r="N87" s="257"/>
       <c r="O87" s="131"/>
       <c r="P87" s="131"/>
       <c r="Q87" s="137"/>
@@ -14681,10 +13882,10 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="128"/>
-      <c r="K88" s="251"/>
-      <c r="L88" s="252"/>
-      <c r="M88" s="252"/>
-      <c r="N88" s="253"/>
+      <c r="K88" s="255"/>
+      <c r="L88" s="256"/>
+      <c r="M88" s="256"/>
+      <c r="N88" s="257"/>
       <c r="O88" s="131"/>
       <c r="P88" s="131"/>
       <c r="Q88" s="137"/>
@@ -14704,10 +13905,10 @@
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
       <c r="J89" s="128"/>
-      <c r="K89" s="251"/>
-      <c r="L89" s="252"/>
-      <c r="M89" s="252"/>
-      <c r="N89" s="253"/>
+      <c r="K89" s="255"/>
+      <c r="L89" s="256"/>
+      <c r="M89" s="256"/>
+      <c r="N89" s="257"/>
       <c r="O89" s="131"/>
       <c r="P89" s="131"/>
       <c r="Q89" s="137"/>
@@ -14727,10 +13928,10 @@
       <c r="H90"